--- a/auxiliary/census-1920.xlsx
+++ b/auxiliary/census-1920.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\auxiliary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BCFE19-DECD-402F-8315-1E997232E83F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BB825D-EC0B-4C8D-9542-1664013E1894}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-150" yWindow="90" windowWidth="27750" windowHeight="22275" xr2:uid="{0ED4691F-BE7B-497E-88B1-9CCACC27BAC8}"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="31200" windowHeight="22275" activeTab="5" xr2:uid="{0ED4691F-BE7B-497E-88B1-9CCACC27BAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="заглавие" sheetId="1" r:id="rId1"/>
@@ -372,14 +372,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1012,12 +1012,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2000,7 +1997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597BE5F9-8276-4B9F-82D5-D6338C0F56B6}">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -9692,33 +9689,33 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="G3" s="37" t="s">
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="G3" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
       <c r="K3" s="31" t="s">
         <v>32</v>
       </c>
       <c r="L3" s="12"/>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
       <c r="Q3" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="S3" s="37" t="s">
+      <c r="S3" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
@@ -9803,7 +9800,7 @@
         <f>E5+I5</f>
         <v>740669</v>
       </c>
-      <c r="Q5" s="38">
+      <c r="Q5" s="36">
         <f>N5/O5</f>
         <v>1.02130641352615</v>
       </c>
@@ -9843,7 +9840,7 @@
         <f t="shared" ref="O6:O69" si="2">E6+I6</f>
         <v>761800</v>
       </c>
-      <c r="Q6" s="38">
+      <c r="Q6" s="36">
         <f t="shared" ref="Q6:Q69" si="3">N6/O6</f>
         <v>1.0073090049881859</v>
       </c>
@@ -9883,7 +9880,7 @@
         <f t="shared" si="2"/>
         <v>748471</v>
       </c>
-      <c r="Q7" s="38">
+      <c r="Q7" s="36">
         <f t="shared" si="3"/>
         <v>1.0116624424994423</v>
       </c>
@@ -9923,7 +9920,7 @@
         <f t="shared" si="2"/>
         <v>595847</v>
       </c>
-      <c r="Q8" s="38">
+      <c r="Q8" s="36">
         <f t="shared" si="3"/>
         <v>0.99041700302258806</v>
       </c>
@@ -9963,7 +9960,7 @@
         <f t="shared" si="2"/>
         <v>674553</v>
       </c>
-      <c r="Q9" s="38">
+      <c r="Q9" s="36">
         <f t="shared" si="3"/>
         <v>0.95887202339919919</v>
       </c>
@@ -10003,7 +10000,7 @@
         <f t="shared" si="2"/>
         <v>843374</v>
       </c>
-      <c r="Q10" s="38">
+      <c r="Q10" s="36">
         <f t="shared" si="3"/>
         <v>0.9965804020517588</v>
       </c>
@@ -10043,7 +10040,7 @@
         <f t="shared" si="2"/>
         <v>954601</v>
       </c>
-      <c r="Q11" s="38">
+      <c r="Q11" s="36">
         <f t="shared" si="3"/>
         <v>0.98354810020102634</v>
       </c>
@@ -10083,7 +10080,7 @@
         <f t="shared" si="2"/>
         <v>929898</v>
       </c>
-      <c r="Q12" s="38">
+      <c r="Q12" s="36">
         <f t="shared" si="3"/>
         <v>0.95185385924047583</v>
       </c>
@@ -10123,7 +10120,7 @@
         <f t="shared" si="2"/>
         <v>967519</v>
       </c>
-      <c r="Q13" s="38">
+      <c r="Q13" s="36">
         <f t="shared" si="3"/>
         <v>0.96628696697429195</v>
       </c>
@@ -10163,7 +10160,7 @@
         <f t="shared" si="2"/>
         <v>848450</v>
       </c>
-      <c r="Q14" s="38">
+      <c r="Q14" s="36">
         <f t="shared" si="3"/>
         <v>0.98418292179857392</v>
       </c>
@@ -10203,7 +10200,7 @@
         <f t="shared" si="2"/>
         <v>928464</v>
       </c>
-      <c r="Q15" s="38">
+      <c r="Q15" s="36">
         <f t="shared" si="3"/>
         <v>0.98068422685209122</v>
       </c>
@@ -10243,7 +10240,7 @@
         <f t="shared" si="2"/>
         <v>723063</v>
       </c>
-      <c r="Q16" s="38">
+      <c r="Q16" s="36">
         <f t="shared" si="3"/>
         <v>0.97661199646503827</v>
       </c>
@@ -10283,7 +10280,7 @@
         <f t="shared" si="2"/>
         <v>1006499</v>
       </c>
-      <c r="Q17" s="38">
+      <c r="Q17" s="36">
         <f t="shared" si="3"/>
         <v>0.95526572803351018</v>
       </c>
@@ -10323,7 +10320,7 @@
         <f t="shared" si="2"/>
         <v>844305</v>
       </c>
-      <c r="Q18" s="38">
+      <c r="Q18" s="36">
         <f t="shared" si="3"/>
         <v>0.9647414145362162</v>
       </c>
@@ -10363,7 +10360,7 @@
         <f t="shared" si="2"/>
         <v>787593</v>
       </c>
-      <c r="Q19" s="38">
+      <c r="Q19" s="36">
         <f t="shared" si="3"/>
         <v>0.92321922617392482</v>
       </c>
@@ -10406,7 +10403,7 @@
         <f t="shared" si="2"/>
         <v>777220</v>
       </c>
-      <c r="Q20" s="38">
+      <c r="Q20" s="36">
         <f t="shared" si="3"/>
         <v>0.86256143691618847</v>
       </c>
@@ -10418,7 +10415,7 @@
         <f>SUM(O20:O45)</f>
         <v>13252776</v>
       </c>
-      <c r="U20" s="39">
+      <c r="U20" s="37">
         <f>S20/T20</f>
         <v>0.79877521509455829</v>
       </c>
@@ -10461,7 +10458,7 @@
         <f t="shared" si="2"/>
         <v>810723</v>
       </c>
-      <c r="Q21" s="38">
+      <c r="Q21" s="36">
         <f t="shared" si="3"/>
         <v>0.88016375506800715</v>
       </c>
@@ -10504,7 +10501,7 @@
         <f t="shared" si="2"/>
         <v>726119</v>
       </c>
-      <c r="Q22" s="38">
+      <c r="Q22" s="36">
         <f t="shared" si="3"/>
         <v>0.83021928912478538</v>
       </c>
@@ -10547,7 +10544,7 @@
         <f t="shared" si="2"/>
         <v>677166</v>
       </c>
-      <c r="Q23" s="38">
+      <c r="Q23" s="36">
         <f t="shared" si="3"/>
         <v>0.76510929373299896</v>
       </c>
@@ -10590,7 +10587,7 @@
         <f t="shared" si="2"/>
         <v>576715</v>
       </c>
-      <c r="Q24" s="38">
+      <c r="Q24" s="36">
         <f t="shared" si="3"/>
         <v>0.85225978169459782</v>
       </c>
@@ -10633,7 +10630,7 @@
         <f t="shared" si="2"/>
         <v>812759</v>
       </c>
-      <c r="Q25" s="38">
+      <c r="Q25" s="36">
         <f t="shared" si="3"/>
         <v>0.63190933597782373</v>
       </c>
@@ -10676,7 +10673,7 @@
         <f t="shared" si="2"/>
         <v>375756</v>
       </c>
-      <c r="Q26" s="38">
+      <c r="Q26" s="36">
         <f t="shared" si="3"/>
         <v>0.90149192561130098</v>
       </c>
@@ -10719,7 +10716,7 @@
         <f t="shared" si="2"/>
         <v>579685</v>
       </c>
-      <c r="Q27" s="38">
+      <c r="Q27" s="36">
         <f t="shared" si="3"/>
         <v>0.72233368122342312</v>
       </c>
@@ -10762,7 +10759,7 @@
         <f t="shared" si="2"/>
         <v>539870</v>
       </c>
-      <c r="Q28" s="38">
+      <c r="Q28" s="36">
         <f t="shared" si="3"/>
         <v>0.79280752773815921</v>
       </c>
@@ -10805,7 +10802,7 @@
         <f t="shared" si="2"/>
         <v>427925</v>
       </c>
-      <c r="Q29" s="38">
+      <c r="Q29" s="36">
         <f t="shared" si="3"/>
         <v>0.87009405853829525</v>
       </c>
@@ -10848,7 +10845,7 @@
         <f t="shared" si="2"/>
         <v>703946</v>
       </c>
-      <c r="Q30" s="38">
+      <c r="Q30" s="36">
         <f t="shared" si="3"/>
         <v>0.61203132058424936</v>
       </c>
@@ -10891,7 +10888,7 @@
         <f t="shared" si="2"/>
         <v>431970</v>
       </c>
-      <c r="Q31" s="38">
+      <c r="Q31" s="36">
         <f t="shared" si="3"/>
         <v>0.83606963446535643</v>
       </c>
@@ -10934,7 +10931,7 @@
         <f t="shared" si="2"/>
         <v>473330</v>
       </c>
-      <c r="Q32" s="38">
+      <c r="Q32" s="36">
         <f t="shared" si="3"/>
         <v>0.79665349755984194</v>
       </c>
@@ -10977,7 +10974,7 @@
         <f t="shared" si="2"/>
         <v>479327</v>
       </c>
-      <c r="Q33" s="38">
+      <c r="Q33" s="36">
         <f t="shared" si="3"/>
         <v>0.79440757562165287</v>
       </c>
@@ -11020,7 +11017,7 @@
         <f t="shared" si="2"/>
         <v>271544</v>
       </c>
-      <c r="Q34" s="38">
+      <c r="Q34" s="36">
         <f t="shared" si="3"/>
         <v>1.0415549597855227</v>
       </c>
@@ -11063,7 +11060,7 @@
         <f t="shared" si="2"/>
         <v>772814</v>
       </c>
-      <c r="Q35" s="38">
+      <c r="Q35" s="36">
         <f t="shared" si="3"/>
         <v>0.5175488539286297</v>
       </c>
@@ -11106,7 +11103,7 @@
         <f t="shared" si="2"/>
         <v>179551</v>
       </c>
-      <c r="Q36" s="38">
+      <c r="Q36" s="36">
         <f t="shared" si="3"/>
         <v>1.1364904678893462</v>
       </c>
@@ -11149,7 +11146,7 @@
         <f t="shared" si="2"/>
         <v>372986</v>
       </c>
-      <c r="Q37" s="38">
+      <c r="Q37" s="36">
         <f t="shared" si="3"/>
         <v>0.9013769953832047</v>
       </c>
@@ -11192,7 +11189,7 @@
         <f t="shared" si="2"/>
         <v>367136</v>
       </c>
-      <c r="Q38" s="38">
+      <c r="Q38" s="36">
         <f t="shared" si="3"/>
         <v>0.93880741741480001</v>
       </c>
@@ -11235,7 +11232,7 @@
         <f t="shared" si="2"/>
         <v>274679</v>
       </c>
-      <c r="Q39" s="38">
+      <c r="Q39" s="36">
         <f t="shared" si="3"/>
         <v>1.0221676939263649</v>
       </c>
@@ -11278,7 +11275,7 @@
         <f t="shared" si="2"/>
         <v>635935</v>
       </c>
-      <c r="Q40" s="38">
+      <c r="Q40" s="36">
         <f t="shared" si="3"/>
         <v>0.62821829275004526</v>
       </c>
@@ -11321,7 +11318,7 @@
         <f t="shared" si="2"/>
         <v>338990</v>
       </c>
-      <c r="Q41" s="38">
+      <c r="Q41" s="36">
         <f t="shared" si="3"/>
         <v>0.95406649163692148</v>
       </c>
@@ -11364,7 +11361,7 @@
         <f t="shared" si="2"/>
         <v>360701</v>
       </c>
-      <c r="Q42" s="38">
+      <c r="Q42" s="36">
         <f t="shared" si="3"/>
         <v>0.94153051973795465</v>
       </c>
@@ -11407,7 +11404,7 @@
         <f t="shared" si="2"/>
         <v>393056</v>
       </c>
-      <c r="Q43" s="38">
+      <c r="Q43" s="36">
         <f t="shared" si="3"/>
         <v>0.9478776561100708</v>
       </c>
@@ -11450,7 +11447,7 @@
         <f t="shared" si="2"/>
         <v>236489</v>
       </c>
-      <c r="Q44" s="38">
+      <c r="Q44" s="36">
         <f t="shared" si="3"/>
         <v>1.2339685989623197</v>
       </c>
@@ -11493,7 +11490,7 @@
         <f t="shared" si="2"/>
         <v>656384</v>
       </c>
-      <c r="Q45" s="38">
+      <c r="Q45" s="36">
         <f t="shared" si="3"/>
         <v>0.59856120807332291</v>
       </c>
@@ -11536,7 +11533,7 @@
         <f t="shared" si="2"/>
         <v>181544</v>
       </c>
-      <c r="Q46" s="38">
+      <c r="Q46" s="36">
         <f t="shared" si="3"/>
         <v>1.1061615916802539</v>
       </c>
@@ -11579,7 +11576,7 @@
         <f t="shared" si="2"/>
         <v>319586</v>
       </c>
-      <c r="Q47" s="38">
+      <c r="Q47" s="36">
         <f t="shared" si="3"/>
         <v>0.95968221386418684</v>
       </c>
@@ -11622,7 +11619,7 @@
         <f t="shared" si="2"/>
         <v>263193</v>
       </c>
-      <c r="Q48" s="38">
+      <c r="Q48" s="36">
         <f t="shared" si="3"/>
         <v>1.070123445532366</v>
       </c>
@@ -11665,7 +11662,7 @@
         <f t="shared" si="2"/>
         <v>208704</v>
       </c>
-      <c r="Q49" s="38">
+      <c r="Q49" s="36">
         <f t="shared" si="3"/>
         <v>1.0834004139834406</v>
       </c>
@@ -11708,7 +11705,7 @@
         <f t="shared" si="2"/>
         <v>546751</v>
       </c>
-      <c r="Q50" s="38">
+      <c r="Q50" s="36">
         <f t="shared" si="3"/>
         <v>0.75954867938055892</v>
       </c>
@@ -11751,7 +11748,7 @@
         <f t="shared" si="2"/>
         <v>258831</v>
       </c>
-      <c r="Q51" s="38">
+      <c r="Q51" s="36">
         <f t="shared" si="3"/>
         <v>1.1163848225289861</v>
       </c>
@@ -11794,7 +11791,7 @@
         <f t="shared" si="2"/>
         <v>248164</v>
       </c>
-      <c r="Q52" s="38">
+      <c r="Q52" s="36">
         <f t="shared" si="3"/>
         <v>1.0606373204816171</v>
       </c>
@@ -11837,7 +11834,7 @@
         <f t="shared" si="2"/>
         <v>274681</v>
       </c>
-      <c r="Q53" s="38">
+      <c r="Q53" s="36">
         <f t="shared" si="3"/>
         <v>0.9650758516242478</v>
       </c>
@@ -11880,7 +11877,7 @@
         <f t="shared" si="2"/>
         <v>152966</v>
       </c>
-      <c r="Q54" s="38">
+      <c r="Q54" s="36">
         <f t="shared" si="3"/>
         <v>1.0971000091523606</v>
       </c>
@@ -11923,7 +11920,7 @@
         <f t="shared" si="2"/>
         <v>631526</v>
       </c>
-      <c r="Q55" s="38">
+      <c r="Q55" s="36">
         <f t="shared" si="3"/>
         <v>0.62225656584210309</v>
       </c>
@@ -11966,7 +11963,7 @@
         <f t="shared" si="2"/>
         <v>129165</v>
       </c>
-      <c r="Q56" s="38">
+      <c r="Q56" s="36">
         <f t="shared" si="3"/>
         <v>1.040933689466961</v>
       </c>
@@ -12009,7 +12006,7 @@
         <f t="shared" si="2"/>
         <v>214406</v>
       </c>
-      <c r="Q57" s="38">
+      <c r="Q57" s="36">
         <f t="shared" si="3"/>
         <v>0.91843138718132888</v>
       </c>
@@ -12052,7 +12049,7 @@
         <f t="shared" si="2"/>
         <v>177261</v>
       </c>
-      <c r="Q58" s="38">
+      <c r="Q58" s="36">
         <f t="shared" si="3"/>
         <v>0.90378142964329444</v>
       </c>
@@ -12095,7 +12092,7 @@
         <f t="shared" si="2"/>
         <v>151709</v>
       </c>
-      <c r="Q59" s="38">
+      <c r="Q59" s="36">
         <f t="shared" si="3"/>
         <v>0.85385310034342066</v>
       </c>
@@ -12138,7 +12135,7 @@
         <f t="shared" si="2"/>
         <v>480576</v>
       </c>
-      <c r="Q60" s="38">
+      <c r="Q60" s="36">
         <f t="shared" si="3"/>
         <v>0.7589646590757757</v>
       </c>
@@ -12181,7 +12178,7 @@
         <f t="shared" si="2"/>
         <v>231384</v>
       </c>
-      <c r="Q61" s="38">
+      <c r="Q61" s="36">
         <f t="shared" si="3"/>
         <v>0.94913736472703392</v>
       </c>
@@ -12224,7 +12221,7 @@
         <f t="shared" si="2"/>
         <v>187181</v>
       </c>
-      <c r="Q62" s="38">
+      <c r="Q62" s="36">
         <f t="shared" si="3"/>
         <v>0.94419946468925808</v>
       </c>
@@ -12267,7 +12264,7 @@
         <f t="shared" si="2"/>
         <v>185899</v>
       </c>
-      <c r="Q63" s="38">
+      <c r="Q63" s="36">
         <f t="shared" si="3"/>
         <v>0.85817137262707177</v>
       </c>
@@ -12310,7 +12307,7 @@
         <f t="shared" si="2"/>
         <v>96758</v>
       </c>
-      <c r="Q64" s="38">
+      <c r="Q64" s="36">
         <f t="shared" si="3"/>
         <v>0.98625643357655179</v>
       </c>
@@ -12353,7 +12350,7 @@
         <f t="shared" si="2"/>
         <v>601959</v>
       </c>
-      <c r="Q65" s="38">
+      <c r="Q65" s="36">
         <f t="shared" si="3"/>
         <v>0.66335763731416919</v>
       </c>
@@ -12396,7 +12393,7 @@
         <f t="shared" si="2"/>
         <v>77066</v>
       </c>
-      <c r="Q66" s="38">
+      <c r="Q66" s="36">
         <f t="shared" si="3"/>
         <v>1.0555770378636493</v>
       </c>
@@ -12439,7 +12436,7 @@
         <f t="shared" si="2"/>
         <v>145454</v>
       </c>
-      <c r="Q67" s="38">
+      <c r="Q67" s="36">
         <f t="shared" si="3"/>
         <v>0.92524853218199576</v>
       </c>
@@ -12482,7 +12479,7 @@
         <f t="shared" si="2"/>
         <v>130961</v>
       </c>
-      <c r="Q68" s="38">
+      <c r="Q68" s="36">
         <f t="shared" si="3"/>
         <v>0.89330487702445771</v>
       </c>
@@ -12525,7 +12522,7 @@
         <f t="shared" si="2"/>
         <v>88529</v>
       </c>
-      <c r="Q69" s="38">
+      <c r="Q69" s="36">
         <f t="shared" si="3"/>
         <v>0.85452337652068822</v>
       </c>
@@ -12568,8 +12565,8 @@
         <f t="shared" ref="O70:O106" si="6">E70+I70</f>
         <v>340250</v>
       </c>
-      <c r="Q70" s="38">
-        <f t="shared" ref="Q70:Q106" si="7">N70/O70</f>
+      <c r="Q70" s="36">
+        <f t="shared" ref="Q70:Q105" si="7">N70/O70</f>
         <v>0.71403703159441589</v>
       </c>
     </row>
@@ -12611,7 +12608,7 @@
         <f t="shared" si="6"/>
         <v>93305</v>
       </c>
-      <c r="Q71" s="38">
+      <c r="Q71" s="36">
         <f t="shared" si="7"/>
         <v>0.95851347730561065</v>
       </c>
@@ -12654,7 +12651,7 @@
         <f t="shared" si="6"/>
         <v>112907</v>
       </c>
-      <c r="Q72" s="38">
+      <c r="Q72" s="36">
         <f t="shared" si="7"/>
         <v>0.90485178066904626</v>
       </c>
@@ -12697,7 +12694,7 @@
         <f t="shared" si="6"/>
         <v>87192</v>
       </c>
-      <c r="Q73" s="38">
+      <c r="Q73" s="36">
         <f t="shared" si="7"/>
         <v>0.8387363519588954</v>
       </c>
@@ -12740,7 +12737,7 @@
         <f t="shared" si="6"/>
         <v>41860</v>
       </c>
-      <c r="Q74" s="38">
+      <c r="Q74" s="36">
         <f t="shared" si="7"/>
         <v>0.88669612995699953</v>
       </c>
@@ -12780,7 +12777,7 @@
         <f t="shared" si="6"/>
         <v>375196</v>
       </c>
-      <c r="Q75" s="38">
+      <c r="Q75" s="36">
         <f t="shared" si="7"/>
         <v>0.64140609174937901</v>
       </c>
@@ -12820,7 +12817,7 @@
         <f t="shared" si="6"/>
         <v>25608</v>
       </c>
-      <c r="Q76" s="38">
+      <c r="Q76" s="36">
         <f t="shared" si="7"/>
         <v>0.94466572945954386</v>
       </c>
@@ -12860,7 +12857,7 @@
         <f t="shared" si="6"/>
         <v>53422</v>
       </c>
-      <c r="Q77" s="38">
+      <c r="Q77" s="36">
         <f t="shared" si="7"/>
         <v>0.87847703193440907</v>
       </c>
@@ -12900,7 +12897,7 @@
         <f t="shared" si="6"/>
         <v>42321</v>
       </c>
-      <c r="Q78" s="38">
+      <c r="Q78" s="36">
         <f t="shared" si="7"/>
         <v>0.86491339996691952</v>
       </c>
@@ -12940,7 +12937,7 @@
         <f t="shared" si="6"/>
         <v>26159</v>
       </c>
-      <c r="Q79" s="38">
+      <c r="Q79" s="36">
         <f t="shared" si="7"/>
         <v>0.85370235865285371</v>
       </c>
@@ -12980,7 +12977,7 @@
         <f t="shared" si="6"/>
         <v>146772</v>
       </c>
-      <c r="Q80" s="38">
+      <c r="Q80" s="36">
         <f t="shared" si="7"/>
         <v>0.74748589649251906</v>
       </c>
@@ -13020,7 +13017,7 @@
         <f t="shared" si="6"/>
         <v>28250</v>
       </c>
-      <c r="Q81" s="38">
+      <c r="Q81" s="36">
         <f t="shared" si="7"/>
         <v>0.88569911504424781</v>
       </c>
@@ -13060,7 +13057,7 @@
         <f t="shared" si="6"/>
         <v>23173</v>
       </c>
-      <c r="Q82" s="38">
+      <c r="Q82" s="36">
         <f t="shared" si="7"/>
         <v>0.9457126828636776</v>
       </c>
@@ -13100,7 +13097,7 @@
         <f t="shared" si="6"/>
         <v>29912</v>
       </c>
-      <c r="Q83" s="38">
+      <c r="Q83" s="36">
         <f t="shared" si="7"/>
         <v>0.87102166354640276</v>
       </c>
@@ -13140,7 +13137,7 @@
         <f t="shared" si="6"/>
         <v>11824</v>
       </c>
-      <c r="Q84" s="38">
+      <c r="Q84" s="36">
         <f t="shared" si="7"/>
         <v>0.84396143437077131</v>
       </c>
@@ -13180,7 +13177,7 @@
         <f t="shared" si="6"/>
         <v>137698</v>
       </c>
-      <c r="Q85" s="38">
+      <c r="Q85" s="36">
         <f t="shared" si="7"/>
         <v>0.71603073392496619</v>
       </c>
@@ -13220,7 +13217,7 @@
         <f t="shared" si="6"/>
         <v>6562</v>
       </c>
-      <c r="Q86" s="38">
+      <c r="Q86" s="36">
         <f t="shared" si="7"/>
         <v>0.93142334654068881</v>
       </c>
@@ -13260,7 +13257,7 @@
         <f t="shared" si="6"/>
         <v>10918</v>
       </c>
-      <c r="Q87" s="38">
+      <c r="Q87" s="36">
         <f t="shared" si="7"/>
         <v>0.86847407950174027</v>
       </c>
@@ -13300,7 +13297,7 @@
         <f t="shared" si="6"/>
         <v>8175</v>
       </c>
-      <c r="Q88" s="38">
+      <c r="Q88" s="36">
         <f t="shared" si="7"/>
         <v>0.81467889908256885</v>
       </c>
@@ -13340,7 +13337,7 @@
         <f t="shared" si="6"/>
         <v>5902</v>
       </c>
-      <c r="Q89" s="38">
+      <c r="Q89" s="36">
         <f t="shared" si="7"/>
         <v>0.79278210776008129</v>
       </c>
@@ -13380,7 +13377,7 @@
         <f t="shared" si="6"/>
         <v>31817</v>
       </c>
-      <c r="Q90" s="38">
+      <c r="Q90" s="36">
         <f t="shared" si="7"/>
         <v>0.80843574189898482</v>
       </c>
@@ -13420,7 +13417,7 @@
         <f t="shared" si="6"/>
         <v>4761</v>
       </c>
-      <c r="Q91" s="38">
+      <c r="Q91" s="36">
         <f t="shared" si="7"/>
         <v>0.93467758874186091</v>
       </c>
@@ -13460,7 +13457,7 @@
         <f t="shared" si="6"/>
         <v>4737</v>
       </c>
-      <c r="Q92" s="38">
+      <c r="Q92" s="36">
         <f t="shared" si="7"/>
         <v>0.89001477728520162</v>
       </c>
@@ -13500,7 +13497,7 @@
         <f t="shared" si="6"/>
         <v>4110</v>
       </c>
-      <c r="Q93" s="38">
+      <c r="Q93" s="36">
         <f t="shared" si="7"/>
         <v>0.94622871046228707</v>
       </c>
@@ -13540,7 +13537,7 @@
         <f t="shared" si="6"/>
         <v>2522</v>
       </c>
-      <c r="Q94" s="38">
+      <c r="Q94" s="36">
         <f t="shared" si="7"/>
         <v>0.83227597145122922</v>
       </c>
@@ -13580,7 +13577,7 @@
         <f t="shared" si="6"/>
         <v>28714</v>
       </c>
-      <c r="Q95" s="38">
+      <c r="Q95" s="36">
         <f t="shared" si="7"/>
         <v>0.68698196001950274</v>
       </c>
@@ -13620,7 +13617,7 @@
         <f t="shared" si="6"/>
         <v>839</v>
       </c>
-      <c r="Q96" s="38">
+      <c r="Q96" s="36">
         <f t="shared" si="7"/>
         <v>0.78545887961859351</v>
       </c>
@@ -13660,7 +13657,7 @@
         <f t="shared" si="6"/>
         <v>1416</v>
       </c>
-      <c r="Q97" s="38">
+      <c r="Q97" s="36">
         <f t="shared" si="7"/>
         <v>0.75070621468926557</v>
       </c>
@@ -13700,7 +13697,7 @@
         <f t="shared" si="6"/>
         <v>1076</v>
       </c>
-      <c r="Q98" s="38">
+      <c r="Q98" s="36">
         <f t="shared" si="7"/>
         <v>0.81319702602230481</v>
       </c>
@@ -13740,7 +13737,7 @@
         <f t="shared" si="6"/>
         <v>711</v>
       </c>
-      <c r="Q99" s="38">
+      <c r="Q99" s="36">
         <f t="shared" si="7"/>
         <v>0.83825597749648384</v>
       </c>
@@ -13780,7 +13777,7 @@
         <f t="shared" si="6"/>
         <v>4598</v>
       </c>
-      <c r="Q100" s="38">
+      <c r="Q100" s="36">
         <f t="shared" si="7"/>
         <v>0.81274467159634622</v>
       </c>
@@ -13820,7 +13817,7 @@
         <f t="shared" si="6"/>
         <v>1095</v>
       </c>
-      <c r="Q101" s="38">
+      <c r="Q101" s="36">
         <f t="shared" si="7"/>
         <v>0.85388127853881279</v>
       </c>
@@ -13860,7 +13857,7 @@
         <f t="shared" si="6"/>
         <v>876</v>
       </c>
-      <c r="Q102" s="38">
+      <c r="Q102" s="36">
         <f t="shared" si="7"/>
         <v>0.82077625570776258</v>
       </c>
@@ -13900,7 +13897,7 @@
         <f t="shared" si="6"/>
         <v>1076</v>
       </c>
-      <c r="Q103" s="38">
+      <c r="Q103" s="36">
         <f t="shared" si="7"/>
         <v>0.75929368029739774</v>
       </c>
@@ -13940,7 +13937,7 @@
         <f t="shared" si="6"/>
         <v>602</v>
       </c>
-      <c r="Q104" s="38">
+      <c r="Q104" s="36">
         <f t="shared" si="7"/>
         <v>0.69102990033222589</v>
       </c>
@@ -13980,7 +13977,7 @@
         <f t="shared" si="6"/>
         <v>7086</v>
       </c>
-      <c r="Q105" s="38">
+      <c r="Q105" s="36">
         <f t="shared" si="7"/>
         <v>0.61318092012418857</v>
       </c>
@@ -15140,8 +15137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EAD33BA-98C4-49D0-A733-3F6F6614A8B2}">
   <dimension ref="A3:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S33" sqref="S33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/auxiliary/census-1920.xlsx
+++ b/auxiliary/census-1920.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\auxiliary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BB825D-EC0B-4C8D-9542-1664013E1894}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3257A4-551B-4B7B-885B-37F9FA19A842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="31200" windowHeight="22275" activeTab="5" xr2:uid="{0ED4691F-BE7B-497E-88B1-9CCACC27BAC8}"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="23355" windowHeight="22275" activeTab="6" xr2:uid="{0ED4691F-BE7B-497E-88B1-9CCACC27BAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="заглавие" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="городское" sheetId="3" r:id="rId3"/>
     <sheet name="армия" sheetId="4" r:id="rId4"/>
     <sheet name="всего" sheetId="5" r:id="rId5"/>
-    <sheet name="chart" sheetId="6" r:id="rId6"/>
+    <sheet name="chart-5" sheetId="6" r:id="rId6"/>
+    <sheet name="chart-1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="59">
   <si>
     <t>Перепись населения РСФСР 28 августа 1920 года</t>
   </si>
@@ -208,6 +209,12 @@
   <si>
     <t>Оставшиеся расхождения (незначительные по относительному объёму) сохранены неизменными.</t>
   </si>
+  <si>
+    <t>половозростная структура с шагом по 5 лет</t>
+  </si>
+  <si>
+    <t>половозростная структура с шагом по году</t>
+  </si>
 </sst>
 </file>
 
@@ -275,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -380,6 +387,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,6 +401,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF1F1F"/>
+      <color rgb="FF14A1D9"/>
+      <color rgb="FFE0361F"/>
+      <color rgb="FFEF3D2F"/>
       <color rgb="FFCC3300"/>
     </mruColors>
   </colors>
@@ -428,7 +445,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>chart!$C$3</c:f>
+              <c:f>'chart-5'!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -451,7 +468,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>chart!$A$4:$A$24</c:f>
+              <c:f>'chart-5'!$A$4:$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
@@ -522,7 +539,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>chart!$C$4:$C$24</c:f>
+              <c:f>'chart-5'!$C$4:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
@@ -603,7 +620,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>chart!$D$3</c:f>
+              <c:f>'chart-5'!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -626,7 +643,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>chart!$A$4:$A$24</c:f>
+              <c:f>'chart-5'!$A$4:$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
@@ -697,7 +714,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>chart!$D$4:$D$24</c:f>
+              <c:f>'chart-5'!$D$4:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
@@ -796,7 +813,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>chart!$B$3</c15:sqref>
+                          <c15:sqref>'chart-5'!$B$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -823,7 +840,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>chart!$A$4:$A$24</c15:sqref>
+                          <c15:sqref>'chart-5'!$A$4:$A$24</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -900,7 +917,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>chart!$B$4:$B$24</c15:sqref>
+                          <c15:sqref>'chart-5'!$B$4:$B$24</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1112,6 +1129,2178 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'chart-1'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>жен</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="EF3D2F"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="36"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="E0361F"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-8F2D-490E-9BBA-1B7201E4912E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'chart-1'!$A$4:$A$104</c:f>
+              <c:strCache>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'chart-1'!$C$4:$C$104</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>740669</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>761800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>748471</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>595847</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>674553</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>843374</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>954601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>929898</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>967519</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>848450</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>928464</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>723063</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1006499</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>844305</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>787593</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>777220</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>810723</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>726119</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>677166</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>576715</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>812759</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>375756</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>579685</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>539870</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>427925</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>703946</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>431970</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>473330</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>479327</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>271544</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>772814</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>179551</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>372986</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>367136</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>274679</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>635935</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>338990</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>360701</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>393056</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>236489</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>656384</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>181544</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>319586</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>263193</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>208704</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>546751</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>258831</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>248164</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>274681</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>152966</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>631526</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>129165</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>214406</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>177261</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>151709</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>480576</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>231384</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>187181</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>185899</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>96758</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>601959</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>77066</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>145454</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>130961</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>88529</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>340250</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>93305</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>112907</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>87192</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>41860</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>375196</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>25608</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>53422</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42321</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>26159</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>146772</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>28250</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>23173</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>29912</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>11824</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>137698</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6562</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>10918</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8175</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5902</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>31817</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4761</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4737</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4110</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2522</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>28714</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>839</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1416</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1076</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>711</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4598</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1095</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>876</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1076</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>602</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>7086</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8F2D-490E-9BBA-1B7201E4912E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'chart-1'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>муж</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="14A1D9"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'chart-1'!$A$4:$A$104</c:f>
+              <c:strCache>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'chart-1'!$D$4:$D$104</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>-756450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-767368</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-757200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-590137</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-646810</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-840490</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-938896</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-885127</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-934901</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-835030</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-910530</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-706152</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-961474</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-814536</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-727121</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-670400</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-713569</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-602838</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-518106</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-491511</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-513590</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-338741</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-418726</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-428013</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-372335</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-430837</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-361157</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-377080</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-380781</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-282828</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-399969</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-204058</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-336201</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-344670</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-280768</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-399506</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-323419</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-339611</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-372569</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-291820</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-392886</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-200817</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-306701</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-281649</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-226110</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-415284</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-288955</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-263212</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-265088</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-167819</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-392971.2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-134452.20000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-196917.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-160205.20000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-129537.2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-364740.2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-219615.2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-176736.2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-159533.20000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-95428.2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-399314.1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-81349.100000000006</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-134581.1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-116988.1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-75650.100000000006</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-242951.1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-89434.1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-102164.1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-73131.100000000006</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-37117.1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-240653</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-24191</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-46930</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-36604</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-22332</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-109710</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-25021</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-21915</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-26054</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-9979</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-98596</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-6112</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-9482</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-6660</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-4679</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-25722</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-4450</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-4216</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-3889</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-2099</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-19726</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-659</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-1063</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-875</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-596</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-3737</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-935</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-719</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-817</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-416</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-4345</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8F2D-490E-9BBA-1B7201E4912E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:overlap val="100"/>
+        <c:axId val="902310992"/>
+        <c:axId val="902312632"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'chart-1'!$B$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>муж-0</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'chart-1'!$A$4:$A$104</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="101"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>51</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>53</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>58</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>59</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>61</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>62</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>63</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>66</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>67</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>68</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>69</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>73</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>74</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>77</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>79</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>81</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>82</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>83</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>84</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>86</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>87</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>89</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>91</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>92</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>93</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>94</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>95</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>96</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>98</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>99</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>100+</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'chart-1'!$B$4:$B$104</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="101"/>
+                      <c:pt idx="0">
+                        <c:v>756450</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>767368</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>757200</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>590137</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>646810</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>840490</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>938896</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>885127</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>934901</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>835030</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>910530</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>706152</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>961474</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>814536</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>727121</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>670400</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>713569</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>602838</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>518106</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>491511</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>513590</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>338741</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>418726</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>428013</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>372335</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>430837</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>361157</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>377080</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>380781</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>282828</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>399969</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>204058</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>336201</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>344670</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>280768</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>399506</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>323419</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>339611</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>372569</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>291820</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>392886</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>200817</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>306701</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>281649</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>226110</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>415284</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>288955</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>263212</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>265088</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>167819</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>392971.2</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>134452.20000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>196917.2</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>160205.20000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>129537.2</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>364740.2</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>219615.2</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>176736.2</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>159533.20000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>95428.2</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>399314.1</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>81349.100000000006</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>134581.1</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>116988.1</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>75650.100000000006</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>242951.1</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>89434.1</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>102164.1</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>73131.100000000006</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>37117.1</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>240653</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>24191</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>46930</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>36604</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>22332</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>109710</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>25021</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>21915</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>26054</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>9979</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>98596</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>6112</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>9482</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>6660</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>4679</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>25722</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>4450</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>4216</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>3889</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>2099</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>19726</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>659</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>1063</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>875</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>596</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>3737</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>935</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>719</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>817</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>416</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>4345</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-8F2D-490E-9BBA-1B7201E4912E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="902310992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="902312632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="5"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="902312632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="902310992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1152,7 +3341,552 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1698,6 +4432,197 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8788BE61-6B69-443F-A41D-8EBBE3C1424A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0180A68B-7D8A-46DD-96E0-4BD79646FE5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4552950" y="771525"/>
+          <a:ext cx="733425" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="14A1D9"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Муж</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAA88006-86EE-4F11-A52D-D0319272EB63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7296150" y="800100"/>
+          <a:ext cx="714375" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF1F1F"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Жен</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9667,8 +12592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6C12F4-B0F0-43E5-BAB2-4C3AD6BE916F}">
   <dimension ref="A1:U171"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:O105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15135,17 +18060,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EAD33BA-98C4-49D0-A733-3F6F6614A8B2}">
-  <dimension ref="A3:D24"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>6</v>
@@ -15477,6 +18405,1556 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CB8E1E-8C4D-44E1-9586-4CEFDEF185C8}">
+  <dimension ref="A1:D104"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>756450</v>
+      </c>
+      <c r="C4" s="2">
+        <v>740669</v>
+      </c>
+      <c r="D4" s="2">
+        <f>0-B4</f>
+        <v>-756450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>767368</v>
+      </c>
+      <c r="C5" s="2">
+        <v>761800</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" ref="D5:D68" si="0">0-B5</f>
+        <v>-767368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>757200</v>
+      </c>
+      <c r="C6" s="2">
+        <v>748471</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>-757200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>590137</v>
+      </c>
+      <c r="C7" s="2">
+        <v>595847</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>-590137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <v>646810</v>
+      </c>
+      <c r="C8" s="2">
+        <v>674553</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>-646810</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2">
+        <v>840490</v>
+      </c>
+      <c r="C9" s="2">
+        <v>843374</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>-840490</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2">
+        <v>938896</v>
+      </c>
+      <c r="C10" s="2">
+        <v>954601</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>-938896</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2">
+        <v>885127</v>
+      </c>
+      <c r="C11" s="2">
+        <v>929898</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>-885127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2">
+        <v>934901</v>
+      </c>
+      <c r="C12" s="2">
+        <v>967519</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>-934901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2">
+        <v>835030</v>
+      </c>
+      <c r="C13" s="2">
+        <v>848450</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>-835030</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2">
+        <v>910530</v>
+      </c>
+      <c r="C14" s="2">
+        <v>928464</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>-910530</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2">
+        <v>706152</v>
+      </c>
+      <c r="C15" s="2">
+        <v>723063</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>-706152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2">
+        <v>961474</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1006499</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>-961474</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2">
+        <v>814536</v>
+      </c>
+      <c r="C17" s="2">
+        <v>844305</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>-814536</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2">
+        <v>727121</v>
+      </c>
+      <c r="C18" s="2">
+        <v>787593</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>-727121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2">
+        <v>670400</v>
+      </c>
+      <c r="C19" s="2">
+        <v>777220</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>-670400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2">
+        <v>713569</v>
+      </c>
+      <c r="C20" s="2">
+        <v>810723</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>-713569</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2">
+        <v>602838</v>
+      </c>
+      <c r="C21" s="2">
+        <v>726119</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="0"/>
+        <v>-602838</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2">
+        <v>518106</v>
+      </c>
+      <c r="C22" s="2">
+        <v>677166</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>-518106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2">
+        <v>491511</v>
+      </c>
+      <c r="C23" s="2">
+        <v>576715</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="0"/>
+        <v>-491511</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2">
+        <v>513590</v>
+      </c>
+      <c r="C24" s="2">
+        <v>812759</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="0"/>
+        <v>-513590</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2">
+        <v>338741</v>
+      </c>
+      <c r="C25" s="2">
+        <v>375756</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="0"/>
+        <v>-338741</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>22</v>
+      </c>
+      <c r="B26" s="2">
+        <v>418726</v>
+      </c>
+      <c r="C26" s="2">
+        <v>579685</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="0"/>
+        <v>-418726</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2">
+        <v>428013</v>
+      </c>
+      <c r="C27" s="2">
+        <v>539870</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="0"/>
+        <v>-428013</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>24</v>
+      </c>
+      <c r="B28" s="2">
+        <v>372335</v>
+      </c>
+      <c r="C28" s="2">
+        <v>427925</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="0"/>
+        <v>-372335</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>25</v>
+      </c>
+      <c r="B29" s="2">
+        <v>430837</v>
+      </c>
+      <c r="C29" s="2">
+        <v>703946</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="0"/>
+        <v>-430837</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <v>26</v>
+      </c>
+      <c r="B30" s="2">
+        <v>361157</v>
+      </c>
+      <c r="C30" s="2">
+        <v>431970</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="0"/>
+        <v>-361157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <v>27</v>
+      </c>
+      <c r="B31" s="2">
+        <v>377080</v>
+      </c>
+      <c r="C31" s="2">
+        <v>473330</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="0"/>
+        <v>-377080</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <v>28</v>
+      </c>
+      <c r="B32" s="2">
+        <v>380781</v>
+      </c>
+      <c r="C32" s="2">
+        <v>479327</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="0"/>
+        <v>-380781</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <v>29</v>
+      </c>
+      <c r="B33" s="2">
+        <v>282828</v>
+      </c>
+      <c r="C33" s="2">
+        <v>271544</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="0"/>
+        <v>-282828</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
+        <v>30</v>
+      </c>
+      <c r="B34" s="2">
+        <v>399969</v>
+      </c>
+      <c r="C34" s="2">
+        <v>772814</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="0"/>
+        <v>-399969</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
+        <v>31</v>
+      </c>
+      <c r="B35" s="2">
+        <v>204058</v>
+      </c>
+      <c r="C35" s="2">
+        <v>179551</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="0"/>
+        <v>-204058</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
+        <v>32</v>
+      </c>
+      <c r="B36" s="2">
+        <v>336201</v>
+      </c>
+      <c r="C36" s="2">
+        <v>372986</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="0"/>
+        <v>-336201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
+        <v>33</v>
+      </c>
+      <c r="B37" s="2">
+        <v>344670</v>
+      </c>
+      <c r="C37" s="2">
+        <v>367136</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="0"/>
+        <v>-344670</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
+        <v>34</v>
+      </c>
+      <c r="B38" s="2">
+        <v>280768</v>
+      </c>
+      <c r="C38" s="2">
+        <v>274679</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="0"/>
+        <v>-280768</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="12">
+        <v>35</v>
+      </c>
+      <c r="B39" s="2">
+        <v>399506</v>
+      </c>
+      <c r="C39" s="2">
+        <v>635935</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="0"/>
+        <v>-399506</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="13">
+        <v>36</v>
+      </c>
+      <c r="B40" s="2">
+        <v>323419</v>
+      </c>
+      <c r="C40" s="2">
+        <v>338990</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="0"/>
+        <v>-323419</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="13">
+        <v>37</v>
+      </c>
+      <c r="B41" s="2">
+        <v>339611</v>
+      </c>
+      <c r="C41" s="2">
+        <v>360701</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="0"/>
+        <v>-339611</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="13">
+        <v>38</v>
+      </c>
+      <c r="B42" s="2">
+        <v>372569</v>
+      </c>
+      <c r="C42" s="2">
+        <v>393056</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" si="0"/>
+        <v>-372569</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="13">
+        <v>39</v>
+      </c>
+      <c r="B43" s="2">
+        <v>291820</v>
+      </c>
+      <c r="C43" s="2">
+        <v>236489</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" si="0"/>
+        <v>-291820</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="13">
+        <v>40</v>
+      </c>
+      <c r="B44" s="2">
+        <v>392886</v>
+      </c>
+      <c r="C44" s="2">
+        <v>656384</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" si="0"/>
+        <v>-392886</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="13">
+        <v>41</v>
+      </c>
+      <c r="B45" s="2">
+        <v>200817</v>
+      </c>
+      <c r="C45" s="2">
+        <v>181544</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" si="0"/>
+        <v>-200817</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="13">
+        <v>42</v>
+      </c>
+      <c r="B46" s="2">
+        <v>306701</v>
+      </c>
+      <c r="C46" s="2">
+        <v>319586</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" si="0"/>
+        <v>-306701</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="13">
+        <v>43</v>
+      </c>
+      <c r="B47" s="2">
+        <v>281649</v>
+      </c>
+      <c r="C47" s="2">
+        <v>263193</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" si="0"/>
+        <v>-281649</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="13">
+        <v>44</v>
+      </c>
+      <c r="B48" s="2">
+        <v>226110</v>
+      </c>
+      <c r="C48" s="2">
+        <v>208704</v>
+      </c>
+      <c r="D48" s="2">
+        <f t="shared" si="0"/>
+        <v>-226110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="13">
+        <v>45</v>
+      </c>
+      <c r="B49" s="2">
+        <v>415284</v>
+      </c>
+      <c r="C49" s="2">
+        <v>546751</v>
+      </c>
+      <c r="D49" s="2">
+        <f t="shared" si="0"/>
+        <v>-415284</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="13">
+        <v>46</v>
+      </c>
+      <c r="B50" s="2">
+        <v>288955</v>
+      </c>
+      <c r="C50" s="2">
+        <v>258831</v>
+      </c>
+      <c r="D50" s="2">
+        <f t="shared" si="0"/>
+        <v>-288955</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="13">
+        <v>47</v>
+      </c>
+      <c r="B51" s="2">
+        <v>263212</v>
+      </c>
+      <c r="C51" s="2">
+        <v>248164</v>
+      </c>
+      <c r="D51" s="2">
+        <f t="shared" si="0"/>
+        <v>-263212</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="13">
+        <v>48</v>
+      </c>
+      <c r="B52" s="2">
+        <v>265088</v>
+      </c>
+      <c r="C52" s="2">
+        <v>274681</v>
+      </c>
+      <c r="D52" s="2">
+        <f t="shared" si="0"/>
+        <v>-265088</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="13">
+        <v>49</v>
+      </c>
+      <c r="B53" s="2">
+        <v>167819</v>
+      </c>
+      <c r="C53" s="2">
+        <v>152966</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" si="0"/>
+        <v>-167819</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="12">
+        <v>50</v>
+      </c>
+      <c r="B54" s="2">
+        <v>392971.2</v>
+      </c>
+      <c r="C54" s="2">
+        <v>631526</v>
+      </c>
+      <c r="D54" s="2">
+        <f t="shared" si="0"/>
+        <v>-392971.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="12">
+        <v>51</v>
+      </c>
+      <c r="B55" s="2">
+        <v>134452.20000000001</v>
+      </c>
+      <c r="C55" s="2">
+        <v>129165</v>
+      </c>
+      <c r="D55" s="2">
+        <f t="shared" si="0"/>
+        <v>-134452.20000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="12">
+        <v>52</v>
+      </c>
+      <c r="B56" s="2">
+        <v>196917.2</v>
+      </c>
+      <c r="C56" s="2">
+        <v>214406</v>
+      </c>
+      <c r="D56" s="2">
+        <f t="shared" si="0"/>
+        <v>-196917.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="12">
+        <v>53</v>
+      </c>
+      <c r="B57" s="2">
+        <v>160205.20000000001</v>
+      </c>
+      <c r="C57" s="2">
+        <v>177261</v>
+      </c>
+      <c r="D57" s="2">
+        <f t="shared" si="0"/>
+        <v>-160205.20000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="12">
+        <v>54</v>
+      </c>
+      <c r="B58" s="2">
+        <v>129537.2</v>
+      </c>
+      <c r="C58" s="2">
+        <v>151709</v>
+      </c>
+      <c r="D58" s="2">
+        <f t="shared" si="0"/>
+        <v>-129537.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="12">
+        <v>55</v>
+      </c>
+      <c r="B59" s="2">
+        <v>364740.2</v>
+      </c>
+      <c r="C59" s="2">
+        <v>480576</v>
+      </c>
+      <c r="D59" s="2">
+        <f t="shared" si="0"/>
+        <v>-364740.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="12">
+        <v>56</v>
+      </c>
+      <c r="B60" s="2">
+        <v>219615.2</v>
+      </c>
+      <c r="C60" s="2">
+        <v>231384</v>
+      </c>
+      <c r="D60" s="2">
+        <f t="shared" si="0"/>
+        <v>-219615.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="12">
+        <v>57</v>
+      </c>
+      <c r="B61" s="2">
+        <v>176736.2</v>
+      </c>
+      <c r="C61" s="2">
+        <v>187181</v>
+      </c>
+      <c r="D61" s="2">
+        <f t="shared" si="0"/>
+        <v>-176736.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="12">
+        <v>58</v>
+      </c>
+      <c r="B62" s="2">
+        <v>159533.20000000001</v>
+      </c>
+      <c r="C62" s="2">
+        <v>185899</v>
+      </c>
+      <c r="D62" s="2">
+        <f t="shared" si="0"/>
+        <v>-159533.20000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="12">
+        <v>59</v>
+      </c>
+      <c r="B63" s="2">
+        <v>95428.2</v>
+      </c>
+      <c r="C63" s="2">
+        <v>96758</v>
+      </c>
+      <c r="D63" s="2">
+        <f t="shared" si="0"/>
+        <v>-95428.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="12">
+        <v>60</v>
+      </c>
+      <c r="B64" s="2">
+        <v>399314.1</v>
+      </c>
+      <c r="C64" s="2">
+        <v>601959</v>
+      </c>
+      <c r="D64" s="2">
+        <f t="shared" si="0"/>
+        <v>-399314.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="13">
+        <v>61</v>
+      </c>
+      <c r="B65" s="2">
+        <v>81349.100000000006</v>
+      </c>
+      <c r="C65" s="2">
+        <v>77066</v>
+      </c>
+      <c r="D65" s="2">
+        <f t="shared" si="0"/>
+        <v>-81349.100000000006</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="13">
+        <v>62</v>
+      </c>
+      <c r="B66" s="2">
+        <v>134581.1</v>
+      </c>
+      <c r="C66" s="2">
+        <v>145454</v>
+      </c>
+      <c r="D66" s="2">
+        <f t="shared" si="0"/>
+        <v>-134581.1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="13">
+        <v>63</v>
+      </c>
+      <c r="B67" s="2">
+        <v>116988.1</v>
+      </c>
+      <c r="C67" s="2">
+        <v>130961</v>
+      </c>
+      <c r="D67" s="2">
+        <f t="shared" si="0"/>
+        <v>-116988.1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="13">
+        <v>64</v>
+      </c>
+      <c r="B68" s="2">
+        <v>75650.100000000006</v>
+      </c>
+      <c r="C68" s="2">
+        <v>88529</v>
+      </c>
+      <c r="D68" s="2">
+        <f t="shared" si="0"/>
+        <v>-75650.100000000006</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="13">
+        <v>65</v>
+      </c>
+      <c r="B69" s="2">
+        <v>242951.1</v>
+      </c>
+      <c r="C69" s="2">
+        <v>340250</v>
+      </c>
+      <c r="D69" s="2">
+        <f t="shared" ref="D69:D104" si="1">0-B69</f>
+        <v>-242951.1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="13">
+        <v>66</v>
+      </c>
+      <c r="B70" s="2">
+        <v>89434.1</v>
+      </c>
+      <c r="C70" s="2">
+        <v>93305</v>
+      </c>
+      <c r="D70" s="2">
+        <f t="shared" si="1"/>
+        <v>-89434.1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="13">
+        <v>67</v>
+      </c>
+      <c r="B71" s="2">
+        <v>102164.1</v>
+      </c>
+      <c r="C71" s="2">
+        <v>112907</v>
+      </c>
+      <c r="D71" s="2">
+        <f t="shared" si="1"/>
+        <v>-102164.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="13">
+        <v>68</v>
+      </c>
+      <c r="B72" s="2">
+        <v>73131.100000000006</v>
+      </c>
+      <c r="C72" s="2">
+        <v>87192</v>
+      </c>
+      <c r="D72" s="2">
+        <f t="shared" si="1"/>
+        <v>-73131.100000000006</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="13">
+        <v>69</v>
+      </c>
+      <c r="B73" s="2">
+        <v>37117.1</v>
+      </c>
+      <c r="C73" s="2">
+        <v>41860</v>
+      </c>
+      <c r="D73" s="2">
+        <f t="shared" si="1"/>
+        <v>-37117.1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="13">
+        <v>70</v>
+      </c>
+      <c r="B74" s="2">
+        <v>240653</v>
+      </c>
+      <c r="C74" s="2">
+        <v>375196</v>
+      </c>
+      <c r="D74" s="2">
+        <f t="shared" si="1"/>
+        <v>-240653</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="13">
+        <v>71</v>
+      </c>
+      <c r="B75" s="2">
+        <v>24191</v>
+      </c>
+      <c r="C75" s="2">
+        <v>25608</v>
+      </c>
+      <c r="D75" s="2">
+        <f t="shared" si="1"/>
+        <v>-24191</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="13">
+        <v>72</v>
+      </c>
+      <c r="B76" s="2">
+        <v>46930</v>
+      </c>
+      <c r="C76" s="2">
+        <v>53422</v>
+      </c>
+      <c r="D76" s="2">
+        <f t="shared" si="1"/>
+        <v>-46930</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="13">
+        <v>73</v>
+      </c>
+      <c r="B77" s="2">
+        <v>36604</v>
+      </c>
+      <c r="C77" s="2">
+        <v>42321</v>
+      </c>
+      <c r="D77" s="2">
+        <f t="shared" si="1"/>
+        <v>-36604</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="13">
+        <v>74</v>
+      </c>
+      <c r="B78" s="2">
+        <v>22332</v>
+      </c>
+      <c r="C78" s="2">
+        <v>26159</v>
+      </c>
+      <c r="D78" s="2">
+        <f t="shared" si="1"/>
+        <v>-22332</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="12">
+        <v>75</v>
+      </c>
+      <c r="B79" s="2">
+        <v>109710</v>
+      </c>
+      <c r="C79" s="2">
+        <v>146772</v>
+      </c>
+      <c r="D79" s="2">
+        <f t="shared" si="1"/>
+        <v>-109710</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="12">
+        <v>76</v>
+      </c>
+      <c r="B80" s="2">
+        <v>25021</v>
+      </c>
+      <c r="C80" s="2">
+        <v>28250</v>
+      </c>
+      <c r="D80" s="2">
+        <f t="shared" si="1"/>
+        <v>-25021</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="12">
+        <v>77</v>
+      </c>
+      <c r="B81" s="2">
+        <v>21915</v>
+      </c>
+      <c r="C81" s="2">
+        <v>23173</v>
+      </c>
+      <c r="D81" s="2">
+        <f t="shared" si="1"/>
+        <v>-21915</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="12">
+        <v>78</v>
+      </c>
+      <c r="B82" s="2">
+        <v>26054</v>
+      </c>
+      <c r="C82" s="2">
+        <v>29912</v>
+      </c>
+      <c r="D82" s="2">
+        <f t="shared" si="1"/>
+        <v>-26054</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="12">
+        <v>79</v>
+      </c>
+      <c r="B83" s="2">
+        <v>9979</v>
+      </c>
+      <c r="C83" s="2">
+        <v>11824</v>
+      </c>
+      <c r="D83" s="2">
+        <f t="shared" si="1"/>
+        <v>-9979</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="12">
+        <v>80</v>
+      </c>
+      <c r="B84" s="2">
+        <v>98596</v>
+      </c>
+      <c r="C84" s="2">
+        <v>137698</v>
+      </c>
+      <c r="D84" s="2">
+        <f t="shared" si="1"/>
+        <v>-98596</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="12">
+        <v>81</v>
+      </c>
+      <c r="B85" s="2">
+        <v>6112</v>
+      </c>
+      <c r="C85" s="2">
+        <v>6562</v>
+      </c>
+      <c r="D85" s="2">
+        <f t="shared" si="1"/>
+        <v>-6112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="12">
+        <v>82</v>
+      </c>
+      <c r="B86" s="2">
+        <v>9482</v>
+      </c>
+      <c r="C86" s="2">
+        <v>10918</v>
+      </c>
+      <c r="D86" s="2">
+        <f t="shared" si="1"/>
+        <v>-9482</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="12">
+        <v>83</v>
+      </c>
+      <c r="B87" s="2">
+        <v>6660</v>
+      </c>
+      <c r="C87" s="2">
+        <v>8175</v>
+      </c>
+      <c r="D87" s="2">
+        <f t="shared" si="1"/>
+        <v>-6660</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="12">
+        <v>84</v>
+      </c>
+      <c r="B88" s="2">
+        <v>4679</v>
+      </c>
+      <c r="C88" s="2">
+        <v>5902</v>
+      </c>
+      <c r="D88" s="2">
+        <f t="shared" si="1"/>
+        <v>-4679</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="12">
+        <v>85</v>
+      </c>
+      <c r="B89" s="2">
+        <v>25722</v>
+      </c>
+      <c r="C89" s="2">
+        <v>31817</v>
+      </c>
+      <c r="D89" s="2">
+        <f t="shared" si="1"/>
+        <v>-25722</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="13">
+        <v>86</v>
+      </c>
+      <c r="B90" s="2">
+        <v>4450</v>
+      </c>
+      <c r="C90" s="2">
+        <v>4761</v>
+      </c>
+      <c r="D90" s="2">
+        <f t="shared" si="1"/>
+        <v>-4450</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="13">
+        <v>87</v>
+      </c>
+      <c r="B91" s="2">
+        <v>4216</v>
+      </c>
+      <c r="C91" s="2">
+        <v>4737</v>
+      </c>
+      <c r="D91" s="2">
+        <f t="shared" si="1"/>
+        <v>-4216</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="13">
+        <v>88</v>
+      </c>
+      <c r="B92" s="2">
+        <v>3889</v>
+      </c>
+      <c r="C92" s="2">
+        <v>4110</v>
+      </c>
+      <c r="D92" s="2">
+        <f t="shared" si="1"/>
+        <v>-3889</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="13">
+        <v>89</v>
+      </c>
+      <c r="B93" s="2">
+        <v>2099</v>
+      </c>
+      <c r="C93" s="2">
+        <v>2522</v>
+      </c>
+      <c r="D93" s="2">
+        <f t="shared" si="1"/>
+        <v>-2099</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="13">
+        <v>90</v>
+      </c>
+      <c r="B94" s="2">
+        <v>19726</v>
+      </c>
+      <c r="C94" s="2">
+        <v>28714</v>
+      </c>
+      <c r="D94" s="2">
+        <f t="shared" si="1"/>
+        <v>-19726</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="13">
+        <v>91</v>
+      </c>
+      <c r="B95" s="2">
+        <v>659</v>
+      </c>
+      <c r="C95" s="2">
+        <v>839</v>
+      </c>
+      <c r="D95" s="2">
+        <f t="shared" si="1"/>
+        <v>-659</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="13">
+        <v>92</v>
+      </c>
+      <c r="B96" s="2">
+        <v>1063</v>
+      </c>
+      <c r="C96" s="2">
+        <v>1416</v>
+      </c>
+      <c r="D96" s="2">
+        <f t="shared" si="1"/>
+        <v>-1063</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="13">
+        <v>93</v>
+      </c>
+      <c r="B97" s="2">
+        <v>875</v>
+      </c>
+      <c r="C97" s="2">
+        <v>1076</v>
+      </c>
+      <c r="D97" s="2">
+        <f t="shared" si="1"/>
+        <v>-875</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="13">
+        <v>94</v>
+      </c>
+      <c r="B98" s="2">
+        <v>596</v>
+      </c>
+      <c r="C98" s="2">
+        <v>711</v>
+      </c>
+      <c r="D98" s="2">
+        <f t="shared" si="1"/>
+        <v>-596</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="13">
+        <v>95</v>
+      </c>
+      <c r="B99" s="2">
+        <v>3737</v>
+      </c>
+      <c r="C99" s="2">
+        <v>4598</v>
+      </c>
+      <c r="D99" s="2">
+        <f t="shared" si="1"/>
+        <v>-3737</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="13">
+        <v>96</v>
+      </c>
+      <c r="B100" s="2">
+        <v>935</v>
+      </c>
+      <c r="C100" s="2">
+        <v>1095</v>
+      </c>
+      <c r="D100" s="2">
+        <f t="shared" si="1"/>
+        <v>-935</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="13">
+        <v>97</v>
+      </c>
+      <c r="B101" s="2">
+        <v>719</v>
+      </c>
+      <c r="C101" s="2">
+        <v>876</v>
+      </c>
+      <c r="D101" s="2">
+        <f t="shared" si="1"/>
+        <v>-719</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="13">
+        <v>98</v>
+      </c>
+      <c r="B102" s="2">
+        <v>817</v>
+      </c>
+      <c r="C102" s="2">
+        <v>1076</v>
+      </c>
+      <c r="D102" s="2">
+        <f t="shared" si="1"/>
+        <v>-817</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="13">
+        <v>99</v>
+      </c>
+      <c r="B103" s="2">
+        <v>416</v>
+      </c>
+      <c r="C103" s="2">
+        <v>602</v>
+      </c>
+      <c r="D103" s="2">
+        <f t="shared" si="1"/>
+        <v>-416</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" s="2">
+        <v>4345</v>
+      </c>
+      <c r="C104" s="2">
+        <v>7086</v>
+      </c>
+      <c r="D104" s="2">
+        <f t="shared" si="1"/>
+        <v>-4345</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/auxiliary/census-1920.xlsx
+++ b/auxiliary/census-1920.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\auxiliary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3257A4-551B-4B7B-885B-37F9FA19A842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48733796-51C4-4965-A921-CFA13EFFF4DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="23355" windowHeight="22275" activeTab="6" xr2:uid="{0ED4691F-BE7B-497E-88B1-9CCACC27BAC8}"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="30060" windowHeight="23295" activeTab="4" xr2:uid="{0ED4691F-BE7B-497E-88B1-9CCACC27BAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="заглавие" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="61">
   <si>
     <t>Перепись населения РСФСР 28 августа 1920 года</t>
   </si>
@@ -215,6 +215,12 @@
   <si>
     <t>половозростная структура с шагом по году</t>
   </si>
+  <si>
+    <t>год</t>
+  </si>
+  <si>
+    <t>рождения</t>
+  </si>
 </sst>
 </file>
 
@@ -282,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -381,16 +387,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4395,16 +4404,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4923,7 +4932,7 @@
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8313,7 +8322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28CD61D9-FF96-4972-BCD1-C86FC932EC11}">
   <dimension ref="A1:AC128"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B126" sqref="B126:D126"/>
     </sheetView>
   </sheetViews>
@@ -12592,8 +12601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6C12F4-B0F0-43E5-BAB2-4C3AD6BE916F}">
   <dimension ref="A1:U171"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:O105"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12614,33 +12623,36 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="G3" s="39" t="s">
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="G3" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
       <c r="K3" s="31" t="s">
         <v>32</v>
       </c>
       <c r="L3" s="12"/>
-      <c r="M3" s="39" t="s">
+      <c r="M3" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="40" t="s">
+        <v>59</v>
+      </c>
       <c r="Q3" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="S3" s="39" t="s">
+      <c r="S3" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
@@ -12677,6 +12689,9 @@
       <c r="O4" s="31" t="s">
         <v>9</v>
       </c>
+      <c r="P4" s="40" t="s">
+        <v>60</v>
+      </c>
       <c r="Q4" s="32" t="s">
         <v>52</v>
       </c>
@@ -12725,6 +12740,9 @@
         <f>E5+I5</f>
         <v>740669</v>
       </c>
+      <c r="P5">
+        <v>1920</v>
+      </c>
       <c r="Q5" s="36">
         <f>N5/O5</f>
         <v>1.02130641352615</v>
@@ -12765,6 +12783,9 @@
         <f t="shared" ref="O6:O69" si="2">E6+I6</f>
         <v>761800</v>
       </c>
+      <c r="P6">
+        <v>1919</v>
+      </c>
       <c r="Q6" s="36">
         <f t="shared" ref="Q6:Q69" si="3">N6/O6</f>
         <v>1.0073090049881859</v>
@@ -12805,6 +12826,9 @@
         <f t="shared" si="2"/>
         <v>748471</v>
       </c>
+      <c r="P7">
+        <v>1918</v>
+      </c>
       <c r="Q7" s="36">
         <f t="shared" si="3"/>
         <v>1.0116624424994423</v>
@@ -12845,6 +12869,9 @@
         <f t="shared" si="2"/>
         <v>595847</v>
       </c>
+      <c r="P8">
+        <v>1917</v>
+      </c>
       <c r="Q8" s="36">
         <f t="shared" si="3"/>
         <v>0.99041700302258806</v>
@@ -12885,6 +12912,9 @@
         <f t="shared" si="2"/>
         <v>674553</v>
       </c>
+      <c r="P9">
+        <v>1916</v>
+      </c>
       <c r="Q9" s="36">
         <f t="shared" si="3"/>
         <v>0.95887202339919919</v>
@@ -12925,6 +12955,9 @@
         <f t="shared" si="2"/>
         <v>843374</v>
       </c>
+      <c r="P10">
+        <v>1915</v>
+      </c>
       <c r="Q10" s="36">
         <f t="shared" si="3"/>
         <v>0.9965804020517588</v>
@@ -12965,6 +12998,9 @@
         <f t="shared" si="2"/>
         <v>954601</v>
       </c>
+      <c r="P11">
+        <v>1914</v>
+      </c>
       <c r="Q11" s="36">
         <f t="shared" si="3"/>
         <v>0.98354810020102634</v>
@@ -13005,6 +13041,9 @@
         <f t="shared" si="2"/>
         <v>929898</v>
       </c>
+      <c r="P12">
+        <v>1913</v>
+      </c>
       <c r="Q12" s="36">
         <f t="shared" si="3"/>
         <v>0.95185385924047583</v>
@@ -17022,6 +17061,10 @@
         <f>SUM(O5:O9)</f>
         <v>3521340</v>
       </c>
+      <c r="Q111" s="36">
+        <f t="shared" ref="Q111:Q131" si="8">N111/O111</f>
+        <v>0.9990415580432449</v>
+      </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="35" t="s">
@@ -17067,8 +17110,12 @@
         <f>SUM(O10:O14)</f>
         <v>4543842</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q112" s="36">
+        <f t="shared" si="8"/>
+        <v>0.97592389876232488</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="35" t="s">
         <v>37</v>
       </c>
@@ -17112,8 +17159,12 @@
         <f>SUM(O15:O19)</f>
         <v>4289924</v>
       </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q113" s="36">
+        <f t="shared" si="8"/>
+        <v>0.9603463837587799</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="35" t="s">
         <v>17</v>
       </c>
@@ -17157,8 +17208,12 @@
         <f>SUM(O20:O24)</f>
         <v>3567943</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q114" s="36">
+        <f t="shared" si="8"/>
+        <v>0.83981834911600328</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="35" t="s">
         <v>18</v>
       </c>
@@ -17202,8 +17257,12 @@
         <f>SUM(O25:O29)</f>
         <v>2735995</v>
       </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q115" s="36">
+        <f t="shared" si="8"/>
+        <v>0.7570938543381841</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="35" t="s">
         <v>19</v>
       </c>
@@ -17247,8 +17306,12 @@
         <f>SUM(O30:O34)</f>
         <v>2360117</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q116" s="36">
+        <f t="shared" si="8"/>
+        <v>0.77652209615031798</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="35" t="s">
         <v>20</v>
       </c>
@@ -17292,8 +17355,12 @@
         <f>SUM(O35:O39)</f>
         <v>1967166</v>
       </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q117" s="36">
+        <f t="shared" si="8"/>
+        <v>0.79589927845438568</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="35" t="s">
         <v>21</v>
       </c>
@@ -17337,8 +17404,12 @@
         <f>SUM(O40:O44)</f>
         <v>1965171</v>
       </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q118" s="36">
+        <f t="shared" si="8"/>
+        <v>0.87876576643966353</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="35" t="s">
         <v>49</v>
       </c>
@@ -17382,8 +17453,12 @@
         <f>SUM(O45:O49)</f>
         <v>1629411</v>
       </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q119" s="36">
+        <f t="shared" si="8"/>
+        <v>0.86421596515550714</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="35" t="s">
         <v>48</v>
       </c>
@@ -17427,8 +17502,12 @@
         <f>SUM(O50:O54)</f>
         <v>1481393</v>
       </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q120" s="36">
+        <f t="shared" si="8"/>
+        <v>0.94529810792949609</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="35" t="s">
         <v>38</v>
       </c>
@@ -17472,8 +17551,12 @@
         <f>SUM(O55:O59)</f>
         <v>1304067</v>
       </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q121" s="36">
+        <f t="shared" si="8"/>
+        <v>0.77763105729997006</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="35" t="s">
         <v>39</v>
       </c>
@@ -17517,8 +17600,12 @@
         <f>SUM(O60:O64)</f>
         <v>1181798</v>
       </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q122" s="36">
+        <f t="shared" si="8"/>
+        <v>0.85975183576211844</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="35" t="s">
         <v>40</v>
       </c>
@@ -17562,8 +17649,12 @@
         <f>SUM(O65:O69)</f>
         <v>1043969</v>
       </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q123" s="36">
+        <f t="shared" si="8"/>
+        <v>0.77385679076677549</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" s="35" t="s">
         <v>41</v>
       </c>
@@ -17607,8 +17698,12 @@
         <f>SUM(O70:O74)</f>
         <v>675514</v>
       </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q124" s="36">
+        <f t="shared" si="8"/>
+        <v>0.80649327771149082</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="35" t="s">
         <v>42</v>
       </c>
@@ -17652,8 +17747,12 @@
         <f>SUM(O75:O79)</f>
         <v>522706</v>
       </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q125" s="36">
+        <f t="shared" si="8"/>
+        <v>0.70921320972018687</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="35" t="s">
         <v>43</v>
       </c>
@@ -17697,8 +17796,12 @@
         <f>SUM(O80:O84)</f>
         <v>239931</v>
       </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q126" s="36">
+        <f t="shared" si="8"/>
+        <v>0.80306004643001527</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="35" t="s">
         <v>44</v>
       </c>
@@ -17742,8 +17845,12 @@
         <f>SUM(O85:O89)</f>
         <v>169255</v>
       </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q127" s="36">
+        <f t="shared" si="8"/>
+        <v>0.7416560810611208</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="35" t="s">
         <v>45</v>
       </c>
@@ -17787,8 +17894,12 @@
         <f>SUM(O90:O94)</f>
         <v>47947</v>
       </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q128" s="36">
+        <f t="shared" si="8"/>
+        <v>0.84209648153169125</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" s="35" t="s">
         <v>46</v>
       </c>
@@ -17832,8 +17943,12 @@
         <f>SUM(O95:O99)</f>
         <v>32756</v>
       </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q129" s="36">
+        <f t="shared" si="8"/>
+        <v>0.69968860666748078</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" s="35" t="s">
         <v>47</v>
       </c>
@@ -17877,8 +17992,12 @@
         <f>SUM(O100:O104)</f>
         <v>8247</v>
       </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q130" s="36">
+        <f t="shared" si="8"/>
+        <v>0.80320116405965802</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" s="35" t="s">
         <v>10</v>
       </c>
@@ -17922,44 +18041,48 @@
         <f>O105</f>
         <v>7086</v>
       </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q131" s="36">
+        <f t="shared" si="8"/>
+        <v>0.61318092012418857</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" s="35"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="35"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" s="35"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" s="35"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" s="35"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" s="35"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" s="35"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" s="35"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" s="35"/>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" s="35"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" s="35"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" s="35"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" s="35"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
@@ -18414,7 +18537,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CB8E1E-8C4D-44E1-9586-4CEFDEF185C8}">
   <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -18424,13 +18549,13 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="39" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="18" t="s">

--- a/auxiliary/census-1920.xlsx
+++ b/auxiliary/census-1920.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\auxiliary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48733796-51C4-4965-A921-CFA13EFFF4DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96936ACF-920F-40F5-B34C-807B329214FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="30060" windowHeight="23295" activeTab="4" xr2:uid="{0ED4691F-BE7B-497E-88B1-9CCACC27BAC8}"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="30060" windowHeight="23295" activeTab="3" xr2:uid="{0ED4691F-BE7B-497E-88B1-9CCACC27BAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="заглавие" sheetId="1" r:id="rId1"/>
@@ -123,9 +123,6 @@
     <t>неуказ.</t>
   </si>
   <si>
-    <t>при условном равномерном распределении комбинированных возрастных групп по годам</t>
-  </si>
-  <si>
     <t>сельское</t>
   </si>
   <si>
@@ -139,9 +136,6 @@
   </si>
   <si>
     <t>совокупно</t>
-  </si>
-  <si>
-    <t>по возрастным группам</t>
   </si>
   <si>
     <t>0-4</t>
@@ -221,6 +215,12 @@
   <si>
     <t>рождения</t>
   </si>
+  <si>
+    <t>по 5-летним возрастным группам</t>
+  </si>
+  <si>
+    <t>при условном равномерном распределении комбинированных возрастных групп по годам:</t>
+  </si>
 </sst>
 </file>
 
@@ -288,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -367,9 +367,6 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4953,7 +4950,7 @@
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="29" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4963,7 +4960,7 @@
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="29" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4984,7 +4981,7 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -4998,7 +4995,7 @@
   <dimension ref="A1:AC128"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:D126"/>
+      <selection activeCell="K125" sqref="K125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8322,8 +8319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28CD61D9-FF96-4972-BCD1-C86FC932EC11}">
   <dimension ref="A1:AC128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B126" sqref="B126:D126"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11664,8 +11661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2944B57D-BD82-4FD4-9A4F-956597CB1191}">
   <dimension ref="A1:AE92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12108,8 +12105,8 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
-        <v>28</v>
+      <c r="A35" s="33" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -12594,6 +12591,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B73 B83" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -12601,8 +12602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6C12F4-B0F0-43E5-BAB2-4C3AD6BE916F}">
   <dimension ref="A1:U171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12619,90 +12620,90 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C3" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="G3" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="K3" s="30" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C3" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="G3" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="K3" s="31" t="s">
+      <c r="L3" s="12"/>
+      <c r="M3" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q3" s="32" t="s">
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q3" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q4" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="S4" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="S3" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="31" t="s">
+      <c r="T4" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="N4" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="O4" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="P4" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q4" s="32" t="s">
+      <c r="U4" s="31" t="s">
         <v>52</v>
-      </c>
-      <c r="S4" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="T4" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="U4" s="32" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -12743,7 +12744,7 @@
       <c r="P5">
         <v>1920</v>
       </c>
-      <c r="Q5" s="36">
+      <c r="Q5" s="35">
         <f>N5/O5</f>
         <v>1.02130641352615</v>
       </c>
@@ -12786,7 +12787,7 @@
       <c r="P6">
         <v>1919</v>
       </c>
-      <c r="Q6" s="36">
+      <c r="Q6" s="35">
         <f t="shared" ref="Q6:Q69" si="3">N6/O6</f>
         <v>1.0073090049881859</v>
       </c>
@@ -12829,7 +12830,7 @@
       <c r="P7">
         <v>1918</v>
       </c>
-      <c r="Q7" s="36">
+      <c r="Q7" s="35">
         <f t="shared" si="3"/>
         <v>1.0116624424994423</v>
       </c>
@@ -12872,7 +12873,7 @@
       <c r="P8">
         <v>1917</v>
       </c>
-      <c r="Q8" s="36">
+      <c r="Q8" s="35">
         <f t="shared" si="3"/>
         <v>0.99041700302258806</v>
       </c>
@@ -12915,7 +12916,7 @@
       <c r="P9">
         <v>1916</v>
       </c>
-      <c r="Q9" s="36">
+      <c r="Q9" s="35">
         <f t="shared" si="3"/>
         <v>0.95887202339919919</v>
       </c>
@@ -12958,7 +12959,7 @@
       <c r="P10">
         <v>1915</v>
       </c>
-      <c r="Q10" s="36">
+      <c r="Q10" s="35">
         <f t="shared" si="3"/>
         <v>0.9965804020517588</v>
       </c>
@@ -13001,7 +13002,7 @@
       <c r="P11">
         <v>1914</v>
       </c>
-      <c r="Q11" s="36">
+      <c r="Q11" s="35">
         <f t="shared" si="3"/>
         <v>0.98354810020102634</v>
       </c>
@@ -13044,7 +13045,7 @@
       <c r="P12">
         <v>1913</v>
       </c>
-      <c r="Q12" s="36">
+      <c r="Q12" s="35">
         <f t="shared" si="3"/>
         <v>0.95185385924047583</v>
       </c>
@@ -13084,7 +13085,7 @@
         <f t="shared" si="2"/>
         <v>967519</v>
       </c>
-      <c r="Q13" s="36">
+      <c r="Q13" s="35">
         <f t="shared" si="3"/>
         <v>0.96628696697429195</v>
       </c>
@@ -13124,7 +13125,7 @@
         <f t="shared" si="2"/>
         <v>848450</v>
       </c>
-      <c r="Q14" s="36">
+      <c r="Q14" s="35">
         <f t="shared" si="3"/>
         <v>0.98418292179857392</v>
       </c>
@@ -13164,7 +13165,7 @@
         <f t="shared" si="2"/>
         <v>928464</v>
       </c>
-      <c r="Q15" s="36">
+      <c r="Q15" s="35">
         <f t="shared" si="3"/>
         <v>0.98068422685209122</v>
       </c>
@@ -13204,7 +13205,7 @@
         <f t="shared" si="2"/>
         <v>723063</v>
       </c>
-      <c r="Q16" s="36">
+      <c r="Q16" s="35">
         <f t="shared" si="3"/>
         <v>0.97661199646503827</v>
       </c>
@@ -13244,7 +13245,7 @@
         <f t="shared" si="2"/>
         <v>1006499</v>
       </c>
-      <c r="Q17" s="36">
+      <c r="Q17" s="35">
         <f t="shared" si="3"/>
         <v>0.95526572803351018</v>
       </c>
@@ -13284,7 +13285,7 @@
         <f t="shared" si="2"/>
         <v>844305</v>
       </c>
-      <c r="Q18" s="36">
+      <c r="Q18" s="35">
         <f t="shared" si="3"/>
         <v>0.9647414145362162</v>
       </c>
@@ -13324,7 +13325,7 @@
         <f t="shared" si="2"/>
         <v>787593</v>
       </c>
-      <c r="Q19" s="36">
+      <c r="Q19" s="35">
         <f t="shared" si="3"/>
         <v>0.92321922617392482</v>
       </c>
@@ -13367,7 +13368,7 @@
         <f t="shared" si="2"/>
         <v>777220</v>
       </c>
-      <c r="Q20" s="36">
+      <c r="Q20" s="35">
         <f t="shared" si="3"/>
         <v>0.86256143691618847</v>
       </c>
@@ -13379,7 +13380,7 @@
         <f>SUM(O20:O45)</f>
         <v>13252776</v>
       </c>
-      <c r="U20" s="37">
+      <c r="U20" s="36">
         <f>S20/T20</f>
         <v>0.79877521509455829</v>
       </c>
@@ -13422,7 +13423,7 @@
         <f t="shared" si="2"/>
         <v>810723</v>
       </c>
-      <c r="Q21" s="36">
+      <c r="Q21" s="35">
         <f t="shared" si="3"/>
         <v>0.88016375506800715</v>
       </c>
@@ -13465,7 +13466,7 @@
         <f t="shared" si="2"/>
         <v>726119</v>
       </c>
-      <c r="Q22" s="36">
+      <c r="Q22" s="35">
         <f t="shared" si="3"/>
         <v>0.83021928912478538</v>
       </c>
@@ -13508,7 +13509,7 @@
         <f t="shared" si="2"/>
         <v>677166</v>
       </c>
-      <c r="Q23" s="36">
+      <c r="Q23" s="35">
         <f t="shared" si="3"/>
         <v>0.76510929373299896</v>
       </c>
@@ -13551,7 +13552,7 @@
         <f t="shared" si="2"/>
         <v>576715</v>
       </c>
-      <c r="Q24" s="36">
+      <c r="Q24" s="35">
         <f t="shared" si="3"/>
         <v>0.85225978169459782</v>
       </c>
@@ -13594,7 +13595,7 @@
         <f t="shared" si="2"/>
         <v>812759</v>
       </c>
-      <c r="Q25" s="36">
+      <c r="Q25" s="35">
         <f t="shared" si="3"/>
         <v>0.63190933597782373</v>
       </c>
@@ -13637,7 +13638,7 @@
         <f t="shared" si="2"/>
         <v>375756</v>
       </c>
-      <c r="Q26" s="36">
+      <c r="Q26" s="35">
         <f t="shared" si="3"/>
         <v>0.90149192561130098</v>
       </c>
@@ -13680,7 +13681,7 @@
         <f t="shared" si="2"/>
         <v>579685</v>
       </c>
-      <c r="Q27" s="36">
+      <c r="Q27" s="35">
         <f t="shared" si="3"/>
         <v>0.72233368122342312</v>
       </c>
@@ -13723,7 +13724,7 @@
         <f t="shared" si="2"/>
         <v>539870</v>
       </c>
-      <c r="Q28" s="36">
+      <c r="Q28" s="35">
         <f t="shared" si="3"/>
         <v>0.79280752773815921</v>
       </c>
@@ -13766,7 +13767,7 @@
         <f t="shared" si="2"/>
         <v>427925</v>
       </c>
-      <c r="Q29" s="36">
+      <c r="Q29" s="35">
         <f t="shared" si="3"/>
         <v>0.87009405853829525</v>
       </c>
@@ -13809,7 +13810,7 @@
         <f t="shared" si="2"/>
         <v>703946</v>
       </c>
-      <c r="Q30" s="36">
+      <c r="Q30" s="35">
         <f t="shared" si="3"/>
         <v>0.61203132058424936</v>
       </c>
@@ -13852,7 +13853,7 @@
         <f t="shared" si="2"/>
         <v>431970</v>
       </c>
-      <c r="Q31" s="36">
+      <c r="Q31" s="35">
         <f t="shared" si="3"/>
         <v>0.83606963446535643</v>
       </c>
@@ -13895,7 +13896,7 @@
         <f t="shared" si="2"/>
         <v>473330</v>
       </c>
-      <c r="Q32" s="36">
+      <c r="Q32" s="35">
         <f t="shared" si="3"/>
         <v>0.79665349755984194</v>
       </c>
@@ -13938,7 +13939,7 @@
         <f t="shared" si="2"/>
         <v>479327</v>
       </c>
-      <c r="Q33" s="36">
+      <c r="Q33" s="35">
         <f t="shared" si="3"/>
         <v>0.79440757562165287</v>
       </c>
@@ -13981,7 +13982,7 @@
         <f t="shared" si="2"/>
         <v>271544</v>
       </c>
-      <c r="Q34" s="36">
+      <c r="Q34" s="35">
         <f t="shared" si="3"/>
         <v>1.0415549597855227</v>
       </c>
@@ -14024,7 +14025,7 @@
         <f t="shared" si="2"/>
         <v>772814</v>
       </c>
-      <c r="Q35" s="36">
+      <c r="Q35" s="35">
         <f t="shared" si="3"/>
         <v>0.5175488539286297</v>
       </c>
@@ -14067,7 +14068,7 @@
         <f t="shared" si="2"/>
         <v>179551</v>
       </c>
-      <c r="Q36" s="36">
+      <c r="Q36" s="35">
         <f t="shared" si="3"/>
         <v>1.1364904678893462</v>
       </c>
@@ -14110,7 +14111,7 @@
         <f t="shared" si="2"/>
         <v>372986</v>
       </c>
-      <c r="Q37" s="36">
+      <c r="Q37" s="35">
         <f t="shared" si="3"/>
         <v>0.9013769953832047</v>
       </c>
@@ -14153,7 +14154,7 @@
         <f t="shared" si="2"/>
         <v>367136</v>
       </c>
-      <c r="Q38" s="36">
+      <c r="Q38" s="35">
         <f t="shared" si="3"/>
         <v>0.93880741741480001</v>
       </c>
@@ -14196,7 +14197,7 @@
         <f t="shared" si="2"/>
         <v>274679</v>
       </c>
-      <c r="Q39" s="36">
+      <c r="Q39" s="35">
         <f t="shared" si="3"/>
         <v>1.0221676939263649</v>
       </c>
@@ -14239,7 +14240,7 @@
         <f t="shared" si="2"/>
         <v>635935</v>
       </c>
-      <c r="Q40" s="36">
+      <c r="Q40" s="35">
         <f t="shared" si="3"/>
         <v>0.62821829275004526</v>
       </c>
@@ -14282,7 +14283,7 @@
         <f t="shared" si="2"/>
         <v>338990</v>
       </c>
-      <c r="Q41" s="36">
+      <c r="Q41" s="35">
         <f t="shared" si="3"/>
         <v>0.95406649163692148</v>
       </c>
@@ -14325,7 +14326,7 @@
         <f t="shared" si="2"/>
         <v>360701</v>
       </c>
-      <c r="Q42" s="36">
+      <c r="Q42" s="35">
         <f t="shared" si="3"/>
         <v>0.94153051973795465</v>
       </c>
@@ -14368,7 +14369,7 @@
         <f t="shared" si="2"/>
         <v>393056</v>
       </c>
-      <c r="Q43" s="36">
+      <c r="Q43" s="35">
         <f t="shared" si="3"/>
         <v>0.9478776561100708</v>
       </c>
@@ -14411,7 +14412,7 @@
         <f t="shared" si="2"/>
         <v>236489</v>
       </c>
-      <c r="Q44" s="36">
+      <c r="Q44" s="35">
         <f t="shared" si="3"/>
         <v>1.2339685989623197</v>
       </c>
@@ -14454,7 +14455,7 @@
         <f t="shared" si="2"/>
         <v>656384</v>
       </c>
-      <c r="Q45" s="36">
+      <c r="Q45" s="35">
         <f t="shared" si="3"/>
         <v>0.59856120807332291</v>
       </c>
@@ -14497,7 +14498,7 @@
         <f t="shared" si="2"/>
         <v>181544</v>
       </c>
-      <c r="Q46" s="36">
+      <c r="Q46" s="35">
         <f t="shared" si="3"/>
         <v>1.1061615916802539</v>
       </c>
@@ -14540,7 +14541,7 @@
         <f t="shared" si="2"/>
         <v>319586</v>
       </c>
-      <c r="Q47" s="36">
+      <c r="Q47" s="35">
         <f t="shared" si="3"/>
         <v>0.95968221386418684</v>
       </c>
@@ -14583,7 +14584,7 @@
         <f t="shared" si="2"/>
         <v>263193</v>
       </c>
-      <c r="Q48" s="36">
+      <c r="Q48" s="35">
         <f t="shared" si="3"/>
         <v>1.070123445532366</v>
       </c>
@@ -14626,7 +14627,7 @@
         <f t="shared" si="2"/>
         <v>208704</v>
       </c>
-      <c r="Q49" s="36">
+      <c r="Q49" s="35">
         <f t="shared" si="3"/>
         <v>1.0834004139834406</v>
       </c>
@@ -14669,7 +14670,7 @@
         <f t="shared" si="2"/>
         <v>546751</v>
       </c>
-      <c r="Q50" s="36">
+      <c r="Q50" s="35">
         <f t="shared" si="3"/>
         <v>0.75954867938055892</v>
       </c>
@@ -14712,7 +14713,7 @@
         <f t="shared" si="2"/>
         <v>258831</v>
       </c>
-      <c r="Q51" s="36">
+      <c r="Q51" s="35">
         <f t="shared" si="3"/>
         <v>1.1163848225289861</v>
       </c>
@@ -14755,7 +14756,7 @@
         <f t="shared" si="2"/>
         <v>248164</v>
       </c>
-      <c r="Q52" s="36">
+      <c r="Q52" s="35">
         <f t="shared" si="3"/>
         <v>1.0606373204816171</v>
       </c>
@@ -14798,7 +14799,7 @@
         <f t="shared" si="2"/>
         <v>274681</v>
       </c>
-      <c r="Q53" s="36">
+      <c r="Q53" s="35">
         <f t="shared" si="3"/>
         <v>0.9650758516242478</v>
       </c>
@@ -14841,7 +14842,7 @@
         <f t="shared" si="2"/>
         <v>152966</v>
       </c>
-      <c r="Q54" s="36">
+      <c r="Q54" s="35">
         <f t="shared" si="3"/>
         <v>1.0971000091523606</v>
       </c>
@@ -14884,7 +14885,7 @@
         <f t="shared" si="2"/>
         <v>631526</v>
       </c>
-      <c r="Q55" s="36">
+      <c r="Q55" s="35">
         <f t="shared" si="3"/>
         <v>0.62225656584210309</v>
       </c>
@@ -14927,7 +14928,7 @@
         <f t="shared" si="2"/>
         <v>129165</v>
       </c>
-      <c r="Q56" s="36">
+      <c r="Q56" s="35">
         <f t="shared" si="3"/>
         <v>1.040933689466961</v>
       </c>
@@ -14970,7 +14971,7 @@
         <f t="shared" si="2"/>
         <v>214406</v>
       </c>
-      <c r="Q57" s="36">
+      <c r="Q57" s="35">
         <f t="shared" si="3"/>
         <v>0.91843138718132888</v>
       </c>
@@ -15013,7 +15014,7 @@
         <f t="shared" si="2"/>
         <v>177261</v>
       </c>
-      <c r="Q58" s="36">
+      <c r="Q58" s="35">
         <f t="shared" si="3"/>
         <v>0.90378142964329444</v>
       </c>
@@ -15056,7 +15057,7 @@
         <f t="shared" si="2"/>
         <v>151709</v>
       </c>
-      <c r="Q59" s="36">
+      <c r="Q59" s="35">
         <f t="shared" si="3"/>
         <v>0.85385310034342066</v>
       </c>
@@ -15099,7 +15100,7 @@
         <f t="shared" si="2"/>
         <v>480576</v>
       </c>
-      <c r="Q60" s="36">
+      <c r="Q60" s="35">
         <f t="shared" si="3"/>
         <v>0.7589646590757757</v>
       </c>
@@ -15142,7 +15143,7 @@
         <f t="shared" si="2"/>
         <v>231384</v>
       </c>
-      <c r="Q61" s="36">
+      <c r="Q61" s="35">
         <f t="shared" si="3"/>
         <v>0.94913736472703392</v>
       </c>
@@ -15185,7 +15186,7 @@
         <f t="shared" si="2"/>
         <v>187181</v>
       </c>
-      <c r="Q62" s="36">
+      <c r="Q62" s="35">
         <f t="shared" si="3"/>
         <v>0.94419946468925808</v>
       </c>
@@ -15228,7 +15229,7 @@
         <f t="shared" si="2"/>
         <v>185899</v>
       </c>
-      <c r="Q63" s="36">
+      <c r="Q63" s="35">
         <f t="shared" si="3"/>
         <v>0.85817137262707177</v>
       </c>
@@ -15271,7 +15272,7 @@
         <f t="shared" si="2"/>
         <v>96758</v>
       </c>
-      <c r="Q64" s="36">
+      <c r="Q64" s="35">
         <f t="shared" si="3"/>
         <v>0.98625643357655179</v>
       </c>
@@ -15314,7 +15315,7 @@
         <f t="shared" si="2"/>
         <v>601959</v>
       </c>
-      <c r="Q65" s="36">
+      <c r="Q65" s="35">
         <f t="shared" si="3"/>
         <v>0.66335763731416919</v>
       </c>
@@ -15357,7 +15358,7 @@
         <f t="shared" si="2"/>
         <v>77066</v>
       </c>
-      <c r="Q66" s="36">
+      <c r="Q66" s="35">
         <f t="shared" si="3"/>
         <v>1.0555770378636493</v>
       </c>
@@ -15400,7 +15401,7 @@
         <f t="shared" si="2"/>
         <v>145454</v>
       </c>
-      <c r="Q67" s="36">
+      <c r="Q67" s="35">
         <f t="shared" si="3"/>
         <v>0.92524853218199576</v>
       </c>
@@ -15443,7 +15444,7 @@
         <f t="shared" si="2"/>
         <v>130961</v>
       </c>
-      <c r="Q68" s="36">
+      <c r="Q68" s="35">
         <f t="shared" si="3"/>
         <v>0.89330487702445771</v>
       </c>
@@ -15486,7 +15487,7 @@
         <f t="shared" si="2"/>
         <v>88529</v>
       </c>
-      <c r="Q69" s="36">
+      <c r="Q69" s="35">
         <f t="shared" si="3"/>
         <v>0.85452337652068822</v>
       </c>
@@ -15529,7 +15530,7 @@
         <f t="shared" ref="O70:O106" si="6">E70+I70</f>
         <v>340250</v>
       </c>
-      <c r="Q70" s="36">
+      <c r="Q70" s="35">
         <f t="shared" ref="Q70:Q105" si="7">N70/O70</f>
         <v>0.71403703159441589</v>
       </c>
@@ -15572,7 +15573,7 @@
         <f t="shared" si="6"/>
         <v>93305</v>
       </c>
-      <c r="Q71" s="36">
+      <c r="Q71" s="35">
         <f t="shared" si="7"/>
         <v>0.95851347730561065</v>
       </c>
@@ -15615,7 +15616,7 @@
         <f t="shared" si="6"/>
         <v>112907</v>
       </c>
-      <c r="Q72" s="36">
+      <c r="Q72" s="35">
         <f t="shared" si="7"/>
         <v>0.90485178066904626</v>
       </c>
@@ -15658,7 +15659,7 @@
         <f t="shared" si="6"/>
         <v>87192</v>
       </c>
-      <c r="Q73" s="36">
+      <c r="Q73" s="35">
         <f t="shared" si="7"/>
         <v>0.8387363519588954</v>
       </c>
@@ -15701,7 +15702,7 @@
         <f t="shared" si="6"/>
         <v>41860</v>
       </c>
-      <c r="Q74" s="36">
+      <c r="Q74" s="35">
         <f t="shared" si="7"/>
         <v>0.88669612995699953</v>
       </c>
@@ -15741,7 +15742,7 @@
         <f t="shared" si="6"/>
         <v>375196</v>
       </c>
-      <c r="Q75" s="36">
+      <c r="Q75" s="35">
         <f t="shared" si="7"/>
         <v>0.64140609174937901</v>
       </c>
@@ -15781,7 +15782,7 @@
         <f t="shared" si="6"/>
         <v>25608</v>
       </c>
-      <c r="Q76" s="36">
+      <c r="Q76" s="35">
         <f t="shared" si="7"/>
         <v>0.94466572945954386</v>
       </c>
@@ -15821,7 +15822,7 @@
         <f t="shared" si="6"/>
         <v>53422</v>
       </c>
-      <c r="Q77" s="36">
+      <c r="Q77" s="35">
         <f t="shared" si="7"/>
         <v>0.87847703193440907</v>
       </c>
@@ -15861,7 +15862,7 @@
         <f t="shared" si="6"/>
         <v>42321</v>
       </c>
-      <c r="Q78" s="36">
+      <c r="Q78" s="35">
         <f t="shared" si="7"/>
         <v>0.86491339996691952</v>
       </c>
@@ -15901,7 +15902,7 @@
         <f t="shared" si="6"/>
         <v>26159</v>
       </c>
-      <c r="Q79" s="36">
+      <c r="Q79" s="35">
         <f t="shared" si="7"/>
         <v>0.85370235865285371</v>
       </c>
@@ -15941,7 +15942,7 @@
         <f t="shared" si="6"/>
         <v>146772</v>
       </c>
-      <c r="Q80" s="36">
+      <c r="Q80" s="35">
         <f t="shared" si="7"/>
         <v>0.74748589649251906</v>
       </c>
@@ -15981,7 +15982,7 @@
         <f t="shared" si="6"/>
         <v>28250</v>
       </c>
-      <c r="Q81" s="36">
+      <c r="Q81" s="35">
         <f t="shared" si="7"/>
         <v>0.88569911504424781</v>
       </c>
@@ -16021,7 +16022,7 @@
         <f t="shared" si="6"/>
         <v>23173</v>
       </c>
-      <c r="Q82" s="36">
+      <c r="Q82" s="35">
         <f t="shared" si="7"/>
         <v>0.9457126828636776</v>
       </c>
@@ -16061,7 +16062,7 @@
         <f t="shared" si="6"/>
         <v>29912</v>
       </c>
-      <c r="Q83" s="36">
+      <c r="Q83" s="35">
         <f t="shared" si="7"/>
         <v>0.87102166354640276</v>
       </c>
@@ -16101,7 +16102,7 @@
         <f t="shared" si="6"/>
         <v>11824</v>
       </c>
-      <c r="Q84" s="36">
+      <c r="Q84" s="35">
         <f t="shared" si="7"/>
         <v>0.84396143437077131</v>
       </c>
@@ -16141,7 +16142,7 @@
         <f t="shared" si="6"/>
         <v>137698</v>
       </c>
-      <c r="Q85" s="36">
+      <c r="Q85" s="35">
         <f t="shared" si="7"/>
         <v>0.71603073392496619</v>
       </c>
@@ -16181,7 +16182,7 @@
         <f t="shared" si="6"/>
         <v>6562</v>
       </c>
-      <c r="Q86" s="36">
+      <c r="Q86" s="35">
         <f t="shared" si="7"/>
         <v>0.93142334654068881</v>
       </c>
@@ -16221,7 +16222,7 @@
         <f t="shared" si="6"/>
         <v>10918</v>
       </c>
-      <c r="Q87" s="36">
+      <c r="Q87" s="35">
         <f t="shared" si="7"/>
         <v>0.86847407950174027</v>
       </c>
@@ -16261,7 +16262,7 @@
         <f t="shared" si="6"/>
         <v>8175</v>
       </c>
-      <c r="Q88" s="36">
+      <c r="Q88" s="35">
         <f t="shared" si="7"/>
         <v>0.81467889908256885</v>
       </c>
@@ -16301,7 +16302,7 @@
         <f t="shared" si="6"/>
         <v>5902</v>
       </c>
-      <c r="Q89" s="36">
+      <c r="Q89" s="35">
         <f t="shared" si="7"/>
         <v>0.79278210776008129</v>
       </c>
@@ -16341,7 +16342,7 @@
         <f t="shared" si="6"/>
         <v>31817</v>
       </c>
-      <c r="Q90" s="36">
+      <c r="Q90" s="35">
         <f t="shared" si="7"/>
         <v>0.80843574189898482</v>
       </c>
@@ -16381,7 +16382,7 @@
         <f t="shared" si="6"/>
         <v>4761</v>
       </c>
-      <c r="Q91" s="36">
+      <c r="Q91" s="35">
         <f t="shared" si="7"/>
         <v>0.93467758874186091</v>
       </c>
@@ -16421,7 +16422,7 @@
         <f t="shared" si="6"/>
         <v>4737</v>
       </c>
-      <c r="Q92" s="36">
+      <c r="Q92" s="35">
         <f t="shared" si="7"/>
         <v>0.89001477728520162</v>
       </c>
@@ -16461,7 +16462,7 @@
         <f t="shared" si="6"/>
         <v>4110</v>
       </c>
-      <c r="Q93" s="36">
+      <c r="Q93" s="35">
         <f t="shared" si="7"/>
         <v>0.94622871046228707</v>
       </c>
@@ -16501,7 +16502,7 @@
         <f t="shared" si="6"/>
         <v>2522</v>
       </c>
-      <c r="Q94" s="36">
+      <c r="Q94" s="35">
         <f t="shared" si="7"/>
         <v>0.83227597145122922</v>
       </c>
@@ -16541,7 +16542,7 @@
         <f t="shared" si="6"/>
         <v>28714</v>
       </c>
-      <c r="Q95" s="36">
+      <c r="Q95" s="35">
         <f t="shared" si="7"/>
         <v>0.68698196001950274</v>
       </c>
@@ -16581,7 +16582,7 @@
         <f t="shared" si="6"/>
         <v>839</v>
       </c>
-      <c r="Q96" s="36">
+      <c r="Q96" s="35">
         <f t="shared" si="7"/>
         <v>0.78545887961859351</v>
       </c>
@@ -16621,7 +16622,7 @@
         <f t="shared" si="6"/>
         <v>1416</v>
       </c>
-      <c r="Q97" s="36">
+      <c r="Q97" s="35">
         <f t="shared" si="7"/>
         <v>0.75070621468926557</v>
       </c>
@@ -16661,7 +16662,7 @@
         <f t="shared" si="6"/>
         <v>1076</v>
       </c>
-      <c r="Q98" s="36">
+      <c r="Q98" s="35">
         <f t="shared" si="7"/>
         <v>0.81319702602230481</v>
       </c>
@@ -16701,7 +16702,7 @@
         <f t="shared" si="6"/>
         <v>711</v>
       </c>
-      <c r="Q99" s="36">
+      <c r="Q99" s="35">
         <f t="shared" si="7"/>
         <v>0.83825597749648384</v>
       </c>
@@ -16741,7 +16742,7 @@
         <f t="shared" si="6"/>
         <v>4598</v>
       </c>
-      <c r="Q100" s="36">
+      <c r="Q100" s="35">
         <f t="shared" si="7"/>
         <v>0.81274467159634622</v>
       </c>
@@ -16781,7 +16782,7 @@
         <f t="shared" si="6"/>
         <v>1095</v>
       </c>
-      <c r="Q101" s="36">
+      <c r="Q101" s="35">
         <f t="shared" si="7"/>
         <v>0.85388127853881279</v>
       </c>
@@ -16821,7 +16822,7 @@
         <f t="shared" si="6"/>
         <v>876</v>
       </c>
-      <c r="Q102" s="36">
+      <c r="Q102" s="35">
         <f t="shared" si="7"/>
         <v>0.82077625570776258</v>
       </c>
@@ -16861,7 +16862,7 @@
         <f t="shared" si="6"/>
         <v>1076</v>
       </c>
-      <c r="Q103" s="36">
+      <c r="Q103" s="35">
         <f t="shared" si="7"/>
         <v>0.75929368029739774</v>
       </c>
@@ -16901,7 +16902,7 @@
         <f t="shared" si="6"/>
         <v>602</v>
       </c>
-      <c r="Q104" s="36">
+      <c r="Q104" s="35">
         <f t="shared" si="7"/>
         <v>0.69102990033222589</v>
       </c>
@@ -16941,7 +16942,7 @@
         <f t="shared" si="6"/>
         <v>7086</v>
       </c>
-      <c r="Q105" s="36">
+      <c r="Q105" s="35">
         <f t="shared" si="7"/>
         <v>0.61318092012418857</v>
       </c>
@@ -17013,13 +17014,13 @@
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A109" s="34" t="s">
-        <v>34</v>
+      <c r="A109" s="33" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A111" s="35" t="s">
-        <v>35</v>
+      <c r="A111" s="34" t="s">
+        <v>33</v>
       </c>
       <c r="C111" s="2">
         <f>SUM(C5:C9)</f>
@@ -17061,14 +17062,14 @@
         <f>SUM(O5:O9)</f>
         <v>3521340</v>
       </c>
-      <c r="Q111" s="36">
+      <c r="Q111" s="35">
         <f t="shared" ref="Q111:Q131" si="8">N111/O111</f>
         <v>0.9990415580432449</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A112" s="35" t="s">
-        <v>36</v>
+      <c r="A112" s="34" t="s">
+        <v>34</v>
       </c>
       <c r="C112" s="2">
         <f>SUM(C10:C14)</f>
@@ -17110,14 +17111,14 @@
         <f>SUM(O10:O14)</f>
         <v>4543842</v>
       </c>
-      <c r="Q112" s="36">
+      <c r="Q112" s="35">
         <f t="shared" si="8"/>
         <v>0.97592389876232488</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A113" s="35" t="s">
-        <v>37</v>
+      <c r="A113" s="34" t="s">
+        <v>35</v>
       </c>
       <c r="C113" s="2">
         <f>SUM(C15:C19)</f>
@@ -17159,13 +17160,13 @@
         <f>SUM(O15:O19)</f>
         <v>4289924</v>
       </c>
-      <c r="Q113" s="36">
+      <c r="Q113" s="35">
         <f t="shared" si="8"/>
         <v>0.9603463837587799</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A114" s="35" t="s">
+      <c r="A114" s="34" t="s">
         <v>17</v>
       </c>
       <c r="C114" s="2">
@@ -17208,13 +17209,13 @@
         <f>SUM(O20:O24)</f>
         <v>3567943</v>
       </c>
-      <c r="Q114" s="36">
+      <c r="Q114" s="35">
         <f t="shared" si="8"/>
         <v>0.83981834911600328</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A115" s="35" t="s">
+      <c r="A115" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C115" s="2">
@@ -17257,13 +17258,13 @@
         <f>SUM(O25:O29)</f>
         <v>2735995</v>
       </c>
-      <c r="Q115" s="36">
+      <c r="Q115" s="35">
         <f t="shared" si="8"/>
         <v>0.7570938543381841</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A116" s="35" t="s">
+      <c r="A116" s="34" t="s">
         <v>19</v>
       </c>
       <c r="C116" s="2">
@@ -17306,13 +17307,13 @@
         <f>SUM(O30:O34)</f>
         <v>2360117</v>
       </c>
-      <c r="Q116" s="36">
+      <c r="Q116" s="35">
         <f t="shared" si="8"/>
         <v>0.77652209615031798</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A117" s="35" t="s">
+      <c r="A117" s="34" t="s">
         <v>20</v>
       </c>
       <c r="C117" s="2">
@@ -17355,13 +17356,13 @@
         <f>SUM(O35:O39)</f>
         <v>1967166</v>
       </c>
-      <c r="Q117" s="36">
+      <c r="Q117" s="35">
         <f t="shared" si="8"/>
         <v>0.79589927845438568</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A118" s="35" t="s">
+      <c r="A118" s="34" t="s">
         <v>21</v>
       </c>
       <c r="C118" s="2">
@@ -17404,14 +17405,14 @@
         <f>SUM(O40:O44)</f>
         <v>1965171</v>
       </c>
-      <c r="Q118" s="36">
+      <c r="Q118" s="35">
         <f t="shared" si="8"/>
         <v>0.87876576643966353</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A119" s="35" t="s">
-        <v>49</v>
+      <c r="A119" s="34" t="s">
+        <v>47</v>
       </c>
       <c r="C119" s="2">
         <f>SUM(C45:C49)</f>
@@ -17453,14 +17454,14 @@
         <f>SUM(O45:O49)</f>
         <v>1629411</v>
       </c>
-      <c r="Q119" s="36">
+      <c r="Q119" s="35">
         <f t="shared" si="8"/>
         <v>0.86421596515550714</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A120" s="35" t="s">
-        <v>48</v>
+      <c r="A120" s="34" t="s">
+        <v>46</v>
       </c>
       <c r="C120" s="2">
         <f>SUM(C50:C54)</f>
@@ -17502,14 +17503,14 @@
         <f>SUM(O50:O54)</f>
         <v>1481393</v>
       </c>
-      <c r="Q120" s="36">
+      <c r="Q120" s="35">
         <f t="shared" si="8"/>
         <v>0.94529810792949609</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A121" s="35" t="s">
-        <v>38</v>
+      <c r="A121" s="34" t="s">
+        <v>36</v>
       </c>
       <c r="C121" s="2">
         <f>SUM(C55:C59)</f>
@@ -17551,14 +17552,14 @@
         <f>SUM(O55:O59)</f>
         <v>1304067</v>
       </c>
-      <c r="Q121" s="36">
+      <c r="Q121" s="35">
         <f t="shared" si="8"/>
         <v>0.77763105729997006</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A122" s="35" t="s">
-        <v>39</v>
+      <c r="A122" s="34" t="s">
+        <v>37</v>
       </c>
       <c r="C122" s="2">
         <f>SUM(C60:C64)</f>
@@ -17600,14 +17601,14 @@
         <f>SUM(O60:O64)</f>
         <v>1181798</v>
       </c>
-      <c r="Q122" s="36">
+      <c r="Q122" s="35">
         <f t="shared" si="8"/>
         <v>0.85975183576211844</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A123" s="35" t="s">
-        <v>40</v>
+      <c r="A123" s="34" t="s">
+        <v>38</v>
       </c>
       <c r="C123" s="2">
         <f>SUM(C65:C69)</f>
@@ -17649,14 +17650,14 @@
         <f>SUM(O65:O69)</f>
         <v>1043969</v>
       </c>
-      <c r="Q123" s="36">
+      <c r="Q123" s="35">
         <f t="shared" si="8"/>
         <v>0.77385679076677549</v>
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A124" s="35" t="s">
-        <v>41</v>
+      <c r="A124" s="34" t="s">
+        <v>39</v>
       </c>
       <c r="C124" s="2">
         <f>SUM(C70:C74)</f>
@@ -17698,14 +17699,14 @@
         <f>SUM(O70:O74)</f>
         <v>675514</v>
       </c>
-      <c r="Q124" s="36">
+      <c r="Q124" s="35">
         <f t="shared" si="8"/>
         <v>0.80649327771149082</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A125" s="35" t="s">
-        <v>42</v>
+      <c r="A125" s="34" t="s">
+        <v>40</v>
       </c>
       <c r="C125" s="2">
         <f>SUM(C75:C79)</f>
@@ -17747,14 +17748,14 @@
         <f>SUM(O75:O79)</f>
         <v>522706</v>
       </c>
-      <c r="Q125" s="36">
+      <c r="Q125" s="35">
         <f t="shared" si="8"/>
         <v>0.70921320972018687</v>
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A126" s="35" t="s">
-        <v>43</v>
+      <c r="A126" s="34" t="s">
+        <v>41</v>
       </c>
       <c r="C126" s="2">
         <f>SUM(C80:C84)</f>
@@ -17796,14 +17797,14 @@
         <f>SUM(O80:O84)</f>
         <v>239931</v>
       </c>
-      <c r="Q126" s="36">
+      <c r="Q126" s="35">
         <f t="shared" si="8"/>
         <v>0.80306004643001527</v>
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A127" s="35" t="s">
-        <v>44</v>
+      <c r="A127" s="34" t="s">
+        <v>42</v>
       </c>
       <c r="C127" s="2">
         <f>SUM(C85:C89)</f>
@@ -17845,14 +17846,14 @@
         <f>SUM(O85:O89)</f>
         <v>169255</v>
       </c>
-      <c r="Q127" s="36">
+      <c r="Q127" s="35">
         <f t="shared" si="8"/>
         <v>0.7416560810611208</v>
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A128" s="35" t="s">
-        <v>45</v>
+      <c r="A128" s="34" t="s">
+        <v>43</v>
       </c>
       <c r="C128" s="2">
         <f>SUM(C90:C94)</f>
@@ -17894,14 +17895,14 @@
         <f>SUM(O90:O94)</f>
         <v>47947</v>
       </c>
-      <c r="Q128" s="36">
+      <c r="Q128" s="35">
         <f t="shared" si="8"/>
         <v>0.84209648153169125</v>
       </c>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A129" s="35" t="s">
-        <v>46</v>
+      <c r="A129" s="34" t="s">
+        <v>44</v>
       </c>
       <c r="C129" s="2">
         <f>SUM(C95:C99)</f>
@@ -17943,14 +17944,14 @@
         <f>SUM(O95:O99)</f>
         <v>32756</v>
       </c>
-      <c r="Q129" s="36">
+      <c r="Q129" s="35">
         <f t="shared" si="8"/>
         <v>0.69968860666748078</v>
       </c>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A130" s="35" t="s">
-        <v>47</v>
+      <c r="A130" s="34" t="s">
+        <v>45</v>
       </c>
       <c r="C130" s="2">
         <f>SUM(C100:C104)</f>
@@ -17992,13 +17993,13 @@
         <f>SUM(O100:O104)</f>
         <v>8247</v>
       </c>
-      <c r="Q130" s="36">
+      <c r="Q130" s="35">
         <f t="shared" si="8"/>
         <v>0.80320116405965802</v>
       </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A131" s="35" t="s">
+      <c r="A131" s="34" t="s">
         <v>10</v>
       </c>
       <c r="C131" s="2">
@@ -18041,130 +18042,130 @@
         <f>O105</f>
         <v>7086</v>
       </c>
-      <c r="Q131" s="36">
+      <c r="Q131" s="35">
         <f t="shared" si="8"/>
         <v>0.61318092012418857</v>
       </c>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A132" s="35"/>
+      <c r="A132" s="34"/>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A133" s="35"/>
+      <c r="A133" s="34"/>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A134" s="35"/>
+      <c r="A134" s="34"/>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A135" s="35"/>
+      <c r="A135" s="34"/>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A136" s="35"/>
+      <c r="A136" s="34"/>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A137" s="35"/>
+      <c r="A137" s="34"/>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A138" s="35"/>
+      <c r="A138" s="34"/>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A139" s="35"/>
+      <c r="A139" s="34"/>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A140" s="35"/>
+      <c r="A140" s="34"/>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A141" s="35"/>
+      <c r="A141" s="34"/>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A142" s="35"/>
+      <c r="A142" s="34"/>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A143" s="35"/>
+      <c r="A143" s="34"/>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A144" s="35"/>
+      <c r="A144" s="34"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="35"/>
+      <c r="A145" s="34"/>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="35"/>
+      <c r="A146" s="34"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="35"/>
+      <c r="A147" s="34"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="35"/>
+      <c r="A148" s="34"/>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="35"/>
+      <c r="A149" s="34"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="35"/>
+      <c r="A150" s="34"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="35"/>
+      <c r="A151" s="34"/>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="35"/>
+      <c r="A152" s="34"/>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="35"/>
+      <c r="A153" s="34"/>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="35"/>
+      <c r="A154" s="34"/>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="35"/>
+      <c r="A155" s="34"/>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="35"/>
+      <c r="A156" s="34"/>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="35"/>
+      <c r="A157" s="34"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="35"/>
+      <c r="A158" s="34"/>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="35"/>
+      <c r="A159" s="34"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="35"/>
+      <c r="A160" s="34"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="35"/>
+      <c r="A161" s="34"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="35"/>
+      <c r="A162" s="34"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="35"/>
+      <c r="A163" s="34"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="35"/>
+      <c r="A164" s="34"/>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="35"/>
+      <c r="A165" s="34"/>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="35"/>
+      <c r="A166" s="34"/>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="35"/>
+      <c r="A167" s="34"/>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="35"/>
+      <c r="A168" s="34"/>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="35"/>
+      <c r="A169" s="34"/>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="35"/>
+      <c r="A170" s="34"/>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="35"/>
+      <c r="A171" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -18194,7 +18195,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -18202,7 +18203,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>9</v>
@@ -18212,8 +18213,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
-        <v>35</v>
+      <c r="A4" s="34" t="s">
+        <v>33</v>
       </c>
       <c r="B4" s="2">
         <v>3517965</v>
@@ -18227,8 +18228,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
-        <v>36</v>
+      <c r="A5" s="34" t="s">
+        <v>34</v>
       </c>
       <c r="B5" s="2">
         <v>4434444</v>
@@ -18242,8 +18243,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
-        <v>37</v>
+      <c r="A6" s="34" t="s">
+        <v>35</v>
       </c>
       <c r="B6" s="2">
         <v>4119813</v>
@@ -18257,7 +18258,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="34" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="2">
@@ -18272,7 +18273,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="34" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="2">
@@ -18287,7 +18288,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="2">
@@ -18302,7 +18303,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="34" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="2">
@@ -18317,7 +18318,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="34" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="2">
@@ -18332,8 +18333,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
-        <v>49</v>
+      <c r="A12" s="34" t="s">
+        <v>47</v>
       </c>
       <c r="B12" s="2">
         <v>1408163</v>
@@ -18347,8 +18348,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
-        <v>48</v>
+      <c r="A13" s="34" t="s">
+        <v>46</v>
       </c>
       <c r="B13" s="2">
         <v>1400358</v>
@@ -18362,8 +18363,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
-        <v>38</v>
+      <c r="A14" s="34" t="s">
+        <v>36</v>
       </c>
       <c r="B14" s="2">
         <v>1014083</v>
@@ -18377,8 +18378,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
-        <v>39</v>
+      <c r="A15" s="34" t="s">
+        <v>37</v>
       </c>
       <c r="B15" s="2">
         <v>1016053</v>
@@ -18392,8 +18393,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
-        <v>40</v>
+      <c r="A16" s="34" t="s">
+        <v>38</v>
       </c>
       <c r="B16" s="2">
         <v>807882.49999999988</v>
@@ -18407,8 +18408,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
-        <v>41</v>
+      <c r="A17" s="34" t="s">
+        <v>39</v>
       </c>
       <c r="B17" s="2">
         <v>544797.5</v>
@@ -18422,8 +18423,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
-        <v>42</v>
+      <c r="A18" s="34" t="s">
+        <v>40</v>
       </c>
       <c r="B18" s="2">
         <v>370710</v>
@@ -18437,8 +18438,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
-        <v>43</v>
+      <c r="A19" s="34" t="s">
+        <v>41</v>
       </c>
       <c r="B19" s="2">
         <v>192679</v>
@@ -18452,8 +18453,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
-        <v>44</v>
+      <c r="A20" s="34" t="s">
+        <v>42</v>
       </c>
       <c r="B20" s="2">
         <v>125529</v>
@@ -18467,8 +18468,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
-        <v>45</v>
+      <c r="A21" s="34" t="s">
+        <v>43</v>
       </c>
       <c r="B21" s="2">
         <v>40376</v>
@@ -18482,8 +18483,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
-        <v>46</v>
+      <c r="A22" s="34" t="s">
+        <v>44</v>
       </c>
       <c r="B22" s="2">
         <v>22919</v>
@@ -18497,8 +18498,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
-        <v>47</v>
+      <c r="A23" s="34" t="s">
+        <v>45</v>
       </c>
       <c r="B23" s="2">
         <v>6624</v>
@@ -18512,7 +18513,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="34" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="2">
@@ -18545,17 +18546,17 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="39" t="s">
+      <c r="B3" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="38" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="18" t="s">

--- a/auxiliary/census-1920.xlsx
+++ b/auxiliary/census-1920.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\auxiliary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96936ACF-920F-40F5-B34C-807B329214FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3F00CA-5AB0-4EF5-BC43-17A555EC5A8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="30060" windowHeight="23295" activeTab="3" xr2:uid="{0ED4691F-BE7B-497E-88B1-9CCACC27BAC8}"/>
+    <workbookView xWindow="5040" yWindow="0" windowWidth="30060" windowHeight="23295" activeTab="3" xr2:uid="{0ED4691F-BE7B-497E-88B1-9CCACC27BAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="заглавие" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="84">
   <si>
     <t>Перепись населения РСФСР 28 августа 1920 года</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>РККА и РККФ (армия и флот), только мужчины</t>
-  </si>
-  <si>
-    <t>Итоги переписи Красной Армии и флота. 28 августа 1920 года (Труды ЦСУ, т. 13, вып. 2), стр. 2-3</t>
   </si>
   <si>
     <t>неуказ.</t>
@@ -221,6 +218,78 @@
   <si>
     <t>при условном равномерном распределении комбинированных возрастных групп по годам:</t>
   </si>
+  <si>
+    <t>(за вычетом Витебской и Гомельской губерний, и без Башкирской СССР),</t>
+  </si>
+  <si>
+    <t>Итоги переписи Красной Армии и флота. 28 августа 1920 года (Труды ЦСУ, т. 13, вып. 2), стр. 2-3, 158-160</t>
+  </si>
+  <si>
+    <t>Это области Европейской России</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    плюс Крым</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    минус Витебская и Гомельская губ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    минус Уральская губ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    минус Башкирская ССР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    минус Белорусская ССР</t>
+  </si>
+  <si>
+    <t>16-17</t>
+  </si>
+  <si>
+    <t>30-39</t>
+  </si>
+  <si>
+    <t>Европ. Россия</t>
+  </si>
+  <si>
+    <t>Витебская</t>
+  </si>
+  <si>
+    <t>Гомельская</t>
+  </si>
+  <si>
+    <t>Уральская</t>
+  </si>
+  <si>
+    <t>Белорус. СССР</t>
+  </si>
+  <si>
+    <t>Башкир. ССР</t>
+  </si>
+  <si>
+    <t>Крым</t>
+  </si>
+  <si>
+    <t>Окончательный том гражданской части переписи охватил только европейскую часть РСФСР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">поэтому для сохранения пропорциональности обеих (гражданской и военной) частей половозрастной структуры </t>
+  </si>
+  <si>
+    <t>мы включаем в окончательный подсчёт по армии только уроженцев этих областей.</t>
+  </si>
+  <si>
+    <t>Во всей РККА и РККФ (стр. 2-3)</t>
+  </si>
+  <si>
+    <t>Только для областей включённых в заключительный том (изд. 1928 года) гражданской переписи (стр. 158-160)</t>
+  </si>
+  <si>
+    <t>расхождение:</t>
+  </si>
+  <si>
+    <t>данные для интерполяции в единичные годы</t>
+  </si>
 </sst>
 </file>
 
@@ -288,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -399,6 +468,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4926,10 +5012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597BE5F9-8276-4B9F-82D5-D6338C0F56B6}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A11"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4966,7 +5052,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -4981,7 +5067,27 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -11659,10 +11765,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2944B57D-BD82-4FD4-9A4F-956597CB1191}">
-  <dimension ref="A1:AE92"/>
+  <dimension ref="A1:AE210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11677,642 +11783,654 @@
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B4" s="12">
         <v>15</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C4" s="12">
         <v>16</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D4" s="12">
         <v>17</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E4" s="12">
         <v>18</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F4" s="12">
         <v>19</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H4" s="12">
         <v>20</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I4" s="12">
         <v>21</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J4" s="12">
         <v>22</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K4" s="12">
         <v>23</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L4" s="12">
         <v>24</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N4" s="12">
         <v>25</v>
       </c>
-      <c r="O3" s="12">
+      <c r="O4" s="12">
         <v>26</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P4" s="12">
         <v>27</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="Q4" s="12">
         <v>28</v>
       </c>
-      <c r="R3" s="12">
+      <c r="R4" s="12">
         <v>29</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="S4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="12">
+      <c r="T4" s="12">
         <v>30</v>
       </c>
-      <c r="U3" s="12">
+      <c r="U4" s="12">
         <v>31</v>
       </c>
-      <c r="V3" s="12">
+      <c r="V4" s="12">
         <v>32</v>
       </c>
-      <c r="W3" s="12">
+      <c r="W4" s="12">
         <v>33</v>
       </c>
-      <c r="X3" s="12">
+      <c r="X4" s="12">
         <v>34</v>
       </c>
-      <c r="Y3" s="12" t="s">
+      <c r="Y4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="Z3" s="12" t="s">
+      <c r="Z4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="AA3" s="12" t="s">
+      <c r="AA4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="AB3" s="12" t="s">
+      <c r="AB4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="AC3" s="12" t="s">
+      <c r="AC4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="AD3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE3" s="12" t="s">
+      <c r="AD4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE4" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
         <v>2496</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C5" s="2">
         <v>6936</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D5" s="2">
         <v>18634</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E5" s="2">
         <v>86035</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F5" s="2">
         <v>294721</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G5" s="2">
         <v>408822</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H5" s="2">
         <v>292773</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I5" s="2">
         <v>190967</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J5" s="2">
         <v>223596</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K5" s="2">
         <v>224569</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L5" s="2">
         <v>189017</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M5" s="2">
         <v>1120922</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N5" s="2">
         <v>185932</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O5" s="2">
         <v>160045</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P5" s="2">
         <v>153184</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q5" s="2">
         <v>145479</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R5" s="2">
         <v>110673</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S5" s="2">
         <v>755363</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T5" s="2">
         <v>107831</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U5" s="2">
         <v>73288</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V5" s="2">
         <v>87259</v>
       </c>
-      <c r="W4" s="2">
+      <c r="W5" s="2">
         <v>64959</v>
       </c>
-      <c r="X4" s="2">
+      <c r="X5" s="2">
         <v>46806</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Y5" s="2">
         <v>380143</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="Z5" s="2">
         <v>134620</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AA5" s="2">
         <v>42930</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AB5" s="2">
         <v>5332</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AC5" s="2">
         <v>1491</v>
       </c>
-      <c r="AD4" s="2">
+      <c r="AD5" s="2">
         <v>35738</v>
       </c>
-      <c r="AE4" s="2">
+      <c r="AE5" s="2">
         <v>2885411</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="2">
-        <f>G4-SUM(B4:F4)</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <f>M4-SUM(H4:L4)</f>
-        <v>0</v>
-      </c>
-      <c r="S5" s="2">
-        <f>S4-SUM(N4:R4)</f>
+      <c r="G6" s="2">
+        <f>G5-SUM(B5:F5)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <f>M5-SUM(H5:L5)</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <f>S5-SUM(N5:R5)</f>
         <v>50</v>
       </c>
-      <c r="Y5" s="2">
-        <f>Y4-SUM(T4:X4)</f>
-        <v>0</v>
-      </c>
-      <c r="AE5" s="2">
-        <f>AE4-SUM(B4:F4)-SUM(H4:L4)-SUM(N4:R4)-SUM(T4:X4)-SUM(Z4:AD4)</f>
+      <c r="Y6" s="2">
+        <f>Y5-SUM(T5:X5)</f>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="2">
+        <f>AE5-SUM(B5:F5)-SUM(H5:L5)-SUM(N5:R5)-SUM(T5:X5)-SUM(Z5:AD5)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-    </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2">
-        <v>2496</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2">
-        <v>6936</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2">
-        <v>18634</v>
+        <v>6936</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2">
-        <v>86035</v>
+        <v>18634</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2">
-        <v>294721</v>
+        <v>86035</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2">
-        <v>292773</v>
+        <v>294721</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2">
-        <v>190967</v>
+        <v>292773</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2">
-        <v>223596</v>
+        <v>190967</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2">
-        <v>224569</v>
+        <v>223596</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2">
-        <v>189017</v>
+        <v>224569</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2">
-        <v>185932</v>
+        <v>189017</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2">
-        <v>160045</v>
+        <v>185932</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2">
-        <v>153184</v>
+        <v>160045</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2">
-        <v>145479</v>
+        <v>153184</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2">
-        <v>110673</v>
+        <v>145479</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" s="2">
-        <v>107831</v>
+        <v>110673</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2">
-        <v>73288</v>
+        <v>107831</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2">
-        <v>87259</v>
+        <v>73288</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2">
-        <v>64959</v>
+        <v>87259</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
+        <v>33</v>
+      </c>
+      <c r="B27" s="2">
+        <v>64959</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
         <v>34</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B28" s="2">
         <v>46806</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="2">
-        <v>134620</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" s="2">
-        <v>42930</v>
+        <v>134620</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30" s="2">
-        <v>5332</v>
+        <v>42930</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31" s="2">
-        <v>1491</v>
+        <v>5332</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B32" s="2">
-        <v>35738</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="2">
+        <v>35738</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B34" s="2">
         <v>2885411</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
-        <v>15</v>
-      </c>
-      <c r="B38" s="2">
-        <v>2496</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39" s="2">
-        <v>6936</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B40" s="2">
-        <v>18634</v>
+        <v>6936</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B41" s="2">
-        <v>86035</v>
+        <v>18634</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B42" s="2">
-        <v>294721</v>
+        <v>86035</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B43" s="2">
-        <v>292773</v>
+        <v>294721</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B44" s="2">
-        <v>190967</v>
+        <v>292773</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B45" s="2">
-        <v>223596</v>
+        <v>190967</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
+        <v>22</v>
+      </c>
+      <c r="B46" s="2">
+        <v>223596</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
         <v>23</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B47" s="2">
         <v>224569</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
         <v>24</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B48" s="2">
         <v>189017</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="12">
-        <v>25</v>
-      </c>
-      <c r="B48" s="2">
-        <v>185932</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B49" s="2">
-        <v>160045</v>
+        <v>185932</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B50" s="2">
-        <v>153184</v>
+        <v>160045</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B51" s="2">
-        <v>145479</v>
+        <v>153184</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B52" s="2">
-        <v>110673</v>
+        <v>145479</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B53" s="2">
-        <v>107831</v>
+        <v>110673</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B54" s="2">
-        <v>73288</v>
+        <v>107831</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B55" s="2">
-        <v>87259</v>
+        <v>73288</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B56" s="2">
-        <v>64959</v>
+        <v>87259</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B57" s="2">
-        <v>46806</v>
+        <v>64959</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="12">
+        <v>34</v>
+      </c>
+      <c r="B58" s="2">
+        <v>46806</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="12">
         <v>35</v>
       </c>
-      <c r="B58" s="2">
-        <f>B28/5</f>
-        <v>26924</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="13">
-        <v>36</v>
-      </c>
       <c r="B59" s="2">
-        <f>B58</f>
+        <f>B29/5</f>
         <v>26924</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="13">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B60" s="2">
-        <f t="shared" ref="B60:B62" si="0">B59</f>
+        <f>B59</f>
         <v>26924</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="13">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B61" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B61:B63" si="0">B60</f>
         <v>26924</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="13">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B62" s="2">
         <f t="shared" si="0"/>
@@ -12321,43 +12439,43 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="13">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B63" s="2">
-        <f>B29/10</f>
-        <v>4293</v>
+        <f t="shared" si="0"/>
+        <v>26924</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="13">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B64" s="2">
-        <f>B63</f>
+        <f>B30/10</f>
         <v>4293</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="13">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B65" s="2">
-        <f t="shared" ref="B65:B72" si="1">B64</f>
+        <f>B64</f>
         <v>4293</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="13">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B66" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B66:B73" si="1">B65</f>
         <v>4293</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="13">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B67" s="2">
         <f t="shared" si="1"/>
@@ -12366,7 +12484,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="13">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B68" s="2">
         <f t="shared" si="1"/>
@@ -12375,7 +12493,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="13">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B69" s="2">
         <f t="shared" si="1"/>
@@ -12384,7 +12502,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="13">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B70" s="2">
         <f t="shared" si="1"/>
@@ -12393,7 +12511,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="13">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B71" s="2">
         <f t="shared" si="1"/>
@@ -12402,7 +12520,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="13">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B72" s="2">
         <f t="shared" si="1"/>
@@ -12410,44 +12528,44 @@
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="12">
-        <v>50</v>
+      <c r="A73" s="13">
+        <v>49</v>
       </c>
       <c r="B73" s="2">
-        <f>B30/10</f>
-        <v>533.20000000000005</v>
+        <f t="shared" si="1"/>
+        <v>4293</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="12">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B74" s="2">
-        <f>B73</f>
+        <f>B31/10</f>
         <v>533.20000000000005</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="12">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B75" s="2">
-        <f t="shared" ref="B75:B82" si="2">B74</f>
+        <f>B74</f>
         <v>533.20000000000005</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="12">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B76" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B76:B83" si="2">B75</f>
         <v>533.20000000000005</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="12">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B77" s="2">
         <f t="shared" si="2"/>
@@ -12456,7 +12574,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="12">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B78" s="2">
         <f t="shared" si="2"/>
@@ -12465,7 +12583,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="12">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B79" s="2">
         <f t="shared" si="2"/>
@@ -12474,126 +12592,1209 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="12">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B80" s="2">
         <f t="shared" si="2"/>
         <v>533.20000000000005</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="12">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B81" s="2">
         <f t="shared" si="2"/>
         <v>533.20000000000005</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="12">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B82" s="2">
         <f t="shared" si="2"/>
         <v>533.20000000000005</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="12">
+        <v>59</v>
+      </c>
+      <c r="B83" s="2">
+        <f t="shared" si="2"/>
+        <v>533.20000000000005</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A84" s="12">
         <v>60</v>
       </c>
-      <c r="B83" s="2">
-        <f>B31/10</f>
+      <c r="B84" s="2">
+        <f>B32/10</f>
         <v>149.1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="13">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A85" s="13">
         <v>61</v>
       </c>
-      <c r="B84" s="2">
-        <f>B83</f>
+      <c r="B85" s="2">
+        <f>B84</f>
         <v>149.1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="13">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A86" s="13">
         <v>62</v>
       </c>
-      <c r="B85" s="2">
-        <f t="shared" ref="B85:B92" si="3">B84</f>
+      <c r="B86" s="2">
+        <f t="shared" ref="B86:B93" si="3">B85</f>
         <v>149.1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="13">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A87" s="13">
         <v>63</v>
-      </c>
-      <c r="B86" s="2">
-        <f t="shared" si="3"/>
-        <v>149.1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="13">
-        <v>64</v>
       </c>
       <c r="B87" s="2">
         <f t="shared" si="3"/>
         <v>149.1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="13">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B88" s="2">
         <f t="shared" si="3"/>
         <v>149.1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="13">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B89" s="2">
         <f t="shared" si="3"/>
         <v>149.1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="13">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B90" s="2">
         <f t="shared" si="3"/>
         <v>149.1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="13">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B91" s="2">
         <f t="shared" si="3"/>
         <v>149.1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="13">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B92" s="2">
         <f t="shared" si="3"/>
         <v>149.1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A93" s="13">
+        <v>69</v>
+      </c>
+      <c r="B93" s="2">
+        <f t="shared" si="3"/>
+        <v>149.1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A96" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="B96" s="42"/>
+      <c r="C96" s="42"/>
+      <c r="D96" s="42"/>
+      <c r="E96" s="42"/>
+      <c r="F96" s="42"/>
+      <c r="G96" s="42"/>
+      <c r="H96" s="42"/>
+      <c r="I96" s="42"/>
+      <c r="J96" s="42"/>
+      <c r="K96" s="42"/>
+      <c r="L96" s="42"/>
+      <c r="M96" s="42"/>
+      <c r="N96" s="42"/>
+      <c r="O96" s="42"/>
+      <c r="P96" s="42"/>
+      <c r="Q96" s="42"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" s="44">
+        <v>15</v>
+      </c>
+      <c r="C104" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" s="44">
+        <v>18</v>
+      </c>
+      <c r="E104" s="44">
+        <v>19</v>
+      </c>
+      <c r="F104" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G104" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H104" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="I104" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="J104" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="K104" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="L104" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="M104" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="N104" s="44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>70</v>
+      </c>
+      <c r="B105" s="45">
+        <v>1239</v>
+      </c>
+      <c r="C105" s="45">
+        <v>13165</v>
+      </c>
+      <c r="D105" s="45">
+        <v>57115</v>
+      </c>
+      <c r="E105" s="45">
+        <v>214608</v>
+      </c>
+      <c r="F105" s="45">
+        <v>286127</v>
+      </c>
+      <c r="G105" s="45">
+        <v>820047</v>
+      </c>
+      <c r="H105" s="45">
+        <v>588148</v>
+      </c>
+      <c r="I105" s="45">
+        <v>411382</v>
+      </c>
+      <c r="J105" s="45">
+        <v>28716</v>
+      </c>
+      <c r="K105" s="45">
+        <v>3055</v>
+      </c>
+      <c r="L105" s="45">
+        <v>795</v>
+      </c>
+      <c r="M105" s="45">
+        <v>5553</v>
+      </c>
+      <c r="N105" s="45">
+        <v>2143823</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>74</v>
+      </c>
+      <c r="B106" s="45">
+        <v>20</v>
+      </c>
+      <c r="C106" s="45">
+        <v>196</v>
+      </c>
+      <c r="D106" s="45">
+        <v>422</v>
+      </c>
+      <c r="E106" s="45">
+        <v>1773</v>
+      </c>
+      <c r="F106" s="45">
+        <v>2411</v>
+      </c>
+      <c r="G106" s="45">
+        <v>13317</v>
+      </c>
+      <c r="H106" s="45">
+        <v>10074</v>
+      </c>
+      <c r="I106" s="45">
+        <v>4811</v>
+      </c>
+      <c r="J106" s="45">
+        <v>260</v>
+      </c>
+      <c r="K106" s="45">
+        <v>57</v>
+      </c>
+      <c r="L106" s="45">
+        <v>12</v>
+      </c>
+      <c r="M106" s="45">
+        <v>157</v>
+      </c>
+      <c r="N106" s="45">
+        <v>31099</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>71</v>
+      </c>
+      <c r="B107" s="45">
+        <v>17</v>
+      </c>
+      <c r="C107" s="45">
+        <v>278</v>
+      </c>
+      <c r="D107" s="45">
+        <v>919</v>
+      </c>
+      <c r="E107" s="45">
+        <v>8474</v>
+      </c>
+      <c r="F107" s="45">
+        <v>9688</v>
+      </c>
+      <c r="G107" s="45">
+        <v>17833</v>
+      </c>
+      <c r="H107" s="45">
+        <v>14590</v>
+      </c>
+      <c r="I107" s="45">
+        <v>7918</v>
+      </c>
+      <c r="J107" s="45">
+        <v>499</v>
+      </c>
+      <c r="K107" s="45">
+        <v>74</v>
+      </c>
+      <c r="L107" s="45">
+        <v>23</v>
+      </c>
+      <c r="M107" s="45">
+        <v>173</v>
+      </c>
+      <c r="N107" s="45">
+        <v>50798</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>72</v>
+      </c>
+      <c r="B108" s="45">
+        <v>40</v>
+      </c>
+      <c r="C108" s="45">
+        <v>366</v>
+      </c>
+      <c r="D108" s="45">
+        <v>1414</v>
+      </c>
+      <c r="E108" s="45">
+        <v>11797</v>
+      </c>
+      <c r="F108" s="45">
+        <v>13617</v>
+      </c>
+      <c r="G108" s="45">
+        <v>26313</v>
+      </c>
+      <c r="H108" s="45">
+        <v>20912</v>
+      </c>
+      <c r="I108" s="45">
+        <v>11314</v>
+      </c>
+      <c r="J108" s="45">
+        <v>595</v>
+      </c>
+      <c r="K108" s="45">
+        <v>85</v>
+      </c>
+      <c r="L108" s="45">
+        <v>30</v>
+      </c>
+      <c r="M108" s="45">
+        <v>245</v>
+      </c>
+      <c r="N108" s="45">
+        <v>73111</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>73</v>
+      </c>
+      <c r="B109" s="45">
+        <v>18</v>
+      </c>
+      <c r="C109" s="45">
+        <v>106</v>
+      </c>
+      <c r="D109" s="45">
+        <v>166</v>
+      </c>
+      <c r="E109" s="45">
+        <v>380</v>
+      </c>
+      <c r="F109" s="45">
+        <v>670</v>
+      </c>
+      <c r="G109" s="45">
+        <v>1974</v>
+      </c>
+      <c r="H109" s="45">
+        <v>1694</v>
+      </c>
+      <c r="I109" s="45">
+        <v>1042</v>
+      </c>
+      <c r="J109" s="45">
+        <v>128</v>
+      </c>
+      <c r="K109" s="45">
+        <v>24</v>
+      </c>
+      <c r="L109" s="45">
+        <v>2</v>
+      </c>
+      <c r="M109" s="45">
+        <v>11</v>
+      </c>
+      <c r="N109" s="45">
+        <v>5545</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>75</v>
+      </c>
+      <c r="B110" s="45">
+        <v>22</v>
+      </c>
+      <c r="C110" s="45">
+        <v>226</v>
+      </c>
+      <c r="D110" s="45">
+        <v>808</v>
+      </c>
+      <c r="E110" s="45">
+        <v>2915</v>
+      </c>
+      <c r="F110" s="45">
+        <v>3971</v>
+      </c>
+      <c r="G110" s="45">
+        <v>15904</v>
+      </c>
+      <c r="H110" s="45">
+        <v>11001</v>
+      </c>
+      <c r="I110" s="45">
+        <v>5934</v>
+      </c>
+      <c r="J110" s="45">
+        <v>234</v>
+      </c>
+      <c r="K110" s="45">
+        <v>21</v>
+      </c>
+      <c r="L110" s="45">
+        <v>4</v>
+      </c>
+      <c r="M110" s="45">
+        <v>72</v>
+      </c>
+      <c r="N110" s="45">
+        <v>37141</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A111" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B111" s="45">
+        <v>14</v>
+      </c>
+      <c r="C111" s="45">
+        <v>90</v>
+      </c>
+      <c r="D111" s="45">
+        <v>138</v>
+      </c>
+      <c r="E111" s="45">
+        <v>341</v>
+      </c>
+      <c r="F111" s="45">
+        <v>583</v>
+      </c>
+      <c r="G111" s="45">
+        <v>1768</v>
+      </c>
+      <c r="H111" s="45">
+        <v>1050</v>
+      </c>
+      <c r="I111" s="45">
+        <v>535</v>
+      </c>
+      <c r="J111" s="45">
+        <v>95</v>
+      </c>
+      <c r="K111" s="45">
+        <v>26</v>
+      </c>
+      <c r="L111" s="45">
+        <v>2</v>
+      </c>
+      <c r="M111" s="45">
+        <v>8</v>
+      </c>
+      <c r="N111" s="45">
+        <v>4067</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A112" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112" s="2">
+        <f>B105+B111-SUM(B106:B110)</f>
+        <v>1136</v>
+      </c>
+      <c r="C112" s="2">
+        <f>C105+C111-SUM(C106:C110)</f>
+        <v>12083</v>
+      </c>
+      <c r="D112" s="2">
+        <f>D105+D111-SUM(D106:D110)</f>
+        <v>53524</v>
+      </c>
+      <c r="E112" s="2">
+        <f>E105+E111-SUM(E106:E110)</f>
+        <v>189610</v>
+      </c>
+      <c r="F112" s="2">
+        <f>F105+F111-SUM(F106:F110)</f>
+        <v>256353</v>
+      </c>
+      <c r="G112" s="2">
+        <f>G105+G111-SUM(G106:G110)</f>
+        <v>746474</v>
+      </c>
+      <c r="H112" s="2">
+        <f>H105+H111-SUM(H106:H110)</f>
+        <v>530927</v>
+      </c>
+      <c r="I112" s="2">
+        <f>I105+I111-SUM(I106:I110)</f>
+        <v>380898</v>
+      </c>
+      <c r="J112" s="2">
+        <f>J105+J111-SUM(J106:J110)</f>
+        <v>27095</v>
+      </c>
+      <c r="K112" s="2">
+        <f>K105+K111-SUM(K106:K110)</f>
+        <v>2820</v>
+      </c>
+      <c r="L112" s="2">
+        <f>L105+L111-SUM(L106:L110)</f>
+        <v>726</v>
+      </c>
+      <c r="M112" s="2">
+        <f>M105+M111-SUM(M106:M110)</f>
+        <v>4903</v>
+      </c>
+      <c r="N112" s="2">
+        <f>N105+N111-SUM(N106:N110)</f>
+        <v>1950196</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F113" s="2"/>
+      <c r="N113" s="2"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>82</v>
+      </c>
+      <c r="F114" s="2"/>
+      <c r="N114" s="2"/>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F115" s="2"/>
+      <c r="N115" s="2"/>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>70</v>
+      </c>
+      <c r="F116" s="2">
+        <f>F105-SUM(B105:E105)</f>
+        <v>0</v>
+      </c>
+      <c r="N116" s="2">
+        <f>N105-SUM(B105:E105)-SUM(G105:M105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>74</v>
+      </c>
+      <c r="F117" s="2">
+        <f t="shared" ref="F117:F123" si="4">F106-SUM(B106:E106)</f>
+        <v>0</v>
+      </c>
+      <c r="N117" s="2">
+        <f t="shared" ref="N117:N123" si="5">N106-SUM(B106:E106)-SUM(G106:M106)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>71</v>
+      </c>
+      <c r="F118" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N118" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>72</v>
+      </c>
+      <c r="F119" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N119" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>73</v>
+      </c>
+      <c r="F120" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N120" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>75</v>
+      </c>
+      <c r="F121" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N121" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A122" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="F122" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N122" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A123" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F123" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N123" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A124" s="45"/>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A125" s="45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A126" s="34">
+        <v>15</v>
+      </c>
+      <c r="B126" s="2">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A127" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B127" s="2">
+        <v>12083</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A128" s="34">
+        <v>18</v>
+      </c>
+      <c r="B128" s="2">
+        <v>53524</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="34">
+        <v>19</v>
+      </c>
+      <c r="B129" s="2">
+        <v>189610</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B130" s="50">
+        <v>256353</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B131" s="2">
+        <v>746474</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B132" s="2">
+        <v>530927</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B133" s="2">
+        <v>380898</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B134" s="2">
+        <v>27095</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B135" s="2">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B136" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B137" s="2">
+        <v>4903</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B138" s="2">
+        <v>1950196</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="34"/>
+      <c r="B139" s="2"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B140" s="2"/>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="48">
+        <v>15</v>
+      </c>
+      <c r="B141" s="2">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="48">
+        <v>16</v>
+      </c>
+      <c r="B142" s="2">
+        <v>12083</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="48">
+        <v>18</v>
+      </c>
+      <c r="B143" s="2">
+        <v>53524</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="48">
+        <v>19</v>
+      </c>
+      <c r="B144" s="2">
+        <v>189610</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="48">
+        <v>20</v>
+      </c>
+      <c r="B145" s="2">
+        <v>746474</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="48">
+        <v>25</v>
+      </c>
+      <c r="B146" s="2">
+        <v>530927</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="48">
+        <v>30</v>
+      </c>
+      <c r="B147" s="2">
+        <v>380898</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="48">
+        <v>40</v>
+      </c>
+      <c r="B148" s="2">
+        <v>27095</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="48">
+        <v>50</v>
+      </c>
+      <c r="B149" s="2">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="48">
+        <v>60</v>
+      </c>
+      <c r="B150" s="2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="47">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="5">
+        <v>15</v>
+      </c>
+      <c r="B156" s="2"/>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="5">
+        <v>18</v>
+      </c>
+      <c r="B159" s="2"/>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="5">
+        <v>19</v>
+      </c>
+      <c r="B160" s="2"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="13">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="13">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="13">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="13">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="13">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="13">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="13">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="13">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="13">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="13">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="12">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="12">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="13">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="13">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="13">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="13">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="13">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="13">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="13">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B73 B83" formula="1"/>
+    <ignoredError sqref="B74 B84 B64" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -12620,37 +13821,37 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C3" s="40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="40"/>
       <c r="E3" s="40"/>
       <c r="G3" s="41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" s="41"/>
       <c r="I3" s="41"/>
       <c r="K3" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L3" s="12"/>
       <c r="M3" s="41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N3" s="41"/>
       <c r="O3" s="41"/>
       <c r="P3" s="39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q3" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S3" s="41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T3" s="41"/>
       <c r="U3" s="41"/>
@@ -12691,19 +13892,19 @@
         <v>9</v>
       </c>
       <c r="P4" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q4" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4" s="31" t="s">
         <v>50</v>
-      </c>
-      <c r="S4" s="31" t="s">
-        <v>51</v>
       </c>
       <c r="T4" s="31" t="s">
         <v>9</v>
       </c>
       <c r="U4" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -17015,12 +18216,12 @@
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C111" s="2">
         <f>SUM(C5:C9)</f>
@@ -17069,7 +18270,7 @@
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C112" s="2">
         <f>SUM(C10:C14)</f>
@@ -17118,7 +18319,7 @@
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C113" s="2">
         <f>SUM(C15:C19)</f>
@@ -17412,7 +18613,7 @@
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C119" s="2">
         <f>SUM(C45:C49)</f>
@@ -17461,7 +18662,7 @@
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C120" s="2">
         <f>SUM(C50:C54)</f>
@@ -17510,7 +18711,7 @@
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C121" s="2">
         <f>SUM(C55:C59)</f>
@@ -17559,7 +18760,7 @@
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C122" s="2">
         <f>SUM(C60:C64)</f>
@@ -17608,7 +18809,7 @@
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C123" s="2">
         <f>SUM(C65:C69)</f>
@@ -17657,7 +18858,7 @@
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C124" s="2">
         <f>SUM(C70:C74)</f>
@@ -17706,7 +18907,7 @@
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C125" s="2">
         <f>SUM(C75:C79)</f>
@@ -17755,7 +18956,7 @@
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C126" s="2">
         <f>SUM(C80:C84)</f>
@@ -17804,7 +19005,7 @@
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C127" s="2">
         <f>SUM(C85:C89)</f>
@@ -17853,7 +19054,7 @@
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C128" s="2">
         <f>SUM(C90:C94)</f>
@@ -17902,7 +19103,7 @@
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" s="34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C129" s="2">
         <f>SUM(C95:C99)</f>
@@ -17951,7 +19152,7 @@
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" s="34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C130" s="2">
         <f>SUM(C100:C104)</f>
@@ -18195,7 +19396,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -18203,7 +19404,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>9</v>
@@ -18214,7 +19415,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2">
         <v>3517965</v>
@@ -18229,7 +19430,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2">
         <v>4434444</v>
@@ -18244,7 +19445,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2">
         <v>4119813</v>
@@ -18334,7 +19535,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="2">
         <v>1408163</v>
@@ -18349,7 +19550,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="2">
         <v>1400358</v>
@@ -18364,7 +19565,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2">
         <v>1014083</v>
@@ -18379,7 +19580,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="2">
         <v>1016053</v>
@@ -18394,7 +19595,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2">
         <v>807882.49999999988</v>
@@ -18409,7 +19610,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="2">
         <v>544797.5</v>
@@ -18424,7 +19625,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2">
         <v>370710</v>
@@ -18439,7 +19640,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="2">
         <v>192679</v>
@@ -18454,7 +19655,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="2">
         <v>125529</v>
@@ -18469,7 +19670,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2">
         <v>40376</v>
@@ -18484,7 +19685,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2">
         <v>22919</v>
@@ -18499,7 +19700,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2">
         <v>6624</v>
@@ -18546,7 +19747,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -18554,7 +19755,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="38" t="s">
         <v>9</v>

--- a/auxiliary/census-1920.xlsx
+++ b/auxiliary/census-1920.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\auxiliary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3F00CA-5AB0-4EF5-BC43-17A555EC5A8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD93C4E7-D291-4250-BF90-A1D10CDBF517}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="0" windowWidth="30060" windowHeight="23295" activeTab="3" xr2:uid="{0ED4691F-BE7B-497E-88B1-9CCACC27BAC8}"/>
+    <workbookView xWindow="5040" yWindow="0" windowWidth="30060" windowHeight="23295" activeTab="6" xr2:uid="{0ED4691F-BE7B-497E-88B1-9CCACC27BAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="заглавие" sheetId="1" r:id="rId1"/>
@@ -462,12 +462,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -485,6 +479,12 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11767,8 +11767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2944B57D-BD82-4FD4-9A4F-956597CB1191}">
   <dimension ref="A1:AE210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A141" sqref="A141:B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11783,25 +11783,25 @@
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -12717,25 +12717,25 @@
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A96" s="43" t="s">
+      <c r="A96" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="B96" s="42"/>
-      <c r="C96" s="42"/>
-      <c r="D96" s="42"/>
-      <c r="E96" s="42"/>
-      <c r="F96" s="42"/>
-      <c r="G96" s="42"/>
-      <c r="H96" s="42"/>
-      <c r="I96" s="42"/>
-      <c r="J96" s="42"/>
-      <c r="K96" s="42"/>
-      <c r="L96" s="42"/>
-      <c r="M96" s="42"/>
-      <c r="N96" s="42"/>
-      <c r="O96" s="42"/>
-      <c r="P96" s="42"/>
-      <c r="Q96" s="42"/>
+      <c r="B96" s="40"/>
+      <c r="C96" s="40"/>
+      <c r="D96" s="40"/>
+      <c r="E96" s="40"/>
+      <c r="F96" s="40"/>
+      <c r="G96" s="40"/>
+      <c r="H96" s="40"/>
+      <c r="I96" s="40"/>
+      <c r="J96" s="40"/>
+      <c r="K96" s="40"/>
+      <c r="L96" s="40"/>
+      <c r="M96" s="40"/>
+      <c r="N96" s="40"/>
+      <c r="O96" s="40"/>
+      <c r="P96" s="40"/>
+      <c r="Q96" s="40"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
@@ -12771,43 +12771,43 @@
       <c r="A104" t="s">
         <v>6</v>
       </c>
-      <c r="B104" s="44">
+      <c r="B104" s="42">
         <v>15</v>
       </c>
-      <c r="C104" s="44" t="s">
+      <c r="C104" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="D104" s="44">
+      <c r="D104" s="42">
         <v>18</v>
       </c>
-      <c r="E104" s="44">
+      <c r="E104" s="42">
         <v>19</v>
       </c>
-      <c r="F104" s="44" t="s">
+      <c r="F104" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="G104" s="44" t="s">
+      <c r="G104" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="H104" s="44" t="s">
+      <c r="H104" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="I104" s="44" t="s">
+      <c r="I104" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="J104" s="44" t="s">
+      <c r="J104" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="K104" s="44" t="s">
+      <c r="K104" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="L104" s="44" t="s">
+      <c r="L104" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="M104" s="44" t="s">
+      <c r="M104" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="N104" s="44" t="s">
+      <c r="N104" s="42" t="s">
         <v>7</v>
       </c>
     </row>
@@ -12815,43 +12815,43 @@
       <c r="A105" t="s">
         <v>70</v>
       </c>
-      <c r="B105" s="45">
+      <c r="B105" s="43">
         <v>1239</v>
       </c>
-      <c r="C105" s="45">
+      <c r="C105" s="43">
         <v>13165</v>
       </c>
-      <c r="D105" s="45">
+      <c r="D105" s="43">
         <v>57115</v>
       </c>
-      <c r="E105" s="45">
+      <c r="E105" s="43">
         <v>214608</v>
       </c>
-      <c r="F105" s="45">
+      <c r="F105" s="43">
         <v>286127</v>
       </c>
-      <c r="G105" s="45">
+      <c r="G105" s="43">
         <v>820047</v>
       </c>
-      <c r="H105" s="45">
+      <c r="H105" s="43">
         <v>588148</v>
       </c>
-      <c r="I105" s="45">
+      <c r="I105" s="43">
         <v>411382</v>
       </c>
-      <c r="J105" s="45">
+      <c r="J105" s="43">
         <v>28716</v>
       </c>
-      <c r="K105" s="45">
+      <c r="K105" s="43">
         <v>3055</v>
       </c>
-      <c r="L105" s="45">
+      <c r="L105" s="43">
         <v>795</v>
       </c>
-      <c r="M105" s="45">
+      <c r="M105" s="43">
         <v>5553</v>
       </c>
-      <c r="N105" s="45">
+      <c r="N105" s="43">
         <v>2143823</v>
       </c>
     </row>
@@ -12859,43 +12859,43 @@
       <c r="A106" t="s">
         <v>74</v>
       </c>
-      <c r="B106" s="45">
+      <c r="B106" s="43">
         <v>20</v>
       </c>
-      <c r="C106" s="45">
+      <c r="C106" s="43">
         <v>196</v>
       </c>
-      <c r="D106" s="45">
+      <c r="D106" s="43">
         <v>422</v>
       </c>
-      <c r="E106" s="45">
+      <c r="E106" s="43">
         <v>1773</v>
       </c>
-      <c r="F106" s="45">
+      <c r="F106" s="43">
         <v>2411</v>
       </c>
-      <c r="G106" s="45">
+      <c r="G106" s="43">
         <v>13317</v>
       </c>
-      <c r="H106" s="45">
+      <c r="H106" s="43">
         <v>10074</v>
       </c>
-      <c r="I106" s="45">
+      <c r="I106" s="43">
         <v>4811</v>
       </c>
-      <c r="J106" s="45">
+      <c r="J106" s="43">
         <v>260</v>
       </c>
-      <c r="K106" s="45">
+      <c r="K106" s="43">
         <v>57</v>
       </c>
-      <c r="L106" s="45">
+      <c r="L106" s="43">
         <v>12</v>
       </c>
-      <c r="M106" s="45">
+      <c r="M106" s="43">
         <v>157</v>
       </c>
-      <c r="N106" s="45">
+      <c r="N106" s="43">
         <v>31099</v>
       </c>
     </row>
@@ -12903,43 +12903,43 @@
       <c r="A107" t="s">
         <v>71</v>
       </c>
-      <c r="B107" s="45">
+      <c r="B107" s="43">
         <v>17</v>
       </c>
-      <c r="C107" s="45">
+      <c r="C107" s="43">
         <v>278</v>
       </c>
-      <c r="D107" s="45">
+      <c r="D107" s="43">
         <v>919</v>
       </c>
-      <c r="E107" s="45">
+      <c r="E107" s="43">
         <v>8474</v>
       </c>
-      <c r="F107" s="45">
+      <c r="F107" s="43">
         <v>9688</v>
       </c>
-      <c r="G107" s="45">
+      <c r="G107" s="43">
         <v>17833</v>
       </c>
-      <c r="H107" s="45">
+      <c r="H107" s="43">
         <v>14590</v>
       </c>
-      <c r="I107" s="45">
+      <c r="I107" s="43">
         <v>7918</v>
       </c>
-      <c r="J107" s="45">
+      <c r="J107" s="43">
         <v>499</v>
       </c>
-      <c r="K107" s="45">
+      <c r="K107" s="43">
         <v>74</v>
       </c>
-      <c r="L107" s="45">
+      <c r="L107" s="43">
         <v>23</v>
       </c>
-      <c r="M107" s="45">
+      <c r="M107" s="43">
         <v>173</v>
       </c>
-      <c r="N107" s="45">
+      <c r="N107" s="43">
         <v>50798</v>
       </c>
     </row>
@@ -12947,43 +12947,43 @@
       <c r="A108" t="s">
         <v>72</v>
       </c>
-      <c r="B108" s="45">
+      <c r="B108" s="43">
         <v>40</v>
       </c>
-      <c r="C108" s="45">
+      <c r="C108" s="43">
         <v>366</v>
       </c>
-      <c r="D108" s="45">
+      <c r="D108" s="43">
         <v>1414</v>
       </c>
-      <c r="E108" s="45">
+      <c r="E108" s="43">
         <v>11797</v>
       </c>
-      <c r="F108" s="45">
+      <c r="F108" s="43">
         <v>13617</v>
       </c>
-      <c r="G108" s="45">
+      <c r="G108" s="43">
         <v>26313</v>
       </c>
-      <c r="H108" s="45">
+      <c r="H108" s="43">
         <v>20912</v>
       </c>
-      <c r="I108" s="45">
+      <c r="I108" s="43">
         <v>11314</v>
       </c>
-      <c r="J108" s="45">
+      <c r="J108" s="43">
         <v>595</v>
       </c>
-      <c r="K108" s="45">
+      <c r="K108" s="43">
         <v>85</v>
       </c>
-      <c r="L108" s="45">
+      <c r="L108" s="43">
         <v>30</v>
       </c>
-      <c r="M108" s="45">
+      <c r="M108" s="43">
         <v>245</v>
       </c>
-      <c r="N108" s="45">
+      <c r="N108" s="43">
         <v>73111</v>
       </c>
     </row>
@@ -12991,43 +12991,43 @@
       <c r="A109" t="s">
         <v>73</v>
       </c>
-      <c r="B109" s="45">
+      <c r="B109" s="43">
         <v>18</v>
       </c>
-      <c r="C109" s="45">
+      <c r="C109" s="43">
         <v>106</v>
       </c>
-      <c r="D109" s="45">
+      <c r="D109" s="43">
         <v>166</v>
       </c>
-      <c r="E109" s="45">
+      <c r="E109" s="43">
         <v>380</v>
       </c>
-      <c r="F109" s="45">
+      <c r="F109" s="43">
         <v>670</v>
       </c>
-      <c r="G109" s="45">
+      <c r="G109" s="43">
         <v>1974</v>
       </c>
-      <c r="H109" s="45">
+      <c r="H109" s="43">
         <v>1694</v>
       </c>
-      <c r="I109" s="45">
+      <c r="I109" s="43">
         <v>1042</v>
       </c>
-      <c r="J109" s="45">
+      <c r="J109" s="43">
         <v>128</v>
       </c>
-      <c r="K109" s="45">
+      <c r="K109" s="43">
         <v>24</v>
       </c>
-      <c r="L109" s="45">
+      <c r="L109" s="43">
         <v>2</v>
       </c>
-      <c r="M109" s="45">
+      <c r="M109" s="43">
         <v>11</v>
       </c>
-      <c r="N109" s="45">
+      <c r="N109" s="43">
         <v>5545</v>
       </c>
     </row>
@@ -13035,43 +13035,43 @@
       <c r="A110" t="s">
         <v>75</v>
       </c>
-      <c r="B110" s="45">
+      <c r="B110" s="43">
         <v>22</v>
       </c>
-      <c r="C110" s="45">
+      <c r="C110" s="43">
         <v>226</v>
       </c>
-      <c r="D110" s="45">
+      <c r="D110" s="43">
         <v>808</v>
       </c>
-      <c r="E110" s="45">
+      <c r="E110" s="43">
         <v>2915</v>
       </c>
-      <c r="F110" s="45">
+      <c r="F110" s="43">
         <v>3971</v>
       </c>
-      <c r="G110" s="45">
+      <c r="G110" s="43">
         <v>15904</v>
       </c>
-      <c r="H110" s="45">
+      <c r="H110" s="43">
         <v>11001</v>
       </c>
-      <c r="I110" s="45">
+      <c r="I110" s="43">
         <v>5934</v>
       </c>
-      <c r="J110" s="45">
+      <c r="J110" s="43">
         <v>234</v>
       </c>
-      <c r="K110" s="45">
+      <c r="K110" s="43">
         <v>21</v>
       </c>
-      <c r="L110" s="45">
+      <c r="L110" s="43">
         <v>4</v>
       </c>
-      <c r="M110" s="45">
+      <c r="M110" s="43">
         <v>72</v>
       </c>
-      <c r="N110" s="45">
+      <c r="N110" s="43">
         <v>37141</v>
       </c>
     </row>
@@ -13079,100 +13079,100 @@
       <c r="A111" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="B111" s="45">
+      <c r="B111" s="43">
         <v>14</v>
       </c>
-      <c r="C111" s="45">
+      <c r="C111" s="43">
         <v>90</v>
       </c>
-      <c r="D111" s="45">
+      <c r="D111" s="43">
         <v>138</v>
       </c>
-      <c r="E111" s="45">
+      <c r="E111" s="43">
         <v>341</v>
       </c>
-      <c r="F111" s="45">
+      <c r="F111" s="43">
         <v>583</v>
       </c>
-      <c r="G111" s="45">
+      <c r="G111" s="43">
         <v>1768</v>
       </c>
-      <c r="H111" s="45">
+      <c r="H111" s="43">
         <v>1050</v>
       </c>
-      <c r="I111" s="45">
+      <c r="I111" s="43">
         <v>535</v>
       </c>
-      <c r="J111" s="45">
+      <c r="J111" s="43">
         <v>95</v>
       </c>
-      <c r="K111" s="45">
+      <c r="K111" s="43">
         <v>26</v>
       </c>
-      <c r="L111" s="45">
+      <c r="L111" s="43">
         <v>2</v>
       </c>
-      <c r="M111" s="45">
+      <c r="M111" s="43">
         <v>8</v>
       </c>
-      <c r="N111" s="45">
+      <c r="N111" s="43">
         <v>4067</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A112" s="46" t="s">
+      <c r="A112" s="44" t="s">
         <v>7</v>
       </c>
       <c r="B112" s="2">
-        <f>B105+B111-SUM(B106:B110)</f>
+        <f t="shared" ref="B112:N112" si="4">B105+B111-SUM(B106:B110)</f>
         <v>1136</v>
       </c>
       <c r="C112" s="2">
-        <f>C105+C111-SUM(C106:C110)</f>
+        <f t="shared" si="4"/>
         <v>12083</v>
       </c>
       <c r="D112" s="2">
-        <f>D105+D111-SUM(D106:D110)</f>
+        <f t="shared" si="4"/>
         <v>53524</v>
       </c>
       <c r="E112" s="2">
-        <f>E105+E111-SUM(E106:E110)</f>
+        <f t="shared" si="4"/>
         <v>189610</v>
       </c>
       <c r="F112" s="2">
-        <f>F105+F111-SUM(F106:F110)</f>
+        <f t="shared" si="4"/>
         <v>256353</v>
       </c>
       <c r="G112" s="2">
-        <f>G105+G111-SUM(G106:G110)</f>
+        <f t="shared" si="4"/>
         <v>746474</v>
       </c>
       <c r="H112" s="2">
-        <f>H105+H111-SUM(H106:H110)</f>
+        <f t="shared" si="4"/>
         <v>530927</v>
       </c>
       <c r="I112" s="2">
-        <f>I105+I111-SUM(I106:I110)</f>
+        <f t="shared" si="4"/>
         <v>380898</v>
       </c>
       <c r="J112" s="2">
-        <f>J105+J111-SUM(J106:J110)</f>
+        <f t="shared" si="4"/>
         <v>27095</v>
       </c>
       <c r="K112" s="2">
-        <f>K105+K111-SUM(K106:K110)</f>
+        <f t="shared" si="4"/>
         <v>2820</v>
       </c>
       <c r="L112" s="2">
-        <f>L105+L111-SUM(L106:L110)</f>
+        <f t="shared" si="4"/>
         <v>726</v>
       </c>
       <c r="M112" s="2">
-        <f>M105+M111-SUM(M106:M110)</f>
+        <f t="shared" si="4"/>
         <v>4903</v>
       </c>
       <c r="N112" s="2">
-        <f>N105+N111-SUM(N106:N110)</f>
+        <f t="shared" si="4"/>
         <v>1950196</v>
       </c>
     </row>
@@ -13209,11 +13209,11 @@
         <v>74</v>
       </c>
       <c r="F117" s="2">
-        <f t="shared" ref="F117:F123" si="4">F106-SUM(B106:E106)</f>
+        <f t="shared" ref="F117:F123" si="5">F106-SUM(B106:E106)</f>
         <v>0</v>
       </c>
       <c r="N117" s="2">
-        <f t="shared" ref="N117:N123" si="5">N106-SUM(B106:E106)-SUM(G106:M106)</f>
+        <f t="shared" ref="N117:N123" si="6">N106-SUM(B106:E106)-SUM(G106:M106)</f>
         <v>0</v>
       </c>
     </row>
@@ -13222,11 +13222,11 @@
         <v>71</v>
       </c>
       <c r="F118" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N118" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -13235,11 +13235,11 @@
         <v>72</v>
       </c>
       <c r="F119" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N119" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -13248,11 +13248,11 @@
         <v>73</v>
       </c>
       <c r="F120" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N120" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -13261,11 +13261,11 @@
         <v>75</v>
       </c>
       <c r="F121" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N121" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -13274,32 +13274,32 @@
         <v>76</v>
       </c>
       <c r="F122" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N122" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A123" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F123" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A123" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="F123" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="N123" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A124" s="45"/>
+      <c r="A124" s="43"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A125" s="45" t="s">
+      <c r="A125" s="43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -13336,10 +13336,10 @@
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="49" t="s">
+      <c r="A130" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B130" s="50">
+      <c r="B130" s="48">
         <v>256353</v>
       </c>
     </row>
@@ -13412,13 +13412,13 @@
       <c r="B139" s="2"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="46" t="s">
+      <c r="A140" s="44" t="s">
         <v>83</v>
       </c>
       <c r="B140" s="2"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="48">
+      <c r="A141" s="46">
         <v>15</v>
       </c>
       <c r="B141" s="2">
@@ -13426,7 +13426,7 @@
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="48">
+      <c r="A142" s="46">
         <v>16</v>
       </c>
       <c r="B142" s="2">
@@ -13434,7 +13434,7 @@
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="48">
+      <c r="A143" s="46">
         <v>18</v>
       </c>
       <c r="B143" s="2">
@@ -13442,7 +13442,7 @@
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="48">
+      <c r="A144" s="46">
         <v>19</v>
       </c>
       <c r="B144" s="2">
@@ -13450,7 +13450,7 @@
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="48">
+      <c r="A145" s="46">
         <v>20</v>
       </c>
       <c r="B145" s="2">
@@ -13458,7 +13458,7 @@
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="48">
+      <c r="A146" s="46">
         <v>25</v>
       </c>
       <c r="B146" s="2">
@@ -13466,7 +13466,7 @@
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="48">
+      <c r="A147" s="46">
         <v>30</v>
       </c>
       <c r="B147" s="2">
@@ -13474,7 +13474,7 @@
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="48">
+      <c r="A148" s="46">
         <v>40</v>
       </c>
       <c r="B148" s="2">
@@ -13482,7 +13482,7 @@
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="48">
+      <c r="A149" s="46">
         <v>50</v>
       </c>
       <c r="B149" s="2">
@@ -13490,7 +13490,7 @@
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="48">
+      <c r="A150" s="46">
         <v>60</v>
       </c>
       <c r="B150" s="2">
@@ -13498,7 +13498,7 @@
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="47">
+      <c r="A151" s="45">
         <v>70</v>
       </c>
     </row>
@@ -13825,36 +13825,36 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="G3" s="41" t="s">
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="G3" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
       <c r="K3" s="30" t="s">
         <v>30</v>
       </c>
       <c r="L3" s="12"/>
-      <c r="M3" s="41" t="s">
+      <c r="M3" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
       <c r="P3" s="39" t="s">
         <v>56</v>
       </c>
       <c r="Q3" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="S3" s="41" t="s">
+      <c r="S3" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
@@ -19739,8 +19739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CB8E1E-8C4D-44E1-9586-4CEFDEF185C8}">
   <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/auxiliary/census-1920.xlsx
+++ b/auxiliary/census-1920.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\auxiliary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD93C4E7-D291-4250-BF90-A1D10CDBF517}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B642F574-5147-45AB-A1CF-93DBC245A96C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="0" windowWidth="30060" windowHeight="23295" activeTab="6" xr2:uid="{0ED4691F-BE7B-497E-88B1-9CCACC27BAC8}"/>
+    <workbookView xWindow="5325" yWindow="285" windowWidth="30060" windowHeight="23295" activeTab="3" xr2:uid="{0ED4691F-BE7B-497E-88B1-9CCACC27BAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="заглавие" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="87">
   <si>
     <t>Перепись населения РСФСР 28 августа 1920 года</t>
   </si>
@@ -290,11 +290,26 @@
   <si>
     <t>данные для интерполяции в единичные годы</t>
   </si>
+  <si>
+    <t>число
+лет</t>
+  </si>
+  <si>
+    <t>чел.
+на год</t>
+  </si>
+  <si>
+    <t>в нём,
+чел.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -331,7 +346,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,6 +356,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -477,14 +498,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11767,8 +11797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2944B57D-BD82-4FD4-9A4F-956597CB1191}">
   <dimension ref="A1:AE210"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A141" sqref="A141:B150"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13298,9 +13328,18 @@
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="43"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A125" s="43" t="s">
+    <row r="125" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="49" t="s">
         <v>6</v>
+      </c>
+      <c r="B125" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="C125" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="D125" s="50" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
@@ -13310,6 +13349,13 @@
       <c r="B126" s="2">
         <v>1136</v>
       </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126" s="51">
+        <f>B126/C126</f>
+        <v>1136</v>
+      </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="34" t="s">
@@ -13318,6 +13364,13 @@
       <c r="B127" s="2">
         <v>12083</v>
       </c>
+      <c r="C127">
+        <v>2</v>
+      </c>
+      <c r="D127" s="51">
+        <f t="shared" ref="D127:D136" si="7">B127/C127</f>
+        <v>6041.5</v>
+      </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="34">
@@ -13326,72 +13379,135 @@
       <c r="B128" s="2">
         <v>53524</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128" s="51">
+        <f t="shared" si="7"/>
+        <v>53524</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="34">
         <v>19</v>
       </c>
       <c r="B129" s="2">
         <v>189610</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="47" t="s">
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129" s="51">
+        <f t="shared" si="7"/>
+        <v>189610</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B130" s="48">
+      <c r="B130" s="53">
         <v>256353</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C130" s="54">
+        <v>5</v>
+      </c>
+      <c r="D130" s="55">
+        <f t="shared" si="7"/>
+        <v>51270.6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="34" t="s">
         <v>18</v>
       </c>
       <c r="B131" s="2">
         <v>746474</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C131">
+        <v>5</v>
+      </c>
+      <c r="D131" s="51">
+        <f t="shared" si="7"/>
+        <v>149294.79999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="34" t="s">
         <v>19</v>
       </c>
       <c r="B132" s="2">
         <v>530927</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C132">
+        <v>5</v>
+      </c>
+      <c r="D132" s="51">
+        <f t="shared" si="7"/>
+        <v>106185.4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="34" t="s">
         <v>69</v>
       </c>
       <c r="B133" s="2">
         <v>380898</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C133">
+        <v>10</v>
+      </c>
+      <c r="D133" s="51">
+        <f t="shared" si="7"/>
+        <v>38089.800000000003</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="34" t="s">
         <v>22</v>
       </c>
       <c r="B134" s="2">
         <v>27095</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C134">
+        <v>10</v>
+      </c>
+      <c r="D134" s="51">
+        <f t="shared" si="7"/>
+        <v>2709.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="34" t="s">
         <v>23</v>
       </c>
       <c r="B135" s="2">
         <v>2820</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C135">
+        <v>10</v>
+      </c>
+      <c r="D135" s="51">
+        <f t="shared" si="7"/>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="34" t="s">
         <v>24</v>
       </c>
       <c r="B136" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C136">
+        <v>10</v>
+      </c>
+      <c r="D136" s="51">
+        <f t="shared" si="7"/>
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="34" t="s">
         <v>26</v>
       </c>
@@ -13399,7 +13515,7 @@
         <v>4903</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="34" t="s">
         <v>7</v>
       </c>
@@ -13407,17 +13523,17 @@
         <v>1950196</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="34"/>
       <c r="B139" s="2"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="44" t="s">
         <v>83</v>
       </c>
       <c r="B140" s="2"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="46">
         <v>15</v>
       </c>
@@ -13425,7 +13541,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="46">
         <v>16</v>
       </c>
@@ -13433,7 +13549,7 @@
         <v>12083</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="46">
         <v>18</v>
       </c>
@@ -13441,7 +13557,7 @@
         <v>53524</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="46">
         <v>19</v>
       </c>
@@ -13825,36 +13941,36 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="G3" s="50" t="s">
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="G3" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
       <c r="K3" s="30" t="s">
         <v>30</v>
       </c>
       <c r="L3" s="12"/>
-      <c r="M3" s="50" t="s">
+      <c r="M3" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
       <c r="P3" s="39" t="s">
         <v>56</v>
       </c>
       <c r="Q3" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="S3" s="50" t="s">
+      <c r="S3" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
@@ -19739,7 +19855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CB8E1E-8C4D-44E1-9586-4CEFDEF185C8}">
   <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>

--- a/auxiliary/census-1920.xlsx
+++ b/auxiliary/census-1920.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\auxiliary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B642F574-5147-45AB-A1CF-93DBC245A96C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F098FA5-CCA5-4BF1-A782-3FEB9798BD8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5325" yWindow="285" windowWidth="30060" windowHeight="23295" activeTab="3" xr2:uid="{0ED4691F-BE7B-497E-88B1-9CCACC27BAC8}"/>
+    <workbookView xWindow="4950" yWindow="705" windowWidth="30060" windowHeight="23295" activeTab="3" xr2:uid="{0ED4691F-BE7B-497E-88B1-9CCACC27BAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="заглавие" sheetId="1" r:id="rId1"/>
@@ -308,7 +308,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -498,23 +498,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11798,7 +11798,7 @@
   <dimension ref="A1:AE210"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125"/>
+      <selection activeCell="H130" sqref="H130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13329,16 +13329,16 @@
       <c r="A124" s="43"/>
     </row>
     <row r="125" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A125" s="49" t="s">
+      <c r="A125" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B125" s="50" t="s">
+      <c r="B125" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="C125" s="50" t="s">
+      <c r="C125" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="D125" s="50" t="s">
+      <c r="D125" s="48" t="s">
         <v>85</v>
       </c>
     </row>
@@ -13352,7 +13352,7 @@
       <c r="C126">
         <v>1</v>
       </c>
-      <c r="D126" s="51">
+      <c r="D126" s="54">
         <f>B126/C126</f>
         <v>1136</v>
       </c>
@@ -13367,7 +13367,7 @@
       <c r="C127">
         <v>2</v>
       </c>
-      <c r="D127" s="51">
+      <c r="D127" s="54">
         <f t="shared" ref="D127:D136" si="7">B127/C127</f>
         <v>6041.5</v>
       </c>
@@ -13382,7 +13382,7 @@
       <c r="C128">
         <v>1</v>
       </c>
-      <c r="D128" s="51">
+      <c r="D128" s="54">
         <f t="shared" si="7"/>
         <v>53524</v>
       </c>
@@ -13397,19 +13397,19 @@
       <c r="C129">
         <v>1</v>
       </c>
-      <c r="D129" s="51">
+      <c r="D129" s="54">
         <f t="shared" si="7"/>
         <v>189610</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="52" t="s">
+      <c r="A130" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B130" s="53">
+      <c r="B130" s="50">
         <v>256353</v>
       </c>
-      <c r="C130" s="54">
+      <c r="C130" s="51">
         <v>5</v>
       </c>
       <c r="D130" s="55">
@@ -13427,7 +13427,7 @@
       <c r="C131">
         <v>5</v>
       </c>
-      <c r="D131" s="51">
+      <c r="D131" s="54">
         <f t="shared" si="7"/>
         <v>149294.79999999999</v>
       </c>
@@ -13442,7 +13442,7 @@
       <c r="C132">
         <v>5</v>
       </c>
-      <c r="D132" s="51">
+      <c r="D132" s="54">
         <f t="shared" si="7"/>
         <v>106185.4</v>
       </c>
@@ -13457,7 +13457,7 @@
       <c r="C133">
         <v>10</v>
       </c>
-      <c r="D133" s="51">
+      <c r="D133" s="54">
         <f t="shared" si="7"/>
         <v>38089.800000000003</v>
       </c>
@@ -13472,7 +13472,7 @@
       <c r="C134">
         <v>10</v>
       </c>
-      <c r="D134" s="51">
+      <c r="D134" s="54">
         <f t="shared" si="7"/>
         <v>2709.5</v>
       </c>
@@ -13487,7 +13487,7 @@
       <c r="C135">
         <v>10</v>
       </c>
-      <c r="D135" s="51">
+      <c r="D135" s="54">
         <f t="shared" si="7"/>
         <v>282</v>
       </c>
@@ -13502,7 +13502,7 @@
       <c r="C136">
         <v>10</v>
       </c>
-      <c r="D136" s="51">
+      <c r="D136" s="54">
         <f t="shared" si="7"/>
         <v>72.599999999999994</v>
       </c>
@@ -13941,36 +13941,36 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="G3" s="48" t="s">
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="G3" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
       <c r="K3" s="30" t="s">
         <v>30</v>
       </c>
       <c r="L3" s="12"/>
-      <c r="M3" s="48" t="s">
+      <c r="M3" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
       <c r="P3" s="39" t="s">
         <v>56</v>
       </c>
       <c r="Q3" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="S3" s="48" t="s">
+      <c r="S3" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">

--- a/auxiliary/census-1920.xlsx
+++ b/auxiliary/census-1920.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\auxiliary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F098FA5-CCA5-4BF1-A782-3FEB9798BD8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A222E12-F368-442F-AE86-73CD7667786A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4950" yWindow="705" windowWidth="30060" windowHeight="23295" activeTab="3" xr2:uid="{0ED4691F-BE7B-497E-88B1-9CCACC27BAC8}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" activeTab="7" xr2:uid="{0ED4691F-BE7B-497E-88B1-9CCACC27BAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="заглавие" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="всего" sheetId="5" r:id="rId5"/>
     <sheet name="chart-5" sheetId="6" r:id="rId6"/>
     <sheet name="chart-1" sheetId="7" r:id="rId7"/>
+    <sheet name="интерполяция РККА" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="104">
   <si>
     <t>Перепись населения РСФСР 28 августа 1920 года</t>
   </si>
@@ -288,9 +289,6 @@
     <t>расхождение:</t>
   </si>
   <si>
-    <t>данные для интерполяции в единичные годы</t>
-  </si>
-  <si>
     <t>число
 лет</t>
   </si>
@@ -302,13 +300,68 @@
     <t>в нём,
 чел.</t>
   </si>
+  <si>
+    <t>Возрастные данные по РККА и РККФ изображаются распределением</t>
+  </si>
+  <si>
+    <t>Хотя сведений по отдельным годам возрастов не приводится, за этим распределением стоит непрерывная кривая горбовидной формы.</t>
+  </si>
+  <si>
+    <t>С опорой на это знание, мы можем приближённо реконструировать распределение по отдельным годам.</t>
+  </si>
+  <si>
+    <t>Для этого нам необходимо построить кривую вписывающуюся в распределение, а затем распаковать "корзины" по 2, 5 и 10 лет пропорционально значениям кривой для отдельных лет.</t>
+  </si>
+  <si>
+    <t>Кривая должна быть построена таким образом, чтобы её среднее значение в возрастном диапазоне каждой корзины равнялось среднему значению корзины.</t>
+  </si>
+  <si>
+    <t>Кривая строится двумя программами.</t>
+  </si>
+  <si>
+    <t>На первом шаге строится сплайн сохраняющий значения средних.</t>
+  </si>
+  <si>
+    <t>Эта программа расположена в auxiliary/census-1920-rkka/1-fortran.</t>
+  </si>
+  <si>
+    <t>Её результаты: в auxiliary/census-1920-rkka/2-java/src/main/resources/interpolation.txt</t>
+  </si>
+  <si>
+    <t>Кривая построенная с помощью сплайнов имеет перехлёсты и и местами уходит в отрицательные значения.</t>
+  </si>
+  <si>
+    <t>Вторым шагом она сглаживатеся для устранения этих дефектов таким образом, чтобы средние значения для диапазонов корзин сохранялись.</t>
+  </si>
+  <si>
+    <t>Эта вторая программа расположена в auxiliary/census-1920-rkka/2-java.</t>
+  </si>
+  <si>
+    <t>Итоговые результаты интерполяции:</t>
+  </si>
+  <si>
+    <t>корзина</t>
+  </si>
+  <si>
+    <t>интерполяция</t>
+  </si>
+  <si>
+    <t>См. реконструкцию на странице "интерполяция РККА".</t>
+  </si>
+  <si>
+    <t>Результат:</t>
+  </si>
+  <si>
+    <t>интер-
+поляция</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -378,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -492,9 +545,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -507,14 +557,18 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3423,6 +3477,983 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'интерполяция РККА'!$B$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>интерполяция</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'интерполяция РККА'!$A$36:$A$90</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'интерполяция РККА'!$B$36:$B$90</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>1136.0122679999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3270.325155</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8812.6748449999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53524</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>189610</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>165826.28892799999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>157114.790347</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>148860.94059799999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>141040.697613</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>133631.28234500001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>126611.112418</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>116822.645625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>106585.49572799999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>95949.350600000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>84958.395596000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>73651.922919999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>62668.348621999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>53337.745343000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45294.516090999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38253.925039000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>31994.213</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26342.668526000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21164.779741999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16355.785529000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11834.095377</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7536.164616</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5535.9728709999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4066.656872</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2987.315599</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2194.4449140000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1612.011962</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1184.1639540000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>869.87212399999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>638.997252</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>469.39944000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>344.81499500000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>329.08790099999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>314.07812200000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>299.75294400000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>286.08114</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>273.03291100000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>260.579814</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>248.694706</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>237.35168100000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>226.526014</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>216.194108</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>153.976035</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>109.663577</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>78.103713999999997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>55.626401000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>39.617789000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>28.216263999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>20.095962</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14.312585</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10.193593999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DBEA-467E-A2FB-ED829B0DB082}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'интерполяция РККА'!$C$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>корзина</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'интерполяция РККА'!$A$36:$A$90</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'интерполяция РККА'!$C$36:$C$90</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>1136</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6041.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6041.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53524</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>189610</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>149294.79999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>149294.79999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>149294.79999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>149294.79999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>149294.79999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>106185.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>106185.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>106185.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>106185.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>106185.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38089.800000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38089.800000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38089.800000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38089.800000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38089.800000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38089.800000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>38089.800000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>38089.800000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38089.800000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>38089.800000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2709.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2709.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2709.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2709.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2709.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2709.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2709.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2709.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2709.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2709.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>72.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>72.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>72.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>72.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>72.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>72.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>72.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>72.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>72.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>72.599999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DBEA-467E-A2FB-ED829B0DB082}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="882964504"/>
+        <c:axId val="882962864"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="882964504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="882962864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="882962864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="882964504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3464,6 +4495,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4513,6 +5584,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4740,6 +6327,47 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A751A651-DFA2-4262-A804-4C77435B9875}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -11797,8 +13425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2944B57D-BD82-4FD4-9A4F-956597CB1191}">
   <dimension ref="A1:AE210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="H130" sqref="H130"/>
+    <sheetView topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13329,17 +14957,17 @@
       <c r="A124" s="43"/>
     </row>
     <row r="125" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A125" s="47" t="s">
+      <c r="A125" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B125" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="C125" s="48" t="s">
+      <c r="B125" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C125" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="D125" s="47" t="s">
         <v>84</v>
-      </c>
-      <c r="D125" s="48" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
@@ -13352,7 +14980,7 @@
       <c r="C126">
         <v>1</v>
       </c>
-      <c r="D126" s="54">
+      <c r="D126" s="51">
         <f>B126/C126</f>
         <v>1136</v>
       </c>
@@ -13367,7 +14995,7 @@
       <c r="C127">
         <v>2</v>
       </c>
-      <c r="D127" s="54">
+      <c r="D127" s="51">
         <f t="shared" ref="D127:D136" si="7">B127/C127</f>
         <v>6041.5</v>
       </c>
@@ -13382,7 +15010,7 @@
       <c r="C128">
         <v>1</v>
       </c>
-      <c r="D128" s="54">
+      <c r="D128" s="51">
         <f t="shared" si="7"/>
         <v>53524</v>
       </c>
@@ -13397,22 +15025,22 @@
       <c r="C129">
         <v>1</v>
       </c>
-      <c r="D129" s="54">
+      <c r="D129" s="51">
         <f t="shared" si="7"/>
         <v>189610</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="49" t="s">
+      <c r="A130" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B130" s="50">
+      <c r="B130" s="49">
         <v>256353</v>
       </c>
-      <c r="C130" s="51">
+      <c r="C130" s="50">
         <v>5</v>
       </c>
-      <c r="D130" s="55">
+      <c r="D130" s="52">
         <f t="shared" si="7"/>
         <v>51270.6</v>
       </c>
@@ -13427,7 +15055,7 @@
       <c r="C131">
         <v>5</v>
       </c>
-      <c r="D131" s="54">
+      <c r="D131" s="51">
         <f t="shared" si="7"/>
         <v>149294.79999999999</v>
       </c>
@@ -13442,7 +15070,7 @@
       <c r="C132">
         <v>5</v>
       </c>
-      <c r="D132" s="54">
+      <c r="D132" s="51">
         <f t="shared" si="7"/>
         <v>106185.4</v>
       </c>
@@ -13457,7 +15085,7 @@
       <c r="C133">
         <v>10</v>
       </c>
-      <c r="D133" s="54">
+      <c r="D133" s="51">
         <f t="shared" si="7"/>
         <v>38089.800000000003</v>
       </c>
@@ -13472,7 +15100,7 @@
       <c r="C134">
         <v>10</v>
       </c>
-      <c r="D134" s="54">
+      <c r="D134" s="51">
         <f t="shared" si="7"/>
         <v>2709.5</v>
       </c>
@@ -13487,7 +15115,7 @@
       <c r="C135">
         <v>10</v>
       </c>
-      <c r="D135" s="54">
+      <c r="D135" s="51">
         <f t="shared" si="7"/>
         <v>282</v>
       </c>
@@ -13502,7 +15130,7 @@
       <c r="C136">
         <v>10</v>
       </c>
-      <c r="D136" s="54">
+      <c r="D136" s="51">
         <f t="shared" si="7"/>
         <v>72.599999999999994</v>
       </c>
@@ -13528,389 +15156,728 @@
       <c r="B139" s="2"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="44" t="s">
-        <v>83</v>
+      <c r="A140" t="s">
+        <v>87</v>
       </c>
       <c r="B140" s="2"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="46">
+      <c r="A141" t="s">
+        <v>88</v>
+      </c>
+      <c r="B141" s="2"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="B142" s="2"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="B143" s="2"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="45"/>
+      <c r="B144" s="2"/>
+    </row>
+    <row r="145" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B145" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="C145" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="E145" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="55">
         <v>15</v>
       </c>
-      <c r="B141" s="2">
+      <c r="B146" s="2">
+        <v>1136.0122679999999</v>
+      </c>
+      <c r="C146" s="2">
         <v>1136</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="46">
+      <c r="E146" s="55">
+        <f>AVERAGE(B146) -C146</f>
+        <v>1.2267999999949097E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="55">
         <v>16</v>
       </c>
-      <c r="B142" s="2">
-        <v>12083</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="46">
+      <c r="B147" s="2">
+        <v>3270.325155</v>
+      </c>
+      <c r="C147" s="2">
+        <v>6041.5</v>
+      </c>
+      <c r="E147" s="55">
+        <f>AVERAGE(B147:B148) - C147</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="55">
+        <v>17</v>
+      </c>
+      <c r="B148" s="2">
+        <v>8812.6748449999996</v>
+      </c>
+      <c r="C148" s="2">
+        <v>6041.5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="55">
         <v>18</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B149" s="2">
         <v>53524</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="46">
+      <c r="C149" s="2">
+        <v>53524</v>
+      </c>
+      <c r="E149" s="55">
+        <f>AVERAGE(B149) -C149</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="55">
         <v>19</v>
       </c>
-      <c r="B144" s="2">
+      <c r="B150" s="2">
         <v>189610</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="46">
+      <c r="C150" s="2">
+        <v>189610</v>
+      </c>
+      <c r="E150" s="55">
+        <f>AVERAGE(B150) -C150</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="55">
         <v>20</v>
       </c>
-      <c r="B145" s="2">
-        <v>746474</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="46">
+      <c r="B151" s="2">
+        <v>165826.28892799999</v>
+      </c>
+      <c r="C151" s="2">
+        <v>149294.79999999999</v>
+      </c>
+      <c r="E151" s="55">
+        <f>AVERAGE(B151:B155) - C151</f>
+        <v>-3.3800024539232254E-5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="55">
+        <v>21</v>
+      </c>
+      <c r="B152" s="2">
+        <v>157114.790347</v>
+      </c>
+      <c r="C152" s="2">
+        <v>149294.79999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="55">
+        <v>22</v>
+      </c>
+      <c r="B153" s="2">
+        <v>148860.94059799999</v>
+      </c>
+      <c r="C153" s="2">
+        <v>149294.79999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="55">
+        <v>23</v>
+      </c>
+      <c r="B154" s="2">
+        <v>141040.697613</v>
+      </c>
+      <c r="C154" s="2">
+        <v>149294.79999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="55">
+        <v>24</v>
+      </c>
+      <c r="B155" s="2">
+        <v>133631.28234500001</v>
+      </c>
+      <c r="C155" s="2">
+        <v>149294.79999999999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="55">
         <v>25</v>
       </c>
-      <c r="B146" s="2">
-        <v>530927</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="46">
+      <c r="B156" s="2">
+        <v>126611.112418</v>
+      </c>
+      <c r="C156" s="2">
+        <v>106185.4</v>
+      </c>
+      <c r="E156" s="55">
+        <f>AVERAGE(B156:B160) - C156</f>
+        <v>-6.5999920479953289E-6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="55">
+        <v>26</v>
+      </c>
+      <c r="B157" s="2">
+        <v>116822.645625</v>
+      </c>
+      <c r="C157" s="2">
+        <v>106185.4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="55">
+        <v>27</v>
+      </c>
+      <c r="B158" s="2">
+        <v>106585.49572799999</v>
+      </c>
+      <c r="C158" s="2">
+        <v>106185.4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="55">
+        <v>28</v>
+      </c>
+      <c r="B159" s="2">
+        <v>95949.350600000005</v>
+      </c>
+      <c r="C159" s="2">
+        <v>106185.4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="55">
+        <v>29</v>
+      </c>
+      <c r="B160" s="2">
+        <v>84958.395596000002</v>
+      </c>
+      <c r="C160" s="2">
+        <v>106185.4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="55">
         <v>30</v>
       </c>
-      <c r="B147" s="2">
-        <v>380898</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="46">
+      <c r="B161" s="2">
+        <v>73651.922919999997</v>
+      </c>
+      <c r="C161" s="2">
+        <v>38089.800000000003</v>
+      </c>
+      <c r="E161" s="55">
+        <f>AVERAGE(B161:B170) -C161</f>
+        <v>1.8899991118814796E-5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="55">
+        <v>31</v>
+      </c>
+      <c r="B162" s="2">
+        <v>62668.348621999998</v>
+      </c>
+      <c r="C162" s="2">
+        <v>38089.800000000003</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="55">
+        <v>32</v>
+      </c>
+      <c r="B163" s="2">
+        <v>53337.745343000002</v>
+      </c>
+      <c r="C163" s="2">
+        <v>38089.800000000003</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="55">
+        <v>33</v>
+      </c>
+      <c r="B164" s="2">
+        <v>45294.516090999998</v>
+      </c>
+      <c r="C164" s="2">
+        <v>38089.800000000003</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="55">
+        <v>34</v>
+      </c>
+      <c r="B165" s="2">
+        <v>38253.925039000002</v>
+      </c>
+      <c r="C165" s="2">
+        <v>38089.800000000003</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="55">
+        <v>35</v>
+      </c>
+      <c r="B166" s="2">
+        <v>31994.213</v>
+      </c>
+      <c r="C166" s="2">
+        <v>38089.800000000003</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="55">
+        <v>36</v>
+      </c>
+      <c r="B167" s="2">
+        <v>26342.668526000001</v>
+      </c>
+      <c r="C167" s="2">
+        <v>38089.800000000003</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="55">
+        <v>37</v>
+      </c>
+      <c r="B168" s="2">
+        <v>21164.779741999999</v>
+      </c>
+      <c r="C168" s="2">
+        <v>38089.800000000003</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="55">
+        <v>38</v>
+      </c>
+      <c r="B169" s="2">
+        <v>16355.785529000001</v>
+      </c>
+      <c r="C169" s="2">
+        <v>38089.800000000003</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="55">
+        <v>39</v>
+      </c>
+      <c r="B170" s="2">
+        <v>11834.095377</v>
+      </c>
+      <c r="C170" s="2">
+        <v>38089.800000000003</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="55">
         <v>40</v>
       </c>
-      <c r="B148" s="2">
-        <v>27095</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="46">
+      <c r="B171" s="2">
+        <v>7536.164616</v>
+      </c>
+      <c r="C171" s="2">
+        <v>2709.5</v>
+      </c>
+      <c r="E171" s="55">
+        <f>AVERAGE(B171:B180) -C171</f>
+        <v>-3.9599999581696466E-5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="55">
+        <v>41</v>
+      </c>
+      <c r="B172" s="2">
+        <v>5535.9728709999999</v>
+      </c>
+      <c r="C172" s="2">
+        <v>2709.5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="55">
+        <v>42</v>
+      </c>
+      <c r="B173" s="2">
+        <v>4066.656872</v>
+      </c>
+      <c r="C173" s="2">
+        <v>2709.5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="55">
+        <v>43</v>
+      </c>
+      <c r="B174" s="2">
+        <v>2987.315599</v>
+      </c>
+      <c r="C174" s="2">
+        <v>2709.5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="55">
+        <v>44</v>
+      </c>
+      <c r="B175" s="2">
+        <v>2194.4449140000002</v>
+      </c>
+      <c r="C175" s="2">
+        <v>2709.5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="55">
+        <v>45</v>
+      </c>
+      <c r="B176" s="2">
+        <v>1612.011962</v>
+      </c>
+      <c r="C176" s="2">
+        <v>2709.5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="55">
+        <v>46</v>
+      </c>
+      <c r="B177" s="2">
+        <v>1184.1639540000001</v>
+      </c>
+      <c r="C177" s="2">
+        <v>2709.5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="55">
+        <v>47</v>
+      </c>
+      <c r="B178" s="2">
+        <v>869.87212399999999</v>
+      </c>
+      <c r="C178" s="2">
+        <v>2709.5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="55">
+        <v>48</v>
+      </c>
+      <c r="B179" s="2">
+        <v>638.997252</v>
+      </c>
+      <c r="C179" s="2">
+        <v>2709.5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="55">
+        <v>49</v>
+      </c>
+      <c r="B180" s="2">
+        <v>469.39944000000003</v>
+      </c>
+      <c r="C180" s="2">
+        <v>2709.5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="55">
         <v>50</v>
       </c>
-      <c r="B149" s="2">
-        <v>2820</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="46">
+      <c r="B181" s="2">
+        <v>344.81499500000001</v>
+      </c>
+      <c r="C181" s="2">
+        <v>282</v>
+      </c>
+      <c r="E181" s="55">
+        <f>AVERAGE(B181:B190) -C181</f>
+        <v>2.2800000010647636E-5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="55">
+        <v>51</v>
+      </c>
+      <c r="B182" s="2">
+        <v>329.08790099999999</v>
+      </c>
+      <c r="C182" s="2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="55">
+        <v>52</v>
+      </c>
+      <c r="B183" s="2">
+        <v>314.07812200000001</v>
+      </c>
+      <c r="C183" s="2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="55">
+        <v>53</v>
+      </c>
+      <c r="B184" s="2">
+        <v>299.75294400000001</v>
+      </c>
+      <c r="C184" s="2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="55">
+        <v>54</v>
+      </c>
+      <c r="B185" s="2">
+        <v>286.08114</v>
+      </c>
+      <c r="C185" s="2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="55">
+        <v>55</v>
+      </c>
+      <c r="B186" s="2">
+        <v>273.03291100000001</v>
+      </c>
+      <c r="C186" s="2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="55">
+        <v>56</v>
+      </c>
+      <c r="B187" s="2">
+        <v>260.579814</v>
+      </c>
+      <c r="C187" s="2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="55">
+        <v>57</v>
+      </c>
+      <c r="B188" s="2">
+        <v>248.694706</v>
+      </c>
+      <c r="C188" s="2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="55">
+        <v>58</v>
+      </c>
+      <c r="B189" s="2">
+        <v>237.35168100000001</v>
+      </c>
+      <c r="C189" s="2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="55">
+        <v>59</v>
+      </c>
+      <c r="B190" s="2">
+        <v>226.526014</v>
+      </c>
+      <c r="C190" s="2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="55">
         <v>60</v>
       </c>
-      <c r="B150" s="2">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="45">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="5">
-        <v>15</v>
-      </c>
-      <c r="B156" s="2"/>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="5">
-        <v>18</v>
-      </c>
-      <c r="B159" s="2"/>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="5">
-        <v>19</v>
-      </c>
-      <c r="B160" s="2"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="5">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="6">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="12">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="12">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="12">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="12">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="12">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="12">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="12">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="12">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="12">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="13">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="13">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="13">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="13">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="13">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="13">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="13">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="13">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="13">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="13">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="13">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="13">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="13">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="13">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="12">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="12">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="12">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="12">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="12">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="12">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="12">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="12">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="12">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="12">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="12">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="13">
+      <c r="B191" s="2">
+        <v>216.194108</v>
+      </c>
+      <c r="C191" s="2">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="E191" s="55">
+        <f>AVERAGE(B191:B200) -C191</f>
+        <v>2.8999999983625457E-6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="55">
         <v>61</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="13">
+      <c r="B192" s="2">
+        <v>153.976035</v>
+      </c>
+      <c r="C192" s="2">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="55">
         <v>62</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="13">
+      <c r="B193" s="2">
+        <v>109.663577</v>
+      </c>
+      <c r="C193" s="2">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="55">
         <v>63</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="13">
+      <c r="B194" s="2">
+        <v>78.103713999999997</v>
+      </c>
+      <c r="C194" s="2">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="55">
         <v>64</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="13">
+      <c r="B195" s="2">
+        <v>55.626401000000001</v>
+      </c>
+      <c r="C195" s="2">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="55">
         <v>65</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="13">
+      <c r="B196" s="2">
+        <v>39.617789000000002</v>
+      </c>
+      <c r="C196" s="2">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="55">
         <v>66</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="13">
+      <c r="B197" s="2">
+        <v>28.216263999999999</v>
+      </c>
+      <c r="C197" s="2">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="55">
         <v>67</v>
       </c>
+      <c r="B198" s="2">
+        <v>20.095962</v>
+      </c>
+      <c r="C198" s="2">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="55">
+        <v>68</v>
+      </c>
+      <c r="B199" s="2">
+        <v>14.312585</v>
+      </c>
+      <c r="C199" s="2">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="55">
+        <v>69</v>
+      </c>
+      <c r="B200" s="2">
+        <v>10.193593999999999</v>
+      </c>
+      <c r="C200" s="2">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="12"/>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="13"/>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="13"/>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="13"/>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="13"/>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="13"/>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="13"/>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="13"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="13">
-        <v>68</v>
-      </c>
+      <c r="A209" s="13"/>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="13">
-        <v>69</v>
-      </c>
+      <c r="A210" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="B74 B84 B64" formula="1"/>
+    <ignoredError sqref="E147:E191" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -13941,36 +15908,36 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="G3" s="53" t="s">
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="G3" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
       <c r="K3" s="30" t="s">
         <v>30</v>
       </c>
       <c r="L3" s="12"/>
-      <c r="M3" s="53" t="s">
+      <c r="M3" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
       <c r="P3" s="39" t="s">
         <v>56</v>
       </c>
       <c r="Q3" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="S3" s="53" t="s">
+      <c r="S3" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
@@ -21400,4 +23367,899 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6CC946-8C8A-4206-96C6-A57541C1CBC0}">
+  <dimension ref="A1:D90"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="AI45" sqref="AI45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="34">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1136</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="51">
+        <f>B4/C4</f>
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="2">
+        <v>12083</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="51">
+        <f t="shared" ref="D5:D14" si="0">B5/C5</f>
+        <v>6041.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="34">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2">
+        <v>53524</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="51">
+        <f t="shared" si="0"/>
+        <v>53524</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="34">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2">
+        <v>189610</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="51">
+        <f t="shared" si="0"/>
+        <v>189610</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="49">
+        <v>256353</v>
+      </c>
+      <c r="C8" s="50">
+        <v>5</v>
+      </c>
+      <c r="D8" s="52">
+        <f t="shared" si="0"/>
+        <v>51270.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2">
+        <v>746474</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" s="51">
+        <f t="shared" si="0"/>
+        <v>149294.79999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2">
+        <v>530927</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10" s="51">
+        <f t="shared" si="0"/>
+        <v>106185.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="2">
+        <v>380898</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" s="51">
+        <f t="shared" si="0"/>
+        <v>38089.800000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2">
+        <v>27095</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" s="51">
+        <f t="shared" si="0"/>
+        <v>2709.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2820</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" s="51">
+        <f t="shared" si="0"/>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2">
+        <v>726</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" s="51">
+        <f t="shared" si="0"/>
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2">
+        <v>4903</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1950196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="55">
+        <v>15</v>
+      </c>
+      <c r="B36" s="55">
+        <v>1136.0122679999999</v>
+      </c>
+      <c r="C36" s="55">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="55">
+        <v>16</v>
+      </c>
+      <c r="B37" s="55">
+        <v>3270.325155</v>
+      </c>
+      <c r="C37" s="55">
+        <v>6041.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="55">
+        <v>17</v>
+      </c>
+      <c r="B38" s="55">
+        <v>8812.6748449999996</v>
+      </c>
+      <c r="C38" s="55">
+        <v>6041.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="55">
+        <v>18</v>
+      </c>
+      <c r="B39" s="55">
+        <v>53524</v>
+      </c>
+      <c r="C39" s="55">
+        <v>53524</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="55">
+        <v>19</v>
+      </c>
+      <c r="B40" s="55">
+        <v>189610</v>
+      </c>
+      <c r="C40" s="55">
+        <v>189610</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="55">
+        <v>20</v>
+      </c>
+      <c r="B41" s="55">
+        <v>165826.28892799999</v>
+      </c>
+      <c r="C41" s="55">
+        <v>149294.79999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="55">
+        <v>21</v>
+      </c>
+      <c r="B42" s="55">
+        <v>157114.790347</v>
+      </c>
+      <c r="C42" s="55">
+        <v>149294.79999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="55">
+        <v>22</v>
+      </c>
+      <c r="B43" s="55">
+        <v>148860.94059799999</v>
+      </c>
+      <c r="C43" s="55">
+        <v>149294.79999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="55">
+        <v>23</v>
+      </c>
+      <c r="B44" s="55">
+        <v>141040.697613</v>
+      </c>
+      <c r="C44" s="55">
+        <v>149294.79999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="55">
+        <v>24</v>
+      </c>
+      <c r="B45" s="55">
+        <v>133631.28234500001</v>
+      </c>
+      <c r="C45" s="55">
+        <v>149294.79999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="55">
+        <v>25</v>
+      </c>
+      <c r="B46" s="55">
+        <v>126611.112418</v>
+      </c>
+      <c r="C46" s="55">
+        <v>106185.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="55">
+        <v>26</v>
+      </c>
+      <c r="B47" s="55">
+        <v>116822.645625</v>
+      </c>
+      <c r="C47" s="55">
+        <v>106185.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="55">
+        <v>27</v>
+      </c>
+      <c r="B48" s="55">
+        <v>106585.49572799999</v>
+      </c>
+      <c r="C48" s="55">
+        <v>106185.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="55">
+        <v>28</v>
+      </c>
+      <c r="B49" s="55">
+        <v>95949.350600000005</v>
+      </c>
+      <c r="C49" s="55">
+        <v>106185.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="55">
+        <v>29</v>
+      </c>
+      <c r="B50" s="55">
+        <v>84958.395596000002</v>
+      </c>
+      <c r="C50" s="55">
+        <v>106185.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="55">
+        <v>30</v>
+      </c>
+      <c r="B51" s="55">
+        <v>73651.922919999997</v>
+      </c>
+      <c r="C51" s="55">
+        <v>38089.800000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="55">
+        <v>31</v>
+      </c>
+      <c r="B52" s="55">
+        <v>62668.348621999998</v>
+      </c>
+      <c r="C52" s="55">
+        <v>38089.800000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="55">
+        <v>32</v>
+      </c>
+      <c r="B53" s="55">
+        <v>53337.745343000002</v>
+      </c>
+      <c r="C53" s="55">
+        <v>38089.800000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="55">
+        <v>33</v>
+      </c>
+      <c r="B54" s="55">
+        <v>45294.516090999998</v>
+      </c>
+      <c r="C54" s="55">
+        <v>38089.800000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="55">
+        <v>34</v>
+      </c>
+      <c r="B55" s="55">
+        <v>38253.925039000002</v>
+      </c>
+      <c r="C55" s="55">
+        <v>38089.800000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="55">
+        <v>35</v>
+      </c>
+      <c r="B56" s="55">
+        <v>31994.213</v>
+      </c>
+      <c r="C56" s="55">
+        <v>38089.800000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="55">
+        <v>36</v>
+      </c>
+      <c r="B57" s="55">
+        <v>26342.668526000001</v>
+      </c>
+      <c r="C57" s="55">
+        <v>38089.800000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="55">
+        <v>37</v>
+      </c>
+      <c r="B58" s="55">
+        <v>21164.779741999999</v>
+      </c>
+      <c r="C58" s="55">
+        <v>38089.800000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="55">
+        <v>38</v>
+      </c>
+      <c r="B59" s="55">
+        <v>16355.785529000001</v>
+      </c>
+      <c r="C59" s="55">
+        <v>38089.800000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="55">
+        <v>39</v>
+      </c>
+      <c r="B60" s="55">
+        <v>11834.095377</v>
+      </c>
+      <c r="C60" s="55">
+        <v>38089.800000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="55">
+        <v>40</v>
+      </c>
+      <c r="B61" s="55">
+        <v>7536.164616</v>
+      </c>
+      <c r="C61" s="55">
+        <v>2709.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="55">
+        <v>41</v>
+      </c>
+      <c r="B62" s="55">
+        <v>5535.9728709999999</v>
+      </c>
+      <c r="C62" s="55">
+        <v>2709.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="55">
+        <v>42</v>
+      </c>
+      <c r="B63" s="55">
+        <v>4066.656872</v>
+      </c>
+      <c r="C63" s="55">
+        <v>2709.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="55">
+        <v>43</v>
+      </c>
+      <c r="B64" s="55">
+        <v>2987.315599</v>
+      </c>
+      <c r="C64" s="55">
+        <v>2709.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="55">
+        <v>44</v>
+      </c>
+      <c r="B65" s="55">
+        <v>2194.4449140000002</v>
+      </c>
+      <c r="C65" s="55">
+        <v>2709.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="55">
+        <v>45</v>
+      </c>
+      <c r="B66" s="55">
+        <v>1612.011962</v>
+      </c>
+      <c r="C66" s="55">
+        <v>2709.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="55">
+        <v>46</v>
+      </c>
+      <c r="B67" s="55">
+        <v>1184.1639540000001</v>
+      </c>
+      <c r="C67" s="55">
+        <v>2709.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="55">
+        <v>47</v>
+      </c>
+      <c r="B68" s="55">
+        <v>869.87212399999999</v>
+      </c>
+      <c r="C68" s="55">
+        <v>2709.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="55">
+        <v>48</v>
+      </c>
+      <c r="B69" s="55">
+        <v>638.997252</v>
+      </c>
+      <c r="C69" s="55">
+        <v>2709.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="55">
+        <v>49</v>
+      </c>
+      <c r="B70" s="55">
+        <v>469.39944000000003</v>
+      </c>
+      <c r="C70" s="55">
+        <v>2709.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="55">
+        <v>50</v>
+      </c>
+      <c r="B71" s="55">
+        <v>344.81499500000001</v>
+      </c>
+      <c r="C71" s="55">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="55">
+        <v>51</v>
+      </c>
+      <c r="B72" s="55">
+        <v>329.08790099999999</v>
+      </c>
+      <c r="C72" s="55">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="55">
+        <v>52</v>
+      </c>
+      <c r="B73" s="55">
+        <v>314.07812200000001</v>
+      </c>
+      <c r="C73" s="55">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="55">
+        <v>53</v>
+      </c>
+      <c r="B74" s="55">
+        <v>299.75294400000001</v>
+      </c>
+      <c r="C74" s="55">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="55">
+        <v>54</v>
+      </c>
+      <c r="B75" s="55">
+        <v>286.08114</v>
+      </c>
+      <c r="C75" s="55">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="55">
+        <v>55</v>
+      </c>
+      <c r="B76" s="55">
+        <v>273.03291100000001</v>
+      </c>
+      <c r="C76" s="55">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="55">
+        <v>56</v>
+      </c>
+      <c r="B77" s="55">
+        <v>260.579814</v>
+      </c>
+      <c r="C77" s="55">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="55">
+        <v>57</v>
+      </c>
+      <c r="B78" s="55">
+        <v>248.694706</v>
+      </c>
+      <c r="C78" s="55">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="55">
+        <v>58</v>
+      </c>
+      <c r="B79" s="55">
+        <v>237.35168100000001</v>
+      </c>
+      <c r="C79" s="55">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="55">
+        <v>59</v>
+      </c>
+      <c r="B80" s="55">
+        <v>226.526014</v>
+      </c>
+      <c r="C80" s="55">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="55">
+        <v>60</v>
+      </c>
+      <c r="B81" s="55">
+        <v>216.194108</v>
+      </c>
+      <c r="C81" s="55">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="55">
+        <v>61</v>
+      </c>
+      <c r="B82" s="55">
+        <v>153.976035</v>
+      </c>
+      <c r="C82" s="55">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="55">
+        <v>62</v>
+      </c>
+      <c r="B83" s="55">
+        <v>109.663577</v>
+      </c>
+      <c r="C83" s="55">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="55">
+        <v>63</v>
+      </c>
+      <c r="B84" s="55">
+        <v>78.103713999999997</v>
+      </c>
+      <c r="C84" s="55">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="55">
+        <v>64</v>
+      </c>
+      <c r="B85" s="55">
+        <v>55.626401000000001</v>
+      </c>
+      <c r="C85" s="55">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="55">
+        <v>65</v>
+      </c>
+      <c r="B86" s="55">
+        <v>39.617789000000002</v>
+      </c>
+      <c r="C86" s="55">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="55">
+        <v>66</v>
+      </c>
+      <c r="B87" s="55">
+        <v>28.216263999999999</v>
+      </c>
+      <c r="C87" s="55">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="55">
+        <v>67</v>
+      </c>
+      <c r="B88" s="55">
+        <v>20.095962</v>
+      </c>
+      <c r="C88" s="55">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="55">
+        <v>68</v>
+      </c>
+      <c r="B89" s="55">
+        <v>14.312585</v>
+      </c>
+      <c r="C89" s="55">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="55">
+        <v>69</v>
+      </c>
+      <c r="B90" s="55">
+        <v>10.193593999999999</v>
+      </c>
+      <c r="C90" s="55">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/auxiliary/census-1920.xlsx
+++ b/auxiliary/census-1920.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\auxiliary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A222E12-F368-442F-AE86-73CD7667786A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A087DB4F-945A-4FA5-9EA5-76B014CB5AE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" activeTab="7" xr2:uid="{0ED4691F-BE7B-497E-88B1-9CCACC27BAC8}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" activeTab="6" xr2:uid="{0ED4691F-BE7B-497E-88B1-9CCACC27BAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="заглавие" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="106">
   <si>
     <t>Перепись населения РСФСР 28 августа 1920 года</t>
   </si>
@@ -355,6 +355,12 @@
     <t>интер-
 поляция</t>
   </si>
+  <si>
+    <t>население возраста 19-25</t>
+  </si>
+  <si>
+    <t>население возраста 19-30</t>
+  </si>
 </sst>
 </file>
 
@@ -431,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -559,15 +565,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -904,37 +913,37 @@
                   <c:v>-4119813</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2996424</c:v>
+                  <c:v>-2843955.0122680003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2071405</c:v>
+                  <c:v>-1696956.9998309999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1832683</c:v>
+                  <c:v>-1608296.999967</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1565666</c:v>
+                  <c:v>-1458729.458015</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1726925</c:v>
+                  <c:v>-1699996.5421740001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1408163</c:v>
+                  <c:v>-1409018.5548720001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1400358</c:v>
+                  <c:v>-1383667.4447320001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1014083</c:v>
+                  <c:v>-1012990.8151020001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1016053</c:v>
+                  <c:v>-1014633.1851260001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-807882.49999999988</c:v>
+                  <c:v>-807750.56383499992</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-544797.5</c:v>
+                  <c:v>-544164.43619400007</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>-370710</c:v>
@@ -1110,37 +1119,37 @@
                         <c:v>4119813</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>2996424</c:v>
+                        <c:v>2843955.0122680003</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>2071405</c:v>
+                        <c:v>1696956.9998309999</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>1832683</c:v>
+                        <c:v>1608296.999967</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>1565666</c:v>
+                        <c:v>1458729.458015</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>1726925</c:v>
+                        <c:v>1699996.5421740001</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>1408163</c:v>
+                        <c:v>1409018.5548720001</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>1400358</c:v>
+                        <c:v>1383667.4447320001</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>1014083</c:v>
+                        <c:v>1012990.8151020001</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>1016053</c:v>
+                        <c:v>1014633.1851260001</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>807882.49999999988</c:v>
+                        <c:v>807750.56383499992</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>544797.5</c:v>
+                        <c:v>544164.43619400007</c:v>
                       </c:pt>
                       <c:pt idx="14">
                         <c:v>370710</c:v>
@@ -2391,169 +2400,169 @@
                   <c:v>-727121</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-670400</c:v>
+                  <c:v>-669040.01226800005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-713569</c:v>
+                  <c:v>-709903.32515499997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-602838</c:v>
+                  <c:v>-593016.67484500003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-518106</c:v>
+                  <c:v>-485595</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-491511</c:v>
+                  <c:v>-386400</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-513590</c:v>
+                  <c:v>-386643.28892800002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-338741</c:v>
+                  <c:v>-304888.790347</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-418726</c:v>
+                  <c:v>-343990.94059799996</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-428013</c:v>
+                  <c:v>-344484.697613</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-372335</c:v>
+                  <c:v>-316949.28234500001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-430837</c:v>
+                  <c:v>-371516.112418</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-361157</c:v>
+                  <c:v>-317934.645625</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-377080</c:v>
+                  <c:v>-330481.49572800001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-380781</c:v>
+                  <c:v>-331251.35060000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-282828</c:v>
+                  <c:v>-257113.39559600002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-399969</c:v>
+                  <c:v>-365789.92291999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-204058</c:v>
+                  <c:v>-193438.34862199999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-336201</c:v>
+                  <c:v>-302279.74534299999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-344670</c:v>
+                  <c:v>-325005.516091</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-280768</c:v>
+                  <c:v>-272215.92503899999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-399506</c:v>
+                  <c:v>-404576.21299999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-323419</c:v>
+                  <c:v>-322837.66852599999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-339611</c:v>
+                  <c:v>-333851.77974199998</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-372569</c:v>
+                  <c:v>-362000.78552899999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-291820</c:v>
+                  <c:v>-276730.09537699999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-392886</c:v>
+                  <c:v>-396129.16461600002</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-200817</c:v>
+                  <c:v>-202059.97287100001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-306701</c:v>
+                  <c:v>-306474.65687200002</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-281649</c:v>
+                  <c:v>-280343.31559900002</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-226110</c:v>
+                  <c:v>-224011.44491399999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-415284</c:v>
+                  <c:v>-412603.01196199999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-288955</c:v>
+                  <c:v>-285846.16395399999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-263212</c:v>
+                  <c:v>-259788.87212399999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-265088</c:v>
+                  <c:v>-261433.997252</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-167819</c:v>
+                  <c:v>-163995.39944000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-392971.2</c:v>
+                  <c:v>-392782.81499500002</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-134452.20000000001</c:v>
+                  <c:v>-134248.08790099999</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-196917.2</c:v>
+                  <c:v>-196698.07812200001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-160205.20000000001</c:v>
+                  <c:v>-159971.75294400001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-129537.2</c:v>
+                  <c:v>-129290.08113999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-364740.2</c:v>
+                  <c:v>-364480.03291100002</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-219615.2</c:v>
+                  <c:v>-219342.579814</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-176736.2</c:v>
+                  <c:v>-176451.69470600001</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-159533.20000000001</c:v>
+                  <c:v>-159237.351681</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-95428.2</c:v>
+                  <c:v>-95121.526014000003</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-399314.1</c:v>
+                  <c:v>-399381.19410800003</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-81349.100000000006</c:v>
+                  <c:v>-81353.976035</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-134581.1</c:v>
+                  <c:v>-134541.663577</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-116988.1</c:v>
+                  <c:v>-116917.103714</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-75650.100000000006</c:v>
+                  <c:v>-75556.626401000001</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-242951.1</c:v>
+                  <c:v>-242841.61778900001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-89434.1</c:v>
+                  <c:v>-89313.216264000002</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-102164.1</c:v>
+                  <c:v>-102035.09596200001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-73131.100000000006</c:v>
+                  <c:v>-72996.312585000007</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-37117.1</c:v>
+                  <c:v>-36978.193593999997</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>-240653</c:v>
@@ -3077,169 +3086,169 @@
                         <c:v>727121</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>670400</c:v>
+                        <c:v>669040.01226800005</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>713569</c:v>
+                        <c:v>709903.32515499997</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>602838</c:v>
+                        <c:v>593016.67484500003</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>518106</c:v>
+                        <c:v>485595</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>491511</c:v>
+                        <c:v>386400</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>513590</c:v>
+                        <c:v>386643.28892800002</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>338741</c:v>
+                        <c:v>304888.790347</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>418726</c:v>
+                        <c:v>343990.94059799996</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>428013</c:v>
+                        <c:v>344484.697613</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>372335</c:v>
+                        <c:v>316949.28234500001</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>430837</c:v>
+                        <c:v>371516.112418</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>361157</c:v>
+                        <c:v>317934.645625</c:v>
                       </c:pt>
                       <c:pt idx="27">
-                        <c:v>377080</c:v>
+                        <c:v>330481.49572800001</c:v>
                       </c:pt>
                       <c:pt idx="28">
-                        <c:v>380781</c:v>
+                        <c:v>331251.35060000001</c:v>
                       </c:pt>
                       <c:pt idx="29">
-                        <c:v>282828</c:v>
+                        <c:v>257113.39559600002</c:v>
                       </c:pt>
                       <c:pt idx="30">
-                        <c:v>399969</c:v>
+                        <c:v>365789.92291999998</c:v>
                       </c:pt>
                       <c:pt idx="31">
-                        <c:v>204058</c:v>
+                        <c:v>193438.34862199999</c:v>
                       </c:pt>
                       <c:pt idx="32">
-                        <c:v>336201</c:v>
+                        <c:v>302279.74534299999</c:v>
                       </c:pt>
                       <c:pt idx="33">
-                        <c:v>344670</c:v>
+                        <c:v>325005.516091</c:v>
                       </c:pt>
                       <c:pt idx="34">
-                        <c:v>280768</c:v>
+                        <c:v>272215.92503899999</c:v>
                       </c:pt>
                       <c:pt idx="35">
-                        <c:v>399506</c:v>
+                        <c:v>404576.21299999999</c:v>
                       </c:pt>
                       <c:pt idx="36">
-                        <c:v>323419</c:v>
+                        <c:v>322837.66852599999</c:v>
                       </c:pt>
                       <c:pt idx="37">
-                        <c:v>339611</c:v>
+                        <c:v>333851.77974199998</c:v>
                       </c:pt>
                       <c:pt idx="38">
-                        <c:v>372569</c:v>
+                        <c:v>362000.78552899999</c:v>
                       </c:pt>
                       <c:pt idx="39">
-                        <c:v>291820</c:v>
+                        <c:v>276730.09537699999</c:v>
                       </c:pt>
                       <c:pt idx="40">
-                        <c:v>392886</c:v>
+                        <c:v>396129.16461600002</c:v>
                       </c:pt>
                       <c:pt idx="41">
-                        <c:v>200817</c:v>
+                        <c:v>202059.97287100001</c:v>
                       </c:pt>
                       <c:pt idx="42">
-                        <c:v>306701</c:v>
+                        <c:v>306474.65687200002</c:v>
                       </c:pt>
                       <c:pt idx="43">
-                        <c:v>281649</c:v>
+                        <c:v>280343.31559900002</c:v>
                       </c:pt>
                       <c:pt idx="44">
-                        <c:v>226110</c:v>
+                        <c:v>224011.44491399999</c:v>
                       </c:pt>
                       <c:pt idx="45">
-                        <c:v>415284</c:v>
+                        <c:v>412603.01196199999</c:v>
                       </c:pt>
                       <c:pt idx="46">
-                        <c:v>288955</c:v>
+                        <c:v>285846.16395399999</c:v>
                       </c:pt>
                       <c:pt idx="47">
-                        <c:v>263212</c:v>
+                        <c:v>259788.87212399999</c:v>
                       </c:pt>
                       <c:pt idx="48">
-                        <c:v>265088</c:v>
+                        <c:v>261433.997252</c:v>
                       </c:pt>
                       <c:pt idx="49">
-                        <c:v>167819</c:v>
+                        <c:v>163995.39944000001</c:v>
                       </c:pt>
                       <c:pt idx="50">
-                        <c:v>392971.2</c:v>
+                        <c:v>392782.81499500002</c:v>
                       </c:pt>
                       <c:pt idx="51">
-                        <c:v>134452.20000000001</c:v>
+                        <c:v>134248.08790099999</c:v>
                       </c:pt>
                       <c:pt idx="52">
-                        <c:v>196917.2</c:v>
+                        <c:v>196698.07812200001</c:v>
                       </c:pt>
                       <c:pt idx="53">
-                        <c:v>160205.20000000001</c:v>
+                        <c:v>159971.75294400001</c:v>
                       </c:pt>
                       <c:pt idx="54">
-                        <c:v>129537.2</c:v>
+                        <c:v>129290.08113999999</c:v>
                       </c:pt>
                       <c:pt idx="55">
-                        <c:v>364740.2</c:v>
+                        <c:v>364480.03291100002</c:v>
                       </c:pt>
                       <c:pt idx="56">
-                        <c:v>219615.2</c:v>
+                        <c:v>219342.579814</c:v>
                       </c:pt>
                       <c:pt idx="57">
-                        <c:v>176736.2</c:v>
+                        <c:v>176451.69470600001</c:v>
                       </c:pt>
                       <c:pt idx="58">
-                        <c:v>159533.20000000001</c:v>
+                        <c:v>159237.351681</c:v>
                       </c:pt>
                       <c:pt idx="59">
-                        <c:v>95428.2</c:v>
+                        <c:v>95121.526014000003</c:v>
                       </c:pt>
                       <c:pt idx="60">
-                        <c:v>399314.1</c:v>
+                        <c:v>399381.19410800003</c:v>
                       </c:pt>
                       <c:pt idx="61">
-                        <c:v>81349.100000000006</c:v>
+                        <c:v>81353.976035</c:v>
                       </c:pt>
                       <c:pt idx="62">
-                        <c:v>134581.1</c:v>
+                        <c:v>134541.663577</c:v>
                       </c:pt>
                       <c:pt idx="63">
-                        <c:v>116988.1</c:v>
+                        <c:v>116917.103714</c:v>
                       </c:pt>
                       <c:pt idx="64">
-                        <c:v>75650.100000000006</c:v>
+                        <c:v>75556.626401000001</c:v>
                       </c:pt>
                       <c:pt idx="65">
-                        <c:v>242951.1</c:v>
+                        <c:v>242841.61778900001</c:v>
                       </c:pt>
                       <c:pt idx="66">
-                        <c:v>89434.1</c:v>
+                        <c:v>89313.216264000002</c:v>
                       </c:pt>
                       <c:pt idx="67">
-                        <c:v>102164.1</c:v>
+                        <c:v>102035.09596200001</c:v>
                       </c:pt>
                       <c:pt idx="68">
-                        <c:v>73131.100000000006</c:v>
+                        <c:v>72996.312585000007</c:v>
                       </c:pt>
                       <c:pt idx="69">
-                        <c:v>37117.1</c:v>
+                        <c:v>36978.193593999997</c:v>
                       </c:pt>
                       <c:pt idx="70">
                         <c:v>240653</c:v>
@@ -13426,7 +13435,7 @@
   <dimension ref="A1:AE210"/>
   <sheetViews>
     <sheetView topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150"/>
+      <selection activeCell="B146" sqref="B146:B200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15184,13 +15193,13 @@
       <c r="B144" s="2"/>
     </row>
     <row r="145" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A145" s="56" t="s">
+      <c r="A145" s="55" t="s">
         <v>6</v>
       </c>
       <c r="B145" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="C145" s="56" t="s">
+      <c r="C145" s="55" t="s">
         <v>99</v>
       </c>
       <c r="E145" t="s">
@@ -15198,7 +15207,7 @@
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="55">
+      <c r="A146" s="54">
         <v>15</v>
       </c>
       <c r="B146" s="2">
@@ -15207,13 +15216,13 @@
       <c r="C146" s="2">
         <v>1136</v>
       </c>
-      <c r="E146" s="55">
+      <c r="E146" s="54">
         <f>AVERAGE(B146) -C146</f>
         <v>1.2267999999949097E-2</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="55">
+      <c r="A147" s="54">
         <v>16</v>
       </c>
       <c r="B147" s="2">
@@ -15222,13 +15231,13 @@
       <c r="C147" s="2">
         <v>6041.5</v>
       </c>
-      <c r="E147" s="55">
+      <c r="E147" s="54">
         <f>AVERAGE(B147:B148) - C147</f>
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="55">
+      <c r="A148" s="54">
         <v>17</v>
       </c>
       <c r="B148" s="2">
@@ -15239,7 +15248,7 @@
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="55">
+      <c r="A149" s="54">
         <v>18</v>
       </c>
       <c r="B149" s="2">
@@ -15248,13 +15257,13 @@
       <c r="C149" s="2">
         <v>53524</v>
       </c>
-      <c r="E149" s="55">
+      <c r="E149" s="54">
         <f>AVERAGE(B149) -C149</f>
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="55">
+      <c r="A150" s="54">
         <v>19</v>
       </c>
       <c r="B150" s="2">
@@ -15263,13 +15272,13 @@
       <c r="C150" s="2">
         <v>189610</v>
       </c>
-      <c r="E150" s="55">
+      <c r="E150" s="54">
         <f>AVERAGE(B150) -C150</f>
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="55">
+      <c r="A151" s="54">
         <v>20</v>
       </c>
       <c r="B151" s="2">
@@ -15278,13 +15287,13 @@
       <c r="C151" s="2">
         <v>149294.79999999999</v>
       </c>
-      <c r="E151" s="55">
+      <c r="E151" s="54">
         <f>AVERAGE(B151:B155) - C151</f>
         <v>-3.3800024539232254E-5</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="55">
+      <c r="A152" s="54">
         <v>21</v>
       </c>
       <c r="B152" s="2">
@@ -15295,7 +15304,7 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="55">
+      <c r="A153" s="54">
         <v>22</v>
       </c>
       <c r="B153" s="2">
@@ -15306,7 +15315,7 @@
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="55">
+      <c r="A154" s="54">
         <v>23</v>
       </c>
       <c r="B154" s="2">
@@ -15317,7 +15326,7 @@
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="55">
+      <c r="A155" s="54">
         <v>24</v>
       </c>
       <c r="B155" s="2">
@@ -15328,7 +15337,7 @@
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="55">
+      <c r="A156" s="54">
         <v>25</v>
       </c>
       <c r="B156" s="2">
@@ -15337,13 +15346,13 @@
       <c r="C156" s="2">
         <v>106185.4</v>
       </c>
-      <c r="E156" s="55">
+      <c r="E156" s="54">
         <f>AVERAGE(B156:B160) - C156</f>
         <v>-6.5999920479953289E-6</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="55">
+      <c r="A157" s="54">
         <v>26</v>
       </c>
       <c r="B157" s="2">
@@ -15354,7 +15363,7 @@
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="55">
+      <c r="A158" s="54">
         <v>27</v>
       </c>
       <c r="B158" s="2">
@@ -15365,7 +15374,7 @@
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="55">
+      <c r="A159" s="54">
         <v>28</v>
       </c>
       <c r="B159" s="2">
@@ -15376,7 +15385,7 @@
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="55">
+      <c r="A160" s="54">
         <v>29</v>
       </c>
       <c r="B160" s="2">
@@ -15387,7 +15396,7 @@
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="55">
+      <c r="A161" s="54">
         <v>30</v>
       </c>
       <c r="B161" s="2">
@@ -15396,13 +15405,13 @@
       <c r="C161" s="2">
         <v>38089.800000000003</v>
       </c>
-      <c r="E161" s="55">
+      <c r="E161" s="54">
         <f>AVERAGE(B161:B170) -C161</f>
         <v>1.8899991118814796E-5</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="55">
+      <c r="A162" s="54">
         <v>31</v>
       </c>
       <c r="B162" s="2">
@@ -15413,7 +15422,7 @@
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="55">
+      <c r="A163" s="54">
         <v>32</v>
       </c>
       <c r="B163" s="2">
@@ -15424,7 +15433,7 @@
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="55">
+      <c r="A164" s="54">
         <v>33</v>
       </c>
       <c r="B164" s="2">
@@ -15435,7 +15444,7 @@
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="55">
+      <c r="A165" s="54">
         <v>34</v>
       </c>
       <c r="B165" s="2">
@@ -15446,7 +15455,7 @@
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="55">
+      <c r="A166" s="54">
         <v>35</v>
       </c>
       <c r="B166" s="2">
@@ -15457,7 +15466,7 @@
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="55">
+      <c r="A167" s="54">
         <v>36</v>
       </c>
       <c r="B167" s="2">
@@ -15468,7 +15477,7 @@
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="55">
+      <c r="A168" s="54">
         <v>37</v>
       </c>
       <c r="B168" s="2">
@@ -15479,7 +15488,7 @@
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="55">
+      <c r="A169" s="54">
         <v>38</v>
       </c>
       <c r="B169" s="2">
@@ -15490,7 +15499,7 @@
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="55">
+      <c r="A170" s="54">
         <v>39</v>
       </c>
       <c r="B170" s="2">
@@ -15501,7 +15510,7 @@
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="55">
+      <c r="A171" s="54">
         <v>40</v>
       </c>
       <c r="B171" s="2">
@@ -15510,13 +15519,13 @@
       <c r="C171" s="2">
         <v>2709.5</v>
       </c>
-      <c r="E171" s="55">
+      <c r="E171" s="54">
         <f>AVERAGE(B171:B180) -C171</f>
         <v>-3.9599999581696466E-5</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="55">
+      <c r="A172" s="54">
         <v>41</v>
       </c>
       <c r="B172" s="2">
@@ -15527,7 +15536,7 @@
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="55">
+      <c r="A173" s="54">
         <v>42</v>
       </c>
       <c r="B173" s="2">
@@ -15538,7 +15547,7 @@
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="55">
+      <c r="A174" s="54">
         <v>43</v>
       </c>
       <c r="B174" s="2">
@@ -15549,7 +15558,7 @@
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="55">
+      <c r="A175" s="54">
         <v>44</v>
       </c>
       <c r="B175" s="2">
@@ -15560,7 +15569,7 @@
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="55">
+      <c r="A176" s="54">
         <v>45</v>
       </c>
       <c r="B176" s="2">
@@ -15571,7 +15580,7 @@
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="55">
+      <c r="A177" s="54">
         <v>46</v>
       </c>
       <c r="B177" s="2">
@@ -15582,7 +15591,7 @@
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="55">
+      <c r="A178" s="54">
         <v>47</v>
       </c>
       <c r="B178" s="2">
@@ -15593,7 +15602,7 @@
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="55">
+      <c r="A179" s="54">
         <v>48</v>
       </c>
       <c r="B179" s="2">
@@ -15604,7 +15613,7 @@
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="55">
+      <c r="A180" s="54">
         <v>49</v>
       </c>
       <c r="B180" s="2">
@@ -15615,7 +15624,7 @@
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="55">
+      <c r="A181" s="54">
         <v>50</v>
       </c>
       <c r="B181" s="2">
@@ -15624,13 +15633,13 @@
       <c r="C181" s="2">
         <v>282</v>
       </c>
-      <c r="E181" s="55">
+      <c r="E181" s="54">
         <f>AVERAGE(B181:B190) -C181</f>
         <v>2.2800000010647636E-5</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="55">
+      <c r="A182" s="54">
         <v>51</v>
       </c>
       <c r="B182" s="2">
@@ -15641,7 +15650,7 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="55">
+      <c r="A183" s="54">
         <v>52</v>
       </c>
       <c r="B183" s="2">
@@ -15652,7 +15661,7 @@
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="55">
+      <c r="A184" s="54">
         <v>53</v>
       </c>
       <c r="B184" s="2">
@@ -15663,7 +15672,7 @@
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="55">
+      <c r="A185" s="54">
         <v>54</v>
       </c>
       <c r="B185" s="2">
@@ -15674,7 +15683,7 @@
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="55">
+      <c r="A186" s="54">
         <v>55</v>
       </c>
       <c r="B186" s="2">
@@ -15685,7 +15694,7 @@
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="55">
+      <c r="A187" s="54">
         <v>56</v>
       </c>
       <c r="B187" s="2">
@@ -15696,7 +15705,7 @@
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="55">
+      <c r="A188" s="54">
         <v>57</v>
       </c>
       <c r="B188" s="2">
@@ -15707,7 +15716,7 @@
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="55">
+      <c r="A189" s="54">
         <v>58</v>
       </c>
       <c r="B189" s="2">
@@ -15718,7 +15727,7 @@
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="55">
+      <c r="A190" s="54">
         <v>59</v>
       </c>
       <c r="B190" s="2">
@@ -15729,7 +15738,7 @@
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="55">
+      <c r="A191" s="54">
         <v>60</v>
       </c>
       <c r="B191" s="2">
@@ -15738,13 +15747,13 @@
       <c r="C191" s="2">
         <v>72.599999999999994</v>
       </c>
-      <c r="E191" s="55">
+      <c r="E191" s="54">
         <f>AVERAGE(B191:B200) -C191</f>
         <v>2.8999999983625457E-6</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="55">
+      <c r="A192" s="54">
         <v>61</v>
       </c>
       <c r="B192" s="2">
@@ -15755,7 +15764,7 @@
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="55">
+      <c r="A193" s="54">
         <v>62</v>
       </c>
       <c r="B193" s="2">
@@ -15766,7 +15775,7 @@
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="55">
+      <c r="A194" s="54">
         <v>63</v>
       </c>
       <c r="B194" s="2">
@@ -15777,7 +15786,7 @@
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="55">
+      <c r="A195" s="54">
         <v>64</v>
       </c>
       <c r="B195" s="2">
@@ -15788,7 +15797,7 @@
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="55">
+      <c r="A196" s="54">
         <v>65</v>
       </c>
       <c r="B196" s="2">
@@ -15799,7 +15808,7 @@
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="55">
+      <c r="A197" s="54">
         <v>66</v>
       </c>
       <c r="B197" s="2">
@@ -15810,7 +15819,7 @@
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="55">
+      <c r="A198" s="54">
         <v>67</v>
       </c>
       <c r="B198" s="2">
@@ -15821,7 +15830,7 @@
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" s="55">
+      <c r="A199" s="54">
         <v>68</v>
       </c>
       <c r="B199" s="2">
@@ -15832,7 +15841,7 @@
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" s="55">
+      <c r="A200" s="54">
         <v>69</v>
       </c>
       <c r="B200" s="2">
@@ -15884,10 +15893,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6C12F4-B0F0-43E5-BAB2-4C3AD6BE916F}">
-  <dimension ref="A1:U171"/>
+  <dimension ref="A1:AC171"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5:O105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15902,44 +15911,54 @@
     <col min="20" max="20" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C3" s="53" t="s">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="C3" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="G3" s="54" t="s">
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="G3" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
       <c r="K3" s="30" t="s">
         <v>30</v>
       </c>
       <c r="L3" s="12"/>
-      <c r="M3" s="54" t="s">
+      <c r="M3" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
       <c r="P3" s="39" t="s">
         <v>56</v>
       </c>
       <c r="Q3" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="S3" s="54" t="s">
+      <c r="S3" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="W3" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="AA3" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB3" s="57"/>
+      <c r="AC3" s="57"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>6</v>
       </c>
@@ -15989,8 +16008,26 @@
       <c r="U4" s="31" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W4" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="X4" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y4" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA4" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB4" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC4" s="53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>0</v>
       </c>
@@ -16033,7 +16070,7 @@
         <v>1.02130641352615</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -16076,7 +16113,7 @@
         <v>1.0073090049881859</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -16119,7 +16156,7 @@
         <v>1.0116624424994423</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -16162,7 +16199,7 @@
         <v>0.99041700302258806</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -16205,7 +16242,7 @@
         <v>0.95887202339919919</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -16248,7 +16285,7 @@
         <v>0.9965804020517588</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>6</v>
       </c>
@@ -16291,7 +16328,7 @@
         <v>0.98354810020102634</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>7</v>
       </c>
@@ -16334,7 +16371,7 @@
         <v>0.95185385924047583</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>8</v>
       </c>
@@ -16374,7 +16411,7 @@
         <v>0.96628696697429195</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>9</v>
       </c>
@@ -16414,7 +16451,7 @@
         <v>0.98418292179857392</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>10</v>
       </c>
@@ -16454,7 +16491,7 @@
         <v>0.98068422685209122</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>11</v>
       </c>
@@ -16494,7 +16531,7 @@
         <v>0.97661199646503827</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>12</v>
       </c>
@@ -16534,7 +16571,7 @@
         <v>0.95526572803351018</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -16574,7 +16611,7 @@
         <v>0.9647414145362162</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>14</v>
       </c>
@@ -16614,7 +16651,7 @@
         <v>0.92321922617392482</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>15</v>
       </c>
@@ -16638,15 +16675,15 @@
         <v>96934</v>
       </c>
       <c r="K20" s="2">
-        <v>2496</v>
+        <v>1136.0122679999999</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="0"/>
-        <v>1447620</v>
+        <v>1446260.012268</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="1"/>
-        <v>670400</v>
+        <v>669040.01226800005</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="2"/>
@@ -16654,11 +16691,11 @@
       </c>
       <c r="Q20" s="35">
         <f t="shared" si="3"/>
-        <v>0.86256143691618847</v>
+        <v>0.86081162639664455</v>
       </c>
       <c r="S20" s="2">
         <f>SUM(N20:N45)</f>
-        <v>10585989</v>
+        <v>9704064.1768709999</v>
       </c>
       <c r="T20" s="2">
         <f>SUM(O20:O45)</f>
@@ -16666,10 +16703,34 @@
       </c>
       <c r="U20" s="36">
         <f>S20/T20</f>
-        <v>0.79877521509455829</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.73222879318800826</v>
+      </c>
+      <c r="W20" s="2">
+        <f>SUM(N24:N30)</f>
+        <v>2454873.1122489995</v>
+      </c>
+      <c r="X20" s="2">
+        <f>SUM(O24:O30)</f>
+        <v>4016656</v>
+      </c>
+      <c r="Y20">
+        <f>W20/X20</f>
+        <v>0.61117335222359082</v>
+      </c>
+      <c r="AA20" s="2">
+        <f>SUM(N24:N35)</f>
+        <v>4057443.9227179992</v>
+      </c>
+      <c r="AB20" s="2">
+        <f>SUM(O24:O35)</f>
+        <v>6445641</v>
+      </c>
+      <c r="AC20">
+        <f>AA20/AB20</f>
+        <v>0.62948648904243953</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>16</v>
       </c>
@@ -16693,15 +16754,15 @@
         <v>99911</v>
       </c>
       <c r="K21" s="2">
-        <v>6936</v>
+        <v>3270.325155</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="0"/>
-        <v>1524292</v>
+        <v>1520626.325155</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="1"/>
-        <v>713569</v>
+        <v>709903.32515499997</v>
       </c>
       <c r="O21" s="2">
         <f t="shared" si="2"/>
@@ -16709,10 +16770,10 @@
       </c>
       <c r="Q21" s="35">
         <f t="shared" si="3"/>
-        <v>0.88016375506800715</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.87564226641528609</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>17</v>
       </c>
@@ -16736,15 +16797,15 @@
         <v>103104</v>
       </c>
       <c r="K22" s="2">
-        <v>18634</v>
+        <v>8812.6748449999996</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="0"/>
-        <v>1328957</v>
+        <v>1319135.674845</v>
       </c>
       <c r="N22" s="2">
         <f t="shared" si="1"/>
-        <v>602838</v>
+        <v>593016.67484500003</v>
       </c>
       <c r="O22" s="2">
         <f t="shared" si="2"/>
@@ -16752,10 +16813,10 @@
       </c>
       <c r="Q22" s="35">
         <f t="shared" si="3"/>
-        <v>0.83021928912478538</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.81669351007892654</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>18</v>
       </c>
@@ -16779,15 +16840,15 @@
         <v>109625</v>
       </c>
       <c r="K23" s="2">
-        <v>86035</v>
+        <v>53524</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="0"/>
-        <v>1195272</v>
+        <v>1162761</v>
       </c>
       <c r="N23" s="2">
         <f t="shared" si="1"/>
-        <v>518106</v>
+        <v>485595</v>
       </c>
       <c r="O23" s="2">
         <f t="shared" si="2"/>
@@ -16795,10 +16856,10 @@
       </c>
       <c r="Q23" s="35">
         <f t="shared" si="3"/>
-        <v>0.76510929373299896</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.71709890927778419</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>19</v>
       </c>
@@ -16822,15 +16883,15 @@
         <v>100576</v>
       </c>
       <c r="K24" s="2">
-        <v>294721</v>
+        <v>189610</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="0"/>
-        <v>1068226</v>
+        <v>963115</v>
       </c>
       <c r="N24" s="2">
         <f t="shared" si="1"/>
-        <v>491511</v>
+        <v>386400</v>
       </c>
       <c r="O24" s="2">
         <f t="shared" si="2"/>
@@ -16838,10 +16899,10 @@
       </c>
       <c r="Q24" s="35">
         <f t="shared" si="3"/>
-        <v>0.85225978169459782</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.67000164726077871</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>20</v>
       </c>
@@ -16865,15 +16926,15 @@
         <v>122875</v>
       </c>
       <c r="K25" s="2">
-        <v>292773</v>
+        <v>165826.28892799999</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="0"/>
-        <v>1326349</v>
+        <v>1199402.288928</v>
       </c>
       <c r="N25" s="2">
         <f t="shared" si="1"/>
-        <v>513590</v>
+        <v>386643.28892800002</v>
       </c>
       <c r="O25" s="2">
         <f t="shared" si="2"/>
@@ -16881,10 +16942,10 @@
       </c>
       <c r="Q25" s="35">
         <f t="shared" si="3"/>
-        <v>0.63190933597782373</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.47571701934767874</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>21</v>
       </c>
@@ -16908,15 +16969,15 @@
         <v>74897</v>
       </c>
       <c r="K26" s="2">
-        <v>190967</v>
+        <v>157114.790347</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="0"/>
-        <v>714497</v>
+        <v>680644.790347</v>
       </c>
       <c r="N26" s="2">
         <f t="shared" si="1"/>
-        <v>338741</v>
+        <v>304888.790347</v>
       </c>
       <c r="O26" s="2">
         <f t="shared" si="2"/>
@@ -16924,10 +16985,10 @@
       </c>
       <c r="Q26" s="35">
         <f t="shared" si="3"/>
-        <v>0.90149192561130098</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.81140098986310261</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>22</v>
       </c>
@@ -16951,15 +17012,15 @@
         <v>103494</v>
       </c>
       <c r="K27" s="2">
-        <v>223596</v>
+        <v>148860.94059799999</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="0"/>
-        <v>998411</v>
+        <v>923675.94059799996</v>
       </c>
       <c r="N27" s="2">
         <f t="shared" si="1"/>
-        <v>418726</v>
+        <v>343990.94059799996</v>
       </c>
       <c r="O27" s="2">
         <f t="shared" si="2"/>
@@ -16967,10 +17028,10 @@
       </c>
       <c r="Q27" s="35">
         <f t="shared" si="3"/>
-        <v>0.72233368122342312</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.59341011169514468</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>23</v>
       </c>
@@ -16994,15 +17055,15 @@
         <v>97855</v>
       </c>
       <c r="K28" s="2">
-        <v>224569</v>
+        <v>141040.697613</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="0"/>
-        <v>967883</v>
+        <v>884354.69761299994</v>
       </c>
       <c r="N28" s="2">
         <f t="shared" si="1"/>
-        <v>428013</v>
+        <v>344484.697613</v>
       </c>
       <c r="O28" s="2">
         <f t="shared" si="2"/>
@@ -17010,10 +17071,10 @@
       </c>
       <c r="Q28" s="35">
         <f t="shared" si="3"/>
-        <v>0.79280752773815921</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.63808823904458478</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>24</v>
       </c>
@@ -17037,15 +17098,15 @@
         <v>87573</v>
       </c>
       <c r="K29" s="2">
-        <v>189017</v>
+        <v>133631.28234500001</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="0"/>
-        <v>800260</v>
+        <v>744874.28234499996</v>
       </c>
       <c r="N29" s="2">
         <f t="shared" si="1"/>
-        <v>372335</v>
+        <v>316949.28234500001</v>
       </c>
       <c r="O29" s="2">
         <f t="shared" si="2"/>
@@ -17053,10 +17114,10 @@
       </c>
       <c r="Q29" s="35">
         <f t="shared" si="3"/>
-        <v>0.87009405853829525</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.74066549592802478</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>25</v>
       </c>
@@ -17080,15 +17141,15 @@
         <v>103867</v>
       </c>
       <c r="K30" s="2">
-        <v>185932</v>
+        <v>126611.112418</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="0"/>
-        <v>1134783</v>
+        <v>1075462.1124180001</v>
       </c>
       <c r="N30" s="2">
         <f t="shared" si="1"/>
-        <v>430837</v>
+        <v>371516.112418</v>
       </c>
       <c r="O30" s="2">
         <f t="shared" si="2"/>
@@ -17096,10 +17157,10 @@
       </c>
       <c r="Q30" s="35">
         <f t="shared" si="3"/>
-        <v>0.61203132058424936</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.52776223235589093</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>26</v>
       </c>
@@ -17123,15 +17184,15 @@
         <v>83388</v>
       </c>
       <c r="K31" s="2">
-        <v>160045</v>
+        <v>116822.645625</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="0"/>
-        <v>793127</v>
+        <v>749904.645625</v>
       </c>
       <c r="N31" s="2">
         <f t="shared" si="1"/>
-        <v>361157</v>
+        <v>317934.645625</v>
       </c>
       <c r="O31" s="2">
         <f t="shared" si="2"/>
@@ -17139,10 +17200,10 @@
       </c>
       <c r="Q31" s="35">
         <f t="shared" si="3"/>
-        <v>0.83606963446535643</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.73601093970646114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>27</v>
       </c>
@@ -17166,15 +17227,15 @@
         <v>82638</v>
       </c>
       <c r="K32" s="2">
-        <v>153184</v>
+        <v>106585.49572799999</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" si="0"/>
-        <v>850410</v>
+        <v>803811.49572800007</v>
       </c>
       <c r="N32" s="2">
         <f t="shared" si="1"/>
-        <v>377080</v>
+        <v>330481.49572800001</v>
       </c>
       <c r="O32" s="2">
         <f t="shared" si="2"/>
@@ -17182,7 +17243,7 @@
       </c>
       <c r="Q32" s="35">
         <f t="shared" si="3"/>
-        <v>0.79665349755984194</v>
+        <v>0.69820526002577488</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -17209,15 +17270,15 @@
         <v>90962</v>
       </c>
       <c r="K33" s="2">
-        <v>145479</v>
+        <v>95949.350600000005</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="0"/>
-        <v>860108</v>
+        <v>810578.35060000001</v>
       </c>
       <c r="N33" s="2">
         <f t="shared" si="1"/>
-        <v>380781</v>
+        <v>331251.35060000001</v>
       </c>
       <c r="O33" s="2">
         <f t="shared" si="2"/>
@@ -17225,7 +17286,7 @@
       </c>
       <c r="Q33" s="35">
         <f t="shared" si="3"/>
-        <v>0.79440757562165287</v>
+        <v>0.69107592645521743</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -17252,15 +17313,15 @@
         <v>61780</v>
       </c>
       <c r="K34" s="2">
-        <v>110673</v>
+        <v>84958.395596000002</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="0"/>
-        <v>554372</v>
+        <v>528657.39559600002</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" si="1"/>
-        <v>282828</v>
+        <v>257113.39559600002</v>
       </c>
       <c r="O34" s="2">
         <f t="shared" si="2"/>
@@ -17268,7 +17329,7 @@
       </c>
       <c r="Q34" s="35">
         <f t="shared" si="3"/>
-        <v>1.0415549597855227</v>
+        <v>0.94685721502224318</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -17295,15 +17356,15 @@
         <v>108448</v>
       </c>
       <c r="K35" s="2">
-        <v>107831</v>
+        <v>73651.922919999997</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="0"/>
-        <v>1172783</v>
+        <v>1138603.92292</v>
       </c>
       <c r="N35" s="2">
         <f t="shared" si="1"/>
-        <v>399969</v>
+        <v>365789.92291999998</v>
       </c>
       <c r="O35" s="2">
         <f t="shared" si="2"/>
@@ -17311,7 +17372,7 @@
       </c>
       <c r="Q35" s="35">
         <f t="shared" si="3"/>
-        <v>0.5175488539286297</v>
+        <v>0.47332207092521611</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
@@ -17338,15 +17399,15 @@
         <v>38588</v>
       </c>
       <c r="K36" s="2">
-        <v>73288</v>
+        <v>62668.348621999998</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="0"/>
-        <v>383609</v>
+        <v>372989.34862199996</v>
       </c>
       <c r="N36" s="2">
         <f t="shared" si="1"/>
-        <v>204058</v>
+        <v>193438.34862199999</v>
       </c>
       <c r="O36" s="2">
         <f t="shared" si="2"/>
@@ -17354,7 +17415,7 @@
       </c>
       <c r="Q36" s="35">
         <f t="shared" si="3"/>
-        <v>1.1364904678893462</v>
+        <v>1.0773448692683416</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
@@ -17381,15 +17442,15 @@
         <v>73942</v>
       </c>
       <c r="K37" s="2">
-        <v>87259</v>
+        <v>53337.745343000002</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" si="0"/>
-        <v>709187</v>
+        <v>675265.74534299993</v>
       </c>
       <c r="N37" s="2">
         <f t="shared" si="1"/>
-        <v>336201</v>
+        <v>302279.74534299999</v>
       </c>
       <c r="O37" s="2">
         <f t="shared" si="2"/>
@@ -17397,7 +17458,7 @@
       </c>
       <c r="Q37" s="35">
         <f t="shared" si="3"/>
-        <v>0.9013769953832047</v>
+        <v>0.81043188040033676</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
@@ -17424,15 +17485,15 @@
         <v>64125</v>
       </c>
       <c r="K38" s="2">
-        <v>64959</v>
+        <v>45294.516090999998</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="0"/>
-        <v>711806</v>
+        <v>692141.51609100006</v>
       </c>
       <c r="N38" s="2">
         <f t="shared" si="1"/>
-        <v>344670</v>
+        <v>325005.516091</v>
       </c>
       <c r="O38" s="2">
         <f t="shared" si="2"/>
@@ -17440,7 +17501,7 @@
       </c>
       <c r="Q38" s="35">
         <f t="shared" si="3"/>
-        <v>0.93880741741480001</v>
+        <v>0.88524556592379933</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
@@ -17467,15 +17528,15 @@
         <v>50699</v>
       </c>
       <c r="K39" s="2">
-        <v>46806</v>
+        <v>38253.925039000002</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="0"/>
-        <v>555447</v>
+        <v>546894.92503899999</v>
       </c>
       <c r="N39" s="2">
         <f t="shared" si="1"/>
-        <v>280768</v>
+        <v>272215.92503899999</v>
       </c>
       <c r="O39" s="2">
         <f t="shared" si="2"/>
@@ -17483,7 +17544,7 @@
       </c>
       <c r="Q39" s="35">
         <f t="shared" si="3"/>
-        <v>1.0221676939263649</v>
+        <v>0.99103289672308403</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
@@ -17510,15 +17571,15 @@
         <v>83500</v>
       </c>
       <c r="K40" s="2">
-        <v>26924</v>
+        <v>31994.213</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="0"/>
-        <v>1035441</v>
+        <v>1040511.213</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" si="1"/>
-        <v>399506</v>
+        <v>404576.21299999999</v>
       </c>
       <c r="O40" s="2">
         <f t="shared" si="2"/>
@@ -17526,7 +17587,7 @@
       </c>
       <c r="Q40" s="35">
         <f t="shared" si="3"/>
-        <v>0.62821829275004526</v>
+        <v>0.63619114060399251</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
@@ -17553,15 +17614,15 @@
         <v>57775</v>
       </c>
       <c r="K41" s="2">
-        <v>26924</v>
+        <v>26342.668526000001</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="0"/>
-        <v>662409</v>
+        <v>661827.66852599999</v>
       </c>
       <c r="N41" s="2">
         <f t="shared" si="1"/>
-        <v>323419</v>
+        <v>322837.66852599999</v>
       </c>
       <c r="O41" s="2">
         <f t="shared" si="2"/>
@@ -17569,7 +17630,7 @@
       </c>
       <c r="Q41" s="35">
         <f t="shared" si="3"/>
-        <v>0.95406649163692148</v>
+        <v>0.95235159894392163</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
@@ -17596,15 +17657,15 @@
         <v>57067</v>
       </c>
       <c r="K42" s="2">
-        <v>26924</v>
+        <v>21164.779741999999</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" si="0"/>
-        <v>700312</v>
+        <v>694552.77974199993</v>
       </c>
       <c r="N42" s="2">
         <f t="shared" si="1"/>
-        <v>339611</v>
+        <v>333851.77974199998</v>
       </c>
       <c r="O42" s="2">
         <f t="shared" si="2"/>
@@ -17612,7 +17673,7 @@
       </c>
       <c r="Q42" s="35">
         <f t="shared" si="3"/>
-        <v>0.94153051973795465</v>
+        <v>0.92556377648523291</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
@@ -17639,15 +17700,15 @@
         <v>67979</v>
       </c>
       <c r="K43" s="2">
-        <v>26924</v>
+        <v>16355.785529000001</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="0"/>
-        <v>765625</v>
+        <v>755056.78552899999</v>
       </c>
       <c r="N43" s="2">
         <f t="shared" si="1"/>
-        <v>372569</v>
+        <v>362000.78552899999</v>
       </c>
       <c r="O43" s="2">
         <f t="shared" si="2"/>
@@ -17655,7 +17716,7 @@
       </c>
       <c r="Q43" s="35">
         <f t="shared" si="3"/>
-        <v>0.9478776561100708</v>
+        <v>0.92099035640977367</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
@@ -17682,15 +17743,15 @@
         <v>44035</v>
       </c>
       <c r="K44" s="2">
-        <v>26924</v>
+        <v>11834.095377</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="0"/>
-        <v>528309</v>
+        <v>513219.09537699999</v>
       </c>
       <c r="N44" s="2">
         <f t="shared" si="1"/>
-        <v>291820</v>
+        <v>276730.09537699999</v>
       </c>
       <c r="O44" s="2">
         <f t="shared" si="2"/>
@@ -17698,7 +17759,7 @@
       </c>
       <c r="Q44" s="35">
         <f t="shared" si="3"/>
-        <v>1.2339685989623197</v>
+        <v>1.1701605376021718</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
@@ -17725,15 +17786,15 @@
         <v>84757</v>
       </c>
       <c r="K45" s="2">
-        <v>4293</v>
+        <v>7536.164616</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" si="0"/>
-        <v>1049270</v>
+        <v>1052513.1646159999</v>
       </c>
       <c r="N45" s="2">
         <f t="shared" si="1"/>
-        <v>392886</v>
+        <v>396129.16461600002</v>
       </c>
       <c r="O45" s="2">
         <f t="shared" si="2"/>
@@ -17741,7 +17802,7 @@
       </c>
       <c r="Q45" s="35">
         <f t="shared" si="3"/>
-        <v>0.59856120807332291</v>
+        <v>0.6035021643062598</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
@@ -17768,15 +17829,15 @@
         <v>36460</v>
       </c>
       <c r="K46" s="2">
-        <v>4293</v>
+        <v>5535.9728709999999</v>
       </c>
       <c r="M46" s="2">
         <f t="shared" si="0"/>
-        <v>382361</v>
+        <v>383603.97287100001</v>
       </c>
       <c r="N46" s="2">
         <f t="shared" si="1"/>
-        <v>200817</v>
+        <v>202059.97287100001</v>
       </c>
       <c r="O46" s="2">
         <f t="shared" si="2"/>
@@ -17784,7 +17845,7 @@
       </c>
       <c r="Q46" s="35">
         <f t="shared" si="3"/>
-        <v>1.1061615916802539</v>
+        <v>1.1130082672575243</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
@@ -17811,15 +17872,15 @@
         <v>58978</v>
       </c>
       <c r="K47" s="2">
-        <v>4293</v>
+        <v>4066.656872</v>
       </c>
       <c r="M47" s="2">
         <f t="shared" si="0"/>
-        <v>626287</v>
+        <v>626060.65687200008</v>
       </c>
       <c r="N47" s="2">
         <f t="shared" si="1"/>
-        <v>306701</v>
+        <v>306474.65687200002</v>
       </c>
       <c r="O47" s="2">
         <f t="shared" si="2"/>
@@ -17827,7 +17888,7 @@
       </c>
       <c r="Q47" s="35">
         <f t="shared" si="3"/>
-        <v>0.95968221386418684</v>
+        <v>0.95897397530555162</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
@@ -17854,15 +17915,15 @@
         <v>44618</v>
       </c>
       <c r="K48" s="2">
-        <v>4293</v>
+        <v>2987.315599</v>
       </c>
       <c r="M48" s="2">
         <f t="shared" si="0"/>
-        <v>544842</v>
+        <v>543536.31559900008</v>
       </c>
       <c r="N48" s="2">
         <f t="shared" si="1"/>
-        <v>281649</v>
+        <v>280343.31559900002</v>
       </c>
       <c r="O48" s="2">
         <f t="shared" si="2"/>
@@ -17870,7 +17931,7 @@
       </c>
       <c r="Q48" s="35">
         <f t="shared" si="3"/>
-        <v>1.070123445532366</v>
+        <v>1.0651625065978199</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
@@ -17897,15 +17958,15 @@
         <v>34263</v>
       </c>
       <c r="K49" s="2">
-        <v>4293</v>
+        <v>2194.4449140000002</v>
       </c>
       <c r="M49" s="2">
         <f t="shared" si="0"/>
-        <v>434814</v>
+        <v>432715.44491399999</v>
       </c>
       <c r="N49" s="2">
         <f t="shared" si="1"/>
-        <v>226110</v>
+        <v>224011.44491399999</v>
       </c>
       <c r="O49" s="2">
         <f t="shared" si="2"/>
@@ -17913,7 +17974,7 @@
       </c>
       <c r="Q49" s="35">
         <f t="shared" si="3"/>
-        <v>1.0834004139834406</v>
+        <v>1.0733452397366605</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
@@ -17940,15 +18001,15 @@
         <v>75901</v>
       </c>
       <c r="K50" s="2">
-        <v>4293</v>
+        <v>1612.011962</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" si="0"/>
-        <v>962035</v>
+        <v>959354.01196200005</v>
       </c>
       <c r="N50" s="2">
         <f t="shared" si="1"/>
-        <v>415284</v>
+        <v>412603.01196199999</v>
       </c>
       <c r="O50" s="2">
         <f t="shared" si="2"/>
@@ -17956,7 +18017,7 @@
       </c>
       <c r="Q50" s="35">
         <f t="shared" si="3"/>
-        <v>0.75954867938055892</v>
+        <v>0.75464518942260739</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
@@ -17983,15 +18044,15 @@
         <v>45579</v>
       </c>
       <c r="K51" s="2">
-        <v>4293</v>
+        <v>1184.1639540000001</v>
       </c>
       <c r="M51" s="2">
         <f t="shared" si="0"/>
-        <v>547786</v>
+        <v>544677.16395399999</v>
       </c>
       <c r="N51" s="2">
         <f t="shared" si="1"/>
-        <v>288955</v>
+        <v>285846.16395399999</v>
       </c>
       <c r="O51" s="2">
         <f t="shared" si="2"/>
@@ -17999,7 +18060,7 @@
       </c>
       <c r="Q51" s="35">
         <f t="shared" si="3"/>
-        <v>1.1163848225289861</v>
+        <v>1.1043737572160985</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
@@ -18026,15 +18087,15 @@
         <v>41799</v>
       </c>
       <c r="K52" s="2">
-        <v>4293</v>
+        <v>869.87212399999999</v>
       </c>
       <c r="M52" s="2">
         <f t="shared" si="0"/>
-        <v>511376</v>
+        <v>507952.87212399999</v>
       </c>
       <c r="N52" s="2">
         <f t="shared" si="1"/>
-        <v>263212</v>
+        <v>259788.87212399999</v>
       </c>
       <c r="O52" s="2">
         <f t="shared" si="2"/>
@@ -18042,7 +18103,7 @@
       </c>
       <c r="Q52" s="35">
         <f t="shared" si="3"/>
-        <v>1.0606373204816171</v>
+        <v>1.046843507212972</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
@@ -18069,15 +18130,15 @@
         <v>48748</v>
       </c>
       <c r="K53" s="2">
-        <v>4293</v>
+        <v>638.997252</v>
       </c>
       <c r="M53" s="2">
         <f t="shared" si="0"/>
-        <v>539769</v>
+        <v>536114.99725200003</v>
       </c>
       <c r="N53" s="2">
         <f t="shared" si="1"/>
-        <v>265088</v>
+        <v>261433.997252</v>
       </c>
       <c r="O53" s="2">
         <f t="shared" si="2"/>
@@ -18085,7 +18146,7 @@
       </c>
       <c r="Q53" s="35">
         <f t="shared" si="3"/>
-        <v>0.9650758516242478</v>
+        <v>0.95177313775616079</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
@@ -18112,15 +18173,15 @@
         <v>29502</v>
       </c>
       <c r="K54" s="2">
-        <v>4293</v>
+        <v>469.39944000000003</v>
       </c>
       <c r="M54" s="2">
         <f t="shared" si="0"/>
-        <v>320785</v>
+        <v>316961.39944000001</v>
       </c>
       <c r="N54" s="2">
         <f t="shared" si="1"/>
-        <v>167819</v>
+        <v>163995.39944000001</v>
       </c>
       <c r="O54" s="2">
         <f t="shared" si="2"/>
@@ -18128,7 +18189,7 @@
       </c>
       <c r="Q54" s="35">
         <f t="shared" si="3"/>
-        <v>1.0971000091523606</v>
+        <v>1.0721036010616738</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
@@ -18155,15 +18216,15 @@
         <v>82708</v>
       </c>
       <c r="K55" s="2">
-        <v>533.20000000000005</v>
+        <v>344.81499500000001</v>
       </c>
       <c r="M55" s="2">
         <f t="shared" si="0"/>
-        <v>1024497.2</v>
+        <v>1024308.814995</v>
       </c>
       <c r="N55" s="2">
         <f t="shared" si="1"/>
-        <v>392971.2</v>
+        <v>392782.81499500002</v>
       </c>
       <c r="O55" s="2">
         <f t="shared" si="2"/>
@@ -18171,7 +18232,7 @@
       </c>
       <c r="Q55" s="35">
         <f t="shared" si="3"/>
-        <v>0.62225656584210309</v>
+        <v>0.62195826457659709</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
@@ -18198,15 +18259,15 @@
         <v>26609</v>
       </c>
       <c r="K56" s="2">
-        <v>533.20000000000005</v>
+        <v>329.08790099999999</v>
       </c>
       <c r="M56" s="2">
         <f t="shared" si="0"/>
-        <v>263617.2</v>
+        <v>263413.08790099999</v>
       </c>
       <c r="N56" s="2">
         <f t="shared" si="1"/>
-        <v>134452.20000000001</v>
+        <v>134248.08790099999</v>
       </c>
       <c r="O56" s="2">
         <f t="shared" si="2"/>
@@ -18214,7 +18275,7 @@
       </c>
       <c r="Q56" s="35">
         <f t="shared" si="3"/>
-        <v>1.040933689466961</v>
+        <v>1.0393534463747918</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
@@ -18241,15 +18302,15 @@
         <v>42570</v>
       </c>
       <c r="K57" s="2">
-        <v>533.20000000000005</v>
+        <v>314.07812200000001</v>
       </c>
       <c r="M57" s="2">
         <f t="shared" si="0"/>
-        <v>411323.2</v>
+        <v>411104.07812199998</v>
       </c>
       <c r="N57" s="2">
         <f t="shared" si="1"/>
-        <v>196917.2</v>
+        <v>196698.07812200001</v>
       </c>
       <c r="O57" s="2">
         <f t="shared" si="2"/>
@@ -18257,7 +18318,7 @@
       </c>
       <c r="Q57" s="35">
         <f t="shared" si="3"/>
-        <v>0.91843138718132888</v>
+        <v>0.91740939209723615</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
@@ -18284,15 +18345,15 @@
         <v>31669</v>
       </c>
       <c r="K58" s="2">
-        <v>533.20000000000005</v>
+        <v>299.75294400000001</v>
       </c>
       <c r="M58" s="2">
         <f t="shared" si="0"/>
-        <v>337466.2</v>
+        <v>337232.75294400001</v>
       </c>
       <c r="N58" s="2">
         <f t="shared" si="1"/>
-        <v>160205.20000000001</v>
+        <v>159971.75294400001</v>
       </c>
       <c r="O58" s="2">
         <f t="shared" si="2"/>
@@ -18300,7 +18361,7 @@
       </c>
       <c r="Q58" s="35">
         <f t="shared" si="3"/>
-        <v>0.90378142964329444</v>
+        <v>0.90246446169208117</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
@@ -18327,15 +18388,15 @@
         <v>25932</v>
       </c>
       <c r="K59" s="2">
-        <v>533.20000000000005</v>
+        <v>286.08114</v>
       </c>
       <c r="M59" s="2">
         <f t="shared" si="0"/>
-        <v>281246.2</v>
+        <v>280999.08114000002</v>
       </c>
       <c r="N59" s="2">
         <f t="shared" si="1"/>
-        <v>129537.2</v>
+        <v>129290.08113999999</v>
       </c>
       <c r="O59" s="2">
         <f t="shared" si="2"/>
@@ -18343,7 +18404,7 @@
       </c>
       <c r="Q59" s="35">
         <f t="shared" si="3"/>
-        <v>0.85385310034342066</v>
+        <v>0.85222419988267006</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
@@ -18370,15 +18431,15 @@
         <v>62567</v>
       </c>
       <c r="K60" s="2">
-        <v>533.20000000000005</v>
+        <v>273.03291100000001</v>
       </c>
       <c r="M60" s="2">
         <f t="shared" si="0"/>
-        <v>845316.2</v>
+        <v>845056.03291100007</v>
       </c>
       <c r="N60" s="2">
         <f t="shared" si="1"/>
-        <v>364740.2</v>
+        <v>364480.03291100002</v>
       </c>
       <c r="O60" s="2">
         <f t="shared" si="2"/>
@@ -18386,7 +18447,7 @@
       </c>
       <c r="Q60" s="35">
         <f t="shared" si="3"/>
-        <v>0.7589646590757757</v>
+        <v>0.75842329394518249</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
@@ -18413,15 +18474,15 @@
         <v>38861</v>
       </c>
       <c r="K61" s="2">
-        <v>533.20000000000005</v>
+        <v>260.579814</v>
       </c>
       <c r="M61" s="2">
         <f t="shared" si="0"/>
-        <v>450999.2</v>
+        <v>450726.579814</v>
       </c>
       <c r="N61" s="2">
         <f t="shared" si="1"/>
-        <v>219615.2</v>
+        <v>219342.579814</v>
       </c>
       <c r="O61" s="2">
         <f t="shared" si="2"/>
@@ -18429,7 +18490,7 @@
       </c>
       <c r="Q61" s="35">
         <f t="shared" si="3"/>
-        <v>0.94913736472703392</v>
+        <v>0.94795914935345571</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
@@ -18456,15 +18517,15 @@
         <v>30351</v>
       </c>
       <c r="K62" s="2">
-        <v>533.20000000000005</v>
+        <v>248.694706</v>
       </c>
       <c r="M62" s="2">
         <f t="shared" si="0"/>
-        <v>363917.2</v>
+        <v>363632.69470600004</v>
       </c>
       <c r="N62" s="2">
         <f t="shared" si="1"/>
-        <v>176736.2</v>
+        <v>176451.69470600001</v>
       </c>
       <c r="O62" s="2">
         <f t="shared" si="2"/>
@@ -18472,7 +18533,7 @@
       </c>
       <c r="Q62" s="35">
         <f t="shared" si="3"/>
-        <v>0.94419946468925808</v>
+        <v>0.9426795171839023</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -18499,15 +18560,15 @@
         <v>31797</v>
       </c>
       <c r="K63" s="2">
-        <v>533.20000000000005</v>
+        <v>237.35168100000001</v>
       </c>
       <c r="M63" s="2">
         <f t="shared" si="0"/>
-        <v>345432.2</v>
+        <v>345136.35168099997</v>
       </c>
       <c r="N63" s="2">
         <f t="shared" si="1"/>
-        <v>159533.20000000001</v>
+        <v>159237.351681</v>
       </c>
       <c r="O63" s="2">
         <f t="shared" si="2"/>
@@ -18515,7 +18576,7 @@
       </c>
       <c r="Q63" s="35">
         <f t="shared" si="3"/>
-        <v>0.85817137262707177</v>
+        <v>0.85657992609427702</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
@@ -18542,15 +18603,15 @@
         <v>17713</v>
       </c>
       <c r="K64" s="2">
-        <v>533.20000000000005</v>
+        <v>226.526014</v>
       </c>
       <c r="M64" s="2">
         <f t="shared" si="0"/>
-        <v>192186.2</v>
+        <v>191879.526014</v>
       </c>
       <c r="N64" s="2">
         <f t="shared" si="1"/>
-        <v>95428.2</v>
+        <v>95121.526014000003</v>
       </c>
       <c r="O64" s="2">
         <f t="shared" si="2"/>
@@ -18558,7 +18619,7 @@
       </c>
       <c r="Q64" s="35">
         <f t="shared" si="3"/>
-        <v>0.98625643357655179</v>
+        <v>0.98308693869240793</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
@@ -18585,15 +18646,15 @@
         <v>67731</v>
       </c>
       <c r="K65" s="2">
-        <v>149.1</v>
+        <v>216.194108</v>
       </c>
       <c r="M65" s="2">
         <f t="shared" si="0"/>
-        <v>1001273.1</v>
+        <v>1001340.194108</v>
       </c>
       <c r="N65" s="2">
         <f t="shared" si="1"/>
-        <v>399314.1</v>
+        <v>399381.19410800003</v>
       </c>
       <c r="O65" s="2">
         <f t="shared" si="2"/>
@@ -18601,7 +18662,7 @@
       </c>
       <c r="Q65" s="35">
         <f t="shared" si="3"/>
-        <v>0.66335763731416919</v>
+        <v>0.66346909691191602</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
@@ -18628,15 +18689,15 @@
         <v>12844</v>
       </c>
       <c r="K66" s="2">
-        <v>149.1</v>
+        <v>153.976035</v>
       </c>
       <c r="M66" s="2">
         <f t="shared" si="0"/>
-        <v>158415.1</v>
+        <v>158419.976035</v>
       </c>
       <c r="N66" s="2">
         <f t="shared" si="1"/>
-        <v>81349.100000000006</v>
+        <v>81353.976035</v>
       </c>
       <c r="O66" s="2">
         <f t="shared" si="2"/>
@@ -18644,7 +18705,7 @@
       </c>
       <c r="Q66" s="35">
         <f t="shared" si="3"/>
-        <v>1.0555770378636493</v>
+        <v>1.0556403087613215</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
@@ -18671,15 +18732,15 @@
         <v>23562</v>
       </c>
       <c r="K67" s="2">
-        <v>149.1</v>
+        <v>109.663577</v>
       </c>
       <c r="M67" s="2">
         <f t="shared" si="0"/>
-        <v>280035.09999999998</v>
+        <v>279995.66357700003</v>
       </c>
       <c r="N67" s="2">
         <f t="shared" si="1"/>
-        <v>134581.1</v>
+        <v>134541.663577</v>
       </c>
       <c r="O67" s="2">
         <f t="shared" si="2"/>
@@ -18687,7 +18748,7 @@
       </c>
       <c r="Q67" s="35">
         <f t="shared" si="3"/>
-        <v>0.92524853218199576</v>
+        <v>0.9249774057571466</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
@@ -18714,15 +18775,15 @@
         <v>20950</v>
       </c>
       <c r="K68" s="2">
-        <v>149.1</v>
+        <v>78.103713999999997</v>
       </c>
       <c r="M68" s="2">
         <f t="shared" si="0"/>
-        <v>247949.1</v>
+        <v>247878.103714</v>
       </c>
       <c r="N68" s="2">
         <f t="shared" si="1"/>
-        <v>116988.1</v>
+        <v>116917.103714</v>
       </c>
       <c r="O68" s="2">
         <f t="shared" si="2"/>
@@ -18730,7 +18791,7 @@
       </c>
       <c r="Q68" s="35">
         <f t="shared" si="3"/>
-        <v>0.89330487702445771</v>
+        <v>0.89276275924893667</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
@@ -18757,15 +18818,15 @@
         <v>14512</v>
       </c>
       <c r="K69" s="2">
-        <v>149.1</v>
+        <v>55.626401000000001</v>
       </c>
       <c r="M69" s="2">
         <f t="shared" si="0"/>
-        <v>164179.1</v>
+        <v>164085.62640100002</v>
       </c>
       <c r="N69" s="2">
         <f t="shared" si="1"/>
-        <v>75650.100000000006</v>
+        <v>75556.626401000001</v>
       </c>
       <c r="O69" s="2">
         <f t="shared" si="2"/>
@@ -18773,7 +18834,7 @@
       </c>
       <c r="Q69" s="35">
         <f t="shared" si="3"/>
-        <v>0.85452337652068822</v>
+        <v>0.85346752364761835</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
@@ -18800,15 +18861,15 @@
         <v>43174</v>
       </c>
       <c r="K70" s="2">
-        <v>149.1</v>
+        <v>39.617789000000002</v>
       </c>
       <c r="M70" s="2">
         <f t="shared" ref="M70:M106" si="4">N70+O70</f>
-        <v>583201.1</v>
+        <v>583091.61778900004</v>
       </c>
       <c r="N70" s="2">
         <f t="shared" ref="N70:N106" si="5">D70+H70+K70</f>
-        <v>242951.1</v>
+        <v>242841.61778900001</v>
       </c>
       <c r="O70" s="2">
         <f t="shared" ref="O70:O106" si="6">E70+I70</f>
@@ -18816,7 +18877,7 @@
       </c>
       <c r="Q70" s="35">
         <f t="shared" ref="Q70:Q105" si="7">N70/O70</f>
-        <v>0.71403703159441589</v>
+        <v>0.71371526168699484</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
@@ -18843,15 +18904,15 @@
         <v>14720</v>
       </c>
       <c r="K71" s="2">
-        <v>149.1</v>
+        <v>28.216263999999999</v>
       </c>
       <c r="M71" s="2">
         <f t="shared" si="4"/>
-        <v>182739.1</v>
+        <v>182618.21626399999</v>
       </c>
       <c r="N71" s="2">
         <f t="shared" si="5"/>
-        <v>89434.1</v>
+        <v>89313.216264000002</v>
       </c>
       <c r="O71" s="2">
         <f t="shared" si="6"/>
@@ -18859,7 +18920,7 @@
       </c>
       <c r="Q71" s="35">
         <f t="shared" si="7"/>
-        <v>0.95851347730561065</v>
+        <v>0.95721790111998284</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
@@ -18886,15 +18947,15 @@
         <v>19233</v>
       </c>
       <c r="K72" s="2">
-        <v>149.1</v>
+        <v>20.095962</v>
       </c>
       <c r="M72" s="2">
         <f t="shared" si="4"/>
-        <v>215071.1</v>
+        <v>214942.09596200002</v>
       </c>
       <c r="N72" s="2">
         <f t="shared" si="5"/>
-        <v>102164.1</v>
+        <v>102035.09596200001</v>
       </c>
       <c r="O72" s="2">
         <f t="shared" si="6"/>
@@ -18902,7 +18963,7 @@
       </c>
       <c r="Q72" s="35">
         <f t="shared" si="7"/>
-        <v>0.90485178066904626</v>
+        <v>0.90370921166978135</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
@@ -18929,15 +18990,15 @@
         <v>15806</v>
       </c>
       <c r="K73" s="2">
-        <v>149.1</v>
+        <v>14.312585</v>
       </c>
       <c r="M73" s="2">
         <f t="shared" si="4"/>
-        <v>160323.1</v>
+        <v>160188.31258500001</v>
       </c>
       <c r="N73" s="2">
         <f t="shared" si="5"/>
-        <v>73131.100000000006</v>
+        <v>72996.312585000007</v>
       </c>
       <c r="O73" s="2">
         <f t="shared" si="6"/>
@@ -18945,7 +19006,7 @@
       </c>
       <c r="Q73" s="35">
         <f t="shared" si="7"/>
-        <v>0.8387363519588954</v>
+        <v>0.83719048289980735</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
@@ -18972,15 +19033,15 @@
         <v>7635</v>
       </c>
       <c r="K74" s="2">
-        <v>149.1</v>
+        <v>10.193593999999999</v>
       </c>
       <c r="M74" s="2">
         <f t="shared" si="4"/>
-        <v>78977.100000000006</v>
+        <v>78838.193593999997</v>
       </c>
       <c r="N74" s="2">
         <f t="shared" si="5"/>
-        <v>37117.1</v>
+        <v>36978.193593999997</v>
       </c>
       <c r="O74" s="2">
         <f t="shared" si="6"/>
@@ -18988,7 +19049,7 @@
       </c>
       <c r="Q74" s="35">
         <f t="shared" si="7"/>
-        <v>0.88669612995699953</v>
+        <v>0.88337777338748202</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
@@ -20479,15 +20540,15 @@
       </c>
       <c r="K114" s="2">
         <f>SUM(K20:K24)</f>
-        <v>408822</v>
+        <v>256353.01226799999</v>
       </c>
       <c r="M114" s="2">
         <f>SUM(M20:M24)</f>
-        <v>6564367</v>
+        <v>6411898.0122680003</v>
       </c>
       <c r="N114" s="2">
         <f>SUM(N20:N24)</f>
-        <v>2996424</v>
+        <v>2843955.0122680003</v>
       </c>
       <c r="O114" s="2">
         <f>SUM(O20:O24)</f>
@@ -20495,7 +20556,7 @@
       </c>
       <c r="Q114" s="35">
         <f t="shared" si="8"/>
-        <v>0.83981834911600328</v>
+        <v>0.79708532683061373</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
@@ -20528,15 +20589,15 @@
       </c>
       <c r="K115" s="2">
         <f>SUM(K25:K29)</f>
-        <v>1120922</v>
+        <v>746473.99983099988</v>
       </c>
       <c r="M115" s="2">
         <f>SUM(M25:M29)</f>
-        <v>4807400</v>
+        <v>4432951.9998309994</v>
       </c>
       <c r="N115" s="2">
         <f>SUM(N25:N29)</f>
-        <v>2071405</v>
+        <v>1696956.9998309999</v>
       </c>
       <c r="O115" s="2">
         <f>SUM(O25:O29)</f>
@@ -20544,7 +20605,7 @@
       </c>
       <c r="Q115" s="35">
         <f t="shared" si="8"/>
-        <v>0.7570938543381841</v>
+        <v>0.62023395504414292</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
@@ -20577,15 +20638,15 @@
       </c>
       <c r="K116" s="2">
         <f>SUM(K30:K34)</f>
-        <v>755313</v>
+        <v>530926.99996699998</v>
       </c>
       <c r="M116" s="2">
         <f>SUM(M30:M34)</f>
-        <v>4192800</v>
+        <v>3968413.999967</v>
       </c>
       <c r="N116" s="2">
         <f>SUM(N30:N34)</f>
-        <v>1832683</v>
+        <v>1608296.999967</v>
       </c>
       <c r="O116" s="2">
         <f>SUM(O30:O34)</f>
@@ -20593,7 +20654,7 @@
       </c>
       <c r="Q116" s="35">
         <f t="shared" si="8"/>
-        <v>0.77652209615031798</v>
+        <v>0.68144799599638495</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
@@ -20626,15 +20687,15 @@
       </c>
       <c r="K117" s="2">
         <f>SUM(K35:K39)</f>
-        <v>380143</v>
+        <v>273206.45801499998</v>
       </c>
       <c r="M117" s="2">
         <f>SUM(M35:M39)</f>
-        <v>3532832</v>
+        <v>3425895.4580150004</v>
       </c>
       <c r="N117" s="2">
         <f>SUM(N35:N39)</f>
-        <v>1565666</v>
+        <v>1458729.458015</v>
       </c>
       <c r="O117" s="2">
         <f>SUM(O35:O39)</f>
@@ -20642,7 +20703,7 @@
       </c>
       <c r="Q117" s="35">
         <f t="shared" si="8"/>
-        <v>0.79589927845438568</v>
+        <v>0.74153856767298743</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
@@ -20675,15 +20736,15 @@
       </c>
       <c r="K118" s="2">
         <f>SUM(K40:K44)</f>
-        <v>134620</v>
+        <v>107691.542174</v>
       </c>
       <c r="M118" s="2">
         <f>SUM(M40:M44)</f>
-        <v>3692096</v>
+        <v>3665167.5421739994</v>
       </c>
       <c r="N118" s="2">
         <f>SUM(N40:N44)</f>
-        <v>1726925</v>
+        <v>1699996.5421740001</v>
       </c>
       <c r="O118" s="2">
         <f>SUM(O40:O44)</f>
@@ -20691,7 +20752,7 @@
       </c>
       <c r="Q118" s="35">
         <f t="shared" si="8"/>
-        <v>0.87876576643966353</v>
+        <v>0.86506290911783257</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
@@ -20724,15 +20785,15 @@
       </c>
       <c r="K119" s="2">
         <f>SUM(K45:K49)</f>
-        <v>21465</v>
+        <v>22320.554872000001</v>
       </c>
       <c r="M119" s="2">
         <f>SUM(M45:M49)</f>
-        <v>3037574</v>
+        <v>3038429.5548720001</v>
       </c>
       <c r="N119" s="2">
         <f>SUM(N45:N49)</f>
-        <v>1408163</v>
+        <v>1409018.5548720001</v>
       </c>
       <c r="O119" s="2">
         <f>SUM(O45:O49)</f>
@@ -20740,7 +20801,7 @@
       </c>
       <c r="Q119" s="35">
         <f t="shared" si="8"/>
-        <v>0.86421596515550714</v>
+        <v>0.86474103517896961</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
@@ -20773,15 +20834,15 @@
       </c>
       <c r="K120" s="2">
         <f>SUM(K50:K54)</f>
-        <v>21465</v>
+        <v>4774.4447319999999</v>
       </c>
       <c r="M120" s="2">
         <f>SUM(M50:M54)</f>
-        <v>2881751</v>
+        <v>2865060.4447320001</v>
       </c>
       <c r="N120" s="2">
         <f>SUM(N50:N54)</f>
-        <v>1400358</v>
+        <v>1383667.4447320001</v>
       </c>
       <c r="O120" s="2">
         <f>SUM(O50:O54)</f>
@@ -20789,7 +20850,7 @@
       </c>
       <c r="Q120" s="35">
         <f t="shared" si="8"/>
-        <v>0.94529810792949609</v>
+        <v>0.93403131021410257</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
@@ -20822,15 +20883,15 @@
       </c>
       <c r="K121" s="2">
         <f>SUM(K55:K59)</f>
-        <v>2666</v>
+        <v>1573.815102</v>
       </c>
       <c r="M121" s="2">
         <f>SUM(M55:M59)</f>
-        <v>2318150</v>
+        <v>2317057.8151020003</v>
       </c>
       <c r="N121" s="2">
         <f>SUM(N55:N59)</f>
-        <v>1014083</v>
+        <v>1012990.8151020001</v>
       </c>
       <c r="O121" s="2">
         <f>SUM(O55:O59)</f>
@@ -20838,7 +20899,7 @@
       </c>
       <c r="Q121" s="35">
         <f t="shared" si="8"/>
-        <v>0.77763105729997006</v>
+        <v>0.77679353522633432</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.25">
@@ -20871,15 +20932,15 @@
       </c>
       <c r="K122" s="2">
         <f>SUM(K60:K64)</f>
-        <v>2666</v>
+        <v>1246.1851259999999</v>
       </c>
       <c r="M122" s="2">
         <f>SUM(M60:M64)</f>
-        <v>2197851</v>
+        <v>2196431.1851260005</v>
       </c>
       <c r="N122" s="2">
         <f>SUM(N60:N64)</f>
-        <v>1016053</v>
+        <v>1014633.1851260001</v>
       </c>
       <c r="O122" s="2">
         <f>SUM(O60:O64)</f>
@@ -20887,7 +20948,7 @@
       </c>
       <c r="Q122" s="35">
         <f t="shared" si="8"/>
-        <v>0.85975183576211844</v>
+        <v>0.85855043342940174</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.25">
@@ -20920,15 +20981,15 @@
       </c>
       <c r="K123" s="2">
         <f>SUM(K65:K69)</f>
-        <v>745.5</v>
+        <v>613.56383499999993</v>
       </c>
       <c r="M123" s="2">
         <f>SUM(M65:M69)</f>
-        <v>1851851.5</v>
+        <v>1851719.5638349999</v>
       </c>
       <c r="N123" s="2">
         <f>SUM(N65:N69)</f>
-        <v>807882.49999999988</v>
+        <v>807750.56383499992</v>
       </c>
       <c r="O123" s="2">
         <f>SUM(O65:O69)</f>
@@ -20936,7 +20997,7 @@
       </c>
       <c r="Q123" s="35">
         <f t="shared" si="8"/>
-        <v>0.77385679076677549</v>
+        <v>0.7737304113771577</v>
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.25">
@@ -20969,15 +21030,15 @@
       </c>
       <c r="K124" s="2">
         <f>SUM(K70:K74)</f>
-        <v>745.5</v>
+        <v>112.436194</v>
       </c>
       <c r="M124" s="2">
         <f>SUM(M70:M74)</f>
-        <v>1220311.5</v>
+        <v>1219678.4361940001</v>
       </c>
       <c r="N124" s="2">
         <f>SUM(N70:N74)</f>
-        <v>544797.5</v>
+        <v>544164.43619400007</v>
       </c>
       <c r="O124" s="2">
         <f>SUM(O70:O74)</f>
@@ -20985,7 +21046,7 @@
       </c>
       <c r="Q124" s="35">
         <f t="shared" si="8"/>
-        <v>0.80649327771149082</v>
+        <v>0.8055561190352829</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.25">
@@ -21452,11 +21513,13 @@
       <c r="A171" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="S3:U3"/>
+    <mergeCell ref="W3:Y3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -21470,7 +21533,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EAD33BA-98C4-49D0-A733-3F6F6614A8B2}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -21546,14 +21611,14 @@
         <v>17</v>
       </c>
       <c r="B7" s="2">
-        <v>2996424</v>
+        <v>2843955.0122680003</v>
       </c>
       <c r="C7" s="2">
         <v>3567943</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>-2996424</v>
+        <v>-2843955.0122680003</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -21561,14 +21626,14 @@
         <v>18</v>
       </c>
       <c r="B8" s="2">
-        <v>2071405</v>
+        <v>1696956.9998309999</v>
       </c>
       <c r="C8" s="2">
         <v>2735995</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>-2071405</v>
+        <v>-1696956.9998309999</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -21576,14 +21641,14 @@
         <v>19</v>
       </c>
       <c r="B9" s="2">
-        <v>1832683</v>
+        <v>1608296.999967</v>
       </c>
       <c r="C9" s="2">
         <v>2360117</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>-1832683</v>
+        <v>-1608296.999967</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -21591,14 +21656,14 @@
         <v>20</v>
       </c>
       <c r="B10" s="2">
-        <v>1565666</v>
+        <v>1458729.458015</v>
       </c>
       <c r="C10" s="2">
         <v>1967166</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
-        <v>-1565666</v>
+        <v>-1458729.458015</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -21606,14 +21671,14 @@
         <v>21</v>
       </c>
       <c r="B11" s="2">
-        <v>1726925</v>
+        <v>1699996.5421740001</v>
       </c>
       <c r="C11" s="2">
         <v>1965171</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>-1726925</v>
+        <v>-1699996.5421740001</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -21621,14 +21686,14 @@
         <v>46</v>
       </c>
       <c r="B12" s="2">
-        <v>1408163</v>
+        <v>1409018.5548720001</v>
       </c>
       <c r="C12" s="2">
         <v>1629411</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
-        <v>-1408163</v>
+        <v>-1409018.5548720001</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -21636,14 +21701,14 @@
         <v>45</v>
       </c>
       <c r="B13" s="2">
-        <v>1400358</v>
+        <v>1383667.4447320001</v>
       </c>
       <c r="C13" s="2">
         <v>1481393</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>-1400358</v>
+        <v>-1383667.4447320001</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -21651,14 +21716,14 @@
         <v>35</v>
       </c>
       <c r="B14" s="2">
-        <v>1014083</v>
+        <v>1012990.8151020001</v>
       </c>
       <c r="C14" s="2">
         <v>1304067</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="0"/>
-        <v>-1014083</v>
+        <v>-1012990.8151020001</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -21666,14 +21731,14 @@
         <v>36</v>
       </c>
       <c r="B15" s="2">
-        <v>1016053</v>
+        <v>1014633.1851260001</v>
       </c>
       <c r="C15" s="2">
         <v>1181798</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="0"/>
-        <v>-1016053</v>
+        <v>-1014633.1851260001</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -21681,14 +21746,14 @@
         <v>37</v>
       </c>
       <c r="B16" s="2">
-        <v>807882.49999999988</v>
+        <v>807750.56383499992</v>
       </c>
       <c r="C16" s="2">
         <v>1043969</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
-        <v>-807882.49999999988</v>
+        <v>-807750.56383499992</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -21696,14 +21761,14 @@
         <v>38</v>
       </c>
       <c r="B17" s="2">
-        <v>544797.5</v>
+        <v>544164.43619400007</v>
       </c>
       <c r="C17" s="2">
         <v>675514</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="0"/>
-        <v>-544797.5</v>
+        <v>-544164.43619400007</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -21822,8 +21887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CB8E1E-8C4D-44E1-9586-4CEFDEF185C8}">
   <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22077,14 +22142,14 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>670400</v>
+        <v>669040.01226800005</v>
       </c>
       <c r="C19" s="2">
         <v>777220</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="0"/>
-        <v>-670400</v>
+        <v>-669040.01226800005</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -22092,14 +22157,14 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>713569</v>
+        <v>709903.32515499997</v>
       </c>
       <c r="C20" s="2">
         <v>810723</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="0"/>
-        <v>-713569</v>
+        <v>-709903.32515499997</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -22107,14 +22172,14 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>602838</v>
+        <v>593016.67484500003</v>
       </c>
       <c r="C21" s="2">
         <v>726119</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="0"/>
-        <v>-602838</v>
+        <v>-593016.67484500003</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -22122,14 +22187,14 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>518106</v>
+        <v>485595</v>
       </c>
       <c r="C22" s="2">
         <v>677166</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="0"/>
-        <v>-518106</v>
+        <v>-485595</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -22137,14 +22202,14 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>491511</v>
+        <v>386400</v>
       </c>
       <c r="C23" s="2">
         <v>576715</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="0"/>
-        <v>-491511</v>
+        <v>-386400</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -22152,14 +22217,14 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>513590</v>
+        <v>386643.28892800002</v>
       </c>
       <c r="C24" s="2">
         <v>812759</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="0"/>
-        <v>-513590</v>
+        <v>-386643.28892800002</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -22167,14 +22232,14 @@
         <v>21</v>
       </c>
       <c r="B25" s="2">
-        <v>338741</v>
+        <v>304888.790347</v>
       </c>
       <c r="C25" s="2">
         <v>375756</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="0"/>
-        <v>-338741</v>
+        <v>-304888.790347</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -22182,14 +22247,14 @@
         <v>22</v>
       </c>
       <c r="B26" s="2">
-        <v>418726</v>
+        <v>343990.94059799996</v>
       </c>
       <c r="C26" s="2">
         <v>579685</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="0"/>
-        <v>-418726</v>
+        <v>-343990.94059799996</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -22197,14 +22262,14 @@
         <v>23</v>
       </c>
       <c r="B27" s="2">
-        <v>428013</v>
+        <v>344484.697613</v>
       </c>
       <c r="C27" s="2">
         <v>539870</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="0"/>
-        <v>-428013</v>
+        <v>-344484.697613</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -22212,14 +22277,14 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>372335</v>
+        <v>316949.28234500001</v>
       </c>
       <c r="C28" s="2">
         <v>427925</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="0"/>
-        <v>-372335</v>
+        <v>-316949.28234500001</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -22227,14 +22292,14 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>430837</v>
+        <v>371516.112418</v>
       </c>
       <c r="C29" s="2">
         <v>703946</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="0"/>
-        <v>-430837</v>
+        <v>-371516.112418</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -22242,14 +22307,14 @@
         <v>26</v>
       </c>
       <c r="B30" s="2">
-        <v>361157</v>
+        <v>317934.645625</v>
       </c>
       <c r="C30" s="2">
         <v>431970</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="0"/>
-        <v>-361157</v>
+        <v>-317934.645625</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -22257,14 +22322,14 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>377080</v>
+        <v>330481.49572800001</v>
       </c>
       <c r="C31" s="2">
         <v>473330</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" si="0"/>
-        <v>-377080</v>
+        <v>-330481.49572800001</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -22272,14 +22337,14 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>380781</v>
+        <v>331251.35060000001</v>
       </c>
       <c r="C32" s="2">
         <v>479327</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" si="0"/>
-        <v>-380781</v>
+        <v>-331251.35060000001</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -22287,14 +22352,14 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>282828</v>
+        <v>257113.39559600002</v>
       </c>
       <c r="C33" s="2">
         <v>271544</v>
       </c>
       <c r="D33" s="2">
         <f t="shared" si="0"/>
-        <v>-282828</v>
+        <v>-257113.39559600002</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -22302,14 +22367,14 @@
         <v>30</v>
       </c>
       <c r="B34" s="2">
-        <v>399969</v>
+        <v>365789.92291999998</v>
       </c>
       <c r="C34" s="2">
         <v>772814</v>
       </c>
       <c r="D34" s="2">
         <f t="shared" si="0"/>
-        <v>-399969</v>
+        <v>-365789.92291999998</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -22317,14 +22382,14 @@
         <v>31</v>
       </c>
       <c r="B35" s="2">
-        <v>204058</v>
+        <v>193438.34862199999</v>
       </c>
       <c r="C35" s="2">
         <v>179551</v>
       </c>
       <c r="D35" s="2">
         <f t="shared" si="0"/>
-        <v>-204058</v>
+        <v>-193438.34862199999</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -22332,14 +22397,14 @@
         <v>32</v>
       </c>
       <c r="B36" s="2">
-        <v>336201</v>
+        <v>302279.74534299999</v>
       </c>
       <c r="C36" s="2">
         <v>372986</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" si="0"/>
-        <v>-336201</v>
+        <v>-302279.74534299999</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -22347,14 +22412,14 @@
         <v>33</v>
       </c>
       <c r="B37" s="2">
-        <v>344670</v>
+        <v>325005.516091</v>
       </c>
       <c r="C37" s="2">
         <v>367136</v>
       </c>
       <c r="D37" s="2">
         <f t="shared" si="0"/>
-        <v>-344670</v>
+        <v>-325005.516091</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -22362,14 +22427,14 @@
         <v>34</v>
       </c>
       <c r="B38" s="2">
-        <v>280768</v>
+        <v>272215.92503899999</v>
       </c>
       <c r="C38" s="2">
         <v>274679</v>
       </c>
       <c r="D38" s="2">
         <f t="shared" si="0"/>
-        <v>-280768</v>
+        <v>-272215.92503899999</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -22377,14 +22442,14 @@
         <v>35</v>
       </c>
       <c r="B39" s="2">
-        <v>399506</v>
+        <v>404576.21299999999</v>
       </c>
       <c r="C39" s="2">
         <v>635935</v>
       </c>
       <c r="D39" s="2">
         <f t="shared" si="0"/>
-        <v>-399506</v>
+        <v>-404576.21299999999</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -22392,14 +22457,14 @@
         <v>36</v>
       </c>
       <c r="B40" s="2">
-        <v>323419</v>
+        <v>322837.66852599999</v>
       </c>
       <c r="C40" s="2">
         <v>338990</v>
       </c>
       <c r="D40" s="2">
         <f t="shared" si="0"/>
-        <v>-323419</v>
+        <v>-322837.66852599999</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -22407,14 +22472,14 @@
         <v>37</v>
       </c>
       <c r="B41" s="2">
-        <v>339611</v>
+        <v>333851.77974199998</v>
       </c>
       <c r="C41" s="2">
         <v>360701</v>
       </c>
       <c r="D41" s="2">
         <f t="shared" si="0"/>
-        <v>-339611</v>
+        <v>-333851.77974199998</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -22422,14 +22487,14 @@
         <v>38</v>
       </c>
       <c r="B42" s="2">
-        <v>372569</v>
+        <v>362000.78552899999</v>
       </c>
       <c r="C42" s="2">
         <v>393056</v>
       </c>
       <c r="D42" s="2">
         <f t="shared" si="0"/>
-        <v>-372569</v>
+        <v>-362000.78552899999</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -22437,14 +22502,14 @@
         <v>39</v>
       </c>
       <c r="B43" s="2">
-        <v>291820</v>
+        <v>276730.09537699999</v>
       </c>
       <c r="C43" s="2">
         <v>236489</v>
       </c>
       <c r="D43" s="2">
         <f t="shared" si="0"/>
-        <v>-291820</v>
+        <v>-276730.09537699999</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -22452,14 +22517,14 @@
         <v>40</v>
       </c>
       <c r="B44" s="2">
-        <v>392886</v>
+        <v>396129.16461600002</v>
       </c>
       <c r="C44" s="2">
         <v>656384</v>
       </c>
       <c r="D44" s="2">
         <f t="shared" si="0"/>
-        <v>-392886</v>
+        <v>-396129.16461600002</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -22467,14 +22532,14 @@
         <v>41</v>
       </c>
       <c r="B45" s="2">
-        <v>200817</v>
+        <v>202059.97287100001</v>
       </c>
       <c r="C45" s="2">
         <v>181544</v>
       </c>
       <c r="D45" s="2">
         <f t="shared" si="0"/>
-        <v>-200817</v>
+        <v>-202059.97287100001</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -22482,14 +22547,14 @@
         <v>42</v>
       </c>
       <c r="B46" s="2">
-        <v>306701</v>
+        <v>306474.65687200002</v>
       </c>
       <c r="C46" s="2">
         <v>319586</v>
       </c>
       <c r="D46" s="2">
         <f t="shared" si="0"/>
-        <v>-306701</v>
+        <v>-306474.65687200002</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -22497,14 +22562,14 @@
         <v>43</v>
       </c>
       <c r="B47" s="2">
-        <v>281649</v>
+        <v>280343.31559900002</v>
       </c>
       <c r="C47" s="2">
         <v>263193</v>
       </c>
       <c r="D47" s="2">
         <f t="shared" si="0"/>
-        <v>-281649</v>
+        <v>-280343.31559900002</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -22512,14 +22577,14 @@
         <v>44</v>
       </c>
       <c r="B48" s="2">
-        <v>226110</v>
+        <v>224011.44491399999</v>
       </c>
       <c r="C48" s="2">
         <v>208704</v>
       </c>
       <c r="D48" s="2">
         <f t="shared" si="0"/>
-        <v>-226110</v>
+        <v>-224011.44491399999</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -22527,14 +22592,14 @@
         <v>45</v>
       </c>
       <c r="B49" s="2">
-        <v>415284</v>
+        <v>412603.01196199999</v>
       </c>
       <c r="C49" s="2">
         <v>546751</v>
       </c>
       <c r="D49" s="2">
         <f t="shared" si="0"/>
-        <v>-415284</v>
+        <v>-412603.01196199999</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -22542,14 +22607,14 @@
         <v>46</v>
       </c>
       <c r="B50" s="2">
-        <v>288955</v>
+        <v>285846.16395399999</v>
       </c>
       <c r="C50" s="2">
         <v>258831</v>
       </c>
       <c r="D50" s="2">
         <f t="shared" si="0"/>
-        <v>-288955</v>
+        <v>-285846.16395399999</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -22557,14 +22622,14 @@
         <v>47</v>
       </c>
       <c r="B51" s="2">
-        <v>263212</v>
+        <v>259788.87212399999</v>
       </c>
       <c r="C51" s="2">
         <v>248164</v>
       </c>
       <c r="D51" s="2">
         <f t="shared" si="0"/>
-        <v>-263212</v>
+        <v>-259788.87212399999</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -22572,14 +22637,14 @@
         <v>48</v>
       </c>
       <c r="B52" s="2">
-        <v>265088</v>
+        <v>261433.997252</v>
       </c>
       <c r="C52" s="2">
         <v>274681</v>
       </c>
       <c r="D52" s="2">
         <f t="shared" si="0"/>
-        <v>-265088</v>
+        <v>-261433.997252</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -22587,14 +22652,14 @@
         <v>49</v>
       </c>
       <c r="B53" s="2">
-        <v>167819</v>
+        <v>163995.39944000001</v>
       </c>
       <c r="C53" s="2">
         <v>152966</v>
       </c>
       <c r="D53" s="2">
         <f t="shared" si="0"/>
-        <v>-167819</v>
+        <v>-163995.39944000001</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -22602,14 +22667,14 @@
         <v>50</v>
       </c>
       <c r="B54" s="2">
-        <v>392971.2</v>
+        <v>392782.81499500002</v>
       </c>
       <c r="C54" s="2">
         <v>631526</v>
       </c>
       <c r="D54" s="2">
         <f t="shared" si="0"/>
-        <v>-392971.2</v>
+        <v>-392782.81499500002</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -22617,14 +22682,14 @@
         <v>51</v>
       </c>
       <c r="B55" s="2">
-        <v>134452.20000000001</v>
+        <v>134248.08790099999</v>
       </c>
       <c r="C55" s="2">
         <v>129165</v>
       </c>
       <c r="D55" s="2">
         <f t="shared" si="0"/>
-        <v>-134452.20000000001</v>
+        <v>-134248.08790099999</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -22632,14 +22697,14 @@
         <v>52</v>
       </c>
       <c r="B56" s="2">
-        <v>196917.2</v>
+        <v>196698.07812200001</v>
       </c>
       <c r="C56" s="2">
         <v>214406</v>
       </c>
       <c r="D56" s="2">
         <f t="shared" si="0"/>
-        <v>-196917.2</v>
+        <v>-196698.07812200001</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -22647,14 +22712,14 @@
         <v>53</v>
       </c>
       <c r="B57" s="2">
-        <v>160205.20000000001</v>
+        <v>159971.75294400001</v>
       </c>
       <c r="C57" s="2">
         <v>177261</v>
       </c>
       <c r="D57" s="2">
         <f t="shared" si="0"/>
-        <v>-160205.20000000001</v>
+        <v>-159971.75294400001</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -22662,14 +22727,14 @@
         <v>54</v>
       </c>
       <c r="B58" s="2">
-        <v>129537.2</v>
+        <v>129290.08113999999</v>
       </c>
       <c r="C58" s="2">
         <v>151709</v>
       </c>
       <c r="D58" s="2">
         <f t="shared" si="0"/>
-        <v>-129537.2</v>
+        <v>-129290.08113999999</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -22677,14 +22742,14 @@
         <v>55</v>
       </c>
       <c r="B59" s="2">
-        <v>364740.2</v>
+        <v>364480.03291100002</v>
       </c>
       <c r="C59" s="2">
         <v>480576</v>
       </c>
       <c r="D59" s="2">
         <f t="shared" si="0"/>
-        <v>-364740.2</v>
+        <v>-364480.03291100002</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -22692,14 +22757,14 @@
         <v>56</v>
       </c>
       <c r="B60" s="2">
-        <v>219615.2</v>
+        <v>219342.579814</v>
       </c>
       <c r="C60" s="2">
         <v>231384</v>
       </c>
       <c r="D60" s="2">
         <f t="shared" si="0"/>
-        <v>-219615.2</v>
+        <v>-219342.579814</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -22707,14 +22772,14 @@
         <v>57</v>
       </c>
       <c r="B61" s="2">
-        <v>176736.2</v>
+        <v>176451.69470600001</v>
       </c>
       <c r="C61" s="2">
         <v>187181</v>
       </c>
       <c r="D61" s="2">
         <f t="shared" si="0"/>
-        <v>-176736.2</v>
+        <v>-176451.69470600001</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -22722,14 +22787,14 @@
         <v>58</v>
       </c>
       <c r="B62" s="2">
-        <v>159533.20000000001</v>
+        <v>159237.351681</v>
       </c>
       <c r="C62" s="2">
         <v>185899</v>
       </c>
       <c r="D62" s="2">
         <f t="shared" si="0"/>
-        <v>-159533.20000000001</v>
+        <v>-159237.351681</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -22737,14 +22802,14 @@
         <v>59</v>
       </c>
       <c r="B63" s="2">
-        <v>95428.2</v>
+        <v>95121.526014000003</v>
       </c>
       <c r="C63" s="2">
         <v>96758</v>
       </c>
       <c r="D63" s="2">
         <f t="shared" si="0"/>
-        <v>-95428.2</v>
+        <v>-95121.526014000003</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -22752,14 +22817,14 @@
         <v>60</v>
       </c>
       <c r="B64" s="2">
-        <v>399314.1</v>
+        <v>399381.19410800003</v>
       </c>
       <c r="C64" s="2">
         <v>601959</v>
       </c>
       <c r="D64" s="2">
         <f t="shared" si="0"/>
-        <v>-399314.1</v>
+        <v>-399381.19410800003</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -22767,14 +22832,14 @@
         <v>61</v>
       </c>
       <c r="B65" s="2">
-        <v>81349.100000000006</v>
+        <v>81353.976035</v>
       </c>
       <c r="C65" s="2">
         <v>77066</v>
       </c>
       <c r="D65" s="2">
         <f t="shared" si="0"/>
-        <v>-81349.100000000006</v>
+        <v>-81353.976035</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -22782,14 +22847,14 @@
         <v>62</v>
       </c>
       <c r="B66" s="2">
-        <v>134581.1</v>
+        <v>134541.663577</v>
       </c>
       <c r="C66" s="2">
         <v>145454</v>
       </c>
       <c r="D66" s="2">
         <f t="shared" si="0"/>
-        <v>-134581.1</v>
+        <v>-134541.663577</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -22797,14 +22862,14 @@
         <v>63</v>
       </c>
       <c r="B67" s="2">
-        <v>116988.1</v>
+        <v>116917.103714</v>
       </c>
       <c r="C67" s="2">
         <v>130961</v>
       </c>
       <c r="D67" s="2">
         <f t="shared" si="0"/>
-        <v>-116988.1</v>
+        <v>-116917.103714</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -22812,14 +22877,14 @@
         <v>64</v>
       </c>
       <c r="B68" s="2">
-        <v>75650.100000000006</v>
+        <v>75556.626401000001</v>
       </c>
       <c r="C68" s="2">
         <v>88529</v>
       </c>
       <c r="D68" s="2">
         <f t="shared" si="0"/>
-        <v>-75650.100000000006</v>
+        <v>-75556.626401000001</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -22827,14 +22892,14 @@
         <v>65</v>
       </c>
       <c r="B69" s="2">
-        <v>242951.1</v>
+        <v>242841.61778900001</v>
       </c>
       <c r="C69" s="2">
         <v>340250</v>
       </c>
       <c r="D69" s="2">
         <f t="shared" ref="D69:D104" si="1">0-B69</f>
-        <v>-242951.1</v>
+        <v>-242841.61778900001</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -22842,14 +22907,14 @@
         <v>66</v>
       </c>
       <c r="B70" s="2">
-        <v>89434.1</v>
+        <v>89313.216264000002</v>
       </c>
       <c r="C70" s="2">
         <v>93305</v>
       </c>
       <c r="D70" s="2">
         <f t="shared" si="1"/>
-        <v>-89434.1</v>
+        <v>-89313.216264000002</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -22857,14 +22922,14 @@
         <v>67</v>
       </c>
       <c r="B71" s="2">
-        <v>102164.1</v>
+        <v>102035.09596200001</v>
       </c>
       <c r="C71" s="2">
         <v>112907</v>
       </c>
       <c r="D71" s="2">
         <f t="shared" si="1"/>
-        <v>-102164.1</v>
+        <v>-102035.09596200001</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -22872,14 +22937,14 @@
         <v>68</v>
       </c>
       <c r="B72" s="2">
-        <v>73131.100000000006</v>
+        <v>72996.312585000007</v>
       </c>
       <c r="C72" s="2">
         <v>87192</v>
       </c>
       <c r="D72" s="2">
         <f t="shared" si="1"/>
-        <v>-73131.100000000006</v>
+        <v>-72996.312585000007</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -22887,14 +22952,14 @@
         <v>69</v>
       </c>
       <c r="B73" s="2">
-        <v>37117.1</v>
+        <v>36978.193593999997</v>
       </c>
       <c r="C73" s="2">
         <v>41860</v>
       </c>
       <c r="D73" s="2">
         <f t="shared" si="1"/>
-        <v>-37117.1</v>
+        <v>-36978.193593999997</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -23373,7 +23438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6CC946-8C8A-4206-96C6-A57541C1CBC0}">
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="AI45" sqref="AI45"/>
     </sheetView>
   </sheetViews>
@@ -23654,607 +23719,607 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="55">
+      <c r="A36" s="54">
         <v>15</v>
       </c>
-      <c r="B36" s="55">
+      <c r="B36" s="54">
         <v>1136.0122679999999</v>
       </c>
-      <c r="C36" s="55">
+      <c r="C36" s="54">
         <v>1136</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="55">
+      <c r="A37" s="54">
         <v>16</v>
       </c>
-      <c r="B37" s="55">
+      <c r="B37" s="54">
         <v>3270.325155</v>
       </c>
-      <c r="C37" s="55">
+      <c r="C37" s="54">
         <v>6041.5</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="55">
+      <c r="A38" s="54">
         <v>17</v>
       </c>
-      <c r="B38" s="55">
+      <c r="B38" s="54">
         <v>8812.6748449999996</v>
       </c>
-      <c r="C38" s="55">
+      <c r="C38" s="54">
         <v>6041.5</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="55">
+      <c r="A39" s="54">
         <v>18</v>
       </c>
-      <c r="B39" s="55">
+      <c r="B39" s="54">
         <v>53524</v>
       </c>
-      <c r="C39" s="55">
+      <c r="C39" s="54">
         <v>53524</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="55">
+      <c r="A40" s="54">
         <v>19</v>
       </c>
-      <c r="B40" s="55">
+      <c r="B40" s="54">
         <v>189610</v>
       </c>
-      <c r="C40" s="55">
+      <c r="C40" s="54">
         <v>189610</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="55">
+      <c r="A41" s="54">
         <v>20</v>
       </c>
-      <c r="B41" s="55">
+      <c r="B41" s="54">
         <v>165826.28892799999</v>
       </c>
-      <c r="C41" s="55">
+      <c r="C41" s="54">
         <v>149294.79999999999</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="55">
+      <c r="A42" s="54">
         <v>21</v>
       </c>
-      <c r="B42" s="55">
+      <c r="B42" s="54">
         <v>157114.790347</v>
       </c>
-      <c r="C42" s="55">
+      <c r="C42" s="54">
         <v>149294.79999999999</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="55">
+      <c r="A43" s="54">
         <v>22</v>
       </c>
-      <c r="B43" s="55">
+      <c r="B43" s="54">
         <v>148860.94059799999</v>
       </c>
-      <c r="C43" s="55">
+      <c r="C43" s="54">
         <v>149294.79999999999</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="55">
+      <c r="A44" s="54">
         <v>23</v>
       </c>
-      <c r="B44" s="55">
+      <c r="B44" s="54">
         <v>141040.697613</v>
       </c>
-      <c r="C44" s="55">
+      <c r="C44" s="54">
         <v>149294.79999999999</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="55">
+      <c r="A45" s="54">
         <v>24</v>
       </c>
-      <c r="B45" s="55">
+      <c r="B45" s="54">
         <v>133631.28234500001</v>
       </c>
-      <c r="C45" s="55">
+      <c r="C45" s="54">
         <v>149294.79999999999</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="55">
+      <c r="A46" s="54">
         <v>25</v>
       </c>
-      <c r="B46" s="55">
+      <c r="B46" s="54">
         <v>126611.112418</v>
       </c>
-      <c r="C46" s="55">
+      <c r="C46" s="54">
         <v>106185.4</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="55">
+      <c r="A47" s="54">
         <v>26</v>
       </c>
-      <c r="B47" s="55">
+      <c r="B47" s="54">
         <v>116822.645625</v>
       </c>
-      <c r="C47" s="55">
+      <c r="C47" s="54">
         <v>106185.4</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="55">
+      <c r="A48" s="54">
         <v>27</v>
       </c>
-      <c r="B48" s="55">
+      <c r="B48" s="54">
         <v>106585.49572799999</v>
       </c>
-      <c r="C48" s="55">
+      <c r="C48" s="54">
         <v>106185.4</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="55">
+      <c r="A49" s="54">
         <v>28</v>
       </c>
-      <c r="B49" s="55">
+      <c r="B49" s="54">
         <v>95949.350600000005</v>
       </c>
-      <c r="C49" s="55">
+      <c r="C49" s="54">
         <v>106185.4</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="55">
+      <c r="A50" s="54">
         <v>29</v>
       </c>
-      <c r="B50" s="55">
+      <c r="B50" s="54">
         <v>84958.395596000002</v>
       </c>
-      <c r="C50" s="55">
+      <c r="C50" s="54">
         <v>106185.4</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="55">
+      <c r="A51" s="54">
         <v>30</v>
       </c>
-      <c r="B51" s="55">
+      <c r="B51" s="54">
         <v>73651.922919999997</v>
       </c>
-      <c r="C51" s="55">
+      <c r="C51" s="54">
         <v>38089.800000000003</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="55">
+      <c r="A52" s="54">
         <v>31</v>
       </c>
-      <c r="B52" s="55">
+      <c r="B52" s="54">
         <v>62668.348621999998</v>
       </c>
-      <c r="C52" s="55">
+      <c r="C52" s="54">
         <v>38089.800000000003</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="55">
+      <c r="A53" s="54">
         <v>32</v>
       </c>
-      <c r="B53" s="55">
+      <c r="B53" s="54">
         <v>53337.745343000002</v>
       </c>
-      <c r="C53" s="55">
+      <c r="C53" s="54">
         <v>38089.800000000003</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="55">
+      <c r="A54" s="54">
         <v>33</v>
       </c>
-      <c r="B54" s="55">
+      <c r="B54" s="54">
         <v>45294.516090999998</v>
       </c>
-      <c r="C54" s="55">
+      <c r="C54" s="54">
         <v>38089.800000000003</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="55">
+      <c r="A55" s="54">
         <v>34</v>
       </c>
-      <c r="B55" s="55">
+      <c r="B55" s="54">
         <v>38253.925039000002</v>
       </c>
-      <c r="C55" s="55">
+      <c r="C55" s="54">
         <v>38089.800000000003</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="55">
+      <c r="A56" s="54">
         <v>35</v>
       </c>
-      <c r="B56" s="55">
+      <c r="B56" s="54">
         <v>31994.213</v>
       </c>
-      <c r="C56" s="55">
+      <c r="C56" s="54">
         <v>38089.800000000003</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="55">
+      <c r="A57" s="54">
         <v>36</v>
       </c>
-      <c r="B57" s="55">
+      <c r="B57" s="54">
         <v>26342.668526000001</v>
       </c>
-      <c r="C57" s="55">
+      <c r="C57" s="54">
         <v>38089.800000000003</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="55">
+      <c r="A58" s="54">
         <v>37</v>
       </c>
-      <c r="B58" s="55">
+      <c r="B58" s="54">
         <v>21164.779741999999</v>
       </c>
-      <c r="C58" s="55">
+      <c r="C58" s="54">
         <v>38089.800000000003</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="55">
+      <c r="A59" s="54">
         <v>38</v>
       </c>
-      <c r="B59" s="55">
+      <c r="B59" s="54">
         <v>16355.785529000001</v>
       </c>
-      <c r="C59" s="55">
+      <c r="C59" s="54">
         <v>38089.800000000003</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="55">
+      <c r="A60" s="54">
         <v>39</v>
       </c>
-      <c r="B60" s="55">
+      <c r="B60" s="54">
         <v>11834.095377</v>
       </c>
-      <c r="C60" s="55">
+      <c r="C60" s="54">
         <v>38089.800000000003</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="55">
+      <c r="A61" s="54">
         <v>40</v>
       </c>
-      <c r="B61" s="55">
+      <c r="B61" s="54">
         <v>7536.164616</v>
       </c>
-      <c r="C61" s="55">
+      <c r="C61" s="54">
         <v>2709.5</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="55">
+      <c r="A62" s="54">
         <v>41</v>
       </c>
-      <c r="B62" s="55">
+      <c r="B62" s="54">
         <v>5535.9728709999999</v>
       </c>
-      <c r="C62" s="55">
+      <c r="C62" s="54">
         <v>2709.5</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="55">
+      <c r="A63" s="54">
         <v>42</v>
       </c>
-      <c r="B63" s="55">
+      <c r="B63" s="54">
         <v>4066.656872</v>
       </c>
-      <c r="C63" s="55">
+      <c r="C63" s="54">
         <v>2709.5</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="55">
+      <c r="A64" s="54">
         <v>43</v>
       </c>
-      <c r="B64" s="55">
+      <c r="B64" s="54">
         <v>2987.315599</v>
       </c>
-      <c r="C64" s="55">
+      <c r="C64" s="54">
         <v>2709.5</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="55">
+      <c r="A65" s="54">
         <v>44</v>
       </c>
-      <c r="B65" s="55">
+      <c r="B65" s="54">
         <v>2194.4449140000002</v>
       </c>
-      <c r="C65" s="55">
+      <c r="C65" s="54">
         <v>2709.5</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="55">
+      <c r="A66" s="54">
         <v>45</v>
       </c>
-      <c r="B66" s="55">
+      <c r="B66" s="54">
         <v>1612.011962</v>
       </c>
-      <c r="C66" s="55">
+      <c r="C66" s="54">
         <v>2709.5</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="55">
+      <c r="A67" s="54">
         <v>46</v>
       </c>
-      <c r="B67" s="55">
+      <c r="B67" s="54">
         <v>1184.1639540000001</v>
       </c>
-      <c r="C67" s="55">
+      <c r="C67" s="54">
         <v>2709.5</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="55">
+      <c r="A68" s="54">
         <v>47</v>
       </c>
-      <c r="B68" s="55">
+      <c r="B68" s="54">
         <v>869.87212399999999</v>
       </c>
-      <c r="C68" s="55">
+      <c r="C68" s="54">
         <v>2709.5</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="55">
+      <c r="A69" s="54">
         <v>48</v>
       </c>
-      <c r="B69" s="55">
+      <c r="B69" s="54">
         <v>638.997252</v>
       </c>
-      <c r="C69" s="55">
+      <c r="C69" s="54">
         <v>2709.5</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="55">
+      <c r="A70" s="54">
         <v>49</v>
       </c>
-      <c r="B70" s="55">
+      <c r="B70" s="54">
         <v>469.39944000000003</v>
       </c>
-      <c r="C70" s="55">
+      <c r="C70" s="54">
         <v>2709.5</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="55">
+      <c r="A71" s="54">
         <v>50</v>
       </c>
-      <c r="B71" s="55">
+      <c r="B71" s="54">
         <v>344.81499500000001</v>
       </c>
-      <c r="C71" s="55">
+      <c r="C71" s="54">
         <v>282</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="55">
+      <c r="A72" s="54">
         <v>51</v>
       </c>
-      <c r="B72" s="55">
+      <c r="B72" s="54">
         <v>329.08790099999999</v>
       </c>
-      <c r="C72" s="55">
+      <c r="C72" s="54">
         <v>282</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="55">
+      <c r="A73" s="54">
         <v>52</v>
       </c>
-      <c r="B73" s="55">
+      <c r="B73" s="54">
         <v>314.07812200000001</v>
       </c>
-      <c r="C73" s="55">
+      <c r="C73" s="54">
         <v>282</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="55">
+      <c r="A74" s="54">
         <v>53</v>
       </c>
-      <c r="B74" s="55">
+      <c r="B74" s="54">
         <v>299.75294400000001</v>
       </c>
-      <c r="C74" s="55">
+      <c r="C74" s="54">
         <v>282</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="55">
+      <c r="A75" s="54">
         <v>54</v>
       </c>
-      <c r="B75" s="55">
+      <c r="B75" s="54">
         <v>286.08114</v>
       </c>
-      <c r="C75" s="55">
+      <c r="C75" s="54">
         <v>282</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="55">
+      <c r="A76" s="54">
         <v>55</v>
       </c>
-      <c r="B76" s="55">
+      <c r="B76" s="54">
         <v>273.03291100000001</v>
       </c>
-      <c r="C76" s="55">
+      <c r="C76" s="54">
         <v>282</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="55">
+      <c r="A77" s="54">
         <v>56</v>
       </c>
-      <c r="B77" s="55">
+      <c r="B77" s="54">
         <v>260.579814</v>
       </c>
-      <c r="C77" s="55">
+      <c r="C77" s="54">
         <v>282</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="55">
+      <c r="A78" s="54">
         <v>57</v>
       </c>
-      <c r="B78" s="55">
+      <c r="B78" s="54">
         <v>248.694706</v>
       </c>
-      <c r="C78" s="55">
+      <c r="C78" s="54">
         <v>282</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="55">
+      <c r="A79" s="54">
         <v>58</v>
       </c>
-      <c r="B79" s="55">
+      <c r="B79" s="54">
         <v>237.35168100000001</v>
       </c>
-      <c r="C79" s="55">
+      <c r="C79" s="54">
         <v>282</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="55">
+      <c r="A80" s="54">
         <v>59</v>
       </c>
-      <c r="B80" s="55">
+      <c r="B80" s="54">
         <v>226.526014</v>
       </c>
-      <c r="C80" s="55">
+      <c r="C80" s="54">
         <v>282</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="55">
+      <c r="A81" s="54">
         <v>60</v>
       </c>
-      <c r="B81" s="55">
+      <c r="B81" s="54">
         <v>216.194108</v>
       </c>
-      <c r="C81" s="55">
+      <c r="C81" s="54">
         <v>72.599999999999994</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="55">
+      <c r="A82" s="54">
         <v>61</v>
       </c>
-      <c r="B82" s="55">
+      <c r="B82" s="54">
         <v>153.976035</v>
       </c>
-      <c r="C82" s="55">
+      <c r="C82" s="54">
         <v>72.599999999999994</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="55">
+      <c r="A83" s="54">
         <v>62</v>
       </c>
-      <c r="B83" s="55">
+      <c r="B83" s="54">
         <v>109.663577</v>
       </c>
-      <c r="C83" s="55">
+      <c r="C83" s="54">
         <v>72.599999999999994</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="55">
+      <c r="A84" s="54">
         <v>63</v>
       </c>
-      <c r="B84" s="55">
+      <c r="B84" s="54">
         <v>78.103713999999997</v>
       </c>
-      <c r="C84" s="55">
+      <c r="C84" s="54">
         <v>72.599999999999994</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="55">
+      <c r="A85" s="54">
         <v>64</v>
       </c>
-      <c r="B85" s="55">
+      <c r="B85" s="54">
         <v>55.626401000000001</v>
       </c>
-      <c r="C85" s="55">
+      <c r="C85" s="54">
         <v>72.599999999999994</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="55">
+      <c r="A86" s="54">
         <v>65</v>
       </c>
-      <c r="B86" s="55">
+      <c r="B86" s="54">
         <v>39.617789000000002</v>
       </c>
-      <c r="C86" s="55">
+      <c r="C86" s="54">
         <v>72.599999999999994</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="55">
+      <c r="A87" s="54">
         <v>66</v>
       </c>
-      <c r="B87" s="55">
+      <c r="B87" s="54">
         <v>28.216263999999999</v>
       </c>
-      <c r="C87" s="55">
+      <c r="C87" s="54">
         <v>72.599999999999994</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="55">
+      <c r="A88" s="54">
         <v>67</v>
       </c>
-      <c r="B88" s="55">
+      <c r="B88" s="54">
         <v>20.095962</v>
       </c>
-      <c r="C88" s="55">
+      <c r="C88" s="54">
         <v>72.599999999999994</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="55">
+      <c r="A89" s="54">
         <v>68</v>
       </c>
-      <c r="B89" s="55">
+      <c r="B89" s="54">
         <v>14.312585</v>
       </c>
-      <c r="C89" s="55">
+      <c r="C89" s="54">
         <v>72.599999999999994</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="55">
+      <c r="A90" s="54">
         <v>69</v>
       </c>
-      <c r="B90" s="55">
+      <c r="B90" s="54">
         <v>10.193593999999999</v>
       </c>
-      <c r="C90" s="55">
+      <c r="C90" s="54">
         <v>72.599999999999994</v>
       </c>
     </row>

--- a/auxiliary/census-1920.xlsx
+++ b/auxiliary/census-1920.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\auxiliary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A087DB4F-945A-4FA5-9EA5-76B014CB5AE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41199B07-9946-4F9E-A16E-09DB81433800}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" activeTab="6" xr2:uid="{0ED4691F-BE7B-497E-88B1-9CCACC27BAC8}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" activeTab="9" xr2:uid="{0ED4691F-BE7B-497E-88B1-9CCACC27BAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="заглавие" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="chart-5" sheetId="6" r:id="rId6"/>
     <sheet name="chart-1" sheetId="7" r:id="rId7"/>
     <sheet name="интерполяция РККА" sheetId="8" r:id="rId8"/>
+    <sheet name="1926-РСФСР" sheetId="9" r:id="rId9"/>
+    <sheet name="1926-СССР" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="114">
   <si>
     <t>Перепись населения РСФСР 28 августа 1920 года</t>
   </si>
@@ -361,6 +363,30 @@
   <si>
     <t>население возраста 19-30</t>
   </si>
+  <si>
+    <t>население возраста 19-35</t>
+  </si>
+  <si>
+    <t>Население РСФСР по переписи 1926 года</t>
+  </si>
+  <si>
+    <t>ЦСУ СССР, "Всесоюзная перепись населения 17 декабря 1926 г.", вып. 7 (возраст и грамотность населения СССР), стр. 14-18</t>
+  </si>
+  <si>
+    <t>муж.</t>
+  </si>
+  <si>
+    <t>жен.</t>
+  </si>
+  <si>
+    <t>соотношение муж/жен</t>
+  </si>
+  <si>
+    <t>Население СССР по переписи 1926 года</t>
+  </si>
+  <si>
+    <t>ЦСУ СССР, "Всесоюзная перепись населения 17 декабря 1926 г.", вып. 7 (возраст и грамотность населения СССР), стр. 8-13</t>
+  </si>
 </sst>
 </file>
 
@@ -437,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -572,11 +598,32 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6763,6 +6810,2367 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41179AA5-A459-461A-8DB6-75B8BBC9FE99}">
+  <dimension ref="A1:K129"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="63"/>
+      <c r="G4" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="57"/>
+      <c r="J4" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="K4" s="63"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="59">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2631221</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
+        <v>2549617</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="G5" s="64"/>
+      <c r="J5" s="35">
+        <f>B5/D5</f>
+        <v>1.0320063758595899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="60">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2284444</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2">
+        <v>2241181</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="J6" s="35">
+        <f t="shared" ref="J6:J69" si="0">B6/D6</f>
+        <v>1.0193036617747517</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="60">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2215893</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2">
+        <v>2196909</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="J7" s="35">
+        <f t="shared" si="0"/>
+        <v>1.0086412318398259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="60">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2278294</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
+        <v>2263400</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="J8" s="35">
+        <f t="shared" si="0"/>
+        <v>1.0065803658213308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="60">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1823571</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2">
+        <v>1829512</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="J9" s="35">
+        <f t="shared" si="0"/>
+        <v>0.99675268596215827</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2">
+        <v>11233423</v>
+      </c>
+      <c r="E10" s="2">
+        <v>11080619</v>
+      </c>
+      <c r="G10" s="2">
+        <f>SUM(B5:B9) - C10</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <f>SUM(C5:C9) - D10</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="35">
+        <f>C10/E10</f>
+        <v>1.0137902043198128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="60">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1793725</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
+        <v>1747493</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="J11" s="35">
+        <f t="shared" si="0"/>
+        <v>1.0264561860905881</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="60">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1530117</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
+        <v>1525785</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="J12" s="35">
+        <f t="shared" si="0"/>
+        <v>1.0028391942508283</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="60">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1485679</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
+        <v>1524571</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="J13" s="35">
+        <f t="shared" si="0"/>
+        <v>0.97448987288883238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="60">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1672961</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
+        <v>1659747</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="J14" s="35">
+        <f t="shared" si="0"/>
+        <v>1.0079614543662379</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="60">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1163006</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2">
+        <v>1157850</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="J15" s="35">
+        <f t="shared" si="0"/>
+        <v>1.0044530811417713</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2">
+        <v>7645488</v>
+      </c>
+      <c r="E16" s="2">
+        <v>7615446</v>
+      </c>
+      <c r="G16" s="2">
+        <f>SUM(B11:B15) - C16</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <f>SUM(C11:C15) - D16</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="35">
+        <f>C16/E16</f>
+        <v>1.0039448772928072</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="60">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1461715</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2">
+        <v>1437450</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="J17" s="35">
+        <f t="shared" si="0"/>
+        <v>1.0168805871508575</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="60">
+        <v>11</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1346003</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2">
+        <v>1321282</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="J18" s="35">
+        <f t="shared" si="0"/>
+        <v>1.0187098590611239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="60">
+        <v>12</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2176324</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2">
+        <v>2059177</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="J19" s="35">
+        <f t="shared" si="0"/>
+        <v>1.0568902041932287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="59">
+        <v>13</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1853833</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2">
+        <v>1810686</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="J20" s="35">
+        <f t="shared" si="0"/>
+        <v>1.0238290901901268</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="60">
+        <v>14</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1801619</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2">
+        <v>1815413</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="J21" s="35">
+        <f t="shared" si="0"/>
+        <v>0.99240172897296652</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2">
+        <v>8639494</v>
+      </c>
+      <c r="E22" s="2">
+        <v>8444008</v>
+      </c>
+      <c r="G22" s="2">
+        <f>SUM(B17:B21) - C22</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <f>SUM(C17:C21) - D22</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35">
+        <f>C22/E22</f>
+        <v>1.0231508544283709</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="60">
+        <v>15</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1807454</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2">
+        <v>1831264</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="J23" s="35">
+        <f t="shared" si="0"/>
+        <v>0.98699805161899101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="60">
+        <v>16</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1787653</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2">
+        <v>1946325</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="J24" s="35">
+        <f t="shared" si="0"/>
+        <v>0.91847610239810928</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="60">
+        <v>17</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1563025</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2">
+        <v>1744454</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="J25" s="35">
+        <f t="shared" si="0"/>
+        <v>0.89599668434937241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="60">
+        <v>18</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1613891</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2">
+        <v>1814043</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="J26" s="35">
+        <f t="shared" si="0"/>
+        <v>0.88966523946786269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="60">
+        <v>19</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1357600</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2">
+        <v>1504445</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="J27" s="35">
+        <f t="shared" si="0"/>
+        <v>0.90239257666448425</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2">
+        <v>8129623</v>
+      </c>
+      <c r="E28" s="2">
+        <v>8840531</v>
+      </c>
+      <c r="G28" s="2">
+        <f>SUM(B23:B27) - C28</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <f>SUM(C23:C27) - D28</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35">
+        <f>C28/E28</f>
+        <v>0.91958537332203238</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="60">
+        <v>20</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1637986</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2">
+        <v>1954434</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="J29" s="35">
+        <f t="shared" si="0"/>
+        <v>0.8380871392945477</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="60">
+        <v>21</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1223450</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2">
+        <v>1023157</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="J30" s="35">
+        <f t="shared" si="0"/>
+        <v>1.1957597905306809</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="60">
+        <v>22</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1412198</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2">
+        <v>1487733</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="J31" s="35">
+        <f t="shared" si="0"/>
+        <v>0.94922812090610342</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="60">
+        <v>23</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1322114</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2">
+        <v>1399179</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="J32" s="35">
+        <f t="shared" si="0"/>
+        <v>0.94492127168861173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="61">
+        <v>24</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1113906</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2">
+        <v>1233991</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="J33" s="35">
+        <f t="shared" si="0"/>
+        <v>0.9026856759895332</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2">
+        <v>6709654</v>
+      </c>
+      <c r="E34" s="2">
+        <v>7098494</v>
+      </c>
+      <c r="G34" s="2">
+        <f>SUM(B29:B33) - C34</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <f>SUM(C29:C33) - D34</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35">
+        <f>C34/E34</f>
+        <v>0.94522218374770761</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="42">
+        <v>25</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1298648</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2">
+        <v>1809980</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="J35" s="35">
+        <f t="shared" si="0"/>
+        <v>0.71749301097249696</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="42">
+        <v>26</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1200331</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2">
+        <v>1332329</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="J36" s="35">
+        <f t="shared" si="0"/>
+        <v>0.9009268731672132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="42">
+        <v>27</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1029772</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2">
+        <v>1235372</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="J37" s="35">
+        <f t="shared" si="0"/>
+        <v>0.83357239762597823</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="42">
+        <v>28</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1130829</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2">
+        <v>1349879</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="J38" s="35">
+        <f t="shared" si="0"/>
+        <v>0.83772619619980759</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="42">
+        <v>29</v>
+      </c>
+      <c r="B39" s="2">
+        <v>828188</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2">
+        <v>817264</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="J39" s="35">
+        <f t="shared" si="0"/>
+        <v>1.0133665498541475</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2">
+        <v>5487768</v>
+      </c>
+      <c r="E40" s="2">
+        <v>6544824</v>
+      </c>
+      <c r="G40" s="2">
+        <f>SUM(B35:B39) - C40</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
+        <f>SUM(C35:C39) - D40</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35">
+        <f>C40/E40</f>
+        <v>0.83848977451494489</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="42">
+        <v>30</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1372675</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2">
+        <v>1859272</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="J41" s="35">
+        <f t="shared" si="0"/>
+        <v>0.73828627548847081</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="42">
+        <v>31</v>
+      </c>
+      <c r="B42" s="2">
+        <v>594802</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2">
+        <v>529448</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="J42" s="35">
+        <f t="shared" si="0"/>
+        <v>1.1234379957993985</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="42">
+        <v>32</v>
+      </c>
+      <c r="B43" s="2">
+        <v>890229</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2">
+        <v>928308</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="J43" s="35">
+        <f t="shared" si="0"/>
+        <v>0.95898020915472015</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="42">
+        <v>33</v>
+      </c>
+      <c r="B44" s="2">
+        <v>796581</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2">
+        <v>803352</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="J44" s="35">
+        <f t="shared" si="0"/>
+        <v>0.9915715651420548</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="42">
+        <v>34</v>
+      </c>
+      <c r="B45" s="2">
+        <v>640631</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2">
+        <v>645440</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="J45" s="35">
+        <f t="shared" si="0"/>
+        <v>0.99254926871591476</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2">
+        <v>4294918</v>
+      </c>
+      <c r="E46" s="2">
+        <v>4765820</v>
+      </c>
+      <c r="G46" s="2">
+        <f>SUM(B41:B45) - C46</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <f>SUM(C41:C45) - D46</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35">
+        <f>C46/E46</f>
+        <v>0.90119182008552567</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="42">
+        <v>35</v>
+      </c>
+      <c r="B47" s="2">
+        <v>1037581</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2">
+        <v>1344055</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="J47" s="35">
+        <f t="shared" si="0"/>
+        <v>0.77197808125411538</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="62">
+        <v>36</v>
+      </c>
+      <c r="B48" s="2">
+        <v>768547</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2">
+        <v>796588</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="J48" s="35">
+        <f t="shared" si="0"/>
+        <v>0.96479861609765649</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="62">
+        <v>37</v>
+      </c>
+      <c r="B49" s="2">
+        <v>694252</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2">
+        <v>786180</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="J49" s="35">
+        <f t="shared" si="0"/>
+        <v>0.88307003485206947</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="62">
+        <v>38</v>
+      </c>
+      <c r="B50" s="2">
+        <v>868453</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2">
+        <v>947400</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="J50" s="35">
+        <f t="shared" si="0"/>
+        <v>0.91666983322778128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="62">
+        <v>39</v>
+      </c>
+      <c r="B51" s="2">
+        <v>623255</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2">
+        <v>582372</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="J51" s="35">
+        <f t="shared" si="0"/>
+        <v>1.0702008338312969</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2">
+        <v>3992088</v>
+      </c>
+      <c r="E52" s="2">
+        <v>4456595</v>
+      </c>
+      <c r="G52" s="2">
+        <f>SUM(B47:B51) - C52</f>
+        <v>0</v>
+      </c>
+      <c r="H52" s="2">
+        <f>SUM(C47:C51) - D52</f>
+        <v>0</v>
+      </c>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35">
+        <f>C52/E52</f>
+        <v>0.89577087440074765</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="62">
+        <v>40</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1120936</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2">
+        <v>1505932</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="J53" s="35">
+        <f t="shared" si="0"/>
+        <v>0.74434702230910821</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="62">
+        <v>41</v>
+      </c>
+      <c r="B54" s="2">
+        <v>459713</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2">
+        <v>380245</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="J54" s="35">
+        <f t="shared" si="0"/>
+        <v>1.2089915712238162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="62">
+        <v>42</v>
+      </c>
+      <c r="B55" s="2">
+        <v>739440</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2">
+        <v>677714</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="J55" s="35">
+        <f t="shared" si="0"/>
+        <v>1.0910797179931357</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="62">
+        <v>43</v>
+      </c>
+      <c r="B56" s="2">
+        <v>592793</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2">
+        <v>544878</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="J56" s="35">
+        <f t="shared" si="0"/>
+        <v>1.0879371161984885</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="62">
+        <v>44</v>
+      </c>
+      <c r="B57" s="2">
+        <v>478496</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2">
+        <v>451738</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="J57" s="35">
+        <f t="shared" si="0"/>
+        <v>1.0592334494773519</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2">
+        <v>3391378</v>
+      </c>
+      <c r="E58" s="2">
+        <v>3560507</v>
+      </c>
+      <c r="G58" s="2">
+        <f>SUM(B53:B57) - C58</f>
+        <v>0</v>
+      </c>
+      <c r="H58" s="2">
+        <f>SUM(C53:C57) - D58</f>
+        <v>0</v>
+      </c>
+      <c r="J58" s="35"/>
+      <c r="K58" s="35">
+        <f>C58/E58</f>
+        <v>0.95249861887646903</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="62">
+        <v>45</v>
+      </c>
+      <c r="B59" s="2">
+        <v>891533</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2">
+        <v>1076713</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="J59" s="35">
+        <f t="shared" si="0"/>
+        <v>0.82801359322307799</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="62">
+        <v>46</v>
+      </c>
+      <c r="B60" s="2">
+        <v>578549</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2">
+        <v>514918</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="J60" s="35">
+        <f t="shared" si="0"/>
+        <v>1.1235750158277629</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="62">
+        <v>47</v>
+      </c>
+      <c r="B61" s="2">
+        <v>479355</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2">
+        <v>471729</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="J61" s="35">
+        <f t="shared" si="0"/>
+        <v>1.0161660614462964</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="62">
+        <v>48</v>
+      </c>
+      <c r="B62" s="2">
+        <v>554241</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2">
+        <v>592636</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="J62" s="35">
+        <f t="shared" si="0"/>
+        <v>0.93521318313433544</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="62">
+        <v>49</v>
+      </c>
+      <c r="B63" s="2">
+        <v>387763</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2">
+        <v>357510</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="J63" s="35">
+        <f t="shared" si="0"/>
+        <v>1.0846214091913513</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2">
+        <v>2891441</v>
+      </c>
+      <c r="E64" s="2">
+        <v>3013506</v>
+      </c>
+      <c r="G64" s="2">
+        <f>SUM(B59:B63) - C64</f>
+        <v>0</v>
+      </c>
+      <c r="H64" s="2">
+        <f>SUM(C59:C63) - D64</f>
+        <v>0</v>
+      </c>
+      <c r="J64" s="35"/>
+      <c r="K64" s="35">
+        <f>C64/E64</f>
+        <v>0.95949402456806121</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="42">
+        <v>50</v>
+      </c>
+      <c r="B65" s="2">
+        <v>892104</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2">
+        <v>1280914</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="J65" s="35">
+        <f t="shared" si="0"/>
+        <v>0.69645893479187515</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="42">
+        <v>51</v>
+      </c>
+      <c r="B66" s="2">
+        <v>297778</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2">
+        <v>269594</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="J66" s="35">
+        <f t="shared" si="0"/>
+        <v>1.1045423859581445</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="42">
+        <v>52</v>
+      </c>
+      <c r="B67" s="2">
+        <v>464711</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2">
+        <v>453958</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="J67" s="35">
+        <f t="shared" si="0"/>
+        <v>1.0236872133545394</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="42">
+        <v>53</v>
+      </c>
+      <c r="B68" s="2">
+        <v>379978</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2">
+        <v>370271</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="J68" s="35">
+        <f t="shared" si="0"/>
+        <v>1.0262159337350212</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="42">
+        <v>54</v>
+      </c>
+      <c r="B69" s="2">
+        <v>307691</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2">
+        <v>321925</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="J69" s="35">
+        <f t="shared" si="0"/>
+        <v>0.95578473246874274</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2">
+        <v>2342262</v>
+      </c>
+      <c r="E70" s="2">
+        <v>2696662</v>
+      </c>
+      <c r="G70" s="2">
+        <f>SUM(B65:B69) - C70</f>
+        <v>0</v>
+      </c>
+      <c r="H70" s="2">
+        <f>SUM(C65:C69) - D70</f>
+        <v>0</v>
+      </c>
+      <c r="J70" s="35"/>
+      <c r="K70" s="35">
+        <f>C70/E70</f>
+        <v>0.86857826453593368</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="42">
+        <v>55</v>
+      </c>
+      <c r="B71" s="2">
+        <v>650072</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2">
+        <v>897202</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="J71" s="35">
+        <f t="shared" ref="J71:J128" si="1">B71/D71</f>
+        <v>0.72455478253503669</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="42">
+        <v>56</v>
+      </c>
+      <c r="B72" s="2">
+        <v>423069</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2">
+        <v>466954</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="J72" s="35">
+        <f t="shared" si="1"/>
+        <v>0.90601857998860702</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="42">
+        <v>57</v>
+      </c>
+      <c r="B73" s="2">
+        <v>302855</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2">
+        <v>356418</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="J73" s="35">
+        <f t="shared" si="1"/>
+        <v>0.84971858884792573</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="42">
+        <v>58</v>
+      </c>
+      <c r="B74" s="2">
+        <v>311794</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2">
+        <v>386438</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="J74" s="35">
+        <f t="shared" si="1"/>
+        <v>0.80684094214337099</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="42">
+        <v>59</v>
+      </c>
+      <c r="B75" s="2">
+        <v>198154</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2">
+        <v>210537</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="J75" s="35">
+        <f t="shared" si="1"/>
+        <v>0.94118373492545249</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2">
+        <v>1885944</v>
+      </c>
+      <c r="E76" s="2">
+        <v>2317549</v>
+      </c>
+      <c r="G76" s="2">
+        <f>SUM(B71:B75) - C76</f>
+        <v>0</v>
+      </c>
+      <c r="H76" s="2">
+        <f>SUM(C71:C75) - D76</f>
+        <v>0</v>
+      </c>
+      <c r="J76" s="35"/>
+      <c r="K76" s="35">
+        <f>C76/E76</f>
+        <v>0.81376661291735364</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="42">
+        <v>60</v>
+      </c>
+      <c r="B77" s="2">
+        <v>773290</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2">
+        <v>1147212</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="J77" s="35">
+        <f t="shared" si="1"/>
+        <v>0.67406024344236293</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="62">
+        <v>61</v>
+      </c>
+      <c r="B78" s="2">
+        <v>187892</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2">
+        <v>179801</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="J78" s="35">
+        <f t="shared" si="1"/>
+        <v>1.0449997497233052</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="62">
+        <v>62</v>
+      </c>
+      <c r="B79" s="2">
+        <v>294349</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2">
+        <v>311114</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="J79" s="35">
+        <f t="shared" si="1"/>
+        <v>0.94611300037928214</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="62">
+        <v>63</v>
+      </c>
+      <c r="B80" s="2">
+        <v>264037</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2">
+        <v>279402</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="J80" s="35">
+        <f t="shared" si="1"/>
+        <v>0.94500755184286445</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="62">
+        <v>64</v>
+      </c>
+      <c r="B81" s="2">
+        <v>188504</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2">
+        <v>208059</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="J81" s="35">
+        <f t="shared" si="1"/>
+        <v>0.9060122369135678</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2">
+        <v>1708072</v>
+      </c>
+      <c r="E82" s="2">
+        <v>2125588</v>
+      </c>
+      <c r="G82" s="2">
+        <f>SUM(B77:B81) - C82</f>
+        <v>0</v>
+      </c>
+      <c r="H82" s="2">
+        <f>SUM(C77:C81) - D82</f>
+        <v>0</v>
+      </c>
+      <c r="J82" s="35"/>
+      <c r="K82" s="35">
+        <f>C82/E82</f>
+        <v>0.80357623396443711</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="62">
+        <v>65</v>
+      </c>
+      <c r="B83" s="2">
+        <v>454689</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2">
+        <v>637917</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="J83" s="35">
+        <f t="shared" si="1"/>
+        <v>0.71277141070076511</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="62">
+        <v>66</v>
+      </c>
+      <c r="B84" s="2">
+        <v>221405</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2">
+        <v>221269</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="J84" s="35">
+        <f t="shared" si="1"/>
+        <v>1.0006146364831947</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="62">
+        <v>67</v>
+      </c>
+      <c r="B85" s="2">
+        <v>224706</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2">
+        <v>250118</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="J85" s="35">
+        <f t="shared" si="1"/>
+        <v>0.89839995522113558</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="62">
+        <v>68</v>
+      </c>
+      <c r="B86" s="2">
+        <v>165326</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2">
+        <v>196263</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="J86" s="35">
+        <f t="shared" si="1"/>
+        <v>0.84236967742264202</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="62">
+        <v>69</v>
+      </c>
+      <c r="B87" s="2">
+        <v>90648</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2">
+        <v>100963</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="J87" s="35">
+        <f t="shared" si="1"/>
+        <v>0.89783385992888487</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2">
+        <v>1156774</v>
+      </c>
+      <c r="E88" s="2">
+        <v>1406530</v>
+      </c>
+      <c r="G88" s="2">
+        <f>SUM(B83:B87) - C88</f>
+        <v>0</v>
+      </c>
+      <c r="H88" s="2">
+        <f>SUM(C83:C87) - D88</f>
+        <v>0</v>
+      </c>
+      <c r="J88" s="35"/>
+      <c r="K88" s="35">
+        <f>C88/E88</f>
+        <v>0.82243108927644626</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="62">
+        <v>70</v>
+      </c>
+      <c r="B89" s="2">
+        <v>378263</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2">
+        <v>624819</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="J89" s="35">
+        <f t="shared" si="1"/>
+        <v>0.60539612271713883</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="62">
+        <v>71</v>
+      </c>
+      <c r="B90" s="2">
+        <v>69826</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2">
+        <v>70081</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="J90" s="35">
+        <f t="shared" si="1"/>
+        <v>0.99636135329119158</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="62">
+        <v>72</v>
+      </c>
+      <c r="B91" s="2">
+        <v>116632</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2">
+        <v>123842</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="J91" s="35">
+        <f t="shared" si="1"/>
+        <v>0.94178065599715766</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="62">
+        <v>73</v>
+      </c>
+      <c r="B92" s="2">
+        <v>93251</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2">
+        <v>95965</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="J92" s="35">
+        <f t="shared" si="1"/>
+        <v>0.97171885583285578</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="62">
+        <v>74</v>
+      </c>
+      <c r="B93" s="2">
+        <v>63306</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2">
+        <v>65603</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="J93" s="35">
+        <f t="shared" si="1"/>
+        <v>0.96498635733121962</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2">
+        <v>721278</v>
+      </c>
+      <c r="E94" s="2">
+        <v>980310</v>
+      </c>
+      <c r="G94" s="2">
+        <f>SUM(B89:B93) - C94</f>
+        <v>0</v>
+      </c>
+      <c r="H94" s="2">
+        <f>SUM(C89:C93) - D94</f>
+        <v>0</v>
+      </c>
+      <c r="J94" s="35"/>
+      <c r="K94" s="35">
+        <f>C94/E94</f>
+        <v>0.73576521712519505</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="42">
+        <v>75</v>
+      </c>
+      <c r="B95" s="2">
+        <v>176361</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2">
+        <v>247671</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="J95" s="35">
+        <f t="shared" si="1"/>
+        <v>0.71207771600227721</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="42">
+        <v>76</v>
+      </c>
+      <c r="B96" s="2">
+        <v>63790</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2">
+        <v>68903</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="J96" s="35">
+        <f t="shared" si="1"/>
+        <v>0.92579423247173565</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="42">
+        <v>77</v>
+      </c>
+      <c r="B97" s="2">
+        <v>48423</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2">
+        <v>53002</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="J97" s="35">
+        <f t="shared" si="1"/>
+        <v>0.9136070336968416</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="42">
+        <v>78</v>
+      </c>
+      <c r="B98" s="2">
+        <v>56858</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2">
+        <v>66311</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="J98" s="35">
+        <f t="shared" si="1"/>
+        <v>0.85744446622732273</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="42">
+        <v>79</v>
+      </c>
+      <c r="B99" s="2">
+        <v>22902</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2">
+        <v>26757</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="J99" s="35">
+        <f t="shared" si="1"/>
+        <v>0.85592555219194977</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2">
+        <v>368334</v>
+      </c>
+      <c r="E100" s="2">
+        <v>462644</v>
+      </c>
+      <c r="G100" s="2">
+        <f>SUM(B95:B99) - C100</f>
+        <v>0</v>
+      </c>
+      <c r="H100" s="2">
+        <f>SUM(C95:C99) - D100</f>
+        <v>0</v>
+      </c>
+      <c r="J100" s="35"/>
+      <c r="K100" s="35">
+        <f>C100/E100</f>
+        <v>0.7961499554733229</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="42">
+        <v>80</v>
+      </c>
+      <c r="B101" s="2">
+        <v>139880</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2">
+        <v>228579</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="J101" s="35">
+        <f t="shared" si="1"/>
+        <v>0.6119547289996019</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="42">
+        <v>81</v>
+      </c>
+      <c r="B102" s="2">
+        <v>15490</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2">
+        <v>17500</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="J102" s="35">
+        <f t="shared" si="1"/>
+        <v>0.88514285714285712</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="42">
+        <v>82</v>
+      </c>
+      <c r="B103" s="2">
+        <v>23690</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2">
+        <v>25626</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="J103" s="35">
+        <f t="shared" si="1"/>
+        <v>0.92445172871302583</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="42">
+        <v>83</v>
+      </c>
+      <c r="B104" s="2">
+        <v>16927</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2">
+        <v>18197</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="J104" s="35">
+        <f t="shared" si="1"/>
+        <v>0.93020827608946532</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="42">
+        <v>84</v>
+      </c>
+      <c r="B105" s="2">
+        <v>13392</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2">
+        <v>14468</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="J105" s="35">
+        <f t="shared" si="1"/>
+        <v>0.92562897428808399</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2">
+        <v>209379</v>
+      </c>
+      <c r="E106" s="2">
+        <v>304370</v>
+      </c>
+      <c r="G106" s="2">
+        <f>SUM(B101:B105) - C106</f>
+        <v>0</v>
+      </c>
+      <c r="H106" s="2">
+        <f>SUM(C101:C105) - D106</f>
+        <v>0</v>
+      </c>
+      <c r="J106" s="35"/>
+      <c r="K106" s="35">
+        <f>C106/E106</f>
+        <v>0.6879094523113316</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="42">
+        <v>85</v>
+      </c>
+      <c r="B107" s="2">
+        <v>44063</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2">
+        <v>60286</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="J107" s="35">
+        <f t="shared" si="1"/>
+        <v>0.73089937962379325</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="62">
+        <v>86</v>
+      </c>
+      <c r="B108" s="2">
+        <v>13491</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2">
+        <v>13356</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="J108" s="35">
+        <f t="shared" si="1"/>
+        <v>1.0101078167115902</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="62">
+        <v>87</v>
+      </c>
+      <c r="B109" s="2">
+        <v>10893</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2">
+        <v>12219</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="J109" s="35">
+        <f t="shared" si="1"/>
+        <v>0.89148048121777557</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="62">
+        <v>88</v>
+      </c>
+      <c r="B110" s="2">
+        <v>9464</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2">
+        <v>10391</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="J110" s="35">
+        <f t="shared" si="1"/>
+        <v>0.91078818208064671</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="62">
+        <v>89</v>
+      </c>
+      <c r="B111" s="2">
+        <v>5314</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2">
+        <v>6396</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="J111" s="35">
+        <f t="shared" si="1"/>
+        <v>0.83083176985616014</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2">
+        <v>83225</v>
+      </c>
+      <c r="E112" s="2">
+        <v>102648</v>
+      </c>
+      <c r="G112" s="2">
+        <f>SUM(B107:B111) - C112</f>
+        <v>0</v>
+      </c>
+      <c r="H112" s="2">
+        <f>SUM(C107:C111) - D112</f>
+        <v>0</v>
+      </c>
+      <c r="J112" s="35"/>
+      <c r="K112" s="35">
+        <f>C112/E112</f>
+        <v>0.81078053152521234</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="62">
+        <v>90</v>
+      </c>
+      <c r="B113" s="2">
+        <v>31657</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2">
+        <v>50144</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="J113" s="35">
+        <f t="shared" si="1"/>
+        <v>0.63132179323548177</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" s="62">
+        <v>91</v>
+      </c>
+      <c r="B114" s="2">
+        <v>2252</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2">
+        <v>2874</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="J114" s="35">
+        <f t="shared" si="1"/>
+        <v>0.78357689631176064</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="62">
+        <v>92</v>
+      </c>
+      <c r="B115" s="2">
+        <v>3179</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2">
+        <v>3820</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="J115" s="35">
+        <f t="shared" si="1"/>
+        <v>0.83219895287958112</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="62">
+        <v>93</v>
+      </c>
+      <c r="B116" s="2">
+        <v>2497</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2">
+        <v>2939</v>
+      </c>
+      <c r="E116" s="2"/>
+      <c r="J116" s="35">
+        <f t="shared" si="1"/>
+        <v>0.84960871044572983</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="62">
+        <v>94</v>
+      </c>
+      <c r="B117" s="2">
+        <v>1812</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2">
+        <v>1863</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="J117" s="35">
+        <f t="shared" si="1"/>
+        <v>0.97262479871175522</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2">
+        <v>41397</v>
+      </c>
+      <c r="E118" s="2">
+        <v>61640</v>
+      </c>
+      <c r="G118" s="2">
+        <f>SUM(B113:B117) - C118</f>
+        <v>0</v>
+      </c>
+      <c r="H118" s="2">
+        <f>SUM(C113:C117) - D118</f>
+        <v>0</v>
+      </c>
+      <c r="J118" s="35"/>
+      <c r="K118" s="35">
+        <f>C118/E118</f>
+        <v>0.67159312134977289</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="62">
+        <v>95</v>
+      </c>
+      <c r="B119" s="2">
+        <v>7496</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2">
+        <v>10118</v>
+      </c>
+      <c r="E119" s="2"/>
+      <c r="J119" s="35">
+        <f t="shared" si="1"/>
+        <v>0.74085787705080053</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="62">
+        <v>96</v>
+      </c>
+      <c r="B120" s="2">
+        <v>2859</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2">
+        <v>3030</v>
+      </c>
+      <c r="E120" s="2"/>
+      <c r="J120" s="35">
+        <f t="shared" si="1"/>
+        <v>0.94356435643564351</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="62">
+        <v>97</v>
+      </c>
+      <c r="B121" s="2">
+        <v>2100</v>
+      </c>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2">
+        <v>2380</v>
+      </c>
+      <c r="E121" s="2"/>
+      <c r="J121" s="35">
+        <f t="shared" si="1"/>
+        <v>0.88235294117647056</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="62">
+        <v>98</v>
+      </c>
+      <c r="B122" s="2">
+        <v>2342</v>
+      </c>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2">
+        <v>2930</v>
+      </c>
+      <c r="E122" s="2"/>
+      <c r="J122" s="35">
+        <f t="shared" si="1"/>
+        <v>0.79931740614334468</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="62">
+        <v>99</v>
+      </c>
+      <c r="B123" s="2">
+        <v>1176</v>
+      </c>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2">
+        <v>1584</v>
+      </c>
+      <c r="E123" s="2"/>
+      <c r="J123" s="35">
+        <f t="shared" si="1"/>
+        <v>0.74242424242424243</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="C124" s="2">
+        <v>15973</v>
+      </c>
+      <c r="E124" s="2">
+        <v>20042</v>
+      </c>
+      <c r="G124" s="2">
+        <f>SUM(B119:B123) - C124</f>
+        <v>0</v>
+      </c>
+      <c r="H124" s="2">
+        <f>SUM(C119:C123) - D124</f>
+        <v>0</v>
+      </c>
+      <c r="J124" s="35"/>
+      <c r="K124" s="35">
+        <f>C124/E124</f>
+        <v>0.79697634966570208</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B125" s="2">
+        <v>12349</v>
+      </c>
+      <c r="C125" s="2">
+        <v>12349</v>
+      </c>
+      <c r="D125" s="2">
+        <v>17158</v>
+      </c>
+      <c r="E125" s="2">
+        <v>17158</v>
+      </c>
+      <c r="J125" s="35">
+        <f t="shared" si="1"/>
+        <v>0.7197225783890896</v>
+      </c>
+      <c r="K125" s="35">
+        <f>B125/D125</f>
+        <v>0.7197225783890896</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B126" s="2">
+        <v>51213</v>
+      </c>
+      <c r="C126" s="2">
+        <v>51213</v>
+      </c>
+      <c r="D126" s="2">
+        <v>38960</v>
+      </c>
+      <c r="E126" s="2">
+        <v>38960</v>
+      </c>
+      <c r="J126" s="35">
+        <f t="shared" si="1"/>
+        <v>1.3145020533880905</v>
+      </c>
+      <c r="K126" s="35">
+        <f>B126/D126</f>
+        <v>1.3145020533880905</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B127" s="2">
+        <v>71011475</v>
+      </c>
+      <c r="C127" s="2">
+        <v>71011475</v>
+      </c>
+      <c r="D127" s="2">
+        <v>75954451</v>
+      </c>
+      <c r="E127" s="2">
+        <v>75954451</v>
+      </c>
+      <c r="J127" s="35">
+        <f t="shared" si="1"/>
+        <v>0.93492183887946212</v>
+      </c>
+      <c r="K127" s="35">
+        <f>B127/D127</f>
+        <v>0.93492183887946212</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B129" s="2">
+        <f>SUM(B5:B126) -B127</f>
+        <v>0</v>
+      </c>
+      <c r="C129" s="2">
+        <f>SUM(C5:C126) -C127</f>
+        <v>0</v>
+      </c>
+      <c r="D129" s="2">
+        <f>SUM(D5:D126) -D127</f>
+        <v>0</v>
+      </c>
+      <c r="E129" s="2">
+        <f>SUM(E5:E126) -E127</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="H10 H124 H34:H118 H16:H28" formulaRange="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DCA36F3-35FF-4149-A2BD-9BD1B75849C0}">
   <dimension ref="A1:AC128"/>
@@ -15893,10 +18301,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6C12F4-B0F0-43E5-BAB2-4C3AD6BE916F}">
-  <dimension ref="A1:AC171"/>
+  <dimension ref="A1:AG171"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5:O105"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15911,17 +18319,17 @@
     <col min="20" max="20" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="C3" s="56" t="s">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="C3" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
       <c r="G3" s="57" t="s">
         <v>28</v>
       </c>
@@ -15957,8 +18365,13 @@
       </c>
       <c r="AB3" s="57"/>
       <c r="AC3" s="57"/>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE3" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>6</v>
       </c>
@@ -16026,8 +18439,17 @@
       <c r="AC4" s="53" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE4" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF4" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG4" s="56" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>0</v>
       </c>
@@ -16070,7 +18492,7 @@
         <v>1.02130641352615</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -16113,7 +18535,7 @@
         <v>1.0073090049881859</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -16156,7 +18578,7 @@
         <v>1.0116624424994423</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -16199,7 +18621,7 @@
         <v>0.99041700302258806</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -16242,7 +18664,7 @@
         <v>0.95887202339919919</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -16285,7 +18707,7 @@
         <v>0.9965804020517588</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>6</v>
       </c>
@@ -16328,7 +18750,7 @@
         <v>0.98354810020102634</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>7</v>
       </c>
@@ -16371,7 +18793,7 @@
         <v>0.95185385924047583</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>8</v>
       </c>
@@ -16411,7 +18833,7 @@
         <v>0.96628696697429195</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>9</v>
       </c>
@@ -16451,7 +18873,7 @@
         <v>0.98418292179857392</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>10</v>
       </c>
@@ -16491,7 +18913,7 @@
         <v>0.98068422685209122</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>11</v>
       </c>
@@ -16531,7 +18953,7 @@
         <v>0.97661199646503827</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>12</v>
       </c>
@@ -16571,7 +18993,7 @@
         <v>0.95526572803351018</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -16611,7 +19033,7 @@
         <v>0.9647414145362162</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>14</v>
       </c>
@@ -16651,7 +19073,7 @@
         <v>0.92321922617392482</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>15</v>
       </c>
@@ -16729,8 +19151,20 @@
         <f>AA20/AB20</f>
         <v>0.62948648904243953</v>
       </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE20" s="2">
+        <f>SUM(N24:N40)</f>
+        <v>5554959.6708129998</v>
+      </c>
+      <c r="AF20" s="2">
+        <f>SUM(O24:O40)</f>
+        <v>8275928</v>
+      </c>
+      <c r="AG20">
+        <f>AE20/AF20</f>
+        <v>0.67121894617896627</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>16</v>
       </c>
@@ -16773,7 +19207,7 @@
         <v>0.87564226641528609</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>17</v>
       </c>
@@ -16816,7 +19250,7 @@
         <v>0.81669351007892654</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>18</v>
       </c>
@@ -16859,7 +19293,7 @@
         <v>0.71709890927778419</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>19</v>
       </c>
@@ -16902,7 +19336,7 @@
         <v>0.67000164726077871</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>20</v>
       </c>
@@ -16945,7 +19379,7 @@
         <v>0.47571701934767874</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>21</v>
       </c>
@@ -16988,7 +19422,7 @@
         <v>0.81140098986310261</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>22</v>
       </c>
@@ -17031,7 +19465,7 @@
         <v>0.59341011169514468</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>23</v>
       </c>
@@ -17074,7 +19508,7 @@
         <v>0.63808823904458478</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>24</v>
       </c>
@@ -17117,7 +19551,7 @@
         <v>0.74066549592802478</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>25</v>
       </c>
@@ -17160,7 +19594,7 @@
         <v>0.52776223235589093</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>26</v>
       </c>
@@ -17203,7 +19637,7 @@
         <v>0.73601093970646114</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>27</v>
       </c>
@@ -21513,7 +23947,8 @@
       <c r="A171" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="AE3:AG3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="G3:I3"/>
@@ -21887,7 +24322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CB8E1E-8C4D-44E1-9586-4CEFDEF185C8}">
   <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
@@ -24327,4 +26762,2339 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61EC4F09-582D-4B66-98A6-3131151E842E}">
+  <dimension ref="A1:K129"/>
+  <sheetViews>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection sqref="A1:K129"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="63"/>
+      <c r="G4" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="57"/>
+      <c r="J4" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="K4" s="63"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="59">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2631221</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
+        <v>2549617</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="G5" s="64"/>
+      <c r="J5" s="35">
+        <f>B5/D5</f>
+        <v>1.0320063758595899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="60">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2284444</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2">
+        <v>2241181</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="J6" s="35">
+        <f t="shared" ref="J6:J69" si="0">B6/D6</f>
+        <v>1.0193036617747517</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="60">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2215893</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2">
+        <v>2196909</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="J7" s="35">
+        <f t="shared" si="0"/>
+        <v>1.0086412318398259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="60">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2278294</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
+        <v>2263400</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="J8" s="35">
+        <f t="shared" si="0"/>
+        <v>1.0065803658213308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="60">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1823571</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2">
+        <v>1829512</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="J9" s="35">
+        <f t="shared" si="0"/>
+        <v>0.99675268596215827</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2">
+        <v>11233423</v>
+      </c>
+      <c r="E10" s="2">
+        <v>11080619</v>
+      </c>
+      <c r="G10" s="2">
+        <f>SUM(B5:B9) -C10</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <f>SUM(D5:D9) - E10</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="35">
+        <f>C10/E10</f>
+        <v>1.0137902043198128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="60">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1793725</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
+        <v>1747493</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="J11" s="35">
+        <f t="shared" si="0"/>
+        <v>1.0264561860905881</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="60">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1530117</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
+        <v>1525785</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="J12" s="35">
+        <f t="shared" si="0"/>
+        <v>1.0028391942508283</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="60">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1485679</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
+        <v>1524571</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="J13" s="35">
+        <f t="shared" si="0"/>
+        <v>0.97448987288883238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="60">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1672961</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
+        <v>1659747</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="J14" s="35">
+        <f t="shared" si="0"/>
+        <v>1.0079614543662379</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="60">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1163006</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2">
+        <v>1157850</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="J15" s="35">
+        <f t="shared" si="0"/>
+        <v>1.0044530811417713</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2">
+        <v>7645488</v>
+      </c>
+      <c r="E16" s="2">
+        <v>7615446</v>
+      </c>
+      <c r="G16" s="2">
+        <f>SUM(B11:B15) -C16</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <f>SUM(D11:D15) - E16</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="35">
+        <f>C16/E16</f>
+        <v>1.0039448772928072</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="60">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1461715</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2">
+        <v>1437450</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="J17" s="35">
+        <f t="shared" si="0"/>
+        <v>1.0168805871508575</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="60">
+        <v>11</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1346003</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2">
+        <v>1321282</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="J18" s="35">
+        <f t="shared" si="0"/>
+        <v>1.0187098590611239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="60">
+        <v>12</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2176324</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2">
+        <v>2059177</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="J19" s="35">
+        <f t="shared" si="0"/>
+        <v>1.0568902041932287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="59">
+        <v>13</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1853833</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2">
+        <v>1810686</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="J20" s="35">
+        <f t="shared" si="0"/>
+        <v>1.0238290901901268</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="60">
+        <v>14</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1801619</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2">
+        <v>1815413</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="J21" s="35">
+        <f t="shared" si="0"/>
+        <v>0.99240172897296652</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="2">
+        <v>8639494</v>
+      </c>
+      <c r="E22" s="2">
+        <v>8444008</v>
+      </c>
+      <c r="G22" s="2">
+        <f>SUM(B17:B21) -C22</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <f>SUM(D17:D21) - E22</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35">
+        <f>C22/E22</f>
+        <v>1.0231508544283709</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="60">
+        <v>15</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1807454</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2">
+        <v>1831264</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="J23" s="35">
+        <f t="shared" si="0"/>
+        <v>0.98699805161899101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="60">
+        <v>16</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1787653</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2">
+        <v>1946325</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="J24" s="35">
+        <f t="shared" si="0"/>
+        <v>0.91847610239810928</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="60">
+        <v>17</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1563025</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2">
+        <v>1744454</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="J25" s="35">
+        <f t="shared" si="0"/>
+        <v>0.89599668434937241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="60">
+        <v>18</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1613891</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2">
+        <v>1814043</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="J26" s="35">
+        <f t="shared" si="0"/>
+        <v>0.88966523946786269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="60">
+        <v>19</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1357600</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2">
+        <v>1504445</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="J27" s="35">
+        <f t="shared" si="0"/>
+        <v>0.90239257666448425</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="2">
+        <v>8129623</v>
+      </c>
+      <c r="E28" s="2">
+        <v>8840531</v>
+      </c>
+      <c r="G28" s="2">
+        <f>SUM(B23:B27) -C28</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <f>SUM(D23:D27) - E28</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35">
+        <f>C28/E28</f>
+        <v>0.91958537332203238</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="60">
+        <v>20</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1637986</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2">
+        <v>1954434</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="J29" s="35">
+        <f t="shared" si="0"/>
+        <v>0.8380871392945477</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="60">
+        <v>21</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1223450</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2">
+        <v>1023157</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="J30" s="35">
+        <f t="shared" si="0"/>
+        <v>1.1957597905306809</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="60">
+        <v>22</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1412198</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2">
+        <v>1487733</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="J31" s="35">
+        <f t="shared" si="0"/>
+        <v>0.94922812090610342</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="60">
+        <v>23</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1322114</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2">
+        <v>1399179</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="J32" s="35">
+        <f t="shared" si="0"/>
+        <v>0.94492127168861173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="61">
+        <v>24</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1113906</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2">
+        <v>1233991</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="J33" s="35">
+        <f t="shared" si="0"/>
+        <v>0.9026856759895332</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="2">
+        <v>6709654</v>
+      </c>
+      <c r="E34" s="2">
+        <v>7098494</v>
+      </c>
+      <c r="G34" s="2">
+        <f>SUM(B29:B33) -C34</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <f>SUM(D29:D33) - E34</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35">
+        <f>C34/E34</f>
+        <v>0.94522218374770761</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="42">
+        <v>25</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1298648</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2">
+        <v>1809980</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="J35" s="35">
+        <f t="shared" si="0"/>
+        <v>0.71749301097249696</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="42">
+        <v>26</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1200331</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2">
+        <v>1332329</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="J36" s="35">
+        <f t="shared" si="0"/>
+        <v>0.9009268731672132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="42">
+        <v>27</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1029772</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2">
+        <v>1235372</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="J37" s="35">
+        <f t="shared" si="0"/>
+        <v>0.83357239762597823</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="42">
+        <v>28</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1130829</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2">
+        <v>1349879</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="J38" s="35">
+        <f t="shared" si="0"/>
+        <v>0.83772619619980759</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="42">
+        <v>29</v>
+      </c>
+      <c r="B39" s="2">
+        <v>828188</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2">
+        <v>817264</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="J39" s="35">
+        <f t="shared" si="0"/>
+        <v>1.0133665498541475</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="2">
+        <v>5487768</v>
+      </c>
+      <c r="E40" s="2">
+        <v>6544824</v>
+      </c>
+      <c r="G40" s="2">
+        <f>SUM(B35:B39) -C40</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
+        <f>SUM(D35:D39) - E40</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35">
+        <f>C40/E40</f>
+        <v>0.83848977451494489</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="42">
+        <v>30</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1372675</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2">
+        <v>1859272</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="J41" s="35">
+        <f t="shared" si="0"/>
+        <v>0.73828627548847081</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="42">
+        <v>31</v>
+      </c>
+      <c r="B42" s="2">
+        <v>594802</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2">
+        <v>529448</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="J42" s="35">
+        <f t="shared" si="0"/>
+        <v>1.1234379957993985</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="42">
+        <v>32</v>
+      </c>
+      <c r="B43" s="2">
+        <v>890229</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2">
+        <v>928308</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="J43" s="35">
+        <f t="shared" si="0"/>
+        <v>0.95898020915472015</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="42">
+        <v>33</v>
+      </c>
+      <c r="B44" s="2">
+        <v>796581</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2">
+        <v>803352</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="J44" s="35">
+        <f t="shared" si="0"/>
+        <v>0.9915715651420548</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="42">
+        <v>34</v>
+      </c>
+      <c r="B45" s="2">
+        <v>640631</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2">
+        <v>645440</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="J45" s="35">
+        <f t="shared" si="0"/>
+        <v>0.99254926871591476</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="2">
+        <v>4294918</v>
+      </c>
+      <c r="E46" s="2">
+        <v>4765820</v>
+      </c>
+      <c r="G46" s="2">
+        <f>SUM(B41:B45) -C46</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <f>SUM(D41:D45) - E46</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35">
+        <f>C46/E46</f>
+        <v>0.90119182008552567</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="42">
+        <v>35</v>
+      </c>
+      <c r="B47" s="2">
+        <v>1037581</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2">
+        <v>1344055</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="J47" s="35">
+        <f t="shared" si="0"/>
+        <v>0.77197808125411538</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="62">
+        <v>36</v>
+      </c>
+      <c r="B48" s="2">
+        <v>768547</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2">
+        <v>796588</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="J48" s="35">
+        <f t="shared" si="0"/>
+        <v>0.96479861609765649</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="62">
+        <v>37</v>
+      </c>
+      <c r="B49" s="2">
+        <v>694252</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2">
+        <v>786180</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="J49" s="35">
+        <f t="shared" si="0"/>
+        <v>0.88307003485206947</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="62">
+        <v>38</v>
+      </c>
+      <c r="B50" s="2">
+        <v>868453</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2">
+        <v>947400</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="J50" s="35">
+        <f t="shared" si="0"/>
+        <v>0.91666983322778128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="62">
+        <v>39</v>
+      </c>
+      <c r="B51" s="2">
+        <v>623255</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2">
+        <v>582372</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="J51" s="35">
+        <f t="shared" si="0"/>
+        <v>1.0702008338312969</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="2">
+        <v>3992088</v>
+      </c>
+      <c r="E52" s="2">
+        <v>4456595</v>
+      </c>
+      <c r="G52" s="2">
+        <f>SUM(B47:B51) -C52</f>
+        <v>0</v>
+      </c>
+      <c r="H52" s="2">
+        <f>SUM(D47:D51) - E52</f>
+        <v>0</v>
+      </c>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35">
+        <f>C52/E52</f>
+        <v>0.89577087440074765</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="62">
+        <v>40</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1120936</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2">
+        <v>1505932</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="J53" s="35">
+        <f t="shared" si="0"/>
+        <v>0.74434702230910821</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="62">
+        <v>41</v>
+      </c>
+      <c r="B54" s="2">
+        <v>459713</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2">
+        <v>380245</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="J54" s="35">
+        <f t="shared" si="0"/>
+        <v>1.2089915712238162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="62">
+        <v>42</v>
+      </c>
+      <c r="B55" s="2">
+        <v>739440</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2">
+        <v>677714</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="J55" s="35">
+        <f t="shared" si="0"/>
+        <v>1.0910797179931357</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="62">
+        <v>43</v>
+      </c>
+      <c r="B56" s="2">
+        <v>592793</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2">
+        <v>544878</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="J56" s="35">
+        <f t="shared" si="0"/>
+        <v>1.0879371161984885</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="62">
+        <v>44</v>
+      </c>
+      <c r="B57" s="2">
+        <v>478496</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2">
+        <v>451738</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="J57" s="35">
+        <f t="shared" si="0"/>
+        <v>1.0592334494773519</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" s="2">
+        <v>3391378</v>
+      </c>
+      <c r="E58" s="2">
+        <v>3560507</v>
+      </c>
+      <c r="G58" s="2">
+        <f>SUM(B53:B57) -C58</f>
+        <v>0</v>
+      </c>
+      <c r="H58" s="2">
+        <f>SUM(D53:D57) - E58</f>
+        <v>0</v>
+      </c>
+      <c r="J58" s="35"/>
+      <c r="K58" s="35">
+        <f>C58/E58</f>
+        <v>0.95249861887646903</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="62">
+        <v>45</v>
+      </c>
+      <c r="B59" s="2">
+        <v>891533</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2">
+        <v>1076713</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="J59" s="35">
+        <f t="shared" si="0"/>
+        <v>0.82801359322307799</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="62">
+        <v>46</v>
+      </c>
+      <c r="B60" s="2">
+        <v>578549</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2">
+        <v>514918</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="J60" s="35">
+        <f t="shared" si="0"/>
+        <v>1.1235750158277629</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="62">
+        <v>47</v>
+      </c>
+      <c r="B61" s="2">
+        <v>479355</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2">
+        <v>471729</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="J61" s="35">
+        <f t="shared" si="0"/>
+        <v>1.0161660614462964</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="62">
+        <v>48</v>
+      </c>
+      <c r="B62" s="2">
+        <v>554241</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2">
+        <v>592636</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="J62" s="35">
+        <f t="shared" si="0"/>
+        <v>0.93521318313433544</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="62">
+        <v>49</v>
+      </c>
+      <c r="B63" s="2">
+        <v>387763</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2">
+        <v>357510</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="J63" s="35">
+        <f t="shared" si="0"/>
+        <v>1.0846214091913513</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="C64" s="2">
+        <v>2891441</v>
+      </c>
+      <c r="E64" s="2">
+        <v>3013506</v>
+      </c>
+      <c r="G64" s="2">
+        <f>SUM(B59:B63) -C64</f>
+        <v>0</v>
+      </c>
+      <c r="H64" s="2">
+        <f>SUM(D59:D63) - E64</f>
+        <v>0</v>
+      </c>
+      <c r="J64" s="35"/>
+      <c r="K64" s="35">
+        <f>C64/E64</f>
+        <v>0.95949402456806121</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="42">
+        <v>50</v>
+      </c>
+      <c r="B65" s="2">
+        <v>892104</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2">
+        <v>1280914</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="J65" s="35">
+        <f t="shared" si="0"/>
+        <v>0.69645893479187515</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="42">
+        <v>51</v>
+      </c>
+      <c r="B66" s="2">
+        <v>297778</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2">
+        <v>269594</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="J66" s="35">
+        <f t="shared" si="0"/>
+        <v>1.1045423859581445</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="42">
+        <v>52</v>
+      </c>
+      <c r="B67" s="2">
+        <v>464711</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2">
+        <v>453958</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="J67" s="35">
+        <f t="shared" si="0"/>
+        <v>1.0236872133545394</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="42">
+        <v>53</v>
+      </c>
+      <c r="B68" s="2">
+        <v>379978</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2">
+        <v>370271</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="J68" s="35">
+        <f t="shared" si="0"/>
+        <v>1.0262159337350212</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="42">
+        <v>54</v>
+      </c>
+      <c r="B69" s="2">
+        <v>307691</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2">
+        <v>321925</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="J69" s="35">
+        <f t="shared" si="0"/>
+        <v>0.95578473246874274</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C70" s="2">
+        <v>2342262</v>
+      </c>
+      <c r="E70" s="2">
+        <v>2696662</v>
+      </c>
+      <c r="G70" s="2">
+        <f>SUM(B65:B69) -C70</f>
+        <v>0</v>
+      </c>
+      <c r="H70" s="2">
+        <f>SUM(D65:D69) - E70</f>
+        <v>0</v>
+      </c>
+      <c r="J70" s="35"/>
+      <c r="K70" s="35">
+        <f>C70/E70</f>
+        <v>0.86857826453593368</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="42">
+        <v>55</v>
+      </c>
+      <c r="B71" s="2">
+        <v>650072</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2">
+        <v>897202</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="J71" s="35">
+        <f t="shared" ref="J70:J127" si="1">B71/D71</f>
+        <v>0.72455478253503669</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="42">
+        <v>56</v>
+      </c>
+      <c r="B72" s="2">
+        <v>423069</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2">
+        <v>466954</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="J72" s="35">
+        <f t="shared" si="1"/>
+        <v>0.90601857998860702</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="42">
+        <v>57</v>
+      </c>
+      <c r="B73" s="2">
+        <v>302855</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2">
+        <v>356418</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="J73" s="35">
+        <f t="shared" si="1"/>
+        <v>0.84971858884792573</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="42">
+        <v>58</v>
+      </c>
+      <c r="B74" s="2">
+        <v>311794</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2">
+        <v>386438</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="J74" s="35">
+        <f t="shared" si="1"/>
+        <v>0.80684094214337099</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="42">
+        <v>59</v>
+      </c>
+      <c r="B75" s="2">
+        <v>198154</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2">
+        <v>210537</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="J75" s="35">
+        <f t="shared" si="1"/>
+        <v>0.94118373492545249</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C76" s="2">
+        <v>1885944</v>
+      </c>
+      <c r="E76" s="2">
+        <v>2317549</v>
+      </c>
+      <c r="G76" s="2">
+        <f>SUM(B71:B75) -C76</f>
+        <v>0</v>
+      </c>
+      <c r="H76" s="2">
+        <f>SUM(D71:D75) - E76</f>
+        <v>0</v>
+      </c>
+      <c r="J76" s="35"/>
+      <c r="K76" s="35">
+        <f>C76/E76</f>
+        <v>0.81376661291735364</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="42">
+        <v>60</v>
+      </c>
+      <c r="B77" s="2">
+        <v>773290</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2">
+        <v>1147212</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="J77" s="35">
+        <f t="shared" si="1"/>
+        <v>0.67406024344236293</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="62">
+        <v>61</v>
+      </c>
+      <c r="B78" s="2">
+        <v>187892</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2">
+        <v>179801</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="J78" s="35">
+        <f t="shared" si="1"/>
+        <v>1.0449997497233052</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="62">
+        <v>62</v>
+      </c>
+      <c r="B79" s="2">
+        <v>294349</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2">
+        <v>311114</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="J79" s="35">
+        <f t="shared" si="1"/>
+        <v>0.94611300037928214</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="62">
+        <v>63</v>
+      </c>
+      <c r="B80" s="2">
+        <v>264037</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2">
+        <v>279402</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="J80" s="35">
+        <f t="shared" si="1"/>
+        <v>0.94500755184286445</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="62">
+        <v>64</v>
+      </c>
+      <c r="B81" s="2">
+        <v>188504</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2">
+        <v>208059</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="J81" s="35">
+        <f t="shared" si="1"/>
+        <v>0.9060122369135678</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="C82" s="2">
+        <v>1708072</v>
+      </c>
+      <c r="E82" s="2">
+        <v>2125588</v>
+      </c>
+      <c r="G82" s="2">
+        <f>SUM(B77:B81) -C82</f>
+        <v>0</v>
+      </c>
+      <c r="H82" s="2">
+        <f>SUM(D77:D81) - E82</f>
+        <v>0</v>
+      </c>
+      <c r="J82" s="35"/>
+      <c r="K82" s="35">
+        <f>C82/E82</f>
+        <v>0.80357623396443711</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="62">
+        <v>65</v>
+      </c>
+      <c r="B83" s="2">
+        <v>454689</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2">
+        <v>637917</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="J83" s="35">
+        <f t="shared" si="1"/>
+        <v>0.71277141070076511</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="62">
+        <v>66</v>
+      </c>
+      <c r="B84" s="2">
+        <v>221405</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2">
+        <v>221269</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="J84" s="35">
+        <f t="shared" si="1"/>
+        <v>1.0006146364831947</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="62">
+        <v>67</v>
+      </c>
+      <c r="B85" s="2">
+        <v>224706</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2">
+        <v>250118</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="J85" s="35">
+        <f t="shared" si="1"/>
+        <v>0.89839995522113558</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="62">
+        <v>68</v>
+      </c>
+      <c r="B86" s="2">
+        <v>165326</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2">
+        <v>196263</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="J86" s="35">
+        <f t="shared" si="1"/>
+        <v>0.84236967742264202</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="62">
+        <v>69</v>
+      </c>
+      <c r="B87" s="2">
+        <v>90648</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2">
+        <v>100963</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="J87" s="35">
+        <f t="shared" si="1"/>
+        <v>0.89783385992888487</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="C88" s="2">
+        <v>1156774</v>
+      </c>
+      <c r="E88" s="2">
+        <v>1406530</v>
+      </c>
+      <c r="G88" s="2">
+        <f>SUM(B83:B87) -C88</f>
+        <v>0</v>
+      </c>
+      <c r="H88" s="2">
+        <f>SUM(D83:D87) - E88</f>
+        <v>0</v>
+      </c>
+      <c r="J88" s="35"/>
+      <c r="K88" s="35">
+        <f>C88/E88</f>
+        <v>0.82243108927644626</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="62">
+        <v>70</v>
+      </c>
+      <c r="B89" s="2">
+        <v>378263</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2">
+        <v>624819</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="J89" s="35">
+        <f t="shared" si="1"/>
+        <v>0.60539612271713883</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="62">
+        <v>71</v>
+      </c>
+      <c r="B90" s="2">
+        <v>69826</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2">
+        <v>70081</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="J90" s="35">
+        <f t="shared" si="1"/>
+        <v>0.99636135329119158</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="62">
+        <v>72</v>
+      </c>
+      <c r="B91" s="2">
+        <v>116632</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2">
+        <v>123842</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="J91" s="35">
+        <f t="shared" si="1"/>
+        <v>0.94178065599715766</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="62">
+        <v>73</v>
+      </c>
+      <c r="B92" s="2">
+        <v>93251</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2">
+        <v>95965</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="J92" s="35">
+        <f t="shared" si="1"/>
+        <v>0.97171885583285578</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="62">
+        <v>74</v>
+      </c>
+      <c r="B93" s="2">
+        <v>63306</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2">
+        <v>65603</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="J93" s="35">
+        <f t="shared" si="1"/>
+        <v>0.96498635733121962</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="C94" s="2">
+        <v>721278</v>
+      </c>
+      <c r="E94" s="2">
+        <v>980310</v>
+      </c>
+      <c r="G94" s="2">
+        <f>SUM(B89:B93) -C94</f>
+        <v>0</v>
+      </c>
+      <c r="H94" s="2">
+        <f>SUM(D89:D93) - E94</f>
+        <v>0</v>
+      </c>
+      <c r="J94" s="35"/>
+      <c r="K94" s="35">
+        <f>C94/E94</f>
+        <v>0.73576521712519505</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="42">
+        <v>75</v>
+      </c>
+      <c r="B95" s="2">
+        <v>176361</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2">
+        <v>247671</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="J95" s="35">
+        <f t="shared" si="1"/>
+        <v>0.71207771600227721</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="42">
+        <v>76</v>
+      </c>
+      <c r="B96" s="2">
+        <v>63790</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2">
+        <v>68903</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="J96" s="35">
+        <f t="shared" si="1"/>
+        <v>0.92579423247173565</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="42">
+        <v>77</v>
+      </c>
+      <c r="B97" s="2">
+        <v>48423</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2">
+        <v>53002</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="J97" s="35">
+        <f t="shared" si="1"/>
+        <v>0.9136070336968416</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="42">
+        <v>78</v>
+      </c>
+      <c r="B98" s="2">
+        <v>56858</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2">
+        <v>66311</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="J98" s="35">
+        <f t="shared" si="1"/>
+        <v>0.85744446622732273</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="42">
+        <v>79</v>
+      </c>
+      <c r="B99" s="2">
+        <v>22902</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2">
+        <v>26757</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="J99" s="35">
+        <f t="shared" si="1"/>
+        <v>0.85592555219194977</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C100" s="2">
+        <v>368334</v>
+      </c>
+      <c r="E100" s="2">
+        <v>462644</v>
+      </c>
+      <c r="G100" s="2">
+        <f>SUM(B95:B99) -C100</f>
+        <v>0</v>
+      </c>
+      <c r="H100" s="2">
+        <f>SUM(D95:D99) - E100</f>
+        <v>0</v>
+      </c>
+      <c r="J100" s="35"/>
+      <c r="K100" s="35">
+        <f>C100/E100</f>
+        <v>0.7961499554733229</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="42">
+        <v>80</v>
+      </c>
+      <c r="B101" s="2">
+        <v>139880</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2">
+        <v>228579</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="J101" s="35">
+        <f t="shared" si="1"/>
+        <v>0.6119547289996019</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="42">
+        <v>81</v>
+      </c>
+      <c r="B102" s="2">
+        <v>15490</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2">
+        <v>17500</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="J102" s="35">
+        <f t="shared" si="1"/>
+        <v>0.88514285714285712</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="42">
+        <v>82</v>
+      </c>
+      <c r="B103" s="2">
+        <v>23690</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2">
+        <v>25626</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="J103" s="35">
+        <f t="shared" si="1"/>
+        <v>0.92445172871302583</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="42">
+        <v>83</v>
+      </c>
+      <c r="B104" s="2">
+        <v>16927</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2">
+        <v>18197</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="J104" s="35">
+        <f t="shared" si="1"/>
+        <v>0.93020827608946532</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="42">
+        <v>84</v>
+      </c>
+      <c r="B105" s="2">
+        <v>13392</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2">
+        <v>14468</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="J105" s="35">
+        <f t="shared" si="1"/>
+        <v>0.92562897428808399</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C106" s="2">
+        <v>209379</v>
+      </c>
+      <c r="E106" s="2">
+        <v>304370</v>
+      </c>
+      <c r="G106" s="2">
+        <f>SUM(B101:B105) -C106</f>
+        <v>0</v>
+      </c>
+      <c r="H106" s="2">
+        <f>SUM(D101:D105) - E106</f>
+        <v>0</v>
+      </c>
+      <c r="J106" s="35"/>
+      <c r="K106" s="35">
+        <f>C106/E106</f>
+        <v>0.6879094523113316</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="42">
+        <v>85</v>
+      </c>
+      <c r="B107" s="2">
+        <v>44063</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2">
+        <v>60286</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="J107" s="35">
+        <f t="shared" si="1"/>
+        <v>0.73089937962379325</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="62">
+        <v>86</v>
+      </c>
+      <c r="B108" s="2">
+        <v>13491</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2">
+        <v>13356</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="J108" s="35">
+        <f t="shared" si="1"/>
+        <v>1.0101078167115902</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="62">
+        <v>87</v>
+      </c>
+      <c r="B109" s="2">
+        <v>10893</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2">
+        <v>12219</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="J109" s="35">
+        <f t="shared" si="1"/>
+        <v>0.89148048121777557</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="62">
+        <v>88</v>
+      </c>
+      <c r="B110" s="2">
+        <v>9464</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2">
+        <v>10391</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="J110" s="35">
+        <f t="shared" si="1"/>
+        <v>0.91078818208064671</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="62">
+        <v>89</v>
+      </c>
+      <c r="B111" s="2">
+        <v>5314</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2">
+        <v>6396</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="J111" s="35">
+        <f t="shared" si="1"/>
+        <v>0.83083176985616014</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="C112" s="2">
+        <v>83225</v>
+      </c>
+      <c r="E112" s="2">
+        <v>102648</v>
+      </c>
+      <c r="G112" s="2">
+        <f>SUM(B107:B111) -C112</f>
+        <v>0</v>
+      </c>
+      <c r="H112" s="2">
+        <f>SUM(D107:D111) - E112</f>
+        <v>0</v>
+      </c>
+      <c r="J112" s="35"/>
+      <c r="K112" s="35">
+        <f>C112/E112</f>
+        <v>0.81078053152521234</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="62">
+        <v>90</v>
+      </c>
+      <c r="B113" s="2">
+        <v>31657</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2">
+        <v>50144</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="J113" s="35">
+        <f t="shared" si="1"/>
+        <v>0.63132179323548177</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" s="62">
+        <v>91</v>
+      </c>
+      <c r="B114" s="2">
+        <v>2252</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2">
+        <v>2874</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="J114" s="35">
+        <f t="shared" si="1"/>
+        <v>0.78357689631176064</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="62">
+        <v>92</v>
+      </c>
+      <c r="B115" s="2">
+        <v>3179</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2">
+        <v>3820</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="J115" s="35">
+        <f t="shared" si="1"/>
+        <v>0.83219895287958112</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="62">
+        <v>93</v>
+      </c>
+      <c r="B116" s="2">
+        <v>2497</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2">
+        <v>2939</v>
+      </c>
+      <c r="E116" s="2"/>
+      <c r="J116" s="35">
+        <f t="shared" si="1"/>
+        <v>0.84960871044572983</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="62">
+        <v>94</v>
+      </c>
+      <c r="B117" s="2">
+        <v>1812</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2">
+        <v>1863</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="J117" s="35">
+        <f t="shared" si="1"/>
+        <v>0.97262479871175522</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="C118" s="2">
+        <v>41397</v>
+      </c>
+      <c r="E118" s="2">
+        <v>61640</v>
+      </c>
+      <c r="G118" s="2">
+        <f>SUM(B113:B117) -C118</f>
+        <v>0</v>
+      </c>
+      <c r="H118" s="2">
+        <f>SUM(D113:D117) - E118</f>
+        <v>0</v>
+      </c>
+      <c r="J118" s="35"/>
+      <c r="K118" s="35">
+        <f>C118/E118</f>
+        <v>0.67159312134977289</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="62">
+        <v>95</v>
+      </c>
+      <c r="B119" s="2">
+        <v>7496</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2">
+        <v>10118</v>
+      </c>
+      <c r="E119" s="2"/>
+      <c r="J119" s="35">
+        <f t="shared" si="1"/>
+        <v>0.74085787705080053</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="62">
+        <v>96</v>
+      </c>
+      <c r="B120" s="2">
+        <v>2859</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2">
+        <v>3030</v>
+      </c>
+      <c r="E120" s="2"/>
+      <c r="J120" s="35">
+        <f t="shared" si="1"/>
+        <v>0.94356435643564351</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="62">
+        <v>97</v>
+      </c>
+      <c r="B121" s="2">
+        <v>2100</v>
+      </c>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2">
+        <v>2380</v>
+      </c>
+      <c r="E121" s="2"/>
+      <c r="J121" s="35">
+        <f t="shared" si="1"/>
+        <v>0.88235294117647056</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="62">
+        <v>98</v>
+      </c>
+      <c r="B122" s="2">
+        <v>2342</v>
+      </c>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2">
+        <v>2930</v>
+      </c>
+      <c r="E122" s="2"/>
+      <c r="J122" s="35">
+        <f t="shared" si="1"/>
+        <v>0.79931740614334468</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="62">
+        <v>99</v>
+      </c>
+      <c r="B123" s="2">
+        <v>1176</v>
+      </c>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2">
+        <v>1584</v>
+      </c>
+      <c r="E123" s="2"/>
+      <c r="J123" s="35">
+        <f t="shared" si="1"/>
+        <v>0.74242424242424243</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="C124" s="2">
+        <v>15973</v>
+      </c>
+      <c r="E124" s="2">
+        <v>20042</v>
+      </c>
+      <c r="G124" s="2">
+        <f>SUM(B119:B123) -C124</f>
+        <v>0</v>
+      </c>
+      <c r="H124" s="2">
+        <f>SUM(D119:D123) - E124</f>
+        <v>0</v>
+      </c>
+      <c r="J124" s="35"/>
+      <c r="K124" s="35">
+        <f>C124/E124</f>
+        <v>0.79697634966570208</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B125" s="2">
+        <v>12349</v>
+      </c>
+      <c r="C125" s="2">
+        <v>12349</v>
+      </c>
+      <c r="D125" s="2">
+        <v>17158</v>
+      </c>
+      <c r="E125" s="2">
+        <v>17158</v>
+      </c>
+      <c r="J125" s="35">
+        <f t="shared" si="1"/>
+        <v>0.7197225783890896</v>
+      </c>
+      <c r="K125" s="35">
+        <f>B125/D125</f>
+        <v>0.7197225783890896</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B126" s="2">
+        <v>51213</v>
+      </c>
+      <c r="C126" s="2">
+        <v>51213</v>
+      </c>
+      <c r="D126" s="2">
+        <v>17158</v>
+      </c>
+      <c r="E126" s="2">
+        <v>17158</v>
+      </c>
+      <c r="J126" s="35">
+        <f t="shared" si="1"/>
+        <v>2.9847884368807551</v>
+      </c>
+      <c r="K126" s="35">
+        <f>B126/D126</f>
+        <v>2.9847884368807551</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B127" s="2">
+        <v>71011475</v>
+      </c>
+      <c r="C127" s="2">
+        <v>71011475</v>
+      </c>
+      <c r="D127" s="2">
+        <v>75954451</v>
+      </c>
+      <c r="E127" s="2">
+        <v>75954451</v>
+      </c>
+      <c r="J127" s="35">
+        <f t="shared" si="1"/>
+        <v>0.93492183887946212</v>
+      </c>
+      <c r="K127" s="35">
+        <f>B127/D127</f>
+        <v>0.93492183887946212</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B129" s="2">
+        <f>SUM(B5:B126) -B127</f>
+        <v>0</v>
+      </c>
+      <c r="C129" s="2">
+        <f>SUM(C5:C126) -C127</f>
+        <v>0</v>
+      </c>
+      <c r="D129" s="2">
+        <f>SUM(D5:D126) -D127</f>
+        <v>-21802</v>
+      </c>
+      <c r="E129" s="2">
+        <f>SUM(E5:E126) -E127</f>
+        <v>-21802</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/auxiliary/census-1920.xlsx
+++ b/auxiliary/census-1920.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\auxiliary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41199B07-9946-4F9E-A16E-09DB81433800}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08151269-A366-4167-9754-C135BB6AA140}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" activeTab="9" xr2:uid="{0ED4691F-BE7B-497E-88B1-9CCACC27BAC8}"/>
+    <workbookView xWindow="16635" yWindow="405" windowWidth="27060" windowHeight="23295" activeTab="8" xr2:uid="{0ED4691F-BE7B-497E-88B1-9CCACC27BAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="заглавие" sheetId="1" r:id="rId1"/>
@@ -601,12 +601,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -619,11 +613,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6814,9 +6814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41179AA5-A459-461A-8DB6-75B8BBC9FE99}">
   <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6840,25 +6838,25 @@
       <c r="A4" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="E4" s="63"/>
-      <c r="G4" s="57" t="s">
+      <c r="E4" s="64"/>
+      <c r="G4" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="57"/>
-      <c r="J4" s="63" t="s">
+      <c r="H4" s="62"/>
+      <c r="J4" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="K4" s="63"/>
+      <c r="K4" s="64"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="59">
+      <c r="A5" s="57">
         <v>0</v>
       </c>
       <c r="B5" s="2">
@@ -6869,14 +6867,14 @@
         <v>2549617</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="G5" s="64"/>
+      <c r="G5" s="61"/>
       <c r="J5" s="35">
         <f>B5/D5</f>
         <v>1.0320063758595899</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="60">
+      <c r="A6" s="58">
         <v>1</v>
       </c>
       <c r="B6" s="2">
@@ -6893,7 +6891,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="60">
+      <c r="A7" s="58">
         <v>2</v>
       </c>
       <c r="B7" s="2">
@@ -6910,7 +6908,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="60">
+      <c r="A8" s="58">
         <v>3</v>
       </c>
       <c r="B8" s="2">
@@ -6927,7 +6925,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="60">
+      <c r="A9" s="58">
         <v>4</v>
       </c>
       <c r="B9" s="2">
@@ -6944,7 +6942,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="58" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="2"/>
@@ -6968,7 +6966,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="60">
+      <c r="A11" s="58">
         <v>5</v>
       </c>
       <c r="B11" s="2">
@@ -6985,7 +6983,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="60">
+      <c r="A12" s="58">
         <v>6</v>
       </c>
       <c r="B12" s="2">
@@ -7002,7 +7000,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="60">
+      <c r="A13" s="58">
         <v>7</v>
       </c>
       <c r="B13" s="2">
@@ -7019,7 +7017,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="60">
+      <c r="A14" s="58">
         <v>8</v>
       </c>
       <c r="B14" s="2">
@@ -7036,7 +7034,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="60">
+      <c r="A15" s="58">
         <v>9</v>
       </c>
       <c r="B15" s="2">
@@ -7053,7 +7051,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="58" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="2"/>
@@ -7077,7 +7075,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="60">
+      <c r="A17" s="58">
         <v>10</v>
       </c>
       <c r="B17" s="2">
@@ -7094,7 +7092,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="60">
+      <c r="A18" s="58">
         <v>11</v>
       </c>
       <c r="B18" s="2">
@@ -7111,7 +7109,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="60">
+      <c r="A19" s="58">
         <v>12</v>
       </c>
       <c r="B19" s="2">
@@ -7128,7 +7126,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="59">
+      <c r="A20" s="57">
         <v>13</v>
       </c>
       <c r="B20" s="2">
@@ -7145,7 +7143,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="60">
+      <c r="A21" s="58">
         <v>14</v>
       </c>
       <c r="B21" s="2">
@@ -7162,7 +7160,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="58" t="s">
         <v>34</v>
       </c>
       <c r="B22" s="2"/>
@@ -7187,7 +7185,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="60">
+      <c r="A23" s="58">
         <v>15</v>
       </c>
       <c r="B23" s="2">
@@ -7204,7 +7202,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="60">
+      <c r="A24" s="58">
         <v>16</v>
       </c>
       <c r="B24" s="2">
@@ -7221,7 +7219,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="60">
+      <c r="A25" s="58">
         <v>17</v>
       </c>
       <c r="B25" s="2">
@@ -7238,7 +7236,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="60">
+      <c r="A26" s="58">
         <v>18</v>
       </c>
       <c r="B26" s="2">
@@ -7255,7 +7253,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="60">
+      <c r="A27" s="58">
         <v>19</v>
       </c>
       <c r="B27" s="2">
@@ -7272,7 +7270,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="60" t="s">
+      <c r="A28" s="58" t="s">
         <v>17</v>
       </c>
       <c r="B28" s="2"/>
@@ -7297,7 +7295,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="60">
+      <c r="A29" s="58">
         <v>20</v>
       </c>
       <c r="B29" s="2">
@@ -7314,7 +7312,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="60">
+      <c r="A30" s="58">
         <v>21</v>
       </c>
       <c r="B30" s="2">
@@ -7331,7 +7329,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="60">
+      <c r="A31" s="58">
         <v>22</v>
       </c>
       <c r="B31" s="2">
@@ -7348,7 +7346,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="60">
+      <c r="A32" s="58">
         <v>23</v>
       </c>
       <c r="B32" s="2">
@@ -7365,7 +7363,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="61">
+      <c r="A33" s="59">
         <v>24</v>
       </c>
       <c r="B33" s="2">
@@ -7382,7 +7380,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="61" t="s">
+      <c r="A34" s="59" t="s">
         <v>18</v>
       </c>
       <c r="B34" s="2"/>
@@ -7644,7 +7642,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="62">
+      <c r="A48" s="60">
         <v>36</v>
       </c>
       <c r="B48" s="2">
@@ -7661,7 +7659,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="62">
+      <c r="A49" s="60">
         <v>37</v>
       </c>
       <c r="B49" s="2">
@@ -7678,7 +7676,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="62">
+      <c r="A50" s="60">
         <v>38</v>
       </c>
       <c r="B50" s="2">
@@ -7695,7 +7693,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="62">
+      <c r="A51" s="60">
         <v>39</v>
       </c>
       <c r="B51" s="2">
@@ -7712,7 +7710,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="62" t="s">
+      <c r="A52" s="60" t="s">
         <v>21</v>
       </c>
       <c r="B52" s="2"/>
@@ -7737,7 +7735,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="62">
+      <c r="A53" s="60">
         <v>40</v>
       </c>
       <c r="B53" s="2">
@@ -7754,7 +7752,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="62">
+      <c r="A54" s="60">
         <v>41</v>
       </c>
       <c r="B54" s="2">
@@ -7771,7 +7769,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="62">
+      <c r="A55" s="60">
         <v>42</v>
       </c>
       <c r="B55" s="2">
@@ -7788,7 +7786,7 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="62">
+      <c r="A56" s="60">
         <v>43</v>
       </c>
       <c r="B56" s="2">
@@ -7805,7 +7803,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="62">
+      <c r="A57" s="60">
         <v>44</v>
       </c>
       <c r="B57" s="2">
@@ -7822,7 +7820,7 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="62" t="s">
+      <c r="A58" s="60" t="s">
         <v>46</v>
       </c>
       <c r="B58" s="2"/>
@@ -7847,7 +7845,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="62">
+      <c r="A59" s="60">
         <v>45</v>
       </c>
       <c r="B59" s="2">
@@ -7864,7 +7862,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="62">
+      <c r="A60" s="60">
         <v>46</v>
       </c>
       <c r="B60" s="2">
@@ -7881,7 +7879,7 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="62">
+      <c r="A61" s="60">
         <v>47</v>
       </c>
       <c r="B61" s="2">
@@ -7898,7 +7896,7 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="62">
+      <c r="A62" s="60">
         <v>48</v>
       </c>
       <c r="B62" s="2">
@@ -7915,7 +7913,7 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="62">
+      <c r="A63" s="60">
         <v>49</v>
       </c>
       <c r="B63" s="2">
@@ -7932,7 +7930,7 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="62" t="s">
+      <c r="A64" s="60" t="s">
         <v>45</v>
       </c>
       <c r="B64" s="2"/>
@@ -8079,7 +8077,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="J71" s="35">
-        <f t="shared" ref="J71:J128" si="1">B71/D71</f>
+        <f t="shared" ref="J71:J127" si="1">B71/D71</f>
         <v>0.72455478253503669</v>
       </c>
     </row>
@@ -8194,7 +8192,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="62">
+      <c r="A78" s="60">
         <v>61</v>
       </c>
       <c r="B78" s="2">
@@ -8211,7 +8209,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="62">
+      <c r="A79" s="60">
         <v>62</v>
       </c>
       <c r="B79" s="2">
@@ -8228,7 +8226,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="62">
+      <c r="A80" s="60">
         <v>63</v>
       </c>
       <c r="B80" s="2">
@@ -8245,7 +8243,7 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="62">
+      <c r="A81" s="60">
         <v>64</v>
       </c>
       <c r="B81" s="2">
@@ -8262,7 +8260,7 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="62" t="s">
+      <c r="A82" s="60" t="s">
         <v>37</v>
       </c>
       <c r="B82" s="2"/>
@@ -8287,7 +8285,7 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="62">
+      <c r="A83" s="60">
         <v>65</v>
       </c>
       <c r="B83" s="2">
@@ -8304,7 +8302,7 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="62">
+      <c r="A84" s="60">
         <v>66</v>
       </c>
       <c r="B84" s="2">
@@ -8321,7 +8319,7 @@
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="62">
+      <c r="A85" s="60">
         <v>67</v>
       </c>
       <c r="B85" s="2">
@@ -8338,7 +8336,7 @@
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="62">
+      <c r="A86" s="60">
         <v>68</v>
       </c>
       <c r="B86" s="2">
@@ -8355,7 +8353,7 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="62">
+      <c r="A87" s="60">
         <v>69</v>
       </c>
       <c r="B87" s="2">
@@ -8372,7 +8370,7 @@
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="62" t="s">
+      <c r="A88" s="60" t="s">
         <v>38</v>
       </c>
       <c r="B88" s="2"/>
@@ -8397,7 +8395,7 @@
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="62">
+      <c r="A89" s="60">
         <v>70</v>
       </c>
       <c r="B89" s="2">
@@ -8414,7 +8412,7 @@
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="62">
+      <c r="A90" s="60">
         <v>71</v>
       </c>
       <c r="B90" s="2">
@@ -8431,7 +8429,7 @@
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="62">
+      <c r="A91" s="60">
         <v>72</v>
       </c>
       <c r="B91" s="2">
@@ -8448,7 +8446,7 @@
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="62">
+      <c r="A92" s="60">
         <v>73</v>
       </c>
       <c r="B92" s="2">
@@ -8465,7 +8463,7 @@
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="62">
+      <c r="A93" s="60">
         <v>74</v>
       </c>
       <c r="B93" s="2">
@@ -8482,7 +8480,7 @@
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="62" t="s">
+      <c r="A94" s="60" t="s">
         <v>39</v>
       </c>
       <c r="B94" s="2"/>
@@ -8744,7 +8742,7 @@
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="62">
+      <c r="A108" s="60">
         <v>86</v>
       </c>
       <c r="B108" s="2">
@@ -8761,7 +8759,7 @@
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="62">
+      <c r="A109" s="60">
         <v>87</v>
       </c>
       <c r="B109" s="2">
@@ -8778,7 +8776,7 @@
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="62">
+      <c r="A110" s="60">
         <v>88</v>
       </c>
       <c r="B110" s="2">
@@ -8795,7 +8793,7 @@
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="62">
+      <c r="A111" s="60">
         <v>89</v>
       </c>
       <c r="B111" s="2">
@@ -8812,7 +8810,7 @@
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="62" t="s">
+      <c r="A112" s="60" t="s">
         <v>42</v>
       </c>
       <c r="B112" s="2"/>
@@ -8837,7 +8835,7 @@
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="62">
+      <c r="A113" s="60">
         <v>90</v>
       </c>
       <c r="B113" s="2">
@@ -8854,7 +8852,7 @@
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="62">
+      <c r="A114" s="60">
         <v>91</v>
       </c>
       <c r="B114" s="2">
@@ -8871,7 +8869,7 @@
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="62">
+      <c r="A115" s="60">
         <v>92</v>
       </c>
       <c r="B115" s="2">
@@ -8888,7 +8886,7 @@
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="62">
+      <c r="A116" s="60">
         <v>93</v>
       </c>
       <c r="B116" s="2">
@@ -8905,7 +8903,7 @@
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="62">
+      <c r="A117" s="60">
         <v>94</v>
       </c>
       <c r="B117" s="2">
@@ -8922,7 +8920,7 @@
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="62" t="s">
+      <c r="A118" s="60" t="s">
         <v>43</v>
       </c>
       <c r="B118" s="2"/>
@@ -8947,7 +8945,7 @@
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="62">
+      <c r="A119" s="60">
         <v>95</v>
       </c>
       <c r="B119" s="2">
@@ -8964,7 +8962,7 @@
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="62">
+      <c r="A120" s="60">
         <v>96</v>
       </c>
       <c r="B120" s="2">
@@ -8981,7 +8979,7 @@
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="62">
+      <c r="A121" s="60">
         <v>97</v>
       </c>
       <c r="B121" s="2">
@@ -8998,7 +8996,7 @@
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="62">
+      <c r="A122" s="60">
         <v>98</v>
       </c>
       <c r="B122" s="2">
@@ -9015,7 +9013,7 @@
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="62">
+      <c r="A123" s="60">
         <v>99</v>
       </c>
       <c r="B123" s="2">
@@ -9032,7 +9030,7 @@
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="62" t="s">
+      <c r="A124" s="60" t="s">
         <v>44</v>
       </c>
       <c r="C124" s="2">
@@ -18325,51 +18323,51 @@
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="G3" s="57" t="s">
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="G3" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
       <c r="K3" s="30" t="s">
         <v>30</v>
       </c>
       <c r="L3" s="12"/>
-      <c r="M3" s="57" t="s">
+      <c r="M3" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
       <c r="P3" s="39" t="s">
         <v>56</v>
       </c>
       <c r="Q3" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="S3" s="57" t="s">
+      <c r="S3" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-      <c r="W3" s="57" t="s">
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="W3" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57"/>
-      <c r="AA3" s="57" t="s">
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="AA3" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="AB3" s="57"/>
-      <c r="AC3" s="57"/>
-      <c r="AE3" s="57" t="s">
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
+      <c r="AE3" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="AF3" s="57"/>
-      <c r="AG3" s="57"/>
+      <c r="AF3" s="62"/>
+      <c r="AG3" s="62"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
@@ -26768,16 +26766,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61EC4F09-582D-4B66-98A6-3131151E842E}">
   <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection sqref="A1:K129"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
     <col min="11" max="11" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -26795,118 +26793,118 @@
       <c r="A4" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="E4" s="63"/>
-      <c r="G4" s="57" t="s">
+      <c r="E4" s="64"/>
+      <c r="G4" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="57"/>
-      <c r="J4" s="63" t="s">
+      <c r="H4" s="62"/>
+      <c r="J4" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="K4" s="63"/>
+      <c r="K4" s="64"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="59">
+      <c r="A5" s="57">
         <v>0</v>
       </c>
       <c r="B5" s="2">
-        <v>2631221</v>
+        <v>1890229</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2">
-        <v>2549617</v>
+        <v>1837537</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="G5" s="64"/>
+      <c r="G5" s="61"/>
       <c r="J5" s="35">
         <f>B5/D5</f>
-        <v>1.0320063758595899</v>
+        <v>1.0286753409591207</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="60">
+      <c r="A6" s="58">
         <v>1</v>
       </c>
       <c r="B6" s="2">
-        <v>2284444</v>
+        <v>1570682</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2">
-        <v>2241181</v>
+        <v>1549913</v>
       </c>
       <c r="E6" s="2"/>
       <c r="J6" s="35">
         <f t="shared" ref="J6:J69" si="0">B6/D6</f>
-        <v>1.0193036617747517</v>
+        <v>1.0134001069737462</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="60">
+      <c r="A7" s="58">
         <v>2</v>
       </c>
       <c r="B7" s="2">
-        <v>2215893</v>
+        <v>1516506</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2">
-        <v>2196909</v>
+        <v>1510737</v>
       </c>
       <c r="E7" s="2"/>
       <c r="J7" s="35">
         <f t="shared" si="0"/>
-        <v>1.0086412318398259</v>
+        <v>1.0038186659888517</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="60">
+      <c r="A8" s="58">
         <v>3</v>
       </c>
       <c r="B8" s="2">
-        <v>2278294</v>
+        <v>1544748</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
-        <v>2263400</v>
+        <v>1542126</v>
       </c>
       <c r="E8" s="2"/>
       <c r="J8" s="35">
         <f t="shared" si="0"/>
-        <v>1.0065803658213308</v>
+        <v>1.0017002501741104</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="60">
+      <c r="A9" s="58">
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>1823571</v>
+        <v>1224012</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
-        <v>1829512</v>
+        <v>1235910</v>
       </c>
       <c r="E9" s="2"/>
       <c r="J9" s="35">
         <f t="shared" si="0"/>
-        <v>0.99675268596215827</v>
+        <v>0.99037308541884117</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="2">
-        <v>11233423</v>
-      </c>
-      <c r="E10" s="2">
-        <v>11080619</v>
+      <c r="C10">
+        <v>7746177</v>
+      </c>
+      <c r="E10">
+        <v>7676223</v>
       </c>
       <c r="G10" s="2">
         <f>SUM(B5:B9) -C10</f>
@@ -26918,103 +26916,103 @@
       </c>
       <c r="K10" s="35">
         <f>C10/E10</f>
-        <v>1.0137902043198128</v>
+        <v>1.0091130755320683</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="60">
+      <c r="A11" s="58">
         <v>5</v>
       </c>
       <c r="B11" s="2">
-        <v>1793725</v>
+        <v>1174064</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
-        <v>1747493</v>
+        <v>1153488</v>
       </c>
       <c r="E11" s="2"/>
       <c r="J11" s="35">
         <f t="shared" si="0"/>
-        <v>1.0264561860905881</v>
+        <v>1.0178380702703453</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="60">
+      <c r="A12" s="58">
         <v>6</v>
       </c>
       <c r="B12" s="2">
-        <v>1530117</v>
+        <v>1006313</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
-        <v>1525785</v>
+        <v>1013377</v>
       </c>
       <c r="E12" s="2"/>
       <c r="J12" s="35">
         <f t="shared" si="0"/>
-        <v>1.0028391942508283</v>
+        <v>0.99302924775281065</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="60">
+      <c r="A13" s="58">
         <v>7</v>
       </c>
       <c r="B13" s="2">
-        <v>1485679</v>
+        <v>990102</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2">
-        <v>1524571</v>
+        <v>1032758</v>
       </c>
       <c r="E13" s="2"/>
       <c r="J13" s="35">
         <f t="shared" si="0"/>
-        <v>0.97448987288883238</v>
+        <v>0.95869700355746457</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="60">
+      <c r="A14" s="58">
         <v>8</v>
       </c>
       <c r="B14" s="2">
-        <v>1672961</v>
+        <v>1135788</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2">
-        <v>1659747</v>
+        <v>1138151</v>
       </c>
       <c r="E14" s="2"/>
       <c r="J14" s="35">
         <f t="shared" si="0"/>
-        <v>1.0079614543662379</v>
+        <v>0.99792382557323234</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="60">
+      <c r="A15" s="58">
         <v>9</v>
       </c>
       <c r="B15" s="2">
-        <v>1163006</v>
+        <v>811778</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
-        <v>1157850</v>
+        <v>813559</v>
       </c>
       <c r="E15" s="2"/>
       <c r="J15" s="35">
         <f t="shared" si="0"/>
-        <v>1.0044530811417713</v>
+        <v>0.99781085330012942</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="2">
-        <v>7645488</v>
-      </c>
-      <c r="E16" s="2">
-        <v>7615446</v>
+      <c r="C16">
+        <v>5118045</v>
+      </c>
+      <c r="E16">
+        <v>5151333</v>
       </c>
       <c r="G16" s="2">
         <f>SUM(B11:B15) -C16</f>
@@ -27026,103 +27024,103 @@
       </c>
       <c r="K16" s="35">
         <f>C16/E16</f>
-        <v>1.0039448772928072</v>
+        <v>0.99353798327539689</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="60">
+      <c r="A17" s="58">
         <v>10</v>
       </c>
       <c r="B17" s="2">
-        <v>1461715</v>
+        <v>982821</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
-        <v>1437450</v>
+        <v>988149</v>
       </c>
       <c r="E17" s="2"/>
       <c r="J17" s="35">
         <f t="shared" si="0"/>
-        <v>1.0168805871508575</v>
+        <v>0.9946081006002131</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="60">
+      <c r="A18" s="58">
         <v>11</v>
       </c>
       <c r="B18" s="2">
-        <v>1346003</v>
+        <v>962767</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
-        <v>1321282</v>
+        <v>959107</v>
       </c>
       <c r="E18" s="2"/>
       <c r="J18" s="35">
         <f t="shared" si="0"/>
-        <v>1.0187098590611239</v>
+        <v>1.0038160497212512</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="60">
+      <c r="A19" s="58">
         <v>12</v>
       </c>
       <c r="B19" s="2">
-        <v>2176324</v>
+        <v>1473888</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2">
-        <v>2059177</v>
+        <v>1429044</v>
       </c>
       <c r="E19" s="2"/>
       <c r="J19" s="35">
         <f t="shared" si="0"/>
-        <v>1.0568902041932287</v>
+        <v>1.0313804193572766</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="59">
+      <c r="A20" s="57">
         <v>13</v>
       </c>
       <c r="B20" s="2">
-        <v>1853833</v>
+        <v>1290108</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2">
-        <v>1810686</v>
+        <v>1278272</v>
       </c>
       <c r="E20" s="2"/>
       <c r="J20" s="35">
         <f t="shared" si="0"/>
-        <v>1.0238290901901268</v>
+        <v>1.0092593751564611</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="60">
+      <c r="A21" s="58">
         <v>14</v>
       </c>
       <c r="B21" s="2">
-        <v>1801619</v>
+        <v>1245928</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2">
-        <v>1815413</v>
+        <v>1271053</v>
       </c>
       <c r="E21" s="2"/>
       <c r="J21" s="35">
         <f t="shared" si="0"/>
-        <v>0.99240172897296652</v>
+        <v>0.9802329249842453</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="2">
-        <v>8639494</v>
-      </c>
-      <c r="E22" s="2">
-        <v>8444008</v>
+      <c r="C22">
+        <v>5955512</v>
+      </c>
+      <c r="E22">
+        <v>5925625</v>
       </c>
       <c r="G22" s="2">
         <f>SUM(B17:B21) -C22</f>
@@ -27135,103 +27133,103 @@
       <c r="J22" s="35"/>
       <c r="K22" s="35">
         <f>C22/E22</f>
-        <v>1.0231508544283709</v>
+        <v>1.0050436873747495</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="60">
+      <c r="A23" s="58">
         <v>15</v>
       </c>
       <c r="B23" s="2">
-        <v>1807454</v>
+        <v>1232863</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2">
-        <v>1831264</v>
+        <v>1275663</v>
       </c>
       <c r="E23" s="2"/>
       <c r="J23" s="35">
         <f t="shared" si="0"/>
-        <v>0.98699805161899101</v>
+        <v>0.96644881916305481</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="60">
+      <c r="A24" s="58">
         <v>16</v>
       </c>
       <c r="B24" s="2">
-        <v>1787653</v>
+        <v>1231176</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2">
-        <v>1946325</v>
+        <v>1354543</v>
       </c>
       <c r="E24" s="2"/>
       <c r="J24" s="35">
         <f t="shared" si="0"/>
-        <v>0.91847610239810928</v>
+        <v>0.90892352623726236</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="60">
+      <c r="A25" s="58">
         <v>17</v>
       </c>
       <c r="B25" s="2">
-        <v>1563025</v>
+        <v>1092448</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2">
-        <v>1744454</v>
+        <v>1229376</v>
       </c>
       <c r="E25" s="2"/>
       <c r="J25" s="35">
         <f t="shared" si="0"/>
-        <v>0.89599668434937241</v>
+        <v>0.88861991774688953</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="60">
+      <c r="A26" s="58">
         <v>18</v>
       </c>
       <c r="B26" s="2">
-        <v>1613891</v>
+        <v>1094753</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2">
-        <v>1814043</v>
+        <v>1230026</v>
       </c>
       <c r="E26" s="2"/>
       <c r="J26" s="35">
         <f t="shared" si="0"/>
-        <v>0.88966523946786269</v>
+        <v>0.89002427590961497</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="60">
+      <c r="A27" s="58">
         <v>19</v>
       </c>
       <c r="B27" s="2">
-        <v>1357600</v>
+        <v>954885</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2">
-        <v>1504445</v>
+        <v>1072246</v>
       </c>
       <c r="E27" s="2"/>
       <c r="J27" s="35">
         <f t="shared" si="0"/>
-        <v>0.90239257666448425</v>
+        <v>0.89054657233507983</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="60" t="s">
+      <c r="A28" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="2">
-        <v>8129623</v>
-      </c>
-      <c r="E28" s="2">
-        <v>8840531</v>
+      <c r="C28">
+        <v>5606125</v>
+      </c>
+      <c r="E28">
+        <v>6161854</v>
       </c>
       <c r="G28" s="2">
         <f>SUM(B23:B27) -C28</f>
@@ -27244,103 +27242,103 @@
       <c r="J28" s="35"/>
       <c r="K28" s="35">
         <f>C28/E28</f>
-        <v>0.91958537332203238</v>
+        <v>0.90981139767349239</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="60">
+      <c r="A29" s="58">
         <v>20</v>
       </c>
       <c r="B29" s="2">
-        <v>1637986</v>
+        <v>1090901</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2">
-        <v>1954434</v>
+        <v>1294828</v>
       </c>
       <c r="E29" s="2"/>
       <c r="J29" s="35">
         <f t="shared" si="0"/>
-        <v>0.8380871392945477</v>
+        <v>0.84250649507116004</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="60">
+      <c r="A30" s="58">
         <v>21</v>
       </c>
       <c r="B30" s="2">
-        <v>1223450</v>
+        <v>849413</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2">
-        <v>1023157</v>
+        <v>728857</v>
       </c>
       <c r="E30" s="2"/>
       <c r="J30" s="35">
         <f t="shared" si="0"/>
-        <v>1.1957597905306809</v>
+        <v>1.1654041876527219</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="60">
+      <c r="A31" s="58">
         <v>22</v>
       </c>
       <c r="B31" s="2">
-        <v>1412198</v>
+        <v>941820</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2">
-        <v>1487733</v>
+        <v>1031382</v>
       </c>
       <c r="E31" s="2"/>
       <c r="J31" s="35">
         <f t="shared" si="0"/>
-        <v>0.94922812090610342</v>
+        <v>0.91316311512126447</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="60">
+      <c r="A32" s="58">
         <v>23</v>
       </c>
       <c r="B32" s="2">
-        <v>1322114</v>
+        <v>873262</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2">
-        <v>1399179</v>
+        <v>989177</v>
       </c>
       <c r="E32" s="2"/>
       <c r="J32" s="35">
         <f t="shared" si="0"/>
-        <v>0.94492127168861173</v>
+        <v>0.88281672541921208</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="61">
+      <c r="A33" s="59">
         <v>24</v>
       </c>
       <c r="B33" s="2">
-        <v>1113906</v>
+        <v>748912</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2">
-        <v>1233991</v>
+        <v>855597</v>
       </c>
       <c r="E33" s="2"/>
       <c r="J33" s="35">
         <f t="shared" si="0"/>
-        <v>0.9026856759895332</v>
+        <v>0.87530928696570931</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="61" t="s">
+      <c r="A34" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="2">
-        <v>6709654</v>
-      </c>
-      <c r="E34" s="2">
-        <v>7098494</v>
+      <c r="C34">
+        <v>4504308</v>
+      </c>
+      <c r="E34">
+        <v>4899841</v>
       </c>
       <c r="G34" s="2">
         <f>SUM(B29:B33) -C34</f>
@@ -27353,7 +27351,7 @@
       <c r="J34" s="35"/>
       <c r="K34" s="35">
         <f>C34/E34</f>
-        <v>0.94522218374770761</v>
+        <v>0.91927636019209602</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -27361,16 +27359,16 @@
         <v>25</v>
       </c>
       <c r="B35" s="2">
-        <v>1298648</v>
+        <v>818960</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2">
-        <v>1809980</v>
+        <v>1166191</v>
       </c>
       <c r="E35" s="2"/>
       <c r="J35" s="35">
         <f t="shared" si="0"/>
-        <v>0.71749301097249696</v>
+        <v>0.70225203247152479</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -27378,16 +27376,16 @@
         <v>26</v>
       </c>
       <c r="B36" s="2">
-        <v>1200331</v>
+        <v>794130</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2">
-        <v>1332329</v>
+        <v>911722</v>
       </c>
       <c r="E36" s="2"/>
       <c r="J36" s="35">
         <f t="shared" si="0"/>
-        <v>0.9009268731672132</v>
+        <v>0.87102208787327717</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -27395,16 +27393,16 @@
         <v>27</v>
       </c>
       <c r="B37" s="2">
-        <v>1029772</v>
+        <v>698426</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2">
-        <v>1235372</v>
+        <v>870204</v>
       </c>
       <c r="E37" s="2"/>
       <c r="J37" s="35">
         <f t="shared" si="0"/>
-        <v>0.83357239762597823</v>
+        <v>0.80260030981241182</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -27412,16 +27410,16 @@
         <v>28</v>
       </c>
       <c r="B38" s="2">
-        <v>1130829</v>
+        <v>738136</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2">
-        <v>1349879</v>
+        <v>903896</v>
       </c>
       <c r="E38" s="2"/>
       <c r="J38" s="35">
         <f t="shared" si="0"/>
-        <v>0.83772619619980759</v>
+        <v>0.81661607087541044</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -27429,27 +27427,27 @@
         <v>29</v>
       </c>
       <c r="B39" s="2">
-        <v>828188</v>
+        <v>567518</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2">
-        <v>817264</v>
+        <v>582799</v>
       </c>
       <c r="E39" s="2"/>
       <c r="J39" s="35">
         <f t="shared" si="0"/>
-        <v>1.0133665498541475</v>
+        <v>0.97377998246393693</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="2">
-        <v>5487768</v>
-      </c>
-      <c r="E40" s="2">
-        <v>6544824</v>
+      <c r="C40">
+        <v>3617170</v>
+      </c>
+      <c r="E40">
+        <v>4434812</v>
       </c>
       <c r="G40" s="2">
         <f>SUM(B35:B39) -C40</f>
@@ -27462,7 +27460,7 @@
       <c r="J40" s="35"/>
       <c r="K40" s="35">
         <f>C40/E40</f>
-        <v>0.83848977451494489</v>
+        <v>0.81563096699476778</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -27470,16 +27468,16 @@
         <v>30</v>
       </c>
       <c r="B41" s="2">
-        <v>1372675</v>
+        <v>859950</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2">
-        <v>1859272</v>
+        <v>1175157</v>
       </c>
       <c r="E41" s="2"/>
       <c r="J41" s="35">
         <f t="shared" si="0"/>
-        <v>0.73828627548847081</v>
+        <v>0.73177456288819276</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -27487,16 +27485,16 @@
         <v>31</v>
       </c>
       <c r="B42" s="2">
-        <v>594802</v>
+        <v>399219</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2">
-        <v>529448</v>
+        <v>373832</v>
       </c>
       <c r="E42" s="2"/>
       <c r="J42" s="35">
         <f t="shared" si="0"/>
-        <v>1.1234379957993985</v>
+        <v>1.0679101842538894</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -27504,16 +27502,16 @@
         <v>32</v>
       </c>
       <c r="B43" s="2">
-        <v>890229</v>
+        <v>578211</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2">
-        <v>928308</v>
+        <v>631570</v>
       </c>
       <c r="E43" s="2"/>
       <c r="J43" s="35">
         <f t="shared" si="0"/>
-        <v>0.95898020915472015</v>
+        <v>0.9155137197776968</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -27521,16 +27519,16 @@
         <v>33</v>
       </c>
       <c r="B44" s="2">
-        <v>796581</v>
+        <v>536367</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2">
-        <v>803352</v>
+        <v>569126</v>
       </c>
       <c r="E44" s="2"/>
       <c r="J44" s="35">
         <f t="shared" si="0"/>
-        <v>0.9915715651420548</v>
+        <v>0.9424398112193082</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -27538,27 +27536,27 @@
         <v>34</v>
       </c>
       <c r="B45" s="2">
-        <v>640631</v>
+        <v>429331</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2">
-        <v>645440</v>
+        <v>454593</v>
       </c>
       <c r="E45" s="2"/>
       <c r="J45" s="35">
         <f t="shared" si="0"/>
-        <v>0.99254926871591476</v>
+        <v>0.94442941268343328</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C46" s="2">
-        <v>4294918</v>
-      </c>
-      <c r="E46" s="2">
-        <v>4765820</v>
+      <c r="C46">
+        <v>2803078</v>
+      </c>
+      <c r="E46">
+        <v>3204278</v>
       </c>
       <c r="G46" s="2">
         <f>SUM(B41:B45) -C46</f>
@@ -27571,7 +27569,7 @@
       <c r="J46" s="35"/>
       <c r="K46" s="35">
         <f>C46/E46</f>
-        <v>0.90119182008552567</v>
+        <v>0.87479238692772598</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -27579,95 +27577,95 @@
         <v>35</v>
       </c>
       <c r="B47" s="2">
-        <v>1037581</v>
+        <v>642313</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2">
-        <v>1344055</v>
+        <v>865025</v>
       </c>
       <c r="E47" s="2"/>
       <c r="J47" s="35">
         <f t="shared" si="0"/>
-        <v>0.77197808125411538</v>
+        <v>0.74253692089823997</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="62">
+      <c r="A48" s="60">
         <v>36</v>
       </c>
       <c r="B48" s="2">
-        <v>768547</v>
+        <v>502264</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2">
-        <v>796588</v>
+        <v>547006</v>
       </c>
       <c r="E48" s="2"/>
       <c r="J48" s="35">
         <f t="shared" si="0"/>
-        <v>0.96479861609765649</v>
+        <v>0.91820565039505964</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="62">
+      <c r="A49" s="60">
         <v>37</v>
       </c>
       <c r="B49" s="2">
-        <v>694252</v>
+        <v>472118</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2">
-        <v>786180</v>
+        <v>566957</v>
       </c>
       <c r="E49" s="2"/>
       <c r="J49" s="35">
         <f t="shared" si="0"/>
-        <v>0.88307003485206947</v>
+        <v>0.83272276380748456</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="62">
+      <c r="A50" s="60">
         <v>38</v>
       </c>
       <c r="B50" s="2">
-        <v>868453</v>
+        <v>583034</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2">
-        <v>947400</v>
+        <v>660745</v>
       </c>
       <c r="E50" s="2"/>
       <c r="J50" s="35">
         <f t="shared" si="0"/>
-        <v>0.91666983322778128</v>
+        <v>0.8823888186819423</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="62">
+      <c r="A51" s="60">
         <v>39</v>
       </c>
       <c r="B51" s="2">
-        <v>623255</v>
+        <v>441925</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2">
-        <v>582372</v>
+        <v>433481</v>
       </c>
       <c r="E51" s="2"/>
       <c r="J51" s="35">
         <f t="shared" si="0"/>
-        <v>1.0702008338312969</v>
+        <v>1.01947951582653</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="62" t="s">
+      <c r="A52" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="C52" s="2">
-        <v>3992088</v>
+      <c r="C52">
+        <v>2641654</v>
       </c>
       <c r="E52" s="2">
-        <v>4456595</v>
+        <v>3073214</v>
       </c>
       <c r="G52" s="2">
         <f>SUM(B47:B51) -C52</f>
@@ -27680,103 +27678,103 @@
       <c r="J52" s="35"/>
       <c r="K52" s="35">
         <f>C52/E52</f>
-        <v>0.89577087440074765</v>
+        <v>0.85957372314456459</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="62">
+      <c r="A53" s="60">
         <v>40</v>
       </c>
       <c r="B53" s="2">
-        <v>1120936</v>
+        <v>709820</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2">
-        <v>1505932</v>
+        <v>976604</v>
       </c>
       <c r="E53" s="2"/>
       <c r="J53" s="35">
         <f t="shared" si="0"/>
-        <v>0.74434702230910821</v>
+        <v>0.72682479285360291</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="62">
+      <c r="A54" s="60">
         <v>41</v>
       </c>
       <c r="B54" s="2">
-        <v>459713</v>
+        <v>320117</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2">
-        <v>380245</v>
+        <v>280180</v>
       </c>
       <c r="E54" s="2"/>
       <c r="J54" s="35">
         <f t="shared" si="0"/>
-        <v>1.2089915712238162</v>
+        <v>1.1425405096723535</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="62">
+      <c r="A55" s="60">
         <v>42</v>
       </c>
       <c r="B55" s="2">
-        <v>739440</v>
+        <v>507217</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2">
-        <v>677714</v>
+        <v>487397</v>
       </c>
       <c r="E55" s="2"/>
       <c r="J55" s="35">
         <f t="shared" si="0"/>
-        <v>1.0910797179931357</v>
+        <v>1.040665002041457</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="62">
+      <c r="A56" s="60">
         <v>43</v>
       </c>
       <c r="B56" s="2">
-        <v>592793</v>
+        <v>415962</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2">
-        <v>544878</v>
+        <v>403081</v>
       </c>
       <c r="E56" s="2"/>
       <c r="J56" s="35">
         <f t="shared" si="0"/>
-        <v>1.0879371161984885</v>
+        <v>1.0319563561666265</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="62">
+      <c r="A57" s="60">
         <v>44</v>
       </c>
       <c r="B57" s="2">
-        <v>478496</v>
+        <v>333579</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2">
-        <v>451738</v>
+        <v>331713</v>
       </c>
       <c r="E57" s="2"/>
       <c r="J57" s="35">
         <f t="shared" si="0"/>
-        <v>1.0592334494773519</v>
+        <v>1.0056253448010781</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="62" t="s">
+      <c r="A58" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="C58" s="2">
-        <v>3391378</v>
-      </c>
-      <c r="E58" s="2">
-        <v>3560507</v>
+      <c r="C58">
+        <v>2286695</v>
+      </c>
+      <c r="E58">
+        <v>2478975</v>
       </c>
       <c r="G58" s="2">
         <f>SUM(B53:B57) -C58</f>
@@ -27789,103 +27787,103 @@
       <c r="J58" s="35"/>
       <c r="K58" s="35">
         <f>C58/E58</f>
-        <v>0.95249861887646903</v>
+        <v>0.92243568410330878</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="62">
+      <c r="A59" s="60">
         <v>45</v>
       </c>
       <c r="B59" s="2">
-        <v>891533</v>
+        <v>580312</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2">
-        <v>1076713</v>
+        <v>733763</v>
       </c>
       <c r="E59" s="2"/>
       <c r="J59" s="35">
         <f t="shared" si="0"/>
-        <v>0.82801359322307799</v>
+        <v>0.79087116684815129</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="62">
+      <c r="A60" s="60">
         <v>46</v>
       </c>
       <c r="B60" s="2">
-        <v>578549</v>
+        <v>398407</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2">
-        <v>514918</v>
+        <v>374455</v>
       </c>
       <c r="E60" s="2"/>
       <c r="J60" s="35">
         <f t="shared" si="0"/>
-        <v>1.1235750158277629</v>
+        <v>1.0639649624120389</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="62">
+      <c r="A61" s="60">
         <v>47</v>
       </c>
       <c r="B61" s="2">
-        <v>479355</v>
+        <v>338830</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2">
-        <v>471729</v>
+        <v>353407</v>
       </c>
       <c r="E61" s="2"/>
       <c r="J61" s="35">
         <f t="shared" si="0"/>
-        <v>1.0161660614462964</v>
+        <v>0.95875293924568561</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="62">
+      <c r="A62" s="60">
         <v>48</v>
       </c>
       <c r="B62" s="2">
-        <v>554241</v>
+        <v>378440</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2">
-        <v>592636</v>
+        <v>419830</v>
       </c>
       <c r="E62" s="2"/>
       <c r="J62" s="35">
         <f t="shared" si="0"/>
-        <v>0.93521318313433544</v>
+        <v>0.9014124764785747</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="62">
+      <c r="A63" s="60">
         <v>49</v>
       </c>
       <c r="B63" s="2">
-        <v>387763</v>
+        <v>280385</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2">
-        <v>357510</v>
+        <v>268263</v>
       </c>
       <c r="E63" s="2"/>
       <c r="J63" s="35">
         <f t="shared" si="0"/>
-        <v>1.0846214091913513</v>
+        <v>1.0451869993252889</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="62" t="s">
+      <c r="A64" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="C64" s="2">
-        <v>2891441</v>
-      </c>
-      <c r="E64" s="2">
-        <v>3013506</v>
+      <c r="C64">
+        <v>1976374</v>
+      </c>
+      <c r="E64">
+        <v>2149718</v>
       </c>
       <c r="G64" s="2">
         <f>SUM(B59:B63) -C64</f>
@@ -27898,7 +27896,7 @@
       <c r="J64" s="35"/>
       <c r="K64" s="35">
         <f>C64/E64</f>
-        <v>0.95949402456806121</v>
+        <v>0.91936430731844831</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -27906,16 +27904,16 @@
         <v>50</v>
       </c>
       <c r="B65" s="2">
-        <v>892104</v>
+        <v>576367</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2">
-        <v>1280914</v>
+        <v>847157</v>
       </c>
       <c r="E65" s="2"/>
       <c r="J65" s="35">
         <f t="shared" si="0"/>
-        <v>0.69645893479187515</v>
+        <v>0.68035440892302135</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -27923,16 +27921,16 @@
         <v>51</v>
       </c>
       <c r="B66" s="2">
-        <v>297778</v>
+        <v>210461</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2">
-        <v>269594</v>
+        <v>201502</v>
       </c>
       <c r="E66" s="2"/>
       <c r="J66" s="35">
         <f t="shared" si="0"/>
-        <v>1.1045423859581445</v>
+        <v>1.0444610971603259</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -27940,16 +27938,16 @@
         <v>52</v>
       </c>
       <c r="B67" s="2">
-        <v>464711</v>
+        <v>320476</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2">
-        <v>453958</v>
+        <v>330786</v>
       </c>
       <c r="E67" s="2"/>
       <c r="J67" s="35">
         <f t="shared" si="0"/>
-        <v>1.0236872133545394</v>
+        <v>0.96883181271275087</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -27957,16 +27955,16 @@
         <v>53</v>
       </c>
       <c r="B68" s="2">
-        <v>379978</v>
+        <v>269490</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2">
-        <v>370271</v>
+        <v>278364</v>
       </c>
       <c r="E68" s="2"/>
       <c r="J68" s="35">
         <f t="shared" si="0"/>
-        <v>1.0262159337350212</v>
+        <v>0.96812087769970256</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -27974,27 +27972,27 @@
         <v>54</v>
       </c>
       <c r="B69" s="2">
-        <v>307691</v>
+        <v>220088</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2">
-        <v>321925</v>
+        <v>242962</v>
       </c>
       <c r="E69" s="2"/>
       <c r="J69" s="35">
         <f t="shared" si="0"/>
-        <v>0.95578473246874274</v>
+        <v>0.90585359027337609</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="C70" s="2">
-        <v>2342262</v>
-      </c>
-      <c r="E70" s="2">
-        <v>2696662</v>
+      <c r="C70">
+        <v>1596882</v>
+      </c>
+      <c r="E70">
+        <v>1900771</v>
       </c>
       <c r="G70" s="2">
         <f>SUM(B65:B69) -C70</f>
@@ -28007,7 +28005,7 @@
       <c r="J70" s="35"/>
       <c r="K70" s="35">
         <f>C70/E70</f>
-        <v>0.86857826453593368</v>
+        <v>0.84012329733566016</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -28015,16 +28013,16 @@
         <v>55</v>
       </c>
       <c r="B71" s="2">
-        <v>650072</v>
+        <v>444933</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2">
-        <v>897202</v>
+        <v>632985</v>
       </c>
       <c r="E71" s="2"/>
       <c r="J71" s="35">
-        <f t="shared" ref="J70:J127" si="1">B71/D71</f>
-        <v>0.72455478253503669</v>
+        <f t="shared" ref="J71:J127" si="1">B71/D71</f>
+        <v>0.70291239128889316</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -28032,16 +28030,16 @@
         <v>56</v>
       </c>
       <c r="B72" s="2">
-        <v>423069</v>
+        <v>300200</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2">
-        <v>466954</v>
+        <v>344458</v>
       </c>
       <c r="E72" s="2"/>
       <c r="J72" s="35">
         <f t="shared" si="1"/>
-        <v>0.90601857998860702</v>
+        <v>0.87151408880037629</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -28049,16 +28047,16 @@
         <v>57</v>
       </c>
       <c r="B73" s="2">
-        <v>302855</v>
+        <v>220125</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2">
-        <v>356418</v>
+        <v>270267</v>
       </c>
       <c r="E73" s="2"/>
       <c r="J73" s="35">
         <f t="shared" si="1"/>
-        <v>0.84971858884792573</v>
+        <v>0.81447235511549687</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -28066,16 +28064,16 @@
         <v>58</v>
       </c>
       <c r="B74" s="2">
-        <v>311794</v>
+        <v>215734</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2">
-        <v>386438</v>
+        <v>278538</v>
       </c>
       <c r="E74" s="2"/>
       <c r="J74" s="35">
         <f t="shared" si="1"/>
-        <v>0.80684094214337099</v>
+        <v>0.77452268631210108</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -28083,27 +28081,27 @@
         <v>59</v>
       </c>
       <c r="B75" s="2">
-        <v>198154</v>
+        <v>142740</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2">
-        <v>210537</v>
+        <v>159314</v>
       </c>
       <c r="E75" s="2"/>
       <c r="J75" s="35">
         <f t="shared" si="1"/>
-        <v>0.94118373492545249</v>
+        <v>0.89596645618087556</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C76" s="2">
-        <v>1885944</v>
-      </c>
-      <c r="E76" s="2">
-        <v>2317549</v>
+      <c r="C76">
+        <v>1323732</v>
+      </c>
+      <c r="E76">
+        <v>1685562</v>
       </c>
       <c r="G76" s="2">
         <f>SUM(B71:B75) -C76</f>
@@ -28116,7 +28114,7 @@
       <c r="J76" s="35"/>
       <c r="K76" s="35">
         <f>C76/E76</f>
-        <v>0.81376661291735364</v>
+        <v>0.78533569219049792</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -28124,95 +28122,95 @@
         <v>60</v>
       </c>
       <c r="B77" s="2">
-        <v>773290</v>
+        <v>493344</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2">
-        <v>1147212</v>
+        <v>758428</v>
       </c>
       <c r="E77" s="2"/>
       <c r="J77" s="35">
         <f t="shared" si="1"/>
-        <v>0.67406024344236293</v>
+        <v>0.65048231341669871</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="62">
+      <c r="A78" s="60">
         <v>61</v>
       </c>
       <c r="B78" s="2">
-        <v>187892</v>
+        <v>133193</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2">
-        <v>179801</v>
+        <v>134150</v>
       </c>
       <c r="E78" s="2"/>
       <c r="J78" s="35">
         <f t="shared" si="1"/>
-        <v>1.0449997497233052</v>
+        <v>0.99286619455833025</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="62">
+      <c r="A79" s="60">
         <v>62</v>
       </c>
       <c r="B79" s="2">
-        <v>294349</v>
+        <v>204629</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2">
-        <v>311114</v>
+        <v>228324</v>
       </c>
       <c r="E79" s="2"/>
       <c r="J79" s="35">
         <f t="shared" si="1"/>
-        <v>0.94611300037928214</v>
+        <v>0.89622203535326994</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="62">
+      <c r="A80" s="60">
         <v>63</v>
       </c>
       <c r="B80" s="2">
-        <v>264037</v>
+        <v>184557</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2">
-        <v>279402</v>
+        <v>207934</v>
       </c>
       <c r="E80" s="2"/>
       <c r="J80" s="35">
         <f t="shared" si="1"/>
-        <v>0.94500755184286445</v>
+        <v>0.88757490357517288</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="62">
+      <c r="A81" s="60">
         <v>64</v>
       </c>
       <c r="B81" s="2">
-        <v>188504</v>
+        <v>131257</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2">
-        <v>208059</v>
+        <v>155294</v>
       </c>
       <c r="E81" s="2"/>
       <c r="J81" s="35">
         <f t="shared" si="1"/>
-        <v>0.9060122369135678</v>
+        <v>0.84521617061831111</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="62" t="s">
+      <c r="A82" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="C82" s="2">
-        <v>1708072</v>
-      </c>
-      <c r="E82" s="2">
-        <v>2125588</v>
+      <c r="C82">
+        <v>1146980</v>
+      </c>
+      <c r="E82">
+        <v>1484130</v>
       </c>
       <c r="G82" s="2">
         <f>SUM(B77:B81) -C82</f>
@@ -28225,103 +28223,103 @@
       <c r="J82" s="35"/>
       <c r="K82" s="35">
         <f>C82/E82</f>
-        <v>0.80357623396443711</v>
+        <v>0.77282987339384013</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="62">
+      <c r="A83" s="60">
         <v>65</v>
       </c>
       <c r="B83" s="2">
-        <v>454689</v>
+        <v>308137</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2">
-        <v>637917</v>
+        <v>451766</v>
       </c>
       <c r="E83" s="2"/>
       <c r="J83" s="35">
         <f t="shared" si="1"/>
-        <v>0.71277141070076511</v>
+        <v>0.68207213468919747</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="62">
+      <c r="A84" s="60">
         <v>66</v>
       </c>
       <c r="B84" s="2">
-        <v>221405</v>
+        <v>156232</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2">
-        <v>221269</v>
+        <v>166718</v>
       </c>
       <c r="E84" s="2"/>
       <c r="J84" s="35">
         <f t="shared" si="1"/>
-        <v>1.0006146364831947</v>
+        <v>0.93710337216137429</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="62">
+      <c r="A85" s="60">
         <v>67</v>
       </c>
       <c r="B85" s="2">
-        <v>224706</v>
+        <v>163694</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2">
-        <v>250118</v>
+        <v>193083</v>
       </c>
       <c r="E85" s="2"/>
       <c r="J85" s="35">
         <f t="shared" si="1"/>
-        <v>0.89839995522113558</v>
+        <v>0.84779084642355873</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="62">
+      <c r="A86" s="60">
         <v>68</v>
       </c>
       <c r="B86" s="2">
-        <v>165326</v>
+        <v>114542</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2">
-        <v>196263</v>
+        <v>144787</v>
       </c>
       <c r="E86" s="2"/>
       <c r="J86" s="35">
         <f t="shared" si="1"/>
-        <v>0.84236967742264202</v>
+        <v>0.79110693639622343</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="62">
+      <c r="A87" s="60">
         <v>69</v>
       </c>
       <c r="B87" s="2">
-        <v>90648</v>
+        <v>66126</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2">
-        <v>100963</v>
+        <v>78802</v>
       </c>
       <c r="E87" s="2"/>
       <c r="J87" s="35">
         <f t="shared" si="1"/>
-        <v>0.89783385992888487</v>
+        <v>0.83914113854978301</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="62" t="s">
+      <c r="A88" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="C88" s="2">
-        <v>1156774</v>
-      </c>
-      <c r="E88" s="2">
-        <v>1406530</v>
+      <c r="C88">
+        <v>808731</v>
+      </c>
+      <c r="E88">
+        <v>1035156</v>
       </c>
       <c r="G88" s="2">
         <f>SUM(B83:B87) -C88</f>
@@ -28334,103 +28332,103 @@
       <c r="J88" s="35"/>
       <c r="K88" s="35">
         <f>C88/E88</f>
-        <v>0.82243108927644626</v>
+        <v>0.78126485283377578</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="62">
+      <c r="A89" s="60">
         <v>70</v>
       </c>
       <c r="B89" s="2">
-        <v>378263</v>
+        <v>245238</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2">
-        <v>624819</v>
+        <v>436111</v>
       </c>
       <c r="E89" s="2"/>
       <c r="J89" s="35">
         <f t="shared" si="1"/>
-        <v>0.60539612271713883</v>
+        <v>0.56232931524313767</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="62">
+      <c r="A90" s="60">
         <v>71</v>
       </c>
       <c r="B90" s="2">
-        <v>69826</v>
+        <v>50418</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2">
-        <v>70081</v>
+        <v>54017</v>
       </c>
       <c r="E90" s="2"/>
       <c r="J90" s="35">
         <f t="shared" si="1"/>
-        <v>0.99636135329119158</v>
+        <v>0.93337282707295854</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="62">
+      <c r="A91" s="60">
         <v>72</v>
       </c>
       <c r="B91" s="2">
-        <v>116632</v>
+        <v>81449</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2">
-        <v>123842</v>
+        <v>94027</v>
       </c>
       <c r="E91" s="2"/>
       <c r="J91" s="35">
         <f t="shared" si="1"/>
-        <v>0.94178065599715766</v>
+        <v>0.86622991268465444</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="62">
+      <c r="A92" s="60">
         <v>73</v>
       </c>
       <c r="B92" s="2">
-        <v>93251</v>
+        <v>66994</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2">
-        <v>95965</v>
+        <v>74521</v>
       </c>
       <c r="E92" s="2"/>
       <c r="J92" s="35">
         <f t="shared" si="1"/>
-        <v>0.97171885583285578</v>
+        <v>0.89899491418526323</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="62">
+      <c r="A93" s="60">
         <v>74</v>
       </c>
       <c r="B93" s="2">
-        <v>63306</v>
+        <v>45616</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2">
-        <v>65603</v>
+        <v>51227</v>
       </c>
       <c r="E93" s="2"/>
       <c r="J93" s="35">
         <f t="shared" si="1"/>
-        <v>0.96498635733121962</v>
+        <v>0.89046791730923147</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="62" t="s">
+      <c r="A94" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="C94" s="2">
-        <v>721278</v>
-      </c>
-      <c r="E94" s="2">
-        <v>980310</v>
+      <c r="C94">
+        <v>489715</v>
+      </c>
+      <c r="E94">
+        <v>709903</v>
       </c>
       <c r="G94" s="2">
         <f>SUM(B89:B93) -C94</f>
@@ -28443,7 +28441,7 @@
       <c r="J94" s="35"/>
       <c r="K94" s="35">
         <f>C94/E94</f>
-        <v>0.73576521712519505</v>
+        <v>0.68983368150296587</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -28451,16 +28449,16 @@
         <v>75</v>
       </c>
       <c r="B95" s="2">
-        <v>176361</v>
+        <v>116906</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2">
-        <v>247671</v>
+        <v>177010</v>
       </c>
       <c r="E95" s="2"/>
       <c r="J95" s="35">
         <f t="shared" si="1"/>
-        <v>0.71207771600227721</v>
+        <v>0.66044856222812276</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -28468,16 +28466,16 @@
         <v>76</v>
       </c>
       <c r="B96" s="2">
-        <v>63790</v>
+        <v>44624</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2">
-        <v>68903</v>
+        <v>52140</v>
       </c>
       <c r="E96" s="2"/>
       <c r="J96" s="35">
         <f t="shared" si="1"/>
-        <v>0.92579423247173565</v>
+        <v>0.85584963559647109</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -28485,16 +28483,16 @@
         <v>77</v>
       </c>
       <c r="B97" s="2">
-        <v>48423</v>
+        <v>35318</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2">
-        <v>53002</v>
+        <v>41595</v>
       </c>
       <c r="E97" s="2"/>
       <c r="J97" s="35">
         <f t="shared" si="1"/>
-        <v>0.9136070336968416</v>
+        <v>0.84909243899507147</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -28502,16 +28500,16 @@
         <v>78</v>
       </c>
       <c r="B98" s="2">
-        <v>56858</v>
+        <v>39584</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2">
-        <v>66311</v>
+        <v>50187</v>
       </c>
       <c r="E98" s="2"/>
       <c r="J98" s="35">
         <f t="shared" si="1"/>
-        <v>0.85744446622732273</v>
+        <v>0.78873014924183549</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -28519,27 +28517,27 @@
         <v>79</v>
       </c>
       <c r="B99" s="2">
-        <v>22902</v>
+        <v>16790</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2">
-        <v>26757</v>
+        <v>21368</v>
       </c>
       <c r="E99" s="2"/>
       <c r="J99" s="35">
         <f t="shared" si="1"/>
-        <v>0.85592555219194977</v>
+        <v>0.78575439910146017</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C100" s="2">
-        <v>368334</v>
-      </c>
-      <c r="E100" s="2">
-        <v>462644</v>
+      <c r="C100">
+        <v>253222</v>
+      </c>
+      <c r="E100">
+        <v>342300</v>
       </c>
       <c r="G100" s="2">
         <f>SUM(B95:B99) -C100</f>
@@ -28552,7 +28550,7 @@
       <c r="J100" s="35"/>
       <c r="K100" s="35">
         <f>C100/E100</f>
-        <v>0.7961499554733229</v>
+        <v>0.73976628688285129</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -28560,16 +28558,16 @@
         <v>80</v>
       </c>
       <c r="B101" s="2">
-        <v>139880</v>
+        <v>86748</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2">
-        <v>228579</v>
+        <v>154563</v>
       </c>
       <c r="E101" s="2"/>
       <c r="J101" s="35">
         <f t="shared" si="1"/>
-        <v>0.6119547289996019</v>
+        <v>0.56124687020826458</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -28577,16 +28575,16 @@
         <v>81</v>
       </c>
       <c r="B102" s="2">
-        <v>15490</v>
+        <v>11187</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2">
-        <v>17500</v>
+        <v>13294</v>
       </c>
       <c r="E102" s="2"/>
       <c r="J102" s="35">
         <f t="shared" si="1"/>
-        <v>0.88514285714285712</v>
+        <v>0.84150744696855728</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -28594,16 +28592,16 @@
         <v>82</v>
       </c>
       <c r="B103" s="2">
-        <v>23690</v>
+        <v>16441</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2">
-        <v>25626</v>
+        <v>19369</v>
       </c>
       <c r="E103" s="2"/>
       <c r="J103" s="35">
         <f t="shared" si="1"/>
-        <v>0.92445172871302583</v>
+        <v>0.8488306056068976</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -28611,16 +28609,16 @@
         <v>83</v>
       </c>
       <c r="B104" s="2">
-        <v>16927</v>
+        <v>11984</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2">
-        <v>18197</v>
+        <v>14023</v>
       </c>
       <c r="E104" s="2"/>
       <c r="J104" s="35">
         <f t="shared" si="1"/>
-        <v>0.93020827608946532</v>
+        <v>0.85459602082293373</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -28628,27 +28626,27 @@
         <v>84</v>
       </c>
       <c r="B105" s="2">
-        <v>13392</v>
+        <v>9236</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2">
-        <v>14468</v>
+        <v>10939</v>
       </c>
       <c r="E105" s="2"/>
       <c r="J105" s="35">
         <f t="shared" si="1"/>
-        <v>0.92562897428808399</v>
+        <v>0.84431849346375354</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C106" s="2">
-        <v>209379</v>
-      </c>
-      <c r="E106" s="2">
-        <v>304370</v>
+      <c r="C106">
+        <v>135596</v>
+      </c>
+      <c r="E106">
+        <v>212188</v>
       </c>
       <c r="G106" s="2">
         <f>SUM(B101:B105) -C106</f>
@@ -28661,7 +28659,7 @@
       <c r="J106" s="35"/>
       <c r="K106" s="35">
         <f>C106/E106</f>
-        <v>0.6879094523113316</v>
+        <v>0.63903708032499484</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -28669,95 +28667,95 @@
         <v>85</v>
       </c>
       <c r="B107" s="2">
-        <v>44063</v>
+        <v>28888</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2">
-        <v>60286</v>
+        <v>43000</v>
       </c>
       <c r="E107" s="2"/>
       <c r="J107" s="35">
         <f t="shared" si="1"/>
-        <v>0.73089937962379325</v>
+        <v>0.67181395348837214</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="62">
+      <c r="A108" s="60">
         <v>86</v>
       </c>
       <c r="B108" s="2">
-        <v>13491</v>
+        <v>9018</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2">
-        <v>13356</v>
+        <v>9836</v>
       </c>
       <c r="E108" s="2"/>
       <c r="J108" s="35">
         <f t="shared" si="1"/>
-        <v>1.0101078167115902</v>
+        <v>0.91683611224074824</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="62">
+      <c r="A109" s="60">
         <v>87</v>
       </c>
       <c r="B109" s="2">
-        <v>10893</v>
+        <v>7450</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2">
-        <v>12219</v>
+        <v>9136</v>
       </c>
       <c r="E109" s="2"/>
       <c r="J109" s="35">
         <f t="shared" si="1"/>
-        <v>0.89148048121777557</v>
+        <v>0.81545534150612964</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="62">
+      <c r="A110" s="60">
         <v>88</v>
       </c>
       <c r="B110" s="2">
-        <v>9464</v>
+        <v>6371</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2">
-        <v>10391</v>
+        <v>7626</v>
       </c>
       <c r="E110" s="2"/>
       <c r="J110" s="35">
         <f t="shared" si="1"/>
-        <v>0.91078818208064671</v>
+        <v>0.83543141883031735</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="62">
+      <c r="A111" s="60">
         <v>89</v>
       </c>
       <c r="B111" s="2">
-        <v>5314</v>
+        <v>3686</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2">
-        <v>6396</v>
+        <v>4769</v>
       </c>
       <c r="E111" s="2"/>
       <c r="J111" s="35">
         <f t="shared" si="1"/>
-        <v>0.83083176985616014</v>
+        <v>0.77290836653386452</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="62" t="s">
+      <c r="A112" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="C112" s="2">
-        <v>83225</v>
-      </c>
-      <c r="E112" s="2">
-        <v>102648</v>
+      <c r="C112">
+        <v>55413</v>
+      </c>
+      <c r="E112">
+        <v>74367</v>
       </c>
       <c r="G112" s="2">
         <f>SUM(B107:B111) -C112</f>
@@ -28770,103 +28768,103 @@
       <c r="J112" s="35"/>
       <c r="K112" s="35">
         <f>C112/E112</f>
-        <v>0.81078053152521234</v>
+        <v>0.7451288878131429</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="62">
+      <c r="A113" s="60">
         <v>90</v>
       </c>
       <c r="B113" s="2">
-        <v>31657</v>
+        <v>18301</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2">
-        <v>50144</v>
+        <v>32846</v>
       </c>
       <c r="E113" s="2"/>
       <c r="J113" s="35">
         <f t="shared" si="1"/>
-        <v>0.63132179323548177</v>
+        <v>0.55717591183096882</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="62">
+      <c r="A114" s="60">
         <v>91</v>
       </c>
       <c r="B114" s="2">
-        <v>2252</v>
+        <v>1496</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2">
-        <v>2874</v>
+        <v>2099</v>
       </c>
       <c r="E114" s="2"/>
       <c r="J114" s="35">
         <f t="shared" si="1"/>
-        <v>0.78357689631176064</v>
+        <v>0.71272034302048592</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="62">
+      <c r="A115" s="60">
         <v>92</v>
       </c>
       <c r="B115" s="2">
-        <v>3179</v>
+        <v>2024</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2">
-        <v>3820</v>
+        <v>2715</v>
       </c>
       <c r="E115" s="2"/>
       <c r="J115" s="35">
         <f t="shared" si="1"/>
-        <v>0.83219895287958112</v>
+        <v>0.74548802946593007</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="62">
+      <c r="A116" s="60">
         <v>93</v>
       </c>
       <c r="B116" s="2">
-        <v>2497</v>
+        <v>1608</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2">
-        <v>2939</v>
+        <v>2116</v>
       </c>
       <c r="E116" s="2"/>
       <c r="J116" s="35">
         <f t="shared" si="1"/>
-        <v>0.84960871044572983</v>
+        <v>0.75992438563327036</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="62">
+      <c r="A117" s="60">
         <v>94</v>
       </c>
       <c r="B117" s="2">
-        <v>1812</v>
+        <v>1139</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2">
-        <v>1863</v>
+        <v>1328</v>
       </c>
       <c r="E117" s="2"/>
       <c r="J117" s="35">
         <f t="shared" si="1"/>
-        <v>0.97262479871175522</v>
+        <v>0.85768072289156627</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="62" t="s">
+      <c r="A118" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="C118" s="2">
-        <v>41397</v>
-      </c>
-      <c r="E118" s="2">
-        <v>61640</v>
+      <c r="C118">
+        <v>24568</v>
+      </c>
+      <c r="E118">
+        <v>41104</v>
       </c>
       <c r="G118" s="2">
         <f>SUM(B113:B117) -C118</f>
@@ -28879,103 +28877,103 @@
       <c r="J118" s="35"/>
       <c r="K118" s="35">
         <f>C118/E118</f>
-        <v>0.67159312134977289</v>
+        <v>0.59770338653172439</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="62">
+      <c r="A119" s="60">
         <v>95</v>
       </c>
       <c r="B119" s="2">
-        <v>7496</v>
+        <v>4251</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2">
-        <v>10118</v>
+        <v>6603</v>
       </c>
       <c r="E119" s="2"/>
       <c r="J119" s="35">
         <f t="shared" si="1"/>
-        <v>0.74085787705080053</v>
+        <v>0.64379827351204</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="62">
+      <c r="A120" s="60">
         <v>96</v>
       </c>
       <c r="B120" s="2">
-        <v>2859</v>
+        <v>1749</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2">
-        <v>3030</v>
+        <v>2058</v>
       </c>
       <c r="E120" s="2"/>
       <c r="J120" s="35">
         <f t="shared" si="1"/>
-        <v>0.94356435643564351</v>
+        <v>0.84985422740524785</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="62">
+      <c r="A121" s="60">
         <v>97</v>
       </c>
       <c r="B121" s="2">
-        <v>2100</v>
+        <v>1285</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2">
-        <v>2380</v>
+        <v>1673</v>
       </c>
       <c r="E121" s="2"/>
       <c r="J121" s="35">
         <f t="shared" si="1"/>
-        <v>0.88235294117647056</v>
+        <v>0.76808129109384338</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="62">
+      <c r="A122" s="60">
         <v>98</v>
       </c>
       <c r="B122" s="2">
-        <v>2342</v>
+        <v>1389</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2">
-        <v>2930</v>
+        <v>1970</v>
       </c>
       <c r="E122" s="2"/>
       <c r="J122" s="35">
         <f t="shared" si="1"/>
-        <v>0.79931740614334468</v>
+        <v>0.70507614213197967</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="62">
+      <c r="A123" s="60">
         <v>99</v>
       </c>
       <c r="B123" s="2">
-        <v>1176</v>
+        <v>771</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2">
-        <v>1584</v>
+        <v>1157</v>
       </c>
       <c r="E123" s="2"/>
       <c r="J123" s="35">
         <f t="shared" si="1"/>
-        <v>0.74242424242424243</v>
+        <v>0.66637856525496975</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="62" t="s">
+      <c r="A124" s="60" t="s">
         <v>44</v>
       </c>
       <c r="C124" s="2">
-        <v>15973</v>
-      </c>
-      <c r="E124" s="2">
-        <v>20042</v>
+        <v>9445</v>
+      </c>
+      <c r="E124">
+        <v>13461</v>
       </c>
       <c r="G124" s="2">
         <f>SUM(B119:B123) -C124</f>
@@ -28988,7 +28986,7 @@
       <c r="J124" s="35"/>
       <c r="K124" s="35">
         <f>C124/E124</f>
-        <v>0.79697634966570208</v>
+        <v>0.70165663769407915</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -28996,24 +28994,24 @@
         <v>10</v>
       </c>
       <c r="B125" s="2">
-        <v>12349</v>
+        <v>5980</v>
       </c>
       <c r="C125" s="2">
-        <v>12349</v>
+        <v>5980</v>
       </c>
       <c r="D125" s="2">
-        <v>17158</v>
+        <v>9671</v>
       </c>
       <c r="E125" s="2">
-        <v>17158</v>
+        <v>9671</v>
       </c>
       <c r="J125" s="35">
         <f t="shared" si="1"/>
-        <v>0.7197225783890896</v>
+        <v>0.61834350118912207</v>
       </c>
       <c r="K125" s="35">
         <f>B125/D125</f>
-        <v>0.7197225783890896</v>
+        <v>0.61834350118912207</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -29021,24 +29019,24 @@
         <v>11</v>
       </c>
       <c r="B126" s="2">
-        <v>51213</v>
+        <v>32540</v>
       </c>
       <c r="C126" s="2">
-        <v>51213</v>
+        <v>32540</v>
       </c>
       <c r="D126" s="2">
-        <v>17158</v>
+        <v>25267</v>
       </c>
       <c r="E126" s="2">
-        <v>17158</v>
+        <v>25267</v>
       </c>
       <c r="J126" s="35">
         <f t="shared" si="1"/>
-        <v>2.9847884368807551</v>
+        <v>1.2878458067835516</v>
       </c>
       <c r="K126" s="35">
         <f>B126/D126</f>
-        <v>2.9847884368807551</v>
+        <v>1.2878458067835516</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -29046,24 +29044,24 @@
         <v>7</v>
       </c>
       <c r="B127" s="2">
-        <v>71011475</v>
+        <v>48137942</v>
       </c>
       <c r="C127" s="2">
-        <v>71011475</v>
+        <v>48137942</v>
       </c>
       <c r="D127" s="2">
-        <v>75954451</v>
+        <v>52689753</v>
       </c>
       <c r="E127" s="2">
-        <v>75954451</v>
+        <v>52689753</v>
       </c>
       <c r="J127" s="35">
         <f t="shared" si="1"/>
-        <v>0.93492183887946212</v>
+        <v>0.91361107728100377</v>
       </c>
       <c r="K127" s="35">
         <f>B127/D127</f>
-        <v>0.93492183887946212</v>
+        <v>0.91361107728100377</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -29080,11 +29078,11 @@
       </c>
       <c r="D129" s="2">
         <f>SUM(D5:D126) -D127</f>
-        <v>-21802</v>
+        <v>0</v>
       </c>
       <c r="E129" s="2">
         <f>SUM(E5:E126) -E127</f>
-        <v>-21802</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/auxiliary/census-1920.xlsx
+++ b/auxiliary/census-1920.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\auxiliary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08151269-A366-4167-9754-C135BB6AA140}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B46E84-6702-446C-A108-3A39BFE3A8D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16635" yWindow="405" windowWidth="27060" windowHeight="23295" activeTab="8" xr2:uid="{0ED4691F-BE7B-497E-88B1-9CCACC27BAC8}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" activeTab="7" xr2:uid="{0ED4691F-BE7B-497E-88B1-9CCACC27BAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="заглавие" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="всего" sheetId="5" r:id="rId5"/>
     <sheet name="chart-5" sheetId="6" r:id="rId6"/>
     <sheet name="chart-1" sheetId="7" r:id="rId7"/>
-    <sheet name="интерполяция РККА" sheetId="8" r:id="rId8"/>
+    <sheet name="деаггрегация РККА" sheetId="8" r:id="rId8"/>
     <sheet name="1926-РСФСР" sheetId="9" r:id="rId9"/>
     <sheet name="1926-СССР" sheetId="10" r:id="rId10"/>
   </sheets>
@@ -321,9 +321,6 @@
     <t>Кривая строится двумя программами.</t>
   </si>
   <si>
-    <t>На первом шаге строится сплайн сохраняющий значения средних.</t>
-  </si>
-  <si>
     <t>Эта программа расположена в auxiliary/census-1920-rkka/1-fortran.</t>
   </si>
   <si>
@@ -333,22 +330,13 @@
     <t>Кривая построенная с помощью сплайнов имеет перехлёсты и и местами уходит в отрицательные значения.</t>
   </si>
   <si>
-    <t>Вторым шагом она сглаживатеся для устранения этих дефектов таким образом, чтобы средние значения для диапазонов корзин сохранялись.</t>
-  </si>
-  <si>
     <t>Эта вторая программа расположена в auxiliary/census-1920-rkka/2-java.</t>
-  </si>
-  <si>
-    <t>Итоговые результаты интерполяции:</t>
   </si>
   <si>
     <t>корзина</t>
   </si>
   <si>
     <t>интерполяция</t>
-  </si>
-  <si>
-    <t>См. реконструкцию на странице "интерполяция РККА".</t>
   </si>
   <si>
     <t>Результат:</t>
@@ -386,6 +374,18 @@
   </si>
   <si>
     <t>ЦСУ СССР, "Всесоюзная перепись населения 17 декабря 1926 г.", вып. 7 (возраст и грамотность населения СССР), стр. 8-13</t>
+  </si>
+  <si>
+    <t>См. реконструкцию на странице "деаггрегация РККА".</t>
+  </si>
+  <si>
+    <t>На первом шаге строится сплайн сохраняющий средние значения для агреггированных (корзинных) участков.</t>
+  </si>
+  <si>
+    <t>Вторым шагом кривая сглаживатеся для устранения этих дефектов таким образом, чтобы средние значения для диапазонов корзин по-прежнему сохранялись.</t>
+  </si>
+  <si>
+    <t>Итоговые результаты деаггрегации:</t>
   </si>
 </sst>
 </file>
@@ -3558,7 +3558,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'интерполяция РККА'!$B$35</c:f>
+              <c:f>'деаггрегация РККА'!$B$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3581,7 +3581,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'интерполяция РККА'!$A$36:$A$90</c:f>
+              <c:f>'деаггрегация РККА'!$A$36:$A$90</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="55"/>
@@ -3755,7 +3755,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'интерполяция РККА'!$B$36:$B$90</c:f>
+              <c:f>'деаггрегация РККА'!$B$36:$B$90</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="55"/>
@@ -3939,7 +3939,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'интерполяция РККА'!$C$35</c:f>
+              <c:f>'деаггрегация РККА'!$C$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3962,7 +3962,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'интерполяция РККА'!$A$36:$A$90</c:f>
+              <c:f>'деаггрегация РККА'!$A$36:$A$90</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="55"/>
@@ -4136,7 +4136,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'интерполяция РККА'!$C$36:$C$90</c:f>
+              <c:f>'деаггрегация РККА'!$C$36:$C$90</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="55"/>
@@ -6826,12 +6826,12 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -6839,11 +6839,11 @@
         <v>6</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C4" s="64"/>
       <c r="D4" s="64" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E4" s="64"/>
       <c r="G4" s="62" t="s">
@@ -6851,7 +6851,7 @@
       </c>
       <c r="H4" s="62"/>
       <c r="J4" s="64" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K4" s="64"/>
     </row>
@@ -15840,8 +15840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2944B57D-BD82-4FD4-9A4F-956597CB1191}">
   <dimension ref="A1:AE210"/>
   <sheetViews>
-    <sheetView topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146:B200"/>
+    <sheetView topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="A142" sqref="A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17584,13 +17584,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="45" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B142" s="2"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="45" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B143" s="2"/>
     </row>
@@ -17603,10 +17603,10 @@
         <v>6</v>
       </c>
       <c r="B145" s="47" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C145" s="55" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E145" t="s">
         <v>12</v>
@@ -18354,17 +18354,17 @@
       <c r="T3" s="62"/>
       <c r="U3" s="62"/>
       <c r="W3" s="62" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="X3" s="62"/>
       <c r="Y3" s="62"/>
       <c r="AA3" s="62" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AB3" s="62"/>
       <c r="AC3" s="62"/>
       <c r="AE3" s="62" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AF3" s="62"/>
       <c r="AG3" s="62"/>
@@ -25871,8 +25871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6CC946-8C8A-4206-96C6-A57541C1CBC0}">
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="AI45" sqref="AI45"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="AH47" sqref="AH47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26107,37 +26107,37 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -26145,10 +26145,10 @@
         <v>6</v>
       </c>
       <c r="B35" s="38" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -26766,7 +26766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61EC4F09-582D-4B66-98A6-3131151E842E}">
   <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
@@ -26781,12 +26781,12 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -26794,11 +26794,11 @@
         <v>6</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C4" s="64"/>
       <c r="D4" s="64" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E4" s="64"/>
       <c r="G4" s="62" t="s">
@@ -26806,7 +26806,7 @@
       </c>
       <c r="H4" s="62"/>
       <c r="J4" s="64" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K4" s="64"/>
     </row>

--- a/auxiliary/census-1920.xlsx
+++ b/auxiliary/census-1920.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\auxiliary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B46E84-6702-446C-A108-3A39BFE3A8D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69516448-78BB-4297-AFAC-E16E840028C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" activeTab="7" xr2:uid="{0ED4691F-BE7B-497E-88B1-9CCACC27BAC8}"/>
+    <workbookView xWindow="16440" yWindow="285" windowWidth="20325" windowHeight="23295" activeTab="7" xr2:uid="{0ED4691F-BE7B-497E-88B1-9CCACC27BAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="заглавие" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="116">
   <si>
     <t>Перепись населения РСФСР 28 августа 1920 года</t>
   </si>
@@ -386,6 +386,12 @@
   </si>
   <si>
     <t>Итоговые результаты деаггрегации:</t>
+  </si>
+  <si>
+    <t>Мы могли бы также воспользоваться одним из методов описанных в</t>
+  </si>
+  <si>
+    <t>https://timriffe.github.io/DemoTools/articles/graduation_with_demotools.html</t>
   </si>
 </sst>
 </file>
@@ -25869,10 +25875,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6CC946-8C8A-4206-96C6-A57541C1CBC0}">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="AH47" sqref="AH47"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26754,6 +26760,16 @@
       </c>
       <c r="C90" s="54">
         <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
